--- a/Jogos_da_Semana_FlashScore_2024-10-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD18"/>
+  <dimension ref="A1:BD16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H3" t="n">
         <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K3" t="n">
         <v>2.38</v>
       </c>
       <c r="L3" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
@@ -980,7 +980,7 @@
         <v>13</v>
       </c>
       <c r="X3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>19</v>
       </c>
       <c r="AB3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC3" t="n">
         <v>15</v>
@@ -1013,7 +1013,7 @@
         <v>13</v>
       </c>
       <c r="AI3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ3" t="n">
         <v>10</v>
@@ -1025,10 +1025,10 @@
         <v>19</v>
       </c>
       <c r="AM3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO3" t="n">
         <v>13</v>
@@ -1058,7 +1058,7 @@
         <v>351</v>
       </c>
       <c r="AX3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AY3" t="n">
         <v>13</v>
@@ -1311,10 +1311,10 @@
         <v>3.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
         <v>1.44</v>
@@ -1857,22 +1857,22 @@
         <v>3.4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O8" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R8" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S8" t="n">
         <v>1.4</v>
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="H9" t="n">
         <v>4.1</v>
@@ -2039,10 +2039,10 @@
         <v>2.1</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O9" t="n">
         <v>1.25</v>
@@ -2051,10 +2051,10 @@
         <v>3.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R9" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S9" t="n">
         <v>1.36</v>
@@ -2072,7 +2072,7 @@
         <v>15</v>
       </c>
       <c r="X9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y9" t="n">
         <v>19</v>
@@ -2084,7 +2084,7 @@
         <v>41</v>
       </c>
       <c r="AB9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC9" t="n">
         <v>11</v>
@@ -2099,7 +2099,7 @@
         <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH9" t="n">
         <v>7</v>
@@ -2117,25 +2117,25 @@
         <v>13</v>
       </c>
       <c r="AM9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN9" t="n">
         <v>7.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ9" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AR9" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AS9" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT9" t="n">
         <v>3</v>
@@ -2153,7 +2153,7 @@
         <v>3.5</v>
       </c>
       <c r="AY9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AZ9" t="n">
         <v>19</v>
@@ -2209,10 +2209,10 @@
         <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J10" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K10" t="n">
         <v>2.1</v>
@@ -2245,10 +2245,10 @@
         <v>2.63</v>
       </c>
       <c r="U10" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V10" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W10" t="n">
         <v>6.5</v>
@@ -2263,13 +2263,13 @@
         <v>15</v>
       </c>
       <c r="AA10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB10" t="n">
         <v>29</v>
       </c>
       <c r="AC10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD10" t="n">
         <v>6.5</v>
@@ -2281,7 +2281,7 @@
         <v>51</v>
       </c>
       <c r="AG10" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH10" t="n">
         <v>11</v>
@@ -2308,7 +2308,7 @@
         <v>10</v>
       </c>
       <c r="AP10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ10" t="n">
         <v>34</v>
@@ -3143,10 +3143,10 @@
         <v>3.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R15" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S15" t="n">
         <v>1.4</v>
@@ -3443,370 +3443,6 @@
       </c>
       <c r="BD16" t="n">
         <v>176</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>6wV1Jyx6</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>26/10/2024</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>23:00</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>USA - USL CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Orange County SC</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Hartford Athletic</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="H17" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N17" t="n">
-        <v>8</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V17" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X17" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>400</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>18</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>37</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>65</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>80</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>110</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>300</v>
-      </c>
-      <c r="BD17" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>OC0w0myo</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>26/10/2024</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>23:00</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>USA - USL CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Sacramento Republic</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Colorado Springs</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="H18" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="I18" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="L18" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N18" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="V18" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="W18" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="X18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>450</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>25</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>37</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>40</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>30</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>60</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>28</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>120</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>150</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>350</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-10-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-27.xlsx
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>2.6</v>
+        <v>2.38</v>
       </c>
       <c r="J3" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K3" t="n">
         <v>2.38</v>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
@@ -983,13 +983,13 @@
         <v>17</v>
       </c>
       <c r="Y3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB3" t="n">
         <v>23</v>
@@ -1004,25 +1004,25 @@
         <v>11</v>
       </c>
       <c r="AF3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG3" t="n">
         <v>101</v>
       </c>
       <c r="AH3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI3" t="n">
         <v>15</v>
       </c>
       <c r="AJ3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM3" t="n">
         <v>21</v>
@@ -1031,7 +1031,7 @@
         <v>5</v>
       </c>
       <c r="AO3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP3" t="n">
         <v>19</v>
@@ -1061,7 +1061,7 @@
         <v>4.75</v>
       </c>
       <c r="AY3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ3" t="n">
         <v>19</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="H5" t="n">
         <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="J5" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="K5" t="n">
         <v>1.95</v>
       </c>
       <c r="L5" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="M5" t="n">
         <v>1.1</v>
@@ -1317,10 +1317,10 @@
         <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P5" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q5" t="n">
         <v>2.5</v>
@@ -1329,10 +1329,10 @@
         <v>1.5</v>
       </c>
       <c r="S5" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T5" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U5" t="n">
         <v>2.1</v>
@@ -1341,19 +1341,19 @@
         <v>1.67</v>
       </c>
       <c r="W5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X5" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z5" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AA5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB5" t="n">
         <v>41</v>
@@ -1365,7 +1365,7 @@
         <v>6</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="n">
         <v>67</v>
@@ -1374,28 +1374,28 @@
         <v>351</v>
       </c>
       <c r="AH5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>13</v>
       </c>
-      <c r="AJ5" t="n">
-        <v>12</v>
-      </c>
       <c r="AK5" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AL5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM5" t="n">
         <v>41</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP5" t="n">
         <v>29</v>
@@ -1410,7 +1410,7 @@
         <v>251</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU5" t="n">
         <v>9</v>
@@ -1422,22 +1422,22 @@
         <v>51</v>
       </c>
       <c r="AX5" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AY5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ5" t="n">
         <v>34</v>
       </c>
       <c r="BA5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB5" t="n">
         <v>101</v>
       </c>
       <c r="BC5" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD5" t="n">
         <v>51</v>
@@ -1475,28 +1475,28 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="H6" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="J6" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="K6" t="n">
         <v>1.95</v>
       </c>
       <c r="L6" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O6" t="n">
         <v>1.44</v>
@@ -1505,10 +1505,10 @@
         <v>2.63</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R6" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S6" t="n">
         <v>1.53</v>
@@ -1517,34 +1517,34 @@
         <v>2.38</v>
       </c>
       <c r="U6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V6" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z6" t="n">
         <v>41</v>
       </c>
       <c r="AA6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB6" t="n">
         <v>41</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>51</v>
       </c>
       <c r="AC6" t="n">
         <v>7</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE6" t="n">
         <v>19</v>
@@ -1556,31 +1556,31 @@
         <v>201</v>
       </c>
       <c r="AH6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AI6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ6" t="n">
         <v>9.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM6" t="n">
         <v>41</v>
       </c>
       <c r="AN6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ6" t="n">
         <v>81</v>
@@ -1589,7 +1589,7 @@
         <v>126</v>
       </c>
       <c r="AS6" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT6" t="n">
         <v>2.38</v>
@@ -1604,10 +1604,10 @@
         <v>51</v>
       </c>
       <c r="AX6" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AY6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ6" t="n">
         <v>26</v>
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="J7" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L7" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
@@ -1681,19 +1681,19 @@
         <v>13</v>
       </c>
       <c r="O7" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P7" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="R7" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S7" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T7" t="n">
         <v>3.25</v>
@@ -1708,22 +1708,22 @@
         <v>10</v>
       </c>
       <c r="X7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB7" t="n">
         <v>23</v>
       </c>
       <c r="AC7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD7" t="n">
         <v>6.5</v>
@@ -1735,34 +1735,34 @@
         <v>41</v>
       </c>
       <c r="AG7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO7" t="n">
         <v>13</v>
       </c>
-      <c r="AI7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>11</v>
-      </c>
       <c r="AP7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ7" t="n">
         <v>41</v>
@@ -1771,7 +1771,7 @@
         <v>51</v>
       </c>
       <c r="AS7" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT7" t="n">
         <v>3.25</v>
@@ -1786,19 +1786,19 @@
         <v>51</v>
       </c>
       <c r="AX7" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AY7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ7" t="n">
         <v>21</v>
       </c>
       <c r="BA7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC7" t="n">
         <v>126</v>
@@ -1875,7 +1875,7 @@
         <v>1.83</v>
       </c>
       <c r="S8" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T8" t="n">
         <v>2.75</v>
@@ -2021,13 +2021,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="H9" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="J9" t="n">
         <v>6</v>
@@ -2039,10 +2039,10 @@
         <v>2.1</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O9" t="n">
         <v>1.25</v>
@@ -2051,13 +2051,13 @@
         <v>3.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R9" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S9" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T9" t="n">
         <v>3</v>
@@ -2072,19 +2072,19 @@
         <v>15</v>
       </c>
       <c r="X9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AA9" t="n">
         <v>41</v>
       </c>
       <c r="AB9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC9" t="n">
         <v>11</v>
@@ -2093,19 +2093,19 @@
         <v>7.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF9" t="n">
         <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH9" t="n">
         <v>7</v>
       </c>
       <c r="AI9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AJ9" t="n">
         <v>8.5</v>
@@ -2117,25 +2117,25 @@
         <v>13</v>
       </c>
       <c r="AM9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO9" t="n">
         <v>29</v>
       </c>
-      <c r="AN9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="AP9" t="n">
         <v>34</v>
       </c>
-      <c r="AP9" t="n">
-        <v>41</v>
-      </c>
       <c r="AQ9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR9" t="n">
         <v>126</v>
       </c>
-      <c r="AR9" t="n">
-        <v>151</v>
-      </c>
       <c r="AS9" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT9" t="n">
         <v>3</v>
@@ -2153,7 +2153,7 @@
         <v>3.5</v>
       </c>
       <c r="AY9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AZ9" t="n">
         <v>19</v>
@@ -2203,22 +2203,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="H10" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I10" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="J10" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K10" t="n">
         <v>2.1</v>
       </c>
       <c r="L10" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M10" t="n">
         <v>1.06</v>
@@ -2239,31 +2239,31 @@
         <v>1.7</v>
       </c>
       <c r="S10" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T10" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="U10" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W10" t="n">
         <v>6.5</v>
       </c>
       <c r="X10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y10" t="n">
         <v>9</v>
       </c>
       <c r="Z10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA10" t="n">
         <v>15</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>17</v>
       </c>
       <c r="AB10" t="n">
         <v>29</v>
@@ -2272,7 +2272,7 @@
         <v>8.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE10" t="n">
         <v>17</v>
@@ -2293,10 +2293,10 @@
         <v>15</v>
       </c>
       <c r="AK10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL10" t="n">
         <v>41</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>34</v>
       </c>
       <c r="AM10" t="n">
         <v>41</v>
@@ -2305,10 +2305,10 @@
         <v>3.75</v>
       </c>
       <c r="AO10" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ10" t="n">
         <v>34</v>
@@ -2326,7 +2326,7 @@
         <v>8.5</v>
       </c>
       <c r="AV10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW10" t="n">
         <v>51</v>
@@ -2335,7 +2335,7 @@
         <v>6</v>
       </c>
       <c r="AY10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ10" t="n">
         <v>34</v>
@@ -2344,10 +2344,10 @@
         <v>81</v>
       </c>
       <c r="BB10" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC10" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BD10" t="n">
         <v>51</v>
@@ -2937,10 +2937,10 @@
         <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="J14" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K14" t="n">
         <v>2.1</v>
@@ -3060,7 +3060,7 @@
         <v>51</v>
       </c>
       <c r="AX14" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AY14" t="n">
         <v>15</v>
@@ -3113,16 +3113,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="H15" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I15" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="J15" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K15" t="n">
         <v>2.2</v>
@@ -3131,10 +3131,10 @@
         <v>3.1</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O15" t="n">
         <v>1.29</v>
@@ -3155,10 +3155,10 @@
         <v>2.75</v>
       </c>
       <c r="U15" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V15" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W15" t="n">
         <v>9.5</v>
@@ -3167,19 +3167,19 @@
         <v>15</v>
       </c>
       <c r="Y15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z15" t="n">
         <v>29</v>
       </c>
       <c r="AA15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB15" t="n">
         <v>29</v>
       </c>
       <c r="AC15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD15" t="n">
         <v>6.5</v>
@@ -3194,13 +3194,13 @@
         <v>201</v>
       </c>
       <c r="AH15" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK15" t="n">
         <v>23</v>
@@ -3212,7 +3212,7 @@
         <v>29</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO15" t="n">
         <v>15</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD16"/>
+  <dimension ref="A1:BD17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
         <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="J3" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K3" t="n">
         <v>2.38</v>
@@ -977,16 +977,16 @@
         <v>2.5</v>
       </c>
       <c r="W3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y3" t="n">
         <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA3" t="n">
         <v>21</v>
@@ -1013,7 +1013,7 @@
         <v>12</v>
       </c>
       <c r="AI3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ3" t="n">
         <v>9.5</v>
@@ -1064,7 +1064,7 @@
         <v>12</v>
       </c>
       <c r="AZ3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA3" t="n">
         <v>41</v>
@@ -1323,10 +1323,10 @@
         <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R5" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S5" t="n">
         <v>1.57</v>
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H7" t="n">
         <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K7" t="n">
         <v>2.25</v>
       </c>
       <c r="L7" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
@@ -1693,7 +1693,7 @@
         <v>2.05</v>
       </c>
       <c r="S7" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T7" t="n">
         <v>3.25</v>
@@ -1720,10 +1720,10 @@
         <v>19</v>
       </c>
       <c r="AB7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD7" t="n">
         <v>6.5</v>
@@ -1744,10 +1744,10 @@
         <v>15</v>
       </c>
       <c r="AJ7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL7" t="n">
         <v>21</v>
@@ -1786,7 +1786,7 @@
         <v>51</v>
       </c>
       <c r="AX7" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AY7" t="n">
         <v>15</v>
@@ -1839,13 +1839,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="H8" t="n">
         <v>3.2</v>
       </c>
       <c r="I8" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J8" t="n">
         <v>3.25</v>
@@ -1854,28 +1854,28 @@
         <v>2.1</v>
       </c>
       <c r="L8" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R8" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S8" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T8" t="n">
         <v>2.75</v>
@@ -1887,7 +1887,7 @@
         <v>2</v>
       </c>
       <c r="W8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X8" t="n">
         <v>13</v>
@@ -1938,7 +1938,7 @@
         <v>29</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO8" t="n">
         <v>15</v>
@@ -2057,7 +2057,7 @@
         <v>1.98</v>
       </c>
       <c r="S9" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T9" t="n">
         <v>3</v>
@@ -2203,7 +2203,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H10" t="n">
         <v>3.5</v>
@@ -2221,10 +2221,10 @@
         <v>5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.33</v>
@@ -2239,10 +2239,10 @@
         <v>1.7</v>
       </c>
       <c r="S10" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T10" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="U10" t="n">
         <v>2</v>
@@ -2260,7 +2260,7 @@
         <v>9</v>
       </c>
       <c r="Z10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA10" t="n">
         <v>15</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>vgQ2st0d</t>
+          <t>2PbvpoL4</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,143 +2366,143 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>JAPAN - J2 LEAGUE</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>U.A.N.L.- Tigres</t>
+          <t>Ehime</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Pachuca</t>
+          <t>Vegalta Sendai</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.62</v>
+        <v>4.5</v>
       </c>
       <c r="H11" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="I11" t="n">
-        <v>5.25</v>
+        <v>1.73</v>
       </c>
       <c r="J11" t="n">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="K11" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
+        <v>13</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W11" t="n">
+        <v>13</v>
+      </c>
+      <c r="X11" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y11" t="n">
         <v>15</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P11" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T11" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="W11" t="n">
-        <v>8</v>
-      </c>
-      <c r="X11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z11" t="n">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="AA11" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="AB11" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AC11" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
         <v>15</v>
       </c>
       <c r="AF11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG11" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS11" t="n">
         <v>201</v>
       </c>
-      <c r="AH11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>101</v>
-      </c>
       <c r="AT11" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="AU11" t="n">
         <v>8</v>
@@ -2511,34 +2511,34 @@
         <v>51</v>
       </c>
       <c r="AW11" t="n">
-        <v>501</v>
+        <v>51</v>
       </c>
       <c r="AX11" t="n">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="AY11" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="AZ11" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA11" t="n">
         <v>29</v>
       </c>
-      <c r="BA11" t="n">
-        <v>81</v>
-      </c>
       <c r="BB11" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BC11" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD11" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6aIl5qh3</t>
+          <t>vgQ2st0d</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>00:05</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2558,109 +2558,109 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Atlas</t>
+          <t>U.A.N.L.- Tigres</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Club Tijuana</t>
+          <t>Pachuca</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.85</v>
+        <v>1.62</v>
       </c>
       <c r="H12" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I12" t="n">
-        <v>4.1</v>
+        <v>5.25</v>
       </c>
       <c r="J12" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="K12" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="L12" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="O12" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="P12" t="n">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.87</v>
+        <v>1.67</v>
       </c>
       <c r="R12" t="n">
-        <v>1.87</v>
+        <v>2.15</v>
       </c>
       <c r="S12" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="T12" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="U12" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="V12" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W12" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y12" t="n">
         <v>8.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA12" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB12" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AC12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AD12" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE12" t="n">
         <v>15</v>
       </c>
       <c r="AF12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG12" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH12" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AI12" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AJ12" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AK12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL12" t="n">
         <v>41</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>34</v>
       </c>
       <c r="AM12" t="n">
         <v>41</v>
@@ -2669,22 +2669,22 @@
         <v>3.75</v>
       </c>
       <c r="AO12" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AP12" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AQ12" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AR12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS12" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="AU12" t="n">
         <v>8</v>
@@ -2693,13 +2693,13 @@
         <v>51</v>
       </c>
       <c r="AW12" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="AX12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY12" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ12" t="n">
         <v>29</v>
@@ -2711,16 +2711,16 @@
         <v>101</v>
       </c>
       <c r="BC12" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD12" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MmCberkA</t>
+          <t>6aIl5qh3</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,179 +2730,179 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>00:10</t>
+          <t>00:05</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Dorados de Sinaloa</t>
+          <t>Atlas</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Atletico La Paz</t>
+          <t>Club Tijuana</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="H13" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I13" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="J13" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K13" t="n">
         <v>2.2</v>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>12.6</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P13" t="n">
         <v>3.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.65</v>
+        <v>1.87</v>
       </c>
       <c r="R13" t="n">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="S13" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="T13" t="n">
-        <v>3.21</v>
+        <v>2.75</v>
       </c>
       <c r="U13" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="V13" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="W13" t="n">
-        <v>8.75</v>
+        <v>7.5</v>
       </c>
       <c r="X13" t="n">
-        <v>10.25</v>
+        <v>9</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA13" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AB13" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AC13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD13" t="n">
         <v>7</v>
       </c>
       <c r="AE13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF13" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG13" t="n">
-        <v>300</v>
+        <v>251</v>
       </c>
       <c r="AH13" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AI13" t="n">
         <v>21</v>
       </c>
       <c r="AJ13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK13" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AL13" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AM13" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="AO13" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="AP13" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="AQ13" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AR13" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AS13" t="n">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="AT13" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU13" t="n">
-        <v>6.7</v>
+        <v>8</v>
       </c>
       <c r="AV13" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AW13" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="AX13" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="AY13" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AZ13" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="BA13" t="n">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="BB13" t="n">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="BC13" t="n">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="BD13" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0GCXoLDj</t>
+          <t>MmCberkA</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,170 +2912,170 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>00:10</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SOUTH KOREA - K LEAGUE 1</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Daejeon</t>
+          <t>Dorados de Sinaloa</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Daegu</t>
+          <t>Atletico La Paz</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.63</v>
+        <v>1.88</v>
       </c>
       <c r="H14" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="I14" t="n">
-        <v>2.6</v>
+        <v>3.65</v>
       </c>
       <c r="J14" t="n">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="K14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N14" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="T14" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V14" t="n">
         <v>2.1</v>
       </c>
-      <c r="L14" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N14" t="n">
-        <v>10</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V14" t="n">
-        <v>2</v>
-      </c>
       <c r="W14" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="X14" t="n">
-        <v>13</v>
+        <v>10.25</v>
       </c>
       <c r="Y14" t="n">
-        <v>10</v>
+        <v>8.25</v>
       </c>
       <c r="Z14" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AA14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB14" t="n">
         <v>21</v>
       </c>
-      <c r="AB14" t="n">
-        <v>29</v>
-      </c>
       <c r="AC14" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AD14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE14" t="n">
         <v>13</v>
       </c>
       <c r="AF14" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AG14" t="n">
-        <v>251</v>
+        <v>300</v>
       </c>
       <c r="AH14" t="n">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AJ14" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AK14" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="AL14" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="AM14" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.75</v>
+        <v>3.9</v>
       </c>
       <c r="AO14" t="n">
-        <v>15</v>
+        <v>9.25</v>
       </c>
       <c r="AP14" t="n">
-        <v>23</v>
+        <v>15.5</v>
       </c>
       <c r="AQ14" t="n">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="AR14" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="AS14" t="n">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="AU14" t="n">
-        <v>8</v>
+        <v>6.7</v>
       </c>
       <c r="AV14" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW14" t="n">
         <v>51</v>
       </c>
       <c r="AX14" t="n">
-        <v>4.5</v>
+        <v>5.6</v>
       </c>
       <c r="AY14" t="n">
-        <v>15</v>
+        <v>19.5</v>
       </c>
       <c r="AZ14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA14" t="n">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="BB14" t="n">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="BC14" t="n">
-        <v>151</v>
+        <v>250</v>
       </c>
       <c r="BD14" t="n">
         <v>51</v>
@@ -3084,7 +3084,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>zDLrRJqh</t>
+          <t>0GCXoLDj</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3104,31 +3104,31 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Pohang</t>
+          <t>Daejeon</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ulsan HD</t>
+          <t>Daegu</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.9</v>
+        <v>2.63</v>
       </c>
       <c r="H15" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L15" t="n">
         <v>3.25</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.1</v>
       </c>
       <c r="M15" t="n">
         <v>1.06</v>
@@ -3137,22 +3137,22 @@
         <v>10</v>
       </c>
       <c r="O15" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P15" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="R15" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="S15" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T15" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U15" t="n">
         <v>1.73</v>
@@ -3161,58 +3161,58 @@
         <v>2</v>
       </c>
       <c r="W15" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="X15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z15" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB15" t="n">
         <v>29</v>
       </c>
       <c r="AC15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE15" t="n">
         <v>13</v>
       </c>
       <c r="AF15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG15" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH15" t="n">
         <v>8.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ15" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM15" t="n">
         <v>29</v>
       </c>
       <c r="AN15" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO15" t="n">
         <v>15</v>
@@ -3230,28 +3230,28 @@
         <v>151</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU15" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV15" t="n">
         <v>51</v>
       </c>
       <c r="AW15" t="n">
-        <v>501</v>
+        <v>51</v>
       </c>
       <c r="AX15" t="n">
         <v>4.5</v>
       </c>
       <c r="AY15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ15" t="n">
         <v>23</v>
       </c>
       <c r="BA15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB15" t="n">
         <v>67</v>
@@ -3266,7 +3266,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0YoHO6WF</t>
+          <t>zDLrRJqh</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,172 +3276,354 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>USA - MLS</t>
+          <t>SOUTH KOREA - K LEAGUE 1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Los Angeles Galaxy</t>
+          <t>Pohang</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Colorado Rapids</t>
+          <t>Ulsan HD</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.42</v>
+        <v>3</v>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="I16" t="n">
-        <v>6.5</v>
+        <v>2.35</v>
       </c>
       <c r="J16" t="n">
-        <v>1.83</v>
+        <v>3.5</v>
       </c>
       <c r="K16" t="n">
-        <v>2.88</v>
+        <v>2.1</v>
       </c>
       <c r="L16" t="n">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="O16" t="n">
-        <v>1.07</v>
+        <v>1.29</v>
       </c>
       <c r="P16" t="n">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.29</v>
+        <v>2</v>
       </c>
       <c r="R16" t="n">
-        <v>3.6</v>
+        <v>1.85</v>
       </c>
       <c r="S16" t="n">
-        <v>1.17</v>
+        <v>1.4</v>
       </c>
       <c r="T16" t="n">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="U16" t="n">
-        <v>1.44</v>
+        <v>1.73</v>
       </c>
       <c r="V16" t="n">
-        <v>2.63</v>
+        <v>2</v>
       </c>
       <c r="W16" t="n">
-        <v>17</v>
+        <v>9.5</v>
       </c>
       <c r="X16" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Y16" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC16" t="n">
         <v>10</v>
       </c>
-      <c r="Z16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>29</v>
-      </c>
       <c r="AD16" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE16" t="n">
         <v>13</v>
       </c>
       <c r="AF16" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG16" t="n">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="AH16" t="n">
-        <v>29</v>
+        <v>8.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AJ16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL16" t="n">
         <v>19</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>41</v>
       </c>
       <c r="AM16" t="n">
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="AO16" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="AP16" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="AQ16" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AR16" t="n">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="AS16" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="AT16" t="n">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="AU16" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV16" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AW16" t="n">
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="AX16" t="n">
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
       <c r="AY16" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AZ16" t="n">
         <v>23</v>
       </c>
       <c r="BA16" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="BB16" t="n">
         <v>67</v>
       </c>
       <c r="BC16" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>0YoHO6WF</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>27/10/2024</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>USA - MLS</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Los Angeles Galaxy</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Colorado Rapids</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+      <c r="I17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="L17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N17" t="n">
+        <v>26</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P17" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="T17" t="n">
+        <v>5</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W17" t="n">
+        <v>17</v>
+      </c>
+      <c r="X17" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>201</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC17" t="n">
         <v>101</v>
       </c>
-      <c r="BD16" t="n">
+      <c r="BD17" t="n">
         <v>176</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD17"/>
+  <dimension ref="A1:BD27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ea2rq5zB</t>
+          <t>zs7jl51J</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,179 +1092,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>04:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>JAPAN - J2 LEAGUE</t>
+          <t>CHINA - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>V-Varen Nagasaki</t>
+          <t>Cangzhou</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Kagoshima Utd</t>
+          <t>Shanghai Port</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.67</v>
+        <v>23</v>
       </c>
       <c r="H4" t="n">
-        <v>3.9</v>
+        <v>11</v>
       </c>
       <c r="I4" t="n">
-        <v>4.5</v>
+        <v>1.07</v>
       </c>
       <c r="J4" t="n">
-        <v>2.25</v>
+        <v>13</v>
       </c>
       <c r="K4" t="n">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>4.5</v>
+        <v>1.3</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>41</v>
       </c>
       <c r="N4" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="O4" t="n">
-        <v>1.18</v>
+        <v>1.04</v>
       </c>
       <c r="P4" t="n">
-        <v>4.5</v>
+        <v>13</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.62</v>
+        <v>1.17</v>
       </c>
       <c r="R4" t="n">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="S4" t="n">
-        <v>1.3</v>
+        <v>1.11</v>
       </c>
       <c r="T4" t="n">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="U4" t="n">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="V4" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="W4" t="n">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="X4" t="n">
-        <v>9.5</v>
+        <v>126</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.5</v>
+        <v>51</v>
       </c>
       <c r="Z4" t="n">
-        <v>13</v>
+        <v>251</v>
       </c>
       <c r="AA4" t="n">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="AB4" t="n">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="AC4" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AD4" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="AE4" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AF4" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AG4" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AH4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI4" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="AJ4" t="n">
         <v>15</v>
       </c>
       <c r="AK4" t="n">
-        <v>51</v>
+        <v>8.5</v>
       </c>
       <c r="AL4" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="AM4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>351</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>401</v>
+      </c>
+      <c r="AX4" t="n">
         <v>4</v>
       </c>
-      <c r="AO4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU4" t="n">
+      <c r="AY4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA4" t="n">
         <v>7.5</v>
       </c>
-      <c r="AV4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA4" t="n">
+      <c r="BB4" t="n">
+        <v>21</v>
+      </c>
+      <c r="BC4" t="n">
         <v>67</v>
       </c>
-      <c r="BB4" t="n">
+      <c r="BD4" t="n">
         <v>81</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>rLRDTPzO</t>
+          <t>I5x6tgrD</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,110 +1274,110 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>04:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>JAPAN - J2 LEAGUE</t>
+          <t>CHINA - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Blaublitz</t>
+          <t>Henan Songshan Longmen</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Oita Trinita</t>
+          <t>Changchun Yatai</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N5" t="n">
+        <v>13</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T5" t="n">
         <v>3.4</v>
       </c>
-      <c r="J5" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N5" t="n">
-        <v>7</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.25</v>
-      </c>
       <c r="U5" t="n">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="V5" t="n">
-        <v>1.67</v>
+        <v>2.2</v>
       </c>
       <c r="W5" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="X5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y5" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Z5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB5" t="n">
         <v>21</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AC5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI5" t="n">
         <v>21</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>15</v>
       </c>
       <c r="AJ5" t="n">
         <v>13</v>
@@ -1386,67 +1386,67 @@
         <v>41</v>
       </c>
       <c r="AL5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM5" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AN5" t="n">
         <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AP5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ5" t="n">
         <v>29</v>
       </c>
-      <c r="AQ5" t="n">
-        <v>51</v>
-      </c>
       <c r="AR5" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AS5" t="n">
-        <v>251</v>
+        <v>101</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU5" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AW5" t="n">
-        <v>51</v>
+        <v>451</v>
       </c>
       <c r="AX5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY5" t="n">
         <v>21</v>
       </c>
       <c r="AZ5" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="BA5" t="n">
         <v>67</v>
       </c>
       <c r="BB5" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BC5" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="BD5" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cz6Rnmyn</t>
+          <t>W8tAuDcJ</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,179 +1456,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>04:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>JAPAN - J2 LEAGUE</t>
+          <t>CHINA - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Kusatsu</t>
+          <t>Meizhou Hakka</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tokushima</t>
+          <t>Wuhan Three Towns</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="I6" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N6" t="n">
+        <v>17</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V6" t="n">
         <v>2.1</v>
       </c>
-      <c r="J6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N6" t="n">
-        <v>7</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.67</v>
-      </c>
       <c r="W6" t="n">
+        <v>9</v>
+      </c>
+      <c r="X6" t="n">
         <v>8.5</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Y6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC6" t="n">
         <v>17</v>
       </c>
-      <c r="Y6" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA6" t="n">
+      <c r="AD6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI6" t="n">
         <v>34</v>
       </c>
-      <c r="AB6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>9</v>
-      </c>
       <c r="AJ6" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="AK6" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="AL6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>21</v>
       </c>
-      <c r="AM6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ6" t="n">
+      <c r="AR6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>451</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA6" t="n">
         <v>81</v>
       </c>
-      <c r="AR6" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>41</v>
-      </c>
       <c r="BB6" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BC6" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BD6" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>dOVHSqjU</t>
+          <t>EX5fmPGP</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,59 +1638,59 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>04:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>JAPAN - J2 LEAGUE</t>
+          <t>CHINA - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Montedio Yamagata</t>
+          <t>Nantong Zhiyun</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Kumamoto</t>
+          <t>Beijing Guoan</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L7" t="n">
         <v>2.5</v>
       </c>
-      <c r="H7" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3.2</v>
-      </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O7" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P7" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="R7" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="S7" t="n">
         <v>1.33</v>
@@ -1699,37 +1699,37 @@
         <v>3.25</v>
       </c>
       <c r="U7" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="V7" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="W7" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="X7" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Y7" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Z7" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AA7" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AB7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
         <v>41</v>
@@ -1738,40 +1738,40 @@
         <v>151</v>
       </c>
       <c r="AH7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI7" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AL7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM7" t="n">
         <v>21</v>
       </c>
-      <c r="AM7" t="n">
-        <v>26</v>
-      </c>
       <c r="AN7" t="n">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="AO7" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AP7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ7" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AR7" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT7" t="n">
         <v>3.25</v>
@@ -1783,34 +1783,34 @@
         <v>41</v>
       </c>
       <c r="AW7" t="n">
-        <v>51</v>
+        <v>451</v>
       </c>
       <c r="AX7" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="AY7" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="AZ7" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="BA7" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="BB7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BC7" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BD7" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>82azoR5b</t>
+          <t>6PcMrqPt</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,179 +1820,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>04:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>JAPAN - J2 LEAGUE</t>
+          <t>CHINA - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Renofa Yamaguchi</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Kofu</t>
+          <t>Chengdu Rongcheng</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.63</v>
+        <v>5.75</v>
       </c>
       <c r="H8" t="n">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="I8" t="n">
-        <v>2.63</v>
+        <v>1.55</v>
       </c>
       <c r="J8" t="n">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="K8" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L8" t="n">
-        <v>3.25</v>
+        <v>2.05</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="O8" t="n">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="P8" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>2</v>
+        <v>1.53</v>
       </c>
       <c r="R8" t="n">
-        <v>1.85</v>
+        <v>2.4</v>
       </c>
       <c r="S8" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="T8" t="n">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U8" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="V8" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="W8" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="X8" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="Y8" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="Z8" t="n">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="AA8" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AB8" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE8" t="n">
         <v>13</v>
       </c>
       <c r="AF8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG8" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AH8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI8" t="n">
         <v>9</v>
       </c>
-      <c r="AI8" t="n">
-        <v>13</v>
-      </c>
       <c r="AJ8" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AK8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AO8" t="n">
         <v>26</v>
       </c>
-      <c r="AL8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>15</v>
-      </c>
       <c r="AP8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ8" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AR8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS8" t="n">
         <v>151</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="AU8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW8" t="n">
-        <v>51</v>
+        <v>401</v>
       </c>
       <c r="AX8" t="n">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="AY8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ8" t="n">
         <v>15</v>
       </c>
-      <c r="AZ8" t="n">
-        <v>23</v>
-      </c>
       <c r="BA8" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="BB8" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BC8" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="BD8" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Yq7NmTLu</t>
+          <t>phvbrFD0</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>04:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>JAPAN - J2 LEAGUE</t>
+          <t>CHINA - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Tochigi SC</t>
+          <t>Shanghai Shenhua</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Shimizu S-Pulse</t>
+          <t>Shenzhen Xinpengcheng</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>5.5</v>
+        <v>1.17</v>
       </c>
       <c r="H9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I9" t="n">
+        <v>17</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3</v>
+      </c>
+      <c r="L9" t="n">
+        <v>11</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N9" t="n">
+        <v>15</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P9" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T9" t="n">
         <v>4</v>
       </c>
-      <c r="I9" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="J9" t="n">
-        <v>6</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L9" t="n">
+      <c r="U9" t="n">
         <v>2.1</v>
       </c>
-      <c r="M9" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N9" t="n">
+      <c r="V9" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W9" t="n">
+        <v>10</v>
+      </c>
+      <c r="X9" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA9" t="n">
         <v>11</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W9" t="n">
+      <c r="AB9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC9" t="n">
         <v>15</v>
       </c>
-      <c r="X9" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y9" t="n">
+      <c r="AD9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>251</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP9" t="n">
         <v>17</v>
       </c>
-      <c r="Z9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC9" t="n">
+      <c r="AQ9" t="n">
         <v>11</v>
       </c>
-      <c r="AD9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG9" t="n">
+      <c r="AR9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA9" t="n">
         <v>301</v>
       </c>
-      <c r="AH9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>101</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS9" t="n">
+      <c r="BB9" t="n">
         <v>251</v>
       </c>
-      <c r="AT9" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>19</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>23</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>41</v>
-      </c>
       <c r="BC9" t="n">
-        <v>151</v>
+        <v>401</v>
       </c>
       <c r="BD9" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UB0Wo7jh</t>
+          <t>Orw2sZS6</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,179 +2184,179 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>04:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>JAPAN - J2 LEAGUE</t>
+          <t>CHINA - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Yokohama FC</t>
+          <t>Tianjin Jinmen Tiger</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Okayama</t>
+          <t>Qingdao Hainiu</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H10" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I10" t="n">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="J10" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="K10" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="L10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N10" t="n">
+        <v>17</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P10" t="n">
         <v>5</v>
       </c>
-      <c r="M10" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3.25</v>
-      </c>
       <c r="Q10" t="n">
-        <v>2.1</v>
+        <v>1.57</v>
       </c>
       <c r="R10" t="n">
-        <v>1.7</v>
+        <v>2.35</v>
       </c>
       <c r="S10" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="T10" t="n">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>1.53</v>
       </c>
       <c r="V10" t="n">
-        <v>1.73</v>
+        <v>2.38</v>
       </c>
       <c r="W10" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="X10" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Y10" t="n">
         <v>9</v>
       </c>
       <c r="Z10" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AA10" t="n">
         <v>15</v>
       </c>
       <c r="AB10" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AD10" t="n">
         <v>7</v>
       </c>
       <c r="AE10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP10" t="n">
         <v>17</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>21</v>
       </c>
       <c r="AQ10" t="n">
         <v>34</v>
       </c>
       <c r="AR10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS10" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="AU10" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AV10" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AW10" t="n">
-        <v>51</v>
+        <v>351</v>
       </c>
       <c r="AX10" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AY10" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AZ10" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="BA10" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD10" t="n">
         <v>81</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>301</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2PbvpoL4</t>
+          <t>4tN0qebf</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,179 +2366,179 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>04:00</t>
+          <t>04:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>JAPAN - J2 LEAGUE</t>
+          <t>CHINA - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Ehime</t>
+          <t>Zhejiang Professional</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vegalta Sendai</t>
+          <t>Shandong Taishan</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.5</v>
+        <v>2.35</v>
       </c>
       <c r="H11" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I11" t="n">
-        <v>1.73</v>
+        <v>2.63</v>
       </c>
       <c r="J11" t="n">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="K11" t="n">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L11" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N11" t="n">
+        <v>21</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="T11" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W11" t="n">
+        <v>17</v>
+      </c>
+      <c r="X11" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>201</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY11" t="n">
         <v>13</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T11" t="n">
-        <v>3</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W11" t="n">
-        <v>13</v>
-      </c>
-      <c r="X11" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y11" t="n">
+      <c r="AZ11" t="n">
         <v>15</v>
       </c>
-      <c r="Z11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ11" t="n">
+      <c r="BA11" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>41</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>67</v>
+      </c>
+      <c r="BD11" t="n">
         <v>81</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>19</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>29</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>51</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>vgQ2st0d</t>
+          <t>Ea2rq5zB</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,41 +2548,41 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>JAPAN - J2 LEAGUE</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>U.A.N.L.- Tigres</t>
+          <t>V-Varen Nagasaki</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Pachuca</t>
+          <t>Kagoshima Utd</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H12" t="n">
         <v>3.9</v>
       </c>
       <c r="I12" t="n">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="J12" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K12" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M12" t="n">
         <v>1.03</v>
@@ -2591,16 +2591,16 @@
         <v>15</v>
       </c>
       <c r="O12" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P12" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R12" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S12" t="n">
         <v>1.3</v>
@@ -2609,16 +2609,16 @@
         <v>3.4</v>
       </c>
       <c r="U12" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="V12" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="W12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X12" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Y12" t="n">
         <v>8.5</v>
@@ -2627,55 +2627,55 @@
         <v>13</v>
       </c>
       <c r="AA12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB12" t="n">
         <v>21</v>
       </c>
       <c r="AC12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE12" t="n">
         <v>13</v>
       </c>
-      <c r="AD12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE12" t="n">
+      <c r="AF12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>15</v>
       </c>
-      <c r="AF12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>17</v>
-      </c>
       <c r="AK12" t="n">
         <v>51</v>
       </c>
       <c r="AL12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO12" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP12" t="n">
         <v>17</v>
       </c>
       <c r="AQ12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR12" t="n">
         <v>41</v>
@@ -2687,40 +2687,40 @@
         <v>3.4</v>
       </c>
       <c r="AU12" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW12" t="n">
-        <v>501</v>
+        <v>51</v>
       </c>
       <c r="AX12" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AY12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ12" t="n">
         <v>26</v>
       </c>
-      <c r="AZ12" t="n">
-        <v>29</v>
-      </c>
       <c r="BA12" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB12" t="n">
         <v>81</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>101</v>
       </c>
       <c r="BC12" t="n">
         <v>151</v>
       </c>
       <c r="BD12" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>6aIl5qh3</t>
+          <t>rLRDTPzO</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,110 +2730,110 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>00:05</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>JAPAN - J2 LEAGUE</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Atlas</t>
+          <t>Blaublitz</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Club Tijuana</t>
+          <t>Oita Trinita</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="H13" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="J13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>7</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P13" t="n">
         <v>2.5</v>
       </c>
-      <c r="K13" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L13" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N13" t="n">
-        <v>11</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.5</v>
-      </c>
       <c r="Q13" t="n">
-        <v>1.87</v>
+        <v>2.6</v>
       </c>
       <c r="R13" t="n">
-        <v>1.87</v>
+        <v>1.48</v>
       </c>
       <c r="S13" t="n">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="T13" t="n">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U13" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="V13" t="n">
-        <v>1.95</v>
+        <v>1.67</v>
       </c>
       <c r="W13" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="X13" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Z13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI13" t="n">
         <v>15</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>21</v>
       </c>
       <c r="AJ13" t="n">
         <v>13</v>
@@ -2848,61 +2848,61 @@
         <v>41</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO13" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AP13" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AQ13" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AR13" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS13" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="AU13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV13" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW13" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="AX13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY13" t="n">
         <v>21</v>
       </c>
       <c r="AZ13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA13" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB13" t="n">
         <v>101</v>
       </c>
       <c r="BC13" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="BD13" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MmCberkA</t>
+          <t>Cz6Rnmyn</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,170 +2912,170 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>00:10</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
+          <t>JAPAN - J2 LEAGUE</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Dorados de Sinaloa</t>
+          <t>Kusatsu</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Atletico La Paz</t>
+          <t>Tokushima</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.88</v>
+        <v>3.6</v>
       </c>
       <c r="H14" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="I14" t="n">
-        <v>3.65</v>
+        <v>2.1</v>
       </c>
       <c r="J14" t="n">
-        <v>2.4</v>
+        <v>4.33</v>
       </c>
       <c r="K14" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L14" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N14" t="n">
+        <v>7</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X14" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX14" t="n">
         <v>4</v>
       </c>
-      <c r="M14" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N14" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="T14" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V14" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W14" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="X14" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC14" t="n">
+      <c r="AY14" t="n">
         <v>12</v>
       </c>
-      <c r="AD14" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>30</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>50</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>175</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>50</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AZ14" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BA14" t="n">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="BB14" t="n">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="BC14" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BD14" t="n">
         <v>51</v>
@@ -3084,7 +3084,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0GCXoLDj</t>
+          <t>dOVHSqjU</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3099,69 +3099,69 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SOUTH KOREA - K LEAGUE 1</t>
+          <t>JAPAN - J2 LEAGUE</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Daejeon</t>
+          <t>Montedio Yamagata</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Daegu</t>
+          <t>Kumamoto</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="H15" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L15" t="n">
         <v>3.2</v>
       </c>
-      <c r="I15" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L15" t="n">
+      <c r="M15" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N15" t="n">
+        <v>13</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T15" t="n">
         <v>3.25</v>
       </c>
-      <c r="M15" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N15" t="n">
+      <c r="U15" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W15" t="n">
         <v>10</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V15" t="n">
-        <v>2</v>
-      </c>
-      <c r="W15" t="n">
-        <v>8.5</v>
       </c>
       <c r="X15" t="n">
         <v>13</v>
@@ -3170,34 +3170,34 @@
         <v>10</v>
       </c>
       <c r="Z15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB15" t="n">
         <v>26</v>
       </c>
-      <c r="AA15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>29</v>
-      </c>
       <c r="AC15" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AD15" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG15" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AH15" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AI15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ15" t="n">
         <v>10</v>
@@ -3209,55 +3209,55 @@
         <v>21</v>
       </c>
       <c r="AM15" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN15" t="n">
         <v>4.75</v>
       </c>
       <c r="AO15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR15" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS15" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="AU15" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW15" t="n">
         <v>51</v>
       </c>
       <c r="AX15" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AY15" t="n">
         <v>15</v>
       </c>
       <c r="AZ15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB15" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC15" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD15" t="n">
         <v>51</v>
@@ -3266,7 +3266,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>zDLrRJqh</t>
+          <t>82azoR5b</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3281,42 +3281,42 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SOUTH KOREA - K LEAGUE 1</t>
+          <t>JAPAN - J2 LEAGUE</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Pohang</t>
+          <t>Renofa Yamaguchi</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ulsan HD</t>
+          <t>Kofu</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="H16" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J16" t="n">
         <v>3.25</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.5</v>
       </c>
       <c r="K16" t="n">
         <v>2.1</v>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O16" t="n">
         <v>1.29</v>
@@ -3343,25 +3343,25 @@
         <v>2</v>
       </c>
       <c r="W16" t="n">
+        <v>9</v>
+      </c>
+      <c r="X16" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC16" t="n">
         <v>9.5</v>
-      </c>
-      <c r="X16" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>10</v>
       </c>
       <c r="AD16" t="n">
         <v>6</v>
@@ -3370,37 +3370,37 @@
         <v>13</v>
       </c>
       <c r="AF16" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG16" t="n">
         <v>201</v>
       </c>
       <c r="AH16" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ16" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM16" t="n">
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ16" t="n">
         <v>51</v>
@@ -3421,19 +3421,19 @@
         <v>51</v>
       </c>
       <c r="AW16" t="n">
-        <v>501</v>
+        <v>51</v>
       </c>
       <c r="AX16" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AY16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ16" t="n">
         <v>23</v>
       </c>
       <c r="BA16" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB16" t="n">
         <v>67</v>
@@ -3448,182 +3448,2002 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>Yq7NmTLu</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>27/10/2024</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>JAPAN - J2 LEAGUE</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Tochigi SC</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Shimizu S-Pulse</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="J17" t="n">
+        <v>6</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N17" t="n">
+        <v>11</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W17" t="n">
+        <v>15</v>
+      </c>
+      <c r="X17" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>23</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>41</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>UB0Wo7jh</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>27/10/2024</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>JAPAN - J2 LEAGUE</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Yokohama FC</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Okayama</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>5</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X18" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>301</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2PbvpoL4</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>27/10/2024</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>04:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>JAPAN - J2 LEAGUE</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Ehime</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Vegalta Sendai</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N19" t="n">
+        <v>13</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T19" t="n">
+        <v>3</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W19" t="n">
+        <v>13</v>
+      </c>
+      <c r="X19" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>29</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>vgQ2st0d</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>27/10/2024</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>MEXICO - LIGA MX</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>U.A.N.L.- Tigres</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Pachuca</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I20" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L20" t="n">
+        <v>5</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N20" t="n">
+        <v>15</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V20" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W20" t="n">
+        <v>8</v>
+      </c>
+      <c r="X20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>6aIl5qh3</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>27/10/2024</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>00:05</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>MEXICO - LIGA MX</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Atlas</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Club Tijuana</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I21" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N21" t="n">
+        <v>11</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X21" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>MmCberkA</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>27/10/2024</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>00:10</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Dorados de Sinaloa</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Atletico La Paz</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L22" t="n">
+        <v>4</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N22" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="T22" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V22" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W22" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="X22" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>30</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>24</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>100</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>120</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>250</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>0GCXoLDj</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>27/10/2024</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>SOUTH KOREA - K LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Daejeon</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Daegu</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N23" t="n">
+        <v>10</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V23" t="n">
+        <v>2</v>
+      </c>
+      <c r="W23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X23" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>vaHC9O5c</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>27/10/2024</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>04:30</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>SOUTH KOREA - K LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Incheon</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Gwangju FC</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L24" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X24" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>nPKK72zA</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>27/10/2024</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>04:30</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>SOUTH KOREA - K LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Jeju Utd</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Jeonbuk</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>3</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L25" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N25" t="n">
+        <v>13</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V25" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W25" t="n">
+        <v>12</v>
+      </c>
+      <c r="X25" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>451</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>zDLrRJqh</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>27/10/2024</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>SOUTH KOREA - K LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Pohang</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Ulsan HD</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>3</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L26" t="n">
+        <v>3</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N26" t="n">
+        <v>10</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V26" t="n">
+        <v>2</v>
+      </c>
+      <c r="W26" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X26" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
           <t>0YoHO6WF</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>27/10/2024</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>00:00</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>USA - MLS</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>Los Angeles Galaxy</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>Colorado Rapids</t>
         </is>
       </c>
-      <c r="G17" t="n">
+      <c r="G27" t="n">
         <v>1.42</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H27" t="n">
         <v>5</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I27" t="n">
         <v>6.5</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J27" t="n">
         <v>1.83</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K27" t="n">
         <v>2.88</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L27" t="n">
         <v>5.5</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M27" t="n">
         <v>1.01</v>
       </c>
-      <c r="N17" t="n">
+      <c r="N27" t="n">
         <v>26</v>
       </c>
-      <c r="O17" t="n">
+      <c r="O27" t="n">
         <v>1.07</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P27" t="n">
         <v>9</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q27" t="n">
         <v>1.29</v>
       </c>
-      <c r="R17" t="n">
+      <c r="R27" t="n">
         <v>3.6</v>
       </c>
-      <c r="S17" t="n">
+      <c r="S27" t="n">
         <v>1.17</v>
       </c>
-      <c r="T17" t="n">
+      <c r="T27" t="n">
         <v>5</v>
       </c>
-      <c r="U17" t="n">
+      <c r="U27" t="n">
         <v>1.44</v>
       </c>
-      <c r="V17" t="n">
+      <c r="V27" t="n">
         <v>2.63</v>
       </c>
-      <c r="W17" t="n">
+      <c r="W27" t="n">
         <v>17</v>
       </c>
-      <c r="X17" t="n">
+      <c r="X27" t="n">
         <v>12</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="Y27" t="n">
         <v>10</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="Z27" t="n">
         <v>13</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AA27" t="n">
         <v>10</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AB27" t="n">
         <v>17</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AC27" t="n">
         <v>29</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AD27" t="n">
         <v>11</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AE27" t="n">
         <v>13</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AF27" t="n">
         <v>29</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AG27" t="n">
         <v>81</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AH27" t="n">
         <v>29</v>
       </c>
-      <c r="AI17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ17" t="n">
+      <c r="AI27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ27" t="n">
         <v>19</v>
       </c>
-      <c r="AK17" t="n">
+      <c r="AK27" t="n">
         <v>67</v>
       </c>
-      <c r="AL17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM17" t="n">
+      <c r="AL27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM27" t="n">
         <v>29</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AN27" t="n">
         <v>4.33</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AO27" t="n">
         <v>7</v>
       </c>
-      <c r="AP17" t="n">
+      <c r="AP27" t="n">
         <v>12</v>
       </c>
-      <c r="AQ17" t="n">
+      <c r="AQ27" t="n">
         <v>17</v>
       </c>
-      <c r="AR17" t="n">
+      <c r="AR27" t="n">
         <v>26</v>
       </c>
-      <c r="AS17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AT17" t="n">
+      <c r="AS27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AT27" t="n">
         <v>5</v>
       </c>
-      <c r="AU17" t="n">
+      <c r="AU27" t="n">
         <v>7.5</v>
       </c>
-      <c r="AV17" t="n">
+      <c r="AV27" t="n">
         <v>34</v>
       </c>
-      <c r="AW17" t="n">
+      <c r="AW27" t="n">
         <v>201</v>
       </c>
-      <c r="AX17" t="n">
+      <c r="AX27" t="n">
         <v>8.5</v>
       </c>
-      <c r="AY17" t="n">
+      <c r="AY27" t="n">
         <v>26</v>
       </c>
-      <c r="AZ17" t="n">
+      <c r="AZ27" t="n">
         <v>23</v>
       </c>
-      <c r="BA17" t="n">
+      <c r="BA27" t="n">
         <v>81</v>
       </c>
-      <c r="BB17" t="n">
+      <c r="BB27" t="n">
         <v>67</v>
       </c>
-      <c r="BC17" t="n">
+      <c r="BC27" t="n">
         <v>101</v>
       </c>
-      <c r="BD17" t="n">
+      <c r="BD27" t="n">
         <v>176</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-27.xlsx
@@ -1496,19 +1496,19 @@
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O6" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P6" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="R6" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="S6" t="n">
         <v>1.29</v>
@@ -1517,34 +1517,34 @@
         <v>3.5</v>
       </c>
       <c r="U6" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="V6" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y6" t="n">
         <v>8.5</v>
       </c>
       <c r="Z6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA6" t="n">
         <v>12</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>11</v>
       </c>
       <c r="AB6" t="n">
         <v>21</v>
       </c>
       <c r="AC6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE6" t="n">
         <v>15</v>
@@ -1553,7 +1553,7 @@
         <v>41</v>
       </c>
       <c r="AG6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH6" t="n">
         <v>19</v>
@@ -1565,7 +1565,7 @@
         <v>17</v>
       </c>
       <c r="AK6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL6" t="n">
         <v>41</v>
@@ -1574,13 +1574,13 @@
         <v>41</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO6" t="n">
         <v>7.5</v>
       </c>
       <c r="AP6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ6" t="n">
         <v>21</v>
@@ -1598,10 +1598,10 @@
         <v>8</v>
       </c>
       <c r="AV6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AX6" t="n">
         <v>7.5</v>
@@ -1613,13 +1613,13 @@
         <v>29</v>
       </c>
       <c r="BA6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB6" t="n">
         <v>101</v>
       </c>
       <c r="BC6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD6" t="n">
         <v>81</v>
@@ -1681,16 +1681,16 @@
         <v>15</v>
       </c>
       <c r="O7" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P7" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R7" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S7" t="n">
         <v>1.33</v>
@@ -1869,10 +1869,10 @@
         <v>5.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R8" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S8" t="n">
         <v>1.25</v>
@@ -1881,10 +1881,10 @@
         <v>3.75</v>
       </c>
       <c r="U8" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V8" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W8" t="n">
         <v>21</v>
@@ -1965,7 +1965,7 @@
         <v>41</v>
       </c>
       <c r="AW8" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AX8" t="n">
         <v>3.75</v>
@@ -2224,19 +2224,19 @@
         <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O10" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P10" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R10" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S10" t="n">
         <v>1.3</v>
@@ -2385,13 +2385,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H11" t="n">
         <v>3.8</v>
       </c>
       <c r="I11" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J11" t="n">
         <v>2.75</v>
@@ -2436,7 +2436,7 @@
         <v>17</v>
       </c>
       <c r="X11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y11" t="n">
         <v>10</v>
@@ -2445,13 +2445,13 @@
         <v>26</v>
       </c>
       <c r="AA11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB11" t="n">
         <v>17</v>
       </c>
       <c r="AC11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD11" t="n">
         <v>8.5</v>
@@ -2520,7 +2520,7 @@
         <v>13</v>
       </c>
       <c r="AZ11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BA11" t="n">
         <v>41</v>
@@ -2529,7 +2529,7 @@
         <v>41</v>
       </c>
       <c r="BC11" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BD11" t="n">
         <v>81</v>
@@ -4772,7 +4772,7 @@
         <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O24" t="n">
         <v>1.36</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-27.xlsx
@@ -1293,19 +1293,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H5" t="n">
         <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J5" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K5" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L5" t="n">
         <v>4</v>
@@ -1317,22 +1317,22 @@
         <v>13</v>
       </c>
       <c r="O5" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P5" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R5" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S5" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T5" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U5" t="n">
         <v>1.62</v>
@@ -1353,16 +1353,16 @@
         <v>17</v>
       </c>
       <c r="AA5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB5" t="n">
         <v>21</v>
       </c>
       <c r="AC5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
         <v>13</v>
@@ -1374,7 +1374,7 @@
         <v>151</v>
       </c>
       <c r="AH5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI5" t="n">
         <v>21</v>
@@ -1389,28 +1389,28 @@
         <v>29</v>
       </c>
       <c r="AM5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN5" t="n">
         <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS5" t="n">
         <v>101</v>
       </c>
       <c r="AT5" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU5" t="n">
         <v>7.5</v>
@@ -1422,16 +1422,16 @@
         <v>451</v>
       </c>
       <c r="AX5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AY5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ5" t="n">
         <v>23</v>
       </c>
       <c r="BA5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB5" t="n">
         <v>67</v>
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H6" t="n">
         <v>4.5</v>
@@ -1484,10 +1484,10 @@
         <v>5.75</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K6" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L6" t="n">
         <v>5.5</v>
@@ -1499,22 +1499,22 @@
         <v>15</v>
       </c>
       <c r="O6" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P6" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="R6" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S6" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U6" t="n">
         <v>1.75</v>
@@ -1523,7 +1523,7 @@
         <v>2</v>
       </c>
       <c r="W6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X6" t="n">
         <v>8</v>
@@ -1538,7 +1538,7 @@
         <v>12</v>
       </c>
       <c r="AB6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC6" t="n">
         <v>15</v>
@@ -1547,16 +1547,16 @@
         <v>8.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG6" t="n">
         <v>201</v>
       </c>
       <c r="AH6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI6" t="n">
         <v>34</v>
@@ -1592,7 +1592,7 @@
         <v>101</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU6" t="n">
         <v>8</v>
@@ -1610,7 +1610,7 @@
         <v>29</v>
       </c>
       <c r="AZ6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA6" t="n">
         <v>101</v>
@@ -1657,13 +1657,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H7" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I7" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="J7" t="n">
         <v>4</v>
@@ -1675,10 +1675,10 @@
         <v>2.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O7" t="n">
         <v>1.22</v>
@@ -1687,10 +1687,10 @@
         <v>4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R7" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S7" t="n">
         <v>1.33</v>
@@ -1705,7 +1705,7 @@
         <v>2.1</v>
       </c>
       <c r="W7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X7" t="n">
         <v>21</v>
@@ -1723,13 +1723,13 @@
         <v>29</v>
       </c>
       <c r="AC7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD7" t="n">
         <v>7.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF7" t="n">
         <v>41</v>
@@ -1738,7 +1738,7 @@
         <v>151</v>
       </c>
       <c r="AH7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI7" t="n">
         <v>10</v>
@@ -1750,10 +1750,10 @@
         <v>17</v>
       </c>
       <c r="AL7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN7" t="n">
         <v>6</v>
@@ -1762,7 +1762,7 @@
         <v>21</v>
       </c>
       <c r="AP7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ7" t="n">
         <v>67</v>
@@ -1780,25 +1780,25 @@
         <v>7.5</v>
       </c>
       <c r="AV7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AX7" t="n">
         <v>4</v>
       </c>
       <c r="AY7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AZ7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BA7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BB7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BC7" t="n">
         <v>101</v>
@@ -2203,16 +2203,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H10" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I10" t="n">
         <v>3.3</v>
       </c>
       <c r="J10" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K10" t="n">
         <v>2.38</v>
@@ -2227,10 +2227,10 @@
         <v>15</v>
       </c>
       <c r="O10" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P10" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q10" t="n">
         <v>1.6</v>
@@ -2239,10 +2239,10 @@
         <v>2.3</v>
       </c>
       <c r="S10" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T10" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U10" t="n">
         <v>1.53</v>
@@ -2260,7 +2260,7 @@
         <v>9</v>
       </c>
       <c r="Z10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA10" t="n">
         <v>15</v>
@@ -2272,7 +2272,7 @@
         <v>15</v>
       </c>
       <c r="AD10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE10" t="n">
         <v>12</v>
@@ -2320,7 +2320,7 @@
         <v>101</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU10" t="n">
         <v>7</v>
@@ -2385,28 +2385,28 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I11" t="n">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="J11" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="K11" t="n">
         <v>2.6</v>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M11" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="O11" t="n">
         <v>1.1</v>
@@ -2427,40 +2427,40 @@
         <v>4.33</v>
       </c>
       <c r="U11" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V11" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y11" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AA11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB11" t="n">
         <v>17</v>
       </c>
       <c r="AC11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG11" t="n">
         <v>67</v>
@@ -2469,31 +2469,31 @@
         <v>19</v>
       </c>
       <c r="AI11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL11" t="n">
         <v>21</v>
       </c>
-      <c r="AJ11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>19</v>
-      </c>
       <c r="AM11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN11" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO11" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AP11" t="n">
         <v>15</v>
       </c>
       <c r="AQ11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR11" t="n">
         <v>41</v>
@@ -2514,10 +2514,10 @@
         <v>201</v>
       </c>
       <c r="AX11" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AY11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ11" t="n">
         <v>17</v>
@@ -2526,7 +2526,7 @@
         <v>41</v>
       </c>
       <c r="BB11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BC11" t="n">
         <v>81</v>
@@ -3841,16 +3841,16 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="H19" t="n">
         <v>3.7</v>
       </c>
       <c r="I19" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="J19" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K19" t="n">
         <v>2.25</v>
@@ -3871,10 +3871,10 @@
         <v>3.75</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R19" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S19" t="n">
         <v>1.36</v>
@@ -3901,7 +3901,7 @@
         <v>51</v>
       </c>
       <c r="AA19" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AB19" t="n">
         <v>41</v>
@@ -3925,7 +3925,7 @@
         <v>7.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AJ19" t="n">
         <v>8.5</v>
@@ -4751,22 +4751,22 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="H24" t="n">
         <v>3.2</v>
       </c>
       <c r="I24" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="J24" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="K24" t="n">
         <v>2.05</v>
       </c>
       <c r="L24" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M24" t="n">
         <v>1.07</v>
@@ -4799,22 +4799,22 @@
         <v>1.83</v>
       </c>
       <c r="W24" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X24" t="n">
         <v>15</v>
       </c>
       <c r="Y24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA24" t="n">
         <v>29</v>
       </c>
-      <c r="AA24" t="n">
-        <v>26</v>
-      </c>
       <c r="AB24" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC24" t="n">
         <v>8.5</v>
@@ -4829,49 +4829,49 @@
         <v>51</v>
       </c>
       <c r="AG24" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH24" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ24" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM24" t="n">
         <v>34</v>
       </c>
       <c r="AN24" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP24" t="n">
         <v>29</v>
       </c>
       <c r="AQ24" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR24" t="n">
         <v>81</v>
       </c>
       <c r="AS24" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT24" t="n">
         <v>2.63</v>
       </c>
       <c r="AU24" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV24" t="n">
         <v>51</v>
@@ -4886,10 +4886,10 @@
         <v>13</v>
       </c>
       <c r="AZ24" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA24" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB24" t="n">
         <v>67</v>
@@ -4933,22 +4933,22 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="H25" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I25" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="J25" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="K25" t="n">
         <v>2.3</v>
       </c>
       <c r="L25" t="n">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="M25" t="n">
         <v>1.04</v>
@@ -4975,28 +4975,28 @@
         <v>3.25</v>
       </c>
       <c r="U25" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V25" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W25" t="n">
+        <v>13</v>
+      </c>
+      <c r="X25" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y25" t="n">
         <v>12</v>
-      </c>
-      <c r="X25" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>11</v>
       </c>
       <c r="Z25" t="n">
         <v>34</v>
       </c>
       <c r="AA25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB25" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC25" t="n">
         <v>13</v>
@@ -5005,46 +5005,46 @@
         <v>6.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF25" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG25" t="n">
         <v>126</v>
       </c>
       <c r="AH25" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AJ25" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP25" t="n">
         <v>23</v>
       </c>
-      <c r="AL25" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>21</v>
-      </c>
       <c r="AQ25" t="n">
         <v>51</v>
       </c>
       <c r="AR25" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS25" t="n">
         <v>126</v>
@@ -5053,7 +5053,7 @@
         <v>3.25</v>
       </c>
       <c r="AU25" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV25" t="n">
         <v>41</v>
@@ -5062,22 +5062,22 @@
         <v>451</v>
       </c>
       <c r="AX25" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AY25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ25" t="n">
         <v>19</v>
       </c>
       <c r="BA25" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BB25" t="n">
         <v>51</v>
       </c>
       <c r="BC25" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BD25" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-27.xlsx
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.91</v>
+        <v>2.15</v>
       </c>
       <c r="H5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L5" t="n">
         <v>3.6</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4</v>
       </c>
       <c r="M5" t="n">
         <v>1.04</v>
@@ -1341,31 +1341,31 @@
         <v>2.2</v>
       </c>
       <c r="W5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y5" t="n">
         <v>9</v>
       </c>
-      <c r="X5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA5" t="n">
         <v>17</v>
       </c>
-      <c r="AA5" t="n">
-        <v>15</v>
-      </c>
       <c r="AB5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC5" t="n">
         <v>13</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF5" t="n">
         <v>41</v>
@@ -1374,40 +1374,40 @@
         <v>151</v>
       </c>
       <c r="AH5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI5" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AJ5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM5" t="n">
         <v>29</v>
       </c>
-      <c r="AM5" t="n">
-        <v>34</v>
-      </c>
       <c r="AN5" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP5" t="n">
         <v>19</v>
       </c>
       <c r="AQ5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR5" t="n">
         <v>51</v>
       </c>
       <c r="AS5" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT5" t="n">
         <v>3.25</v>
@@ -1425,7 +1425,7 @@
         <v>5.5</v>
       </c>
       <c r="AY5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ5" t="n">
         <v>23</v>
@@ -1475,16 +1475,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="H6" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I6" t="n">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="J6" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K6" t="n">
         <v>2.4</v>
@@ -1505,10 +1505,10 @@
         <v>4.33</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R6" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S6" t="n">
         <v>1.3</v>
@@ -1517,28 +1517,28 @@
         <v>3.4</v>
       </c>
       <c r="U6" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V6" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y6" t="n">
         <v>8.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA6" t="n">
         <v>12</v>
       </c>
       <c r="AB6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC6" t="n">
         <v>15</v>
@@ -1547,10 +1547,10 @@
         <v>8.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG6" t="n">
         <v>201</v>
@@ -1559,13 +1559,13 @@
         <v>17</v>
       </c>
       <c r="AI6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ6" t="n">
         <v>17</v>
       </c>
       <c r="AK6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL6" t="n">
         <v>41</v>
@@ -1574,7 +1574,7 @@
         <v>41</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO6" t="n">
         <v>7.5</v>
@@ -1583,7 +1583,7 @@
         <v>17</v>
       </c>
       <c r="AQ6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR6" t="n">
         <v>41</v>
@@ -1604,22 +1604,22 @@
         <v>501</v>
       </c>
       <c r="AX6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AY6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ6" t="n">
         <v>29</v>
       </c>
-      <c r="AZ6" t="n">
-        <v>34</v>
-      </c>
       <c r="BA6" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB6" t="n">
         <v>101</v>
       </c>
       <c r="BC6" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD6" t="n">
         <v>81</v>
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H7" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I7" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="J7" t="n">
         <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L7" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
@@ -1708,7 +1708,7 @@
         <v>12</v>
       </c>
       <c r="X7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y7" t="n">
         <v>12</v>
@@ -1726,7 +1726,7 @@
         <v>13</v>
       </c>
       <c r="AD7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
         <v>13</v>
@@ -1738,7 +1738,7 @@
         <v>151</v>
       </c>
       <c r="AH7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI7" t="n">
         <v>10</v>
@@ -1747,7 +1747,7 @@
         <v>8.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL7" t="n">
         <v>15</v>
@@ -1756,19 +1756,19 @@
         <v>23</v>
       </c>
       <c r="AN7" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR7" t="n">
         <v>67</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>81</v>
       </c>
       <c r="AS7" t="n">
         <v>151</v>
@@ -1786,10 +1786,10 @@
         <v>501</v>
       </c>
       <c r="AX7" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AY7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ7" t="n">
         <v>19</v>
@@ -1801,7 +1801,7 @@
         <v>51</v>
       </c>
       <c r="BC7" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BD7" t="n">
         <v>81</v>
@@ -1839,40 +1839,40 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="H8" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="I8" t="n">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K8" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="L8" t="n">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O8" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P8" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="R8" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="S8" t="n">
         <v>1.25</v>
@@ -1905,10 +1905,10 @@
         <v>41</v>
       </c>
       <c r="AC8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE8" t="n">
         <v>13</v>
@@ -1920,7 +1920,7 @@
         <v>126</v>
       </c>
       <c r="AH8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI8" t="n">
         <v>9</v>
@@ -1971,16 +1971,16 @@
         <v>3.75</v>
       </c>
       <c r="AY8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AZ8" t="n">
         <v>15</v>
       </c>
       <c r="BA8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BB8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BC8" t="n">
         <v>81</v>
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="H9" t="n">
         <v>6.5</v>
@@ -2030,7 +2030,7 @@
         <v>17</v>
       </c>
       <c r="J9" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="K9" t="n">
         <v>3</v>
@@ -2203,28 +2203,28 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="H10" t="n">
         <v>3.7</v>
       </c>
       <c r="I10" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="J10" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K10" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="L10" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O10" t="n">
         <v>1.17</v>
@@ -2233,10 +2233,10 @@
         <v>5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R10" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S10" t="n">
         <v>1.29</v>
@@ -2254,13 +2254,13 @@
         <v>10</v>
       </c>
       <c r="X10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA10" t="n">
         <v>15</v>
@@ -2284,28 +2284,28 @@
         <v>126</v>
       </c>
       <c r="AH10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>13</v>
       </c>
-      <c r="AI10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>12</v>
-      </c>
       <c r="AK10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN10" t="n">
         <v>4.33</v>
       </c>
       <c r="AO10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP10" t="n">
         <v>17</v>
@@ -2335,7 +2335,7 @@
         <v>5.5</v>
       </c>
       <c r="AY10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ10" t="n">
         <v>21</v>
@@ -2344,7 +2344,7 @@
         <v>51</v>
       </c>
       <c r="BB10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC10" t="n">
         <v>126</v>
@@ -2385,28 +2385,28 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H11" t="n">
         <v>3.9</v>
       </c>
       <c r="I11" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J11" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K11" t="n">
         <v>2.6</v>
       </c>
       <c r="L11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M11" t="n">
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O11" t="n">
         <v>1.1</v>
@@ -2451,7 +2451,7 @@
         <v>17</v>
       </c>
       <c r="AC11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD11" t="n">
         <v>9</v>
@@ -2472,7 +2472,7 @@
         <v>23</v>
       </c>
       <c r="AJ11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK11" t="n">
         <v>41</v>
@@ -2517,13 +2517,13 @@
         <v>6</v>
       </c>
       <c r="AY11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BA11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB11" t="n">
         <v>51</v>
@@ -3841,16 +3841,16 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="H19" t="n">
         <v>3.7</v>
       </c>
       <c r="I19" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="J19" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="K19" t="n">
         <v>2.25</v>
@@ -3859,10 +3859,10 @@
         <v>2.3</v>
       </c>
       <c r="M19" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O19" t="n">
         <v>1.25</v>
@@ -3871,10 +3871,10 @@
         <v>3.75</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R19" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S19" t="n">
         <v>1.36</v>
@@ -3901,7 +3901,7 @@
         <v>51</v>
       </c>
       <c r="AA19" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AB19" t="n">
         <v>41</v>
@@ -3925,7 +3925,7 @@
         <v>7.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AJ19" t="n">
         <v>8.5</v>
@@ -4751,55 +4751,55 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H24" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I24" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="J24" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K24" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L24" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M24" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O24" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P24" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R24" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S24" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T24" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U24" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V24" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W24" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X24" t="n">
         <v>15</v>
@@ -4817,13 +4817,13 @@
         <v>41</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD24" t="n">
         <v>6</v>
       </c>
       <c r="AE24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF24" t="n">
         <v>51</v>
@@ -4844,7 +4844,7 @@
         <v>21</v>
       </c>
       <c r="AL24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM24" t="n">
         <v>34</v>
@@ -4862,19 +4862,19 @@
         <v>67</v>
       </c>
       <c r="AR24" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS24" t="n">
         <v>251</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU24" t="n">
         <v>8.5</v>
       </c>
       <c r="AV24" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW24" t="n">
         <v>51</v>
@@ -4886,7 +4886,7 @@
         <v>13</v>
       </c>
       <c r="AZ24" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA24" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-27.xlsx
@@ -1111,16 +1111,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I4" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="J4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K4" t="n">
         <v>4</v>
@@ -1129,10 +1129,10 @@
         <v>1.3</v>
       </c>
       <c r="M4" t="n">
-        <v>41</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="O4" t="n">
         <v>1.04</v>
@@ -1153,16 +1153,16 @@
         <v>6.5</v>
       </c>
       <c r="U4" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V4" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="X4" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="Y4" t="n">
         <v>51</v>
@@ -1171,7 +1171,7 @@
         <v>251</v>
       </c>
       <c r="AA4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AB4" t="n">
         <v>81</v>
@@ -1180,52 +1180,52 @@
         <v>34</v>
       </c>
       <c r="AD4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG4" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH4" t="n">
         <v>19</v>
       </c>
       <c r="AI4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK4" t="n">
         <v>8.5</v>
       </c>
       <c r="AL4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP4" t="n">
         <v>41</v>
       </c>
       <c r="AQ4" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AR4" t="n">
         <v>201</v>
       </c>
       <c r="AS4" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT4" t="n">
         <v>6.5</v>
@@ -1237,19 +1237,19 @@
         <v>51</v>
       </c>
       <c r="AW4" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AX4" t="n">
         <v>4</v>
       </c>
       <c r="AY4" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AZ4" t="n">
         <v>13</v>
       </c>
       <c r="BA4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="BB4" t="n">
         <v>21</v>
@@ -1299,7 +1299,7 @@
         <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J5" t="n">
         <v>2.75</v>
@@ -1323,10 +1323,10 @@
         <v>4</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R5" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S5" t="n">
         <v>1.33</v>
@@ -1344,7 +1344,7 @@
         <v>9.5</v>
       </c>
       <c r="X5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y5" t="n">
         <v>9</v>
@@ -1395,7 +1395,7 @@
         <v>4.33</v>
       </c>
       <c r="AO5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP5" t="n">
         <v>19</v>
@@ -1422,7 +1422,7 @@
         <v>451</v>
       </c>
       <c r="AX5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AY5" t="n">
         <v>17</v>
@@ -1478,55 +1478,55 @@
         <v>1.57</v>
       </c>
       <c r="H6" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I6" t="n">
         <v>5.25</v>
       </c>
       <c r="J6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="L6" t="n">
+        <v>5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N6" t="n">
+        <v>13</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R6" t="n">
         <v>2.1</v>
       </c>
-      <c r="K6" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N6" t="n">
-        <v>15</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.15</v>
-      </c>
       <c r="S6" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T6" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U6" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="V6" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y6" t="n">
         <v>8.5</v>
@@ -1538,13 +1538,13 @@
         <v>12</v>
       </c>
       <c r="AB6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD6" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE6" t="n">
         <v>15</v>
@@ -1556,7 +1556,7 @@
         <v>201</v>
       </c>
       <c r="AH6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI6" t="n">
         <v>29</v>
@@ -1577,7 +1577,7 @@
         <v>3.75</v>
       </c>
       <c r="AO6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AP6" t="n">
         <v>17</v>
@@ -1592,7 +1592,7 @@
         <v>101</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU6" t="n">
         <v>8</v>
@@ -1619,7 +1619,7 @@
         <v>101</v>
       </c>
       <c r="BC6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD6" t="n">
         <v>81</v>
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H7" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="J7" t="n">
         <v>3.75</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="J7" t="n">
-        <v>4</v>
       </c>
       <c r="K7" t="n">
         <v>2.25</v>
       </c>
       <c r="L7" t="n">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
@@ -1681,16 +1681,16 @@
         <v>13</v>
       </c>
       <c r="O7" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R7" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S7" t="n">
         <v>1.33</v>
@@ -1705,19 +1705,19 @@
         <v>2.1</v>
       </c>
       <c r="W7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB7" t="n">
         <v>29</v>
@@ -1741,10 +1741,10 @@
         <v>9</v>
       </c>
       <c r="AI7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK7" t="n">
         <v>19</v>
@@ -1759,7 +1759,7 @@
         <v>5.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP7" t="n">
         <v>23</v>
@@ -1795,7 +1795,7 @@
         <v>19</v>
       </c>
       <c r="BA7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BB7" t="n">
         <v>51</v>
@@ -1839,64 +1839,64 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>6.25</v>
+        <v>7.5</v>
       </c>
       <c r="H8" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="I8" t="n">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="J8" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="K8" t="n">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="L8" t="n">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="M8" t="n">
         <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O8" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P8" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R8" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="S8" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T8" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U8" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V8" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W8" t="n">
+        <v>23</v>
+      </c>
+      <c r="X8" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y8" t="n">
         <v>21</v>
       </c>
-      <c r="X8" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>19</v>
-      </c>
       <c r="Z8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AA8" t="n">
         <v>41</v>
@@ -1905,61 +1905,61 @@
         <v>41</v>
       </c>
       <c r="AC8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF8" t="n">
         <v>41</v>
       </c>
       <c r="AG8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH8" t="n">
         <v>11</v>
       </c>
       <c r="AI8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>9</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AK8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN8" t="n">
         <v>8.5</v>
       </c>
-      <c r="AK8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AO8" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AP8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ8" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AR8" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS8" t="n">
         <v>151</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AU8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV8" t="n">
         <v>41</v>
@@ -1971,13 +1971,13 @@
         <v>3.75</v>
       </c>
       <c r="AY8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AZ8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BB8" t="n">
         <v>34</v>
@@ -2021,76 +2021,76 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="H9" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="I9" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="K9" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="L9" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="M9" t="n">
         <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O9" t="n">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="P9" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="R9" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="S9" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="T9" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U9" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V9" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="W9" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="X9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Z9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA9" t="n">
         <v>11</v>
       </c>
       <c r="AB9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC9" t="n">
         <v>15</v>
       </c>
       <c r="AD9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE9" t="n">
         <v>23</v>
@@ -2102,70 +2102,70 @@
         <v>401</v>
       </c>
       <c r="AH9" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AI9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL9" t="n">
         <v>67</v>
       </c>
-      <c r="AJ9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>251</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>101</v>
-      </c>
       <c r="AM9" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AN9" t="n">
         <v>3.25</v>
       </c>
       <c r="AO9" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AP9" t="n">
         <v>17</v>
       </c>
       <c r="AQ9" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AR9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS9" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT9" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AU9" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AV9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW9" t="n">
         <v>81</v>
       </c>
       <c r="AX9" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AY9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA9" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="BB9" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC9" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BD9" t="n">
         <v>81</v>
@@ -2203,22 +2203,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="H10" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I10" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="J10" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="K10" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="L10" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
@@ -2233,10 +2233,10 @@
         <v>5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R10" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S10" t="n">
         <v>1.29</v>
@@ -2245,49 +2245,49 @@
         <v>3.5</v>
       </c>
       <c r="U10" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V10" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W10" t="n">
         <v>10</v>
       </c>
       <c r="X10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y10" t="n">
         <v>8.5</v>
       </c>
       <c r="Z10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC10" t="n">
         <v>17</v>
       </c>
-      <c r="AA10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>15</v>
-      </c>
       <c r="AD10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG10" t="n">
         <v>126</v>
       </c>
       <c r="AH10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ10" t="n">
         <v>13</v>
@@ -2296,34 +2296,34 @@
         <v>41</v>
       </c>
       <c r="AL10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM10" t="n">
         <v>29</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ10" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AR10" t="n">
         <v>41</v>
       </c>
       <c r="AS10" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT10" t="n">
         <v>3.5</v>
       </c>
       <c r="AU10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV10" t="n">
         <v>41</v>
@@ -2332,16 +2332,16 @@
         <v>351</v>
       </c>
       <c r="AX10" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AY10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB10" t="n">
         <v>67</v>
@@ -4933,22 +4933,22 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H25" t="n">
         <v>3.3</v>
       </c>
       <c r="I25" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="J25" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K25" t="n">
         <v>2.3</v>
       </c>
       <c r="L25" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M25" t="n">
         <v>1.04</v>
@@ -4969,16 +4969,16 @@
         <v>2.1</v>
       </c>
       <c r="S25" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T25" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U25" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V25" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W25" t="n">
         <v>13</v>
@@ -5005,25 +5005,25 @@
         <v>6.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF25" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG25" t="n">
         <v>126</v>
       </c>
       <c r="AH25" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ25" t="n">
         <v>9</v>
       </c>
       <c r="AK25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL25" t="n">
         <v>15</v>
@@ -5038,7 +5038,7 @@
         <v>17</v>
       </c>
       <c r="AP25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ25" t="n">
         <v>51</v>
@@ -5050,16 +5050,16 @@
         <v>126</v>
       </c>
       <c r="AT25" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU25" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV25" t="n">
         <v>41</v>
       </c>
       <c r="AW25" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AX25" t="n">
         <v>4.33</v>
@@ -5071,7 +5071,7 @@
         <v>19</v>
       </c>
       <c r="BA25" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BB25" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD27"/>
+  <dimension ref="A1:BD28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>zs7jl51J</t>
+          <t>vRk6xlYg</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,170 +1092,170 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>04:30</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CHINA - SUPER LEAGUE</t>
+          <t>AUSTRIA - 2. LIGA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Cangzhou</t>
+          <t>Horn</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Shanghai Port</t>
+          <t>St. Polten</t>
         </is>
       </c>
       <c r="G4" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="W4" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AM4" t="n">
         <v>21</v>
       </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="J4" t="n">
-        <v>12</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N4" t="n">
-        <v>34</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P4" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="R4" t="n">
-        <v>5</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="T4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W4" t="n">
-        <v>51</v>
-      </c>
-      <c r="X4" t="n">
-        <v>101</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>51</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>251</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>126</v>
-      </c>
-      <c r="AB4" t="n">
+      <c r="AN4" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>110</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>120</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW4" t="n">
         <v>81</v>
       </c>
-      <c r="AC4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM4" t="n">
+      <c r="AX4" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="BA4" t="n">
         <v>26</v>
       </c>
-      <c r="AN4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>301</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>201</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>351</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>13</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>8</v>
-      </c>
       <c r="BB4" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="BC4" t="n">
-        <v>67</v>
+        <v>175</v>
       </c>
       <c r="BD4" t="n">
         <v>81</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>I5x6tgrD</t>
+          <t>zs7jl51J</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1284,160 +1284,160 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Henan Songshan Longmen</t>
+          <t>Cangzhou</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Changchun Yatai</t>
+          <t>Shanghai Port</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.15</v>
+        <v>21</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>10</v>
       </c>
       <c r="I5" t="n">
-        <v>3.1</v>
+        <v>1.08</v>
       </c>
       <c r="J5" t="n">
-        <v>2.75</v>
+        <v>12</v>
       </c>
       <c r="K5" t="n">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
-        <v>3.6</v>
+        <v>1.33</v>
       </c>
       <c r="M5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N5" t="n">
+        <v>34</v>
+      </c>
+      <c r="O5" t="n">
         <v>1.04</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>13</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
       <c r="Q5" t="n">
-        <v>1.75</v>
+        <v>1.18</v>
       </c>
       <c r="R5" t="n">
-        <v>2.05</v>
+        <v>4.5</v>
       </c>
       <c r="S5" t="n">
-        <v>1.33</v>
+        <v>1.11</v>
       </c>
       <c r="T5" t="n">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="U5" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="V5" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="W5" t="n">
-        <v>9.5</v>
+        <v>51</v>
       </c>
       <c r="X5" t="n">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="Y5" t="n">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="Z5" t="n">
+        <v>251</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>126</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD5" t="n">
         <v>21</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AE5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH5" t="n">
         <v>17</v>
       </c>
-      <c r="AB5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC5" t="n">
+      <c r="AI5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>13</v>
       </c>
-      <c r="AD5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI5" t="n">
+      <c r="AK5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN5" t="n">
         <v>17</v>
       </c>
-      <c r="AJ5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4.33</v>
-      </c>
       <c r="AO5" t="n">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="AP5" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AQ5" t="n">
-        <v>41</v>
+        <v>301</v>
       </c>
       <c r="AR5" t="n">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="AS5" t="n">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="AT5" t="n">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="AU5" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="AV5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AX5" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="AY5" t="n">
-        <v>17</v>
+        <v>4.5</v>
       </c>
       <c r="AZ5" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="BA5" t="n">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="BB5" t="n">
+        <v>21</v>
+      </c>
+      <c r="BC5" t="n">
         <v>67</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>151</v>
       </c>
       <c r="BD5" t="n">
         <v>81</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>W8tAuDcJ</t>
+          <t>I5x6tgrD</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1466,31 +1466,31 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Meizhou Hakka</t>
+          <t>Henan Songshan Longmen</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Wuhan Three Towns</t>
+          <t>Changchun Yatai</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.57</v>
+        <v>2.2</v>
       </c>
       <c r="H6" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="J6" t="n">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="K6" t="n">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
@@ -1505,10 +1505,10 @@
         <v>4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="R6" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S6" t="n">
         <v>1.33</v>
@@ -1517,25 +1517,25 @@
         <v>3.25</v>
       </c>
       <c r="U6" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="V6" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="W6" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="X6" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AA6" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AB6" t="n">
         <v>23</v>
@@ -1544,82 +1544,82 @@
         <v>13</v>
       </c>
       <c r="AD6" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AF6" t="n">
         <v>41</v>
       </c>
       <c r="AG6" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH6" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AI6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM6" t="n">
         <v>29</v>
       </c>
-      <c r="AJ6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>41</v>
-      </c>
       <c r="AN6" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="AO6" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AP6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ6" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AR6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS6" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT6" t="n">
         <v>3.25</v>
       </c>
       <c r="AU6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW6" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AX6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AY6" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AZ6" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="BA6" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB6" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BC6" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD6" t="n">
         <v>81</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>EX5fmPGP</t>
+          <t>W8tAuDcJ</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1648,31 +1648,31 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Nantong Zhiyun</t>
+          <t>Meizhou Hakka</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Beijing Guoan</t>
+          <t>Wuhan Three Towns</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.2</v>
+        <v>1.57</v>
       </c>
       <c r="H7" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="I7" t="n">
-        <v>2.05</v>
+        <v>5.5</v>
       </c>
       <c r="J7" t="n">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="K7" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="L7" t="n">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
@@ -1681,16 +1681,16 @@
         <v>13</v>
       </c>
       <c r="O7" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P7" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="R7" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S7" t="n">
         <v>1.33</v>
@@ -1699,85 +1699,85 @@
         <v>3.25</v>
       </c>
       <c r="U7" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="V7" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="W7" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="X7" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="Y7" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="AA7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB7" t="n">
         <v>23</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>29</v>
       </c>
       <c r="AC7" t="n">
         <v>13</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE7" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AF7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG7" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH7" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AI7" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AJ7" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AK7" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="AL7" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AM7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ7" t="n">
         <v>23</v>
       </c>
-      <c r="AN7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>51</v>
-      </c>
       <c r="AR7" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AS7" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT7" t="n">
         <v>3.25</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV7" t="n">
         <v>51</v>
@@ -1786,22 +1786,22 @@
         <v>501</v>
       </c>
       <c r="AX7" t="n">
-        <v>4.33</v>
+        <v>7</v>
       </c>
       <c r="AY7" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AZ7" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="BA7" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="BB7" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BC7" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="BD7" t="n">
         <v>81</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6PcMrqPt</t>
+          <t>EX5fmPGP</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1830,88 +1830,88 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Nantong Zhiyun</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Chengdu Rongcheng</t>
+          <t>Beijing Guoan</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="I8" t="n">
-        <v>1.38</v>
+        <v>2.2</v>
       </c>
       <c r="J8" t="n">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="K8" t="n">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="L8" t="n">
-        <v>1.83</v>
+        <v>2.88</v>
       </c>
       <c r="M8" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="O8" t="n">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="R8" t="n">
-        <v>2.88</v>
+        <v>2.05</v>
       </c>
       <c r="S8" t="n">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="T8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U8" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V8" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W8" t="n">
+        <v>11</v>
+      </c>
+      <c r="X8" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA8" t="n">
         <v>23</v>
       </c>
-      <c r="X8" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>41</v>
-      </c>
       <c r="AB8" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AC8" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AD8" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF8" t="n">
         <v>41</v>
@@ -1920,70 +1920,70 @@
         <v>151</v>
       </c>
       <c r="AH8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI8" t="n">
         <v>11</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>8.5</v>
       </c>
       <c r="AJ8" t="n">
         <v>9</v>
       </c>
       <c r="AK8" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AL8" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AM8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN8" t="n">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="AO8" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AP8" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AQ8" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AR8" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AS8" t="n">
         <v>151</v>
       </c>
       <c r="AT8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="AX8" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="AY8" t="n">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="AZ8" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="BA8" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="BB8" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="BC8" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD8" t="n">
         <v>81</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>phvbrFD0</t>
+          <t>6PcMrqPt</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2012,160 +2012,160 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Shanghai Shenhua</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Shenzhen Xinpengcheng</t>
+          <t>Chengdu Rongcheng</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.25</v>
+        <v>7.5</v>
       </c>
       <c r="H9" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="I9" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="J9" t="n">
+        <v>6</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N9" t="n">
+        <v>21</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T9" t="n">
+        <v>4</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W9" t="n">
+        <v>23</v>
+      </c>
+      <c r="X9" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD9" t="n">
         <v>10</v>
       </c>
-      <c r="J9" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="L9" t="n">
+      <c r="AE9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI9" t="n">
         <v>8.5</v>
       </c>
-      <c r="M9" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N9" t="n">
+      <c r="AJ9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>351</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA9" t="n">
         <v>17</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>401</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>151</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW9" t="n">
+      <c r="BB9" t="n">
+        <v>34</v>
+      </c>
+      <c r="BC9" t="n">
         <v>81</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>201</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>351</v>
       </c>
       <c r="BD9" t="n">
         <v>81</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Orw2sZS6</t>
+          <t>phvbrFD0</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2194,31 +2194,31 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Tianjin Jinmen Tiger</t>
+          <t>Shanghai Shenhua</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Qingdao Hainiu</t>
+          <t>Shenzhen Xinpengcheng</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.75</v>
+        <v>1.27</v>
       </c>
       <c r="H10" t="n">
-        <v>3.9</v>
+        <v>5.5</v>
       </c>
       <c r="I10" t="n">
-        <v>4.33</v>
+        <v>9.5</v>
       </c>
       <c r="J10" t="n">
-        <v>2.3</v>
+        <v>1.73</v>
       </c>
       <c r="K10" t="n">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="L10" t="n">
-        <v>4.33</v>
+        <v>8.5</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
@@ -2227,16 +2227,16 @@
         <v>17</v>
       </c>
       <c r="O10" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P10" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="R10" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="S10" t="n">
         <v>1.29</v>
@@ -2245,109 +2245,109 @@
         <v>3.5</v>
       </c>
       <c r="U10" t="n">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="W10" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="X10" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC10" t="n">
         <v>15</v>
       </c>
-      <c r="AA10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC10" t="n">
+      <c r="AD10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>126</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP10" t="n">
         <v>17</v>
       </c>
-      <c r="AD10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG10" t="n">
+      <c r="AQ10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS10" t="n">
         <v>126</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>81</v>
       </c>
       <c r="AT10" t="n">
         <v>3.5</v>
       </c>
       <c r="AU10" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>201</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC10" t="n">
         <v>351</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>67</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>126</v>
       </c>
       <c r="BD10" t="n">
         <v>81</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4tN0qebf</t>
+          <t>Orw2sZS6</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2376,160 +2376,160 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Zhejiang Professional</t>
+          <t>Tianjin Jinmen Tiger</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Shandong Taishan</t>
+          <t>Qingdao Hainiu</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.95</v>
+        <v>1.65</v>
       </c>
       <c r="H11" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I11" t="n">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="J11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N11" t="n">
+        <v>17</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R11" t="n">
         <v>2.4</v>
       </c>
-      <c r="K11" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L11" t="n">
+      <c r="S11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T11" t="n">
         <v>3.5</v>
       </c>
-      <c r="M11" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N11" t="n">
-        <v>23</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R11" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="T11" t="n">
-        <v>4.33</v>
-      </c>
       <c r="U11" t="n">
-        <v>1.36</v>
+        <v>1.57</v>
       </c>
       <c r="V11" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="W11" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="X11" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AA11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE11" t="n">
         <v>13</v>
       </c>
-      <c r="AB11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>11</v>
-      </c>
       <c r="AF11" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AG11" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="AH11" t="n">
         <v>19</v>
       </c>
       <c r="AI11" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AJ11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL11" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AM11" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AN11" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="AO11" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AP11" t="n">
         <v>15</v>
       </c>
       <c r="AQ11" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AR11" t="n">
         <v>41</v>
       </c>
       <c r="AS11" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>351</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA11" t="n">
         <v>67</v>
       </c>
-      <c r="AT11" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>201</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>19</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>51</v>
-      </c>
       <c r="BB11" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BC11" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD11" t="n">
         <v>81</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Ea2rq5zB</t>
+          <t>4tN0qebf</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,179 +2548,179 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>04:30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>JAPAN - J2 LEAGUE</t>
+          <t>CHINA - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>V-Varen Nagasaki</t>
+          <t>Zhejiang Professional</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Kagoshima Utd</t>
+          <t>Shandong Taishan</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.67</v>
+        <v>1.95</v>
       </c>
       <c r="H12" t="n">
         <v>3.9</v>
       </c>
       <c r="I12" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="J12" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="K12" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="L12" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N12" t="n">
+        <v>23</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="T12" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V12" t="n">
+        <v>3</v>
+      </c>
+      <c r="W12" t="n">
         <v>15</v>
       </c>
-      <c r="O12" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P12" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T12" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W12" t="n">
-        <v>9</v>
-      </c>
       <c r="X12" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y12" t="n">
         <v>9.5</v>
       </c>
-      <c r="Y12" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z12" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AA12" t="n">
         <v>13</v>
       </c>
       <c r="AB12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL12" t="n">
         <v>21</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AM12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP12" t="n">
         <v>15</v>
       </c>
-      <c r="AD12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH12" t="n">
+      <c r="AQ12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>201</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY12" t="n">
         <v>17</v>
       </c>
-      <c r="AI12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>23</v>
-      </c>
       <c r="AZ12" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="BA12" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB12" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC12" t="n">
         <v>81</v>
       </c>
-      <c r="BC12" t="n">
-        <v>151</v>
-      </c>
       <c r="BD12" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>rLRDTPzO</t>
+          <t>Ea2rq5zB</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,7 +2730,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2740,160 +2740,160 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Blaublitz</t>
+          <t>V-Varen Nagasaki</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Oita Trinita</t>
+          <t>Kagoshima Utd</t>
         </is>
       </c>
       <c r="G13" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J13" t="n">
         <v>2.25</v>
       </c>
-      <c r="H13" t="n">
-        <v>3</v>
-      </c>
-      <c r="I13" t="n">
+      <c r="K13" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N13" t="n">
+        <v>15</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T13" t="n">
         <v>3.4</v>
       </c>
-      <c r="J13" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L13" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N13" t="n">
-        <v>7</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.25</v>
-      </c>
       <c r="U13" t="n">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="V13" t="n">
-        <v>1.67</v>
+        <v>2.2</v>
       </c>
       <c r="W13" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="X13" t="n">
         <v>9.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Z13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB13" t="n">
         <v>21</v>
       </c>
-      <c r="AA13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>41</v>
-      </c>
       <c r="AC13" t="n">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="AD13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE13" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AF13" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AG13" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="AH13" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AI13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>15</v>
       </c>
-      <c r="AJ13" t="n">
-        <v>13</v>
-      </c>
       <c r="AK13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL13" t="n">
         <v>34</v>
       </c>
       <c r="AM13" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN13" t="n">
         <v>4</v>
       </c>
       <c r="AO13" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="AP13" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AQ13" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="AR13" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AS13" t="n">
-        <v>251</v>
+        <v>101</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU13" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AV13" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AW13" t="n">
         <v>51</v>
       </c>
       <c r="AX13" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AY13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ13" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="BA13" t="n">
         <v>67</v>
       </c>
       <c r="BB13" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC13" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="BD13" t="n">
         <v>51</v>
@@ -2902,7 +2902,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Cz6Rnmyn</t>
+          <t>rLRDTPzO</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2922,31 +2922,31 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Kusatsu</t>
+          <t>Blaublitz</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tokushima</t>
+          <t>Oita Trinita</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="H14" t="n">
+        <v>3</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J14" t="n">
         <v>3.1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>4.33</v>
       </c>
       <c r="K14" t="n">
         <v>1.95</v>
       </c>
       <c r="L14" t="n">
-        <v>2.88</v>
+        <v>4.33</v>
       </c>
       <c r="M14" t="n">
         <v>1.1</v>
@@ -2955,22 +2955,22 @@
         <v>7</v>
       </c>
       <c r="O14" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P14" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R14" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S14" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T14" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U14" t="n">
         <v>2.1</v>
@@ -2979,25 +2979,25 @@
         <v>1.67</v>
       </c>
       <c r="W14" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="X14" t="n">
-        <v>17</v>
+        <v>9.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Z14" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AA14" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AB14" t="n">
         <v>41</v>
       </c>
       <c r="AC14" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD14" t="n">
         <v>6</v>
@@ -3009,46 +3009,46 @@
         <v>67</v>
       </c>
       <c r="AG14" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AH14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AI14" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AK14" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AL14" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AM14" t="n">
         <v>41</v>
       </c>
       <c r="AN14" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="AO14" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AP14" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR14" t="n">
         <v>81</v>
       </c>
-      <c r="AR14" t="n">
-        <v>126</v>
-      </c>
       <c r="AS14" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU14" t="n">
         <v>9</v>
@@ -3060,22 +3060,22 @@
         <v>51</v>
       </c>
       <c r="AX14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY14" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AZ14" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="BA14" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BB14" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BC14" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BD14" t="n">
         <v>51</v>
@@ -3084,7 +3084,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>dOVHSqjU</t>
+          <t>Cz6Rnmyn</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3104,160 +3104,160 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Montedio Yamagata</t>
+          <t>Kusatsu</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Kumamoto</t>
+          <t>Tokushima</t>
         </is>
       </c>
       <c r="G15" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N15" t="n">
+        <v>7</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q15" t="n">
         <v>2.5</v>
       </c>
-      <c r="H15" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N15" t="n">
+      <c r="R15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X15" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y15" t="n">
         <v>13</v>
       </c>
-      <c r="O15" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P15" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R15" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T15" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V15" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W15" t="n">
-        <v>10</v>
-      </c>
-      <c r="X15" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>10</v>
-      </c>
       <c r="Z15" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AA15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE15" t="n">
         <v>19</v>
       </c>
-      <c r="AB15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>12</v>
-      </c>
       <c r="AF15" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AG15" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH15" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AI15" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AJ15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AL15" t="n">
         <v>21</v>
       </c>
       <c r="AM15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ15" t="n">
         <v>26</v>
       </c>
-      <c r="AN15" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>21</v>
-      </c>
       <c r="BA15" t="n">
         <v>41</v>
       </c>
       <c r="BB15" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC15" t="n">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="BD15" t="n">
         <v>51</v>
@@ -3266,7 +3266,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>82azoR5b</t>
+          <t>dOVHSqjU</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3286,64 +3286,64 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Renofa Yamaguchi</t>
+          <t>Montedio Yamagata</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Kofu</t>
+          <t>Kumamoto</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="H16" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L16" t="n">
         <v>3.2</v>
       </c>
-      <c r="I16" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="J16" t="n">
+      <c r="M16" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N16" t="n">
+        <v>13</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T16" t="n">
         <v>3.25</v>
       </c>
-      <c r="K16" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N16" t="n">
-        <v>11</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.75</v>
-      </c>
       <c r="U16" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="V16" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="W16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X16" t="n">
         <v>13</v>
@@ -3352,34 +3352,34 @@
         <v>10</v>
       </c>
       <c r="Z16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB16" t="n">
         <v>26</v>
       </c>
-      <c r="AA16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>29</v>
-      </c>
       <c r="AC16" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AD16" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG16" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH16" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ16" t="n">
         <v>10</v>
@@ -3391,34 +3391,34 @@
         <v>21</v>
       </c>
       <c r="AM16" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN16" t="n">
         <v>4.75</v>
       </c>
       <c r="AO16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR16" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS16" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="AU16" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW16" t="n">
         <v>51</v>
@@ -3430,16 +3430,16 @@
         <v>15</v>
       </c>
       <c r="AZ16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB16" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC16" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD16" t="n">
         <v>51</v>
@@ -3448,7 +3448,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Yq7NmTLu</t>
+          <t>82azoR5b</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3468,31 +3468,31 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Tochigi SC</t>
+          <t>Renofa Yamaguchi</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Shimizu S-Pulse</t>
+          <t>Kofu</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>5.5</v>
+        <v>2.63</v>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="I17" t="n">
-        <v>1.57</v>
+        <v>2.63</v>
       </c>
       <c r="J17" t="n">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="K17" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L17" t="n">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="M17" t="n">
         <v>1.05</v>
@@ -3501,103 +3501,103 @@
         <v>11</v>
       </c>
       <c r="O17" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P17" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="R17" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="S17" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T17" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U17" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="V17" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W17" t="n">
+        <v>9</v>
+      </c>
+      <c r="X17" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO17" t="n">
         <v>15</v>
       </c>
-      <c r="X17" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>29</v>
-      </c>
       <c r="AP17" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AQ17" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AR17" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="AS17" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AT17" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU17" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV17" t="n">
         <v>51</v>
@@ -3606,19 +3606,19 @@
         <v>51</v>
       </c>
       <c r="AX17" t="n">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="AY17" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AZ17" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="BA17" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="BB17" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BC17" t="n">
         <v>151</v>
@@ -3630,7 +3630,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>UB0Wo7jh</t>
+          <t>Yq7NmTLu</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3650,85 +3650,85 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Yokohama FC</t>
+          <t>Tochigi SC</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Okayama</t>
+          <t>Shimizu S-Pulse</t>
         </is>
       </c>
       <c r="G18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="J18" t="n">
+        <v>6</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N18" t="n">
+        <v>11</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T18" t="n">
+        <v>3</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V18" t="n">
         <v>1.8</v>
       </c>
-      <c r="H18" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I18" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L18" t="n">
-        <v>5</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.73</v>
-      </c>
       <c r="W18" t="n">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="X18" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="Y18" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="Z18" t="n">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="AA18" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AB18" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AD18" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE18" t="n">
         <v>17</v>
@@ -3737,73 +3737,73 @@
         <v>51</v>
       </c>
       <c r="AG18" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK18" t="n">
         <v>11</v>
       </c>
-      <c r="AI18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>51</v>
-      </c>
       <c r="AL18" t="n">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="AM18" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AN18" t="n">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="AO18" t="n">
-        <v>9.5</v>
+        <v>29</v>
       </c>
       <c r="AP18" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AQ18" t="n">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="AR18" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="AS18" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="AU18" t="n">
         <v>8.5</v>
       </c>
       <c r="AV18" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW18" t="n">
         <v>51</v>
       </c>
       <c r="AX18" t="n">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="AY18" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="AZ18" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="BA18" t="n">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="BB18" t="n">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="BC18" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="BD18" t="n">
         <v>51</v>
@@ -3812,7 +3812,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2PbvpoL4</t>
+          <t>UB0Wo7jh</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3822,7 +3822,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>04:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -3832,160 +3832,160 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Ehime</t>
+          <t>Yokohama FC</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vegalta Sendai</t>
+          <t>Okayama</t>
         </is>
       </c>
       <c r="G19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I19" t="n">
         <v>4.5</v>
       </c>
-      <c r="H19" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>5</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2</v>
+      </c>
+      <c r="V19" t="n">
         <v>1.73</v>
       </c>
-      <c r="J19" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K19" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N19" t="n">
-        <v>11</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P19" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R19" t="n">
-        <v>2</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T19" t="n">
-        <v>3</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.91</v>
-      </c>
       <c r="W19" t="n">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="X19" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="Y19" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z19" t="n">
         <v>15</v>
       </c>
-      <c r="Z19" t="n">
-        <v>51</v>
-      </c>
       <c r="AA19" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AB19" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AC19" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AD19" t="n">
         <v>7</v>
       </c>
       <c r="AE19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ19" t="n">
         <v>15</v>
       </c>
-      <c r="AF19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI19" t="n">
+      <c r="AK19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU19" t="n">
         <v>8.5</v>
       </c>
-      <c r="AJ19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM19" t="n">
+      <c r="AV19" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY19" t="n">
         <v>26</v>
       </c>
-      <c r="AN19" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ19" t="n">
+      <c r="AZ19" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA19" t="n">
         <v>81</v>
       </c>
-      <c r="AR19" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>9</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>19</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>29</v>
-      </c>
       <c r="BB19" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BC19" t="n">
-        <v>126</v>
+        <v>301</v>
       </c>
       <c r="BD19" t="n">
         <v>51</v>
@@ -3994,7 +3994,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>vgQ2st0d</t>
+          <t>2PbvpoL4</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4004,143 +4004,143 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>JAPAN - J2 LEAGUE</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>U.A.N.L.- Tigres</t>
+          <t>Ehime</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Pachuca</t>
+          <t>Vegalta Sendai</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.62</v>
+        <v>4.5</v>
       </c>
       <c r="H20" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="I20" t="n">
-        <v>5.25</v>
+        <v>1.73</v>
       </c>
       <c r="J20" t="n">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="K20" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="M20" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
+        <v>11</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T20" t="n">
+        <v>3</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W20" t="n">
+        <v>13</v>
+      </c>
+      <c r="X20" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y20" t="n">
         <v>15</v>
       </c>
-      <c r="O20" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P20" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R20" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T20" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V20" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="W20" t="n">
-        <v>8</v>
-      </c>
-      <c r="X20" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z20" t="n">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="AA20" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="AB20" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AC20" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD20" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE20" t="n">
         <v>15</v>
       </c>
       <c r="AF20" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG20" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS20" t="n">
         <v>201</v>
       </c>
-      <c r="AH20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>101</v>
-      </c>
       <c r="AT20" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="AU20" t="n">
         <v>8</v>
@@ -4149,34 +4149,34 @@
         <v>51</v>
       </c>
       <c r="AW20" t="n">
-        <v>501</v>
+        <v>51</v>
       </c>
       <c r="AX20" t="n">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="AY20" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="AZ20" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA20" t="n">
         <v>29</v>
       </c>
-      <c r="BA20" t="n">
-        <v>81</v>
-      </c>
       <c r="BB20" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BC20" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD20" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>6aIl5qh3</t>
+          <t>vgQ2st0d</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4186,7 +4186,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>00:05</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -4196,109 +4196,109 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Atlas</t>
+          <t>U.A.N.L.- Tigres</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Club Tijuana</t>
+          <t>Pachuca</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.85</v>
+        <v>1.62</v>
       </c>
       <c r="H21" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I21" t="n">
-        <v>4.1</v>
+        <v>5.25</v>
       </c>
       <c r="J21" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="K21" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="L21" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="O21" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="P21" t="n">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.87</v>
+        <v>1.67</v>
       </c>
       <c r="R21" t="n">
-        <v>1.87</v>
+        <v>2.15</v>
       </c>
       <c r="S21" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="T21" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="U21" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="V21" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W21" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y21" t="n">
         <v>8.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA21" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB21" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AC21" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AD21" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE21" t="n">
         <v>15</v>
       </c>
       <c r="AF21" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG21" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH21" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AI21" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AJ21" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AK21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM21" t="n">
         <v>41</v>
@@ -4307,22 +4307,22 @@
         <v>3.75</v>
       </c>
       <c r="AO21" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AP21" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AQ21" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AR21" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS21" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="AU21" t="n">
         <v>8</v>
@@ -4331,13 +4331,13 @@
         <v>51</v>
       </c>
       <c r="AW21" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="AX21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY21" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ21" t="n">
         <v>29</v>
@@ -4349,16 +4349,16 @@
         <v>101</v>
       </c>
       <c r="BC21" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD21" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>MmCberkA</t>
+          <t>6aIl5qh3</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4368,179 +4368,179 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>00:10</t>
+          <t>00:05</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Dorados de Sinaloa</t>
+          <t>Atlas</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Atletico La Paz</t>
+          <t>Club Tijuana</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="H22" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I22" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="J22" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K22" t="n">
         <v>2.2</v>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>12.6</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P22" t="n">
         <v>3.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.65</v>
+        <v>1.87</v>
       </c>
       <c r="R22" t="n">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="S22" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="T22" t="n">
-        <v>3.21</v>
+        <v>2.75</v>
       </c>
       <c r="U22" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="V22" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="W22" t="n">
-        <v>8.75</v>
+        <v>7.5</v>
       </c>
       <c r="X22" t="n">
-        <v>10.25</v>
+        <v>9</v>
       </c>
       <c r="Y22" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA22" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AB22" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AC22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD22" t="n">
         <v>7</v>
       </c>
       <c r="AE22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF22" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG22" t="n">
-        <v>300</v>
+        <v>251</v>
       </c>
       <c r="AH22" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AI22" t="n">
         <v>21</v>
       </c>
       <c r="AJ22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK22" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AL22" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AM22" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="AN22" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="AO22" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="AP22" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="AQ22" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AR22" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AS22" t="n">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="AT22" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU22" t="n">
-        <v>6.7</v>
+        <v>8</v>
       </c>
       <c r="AV22" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AW22" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="AX22" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="AY22" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AZ22" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="BA22" t="n">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="BB22" t="n">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="BC22" t="n">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="BD22" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>0GCXoLDj</t>
+          <t>MmCberkA</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4550,170 +4550,170 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>00:10</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>SOUTH KOREA - K LEAGUE 1</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Daejeon</t>
+          <t>Dorados de Sinaloa</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Daegu</t>
+          <t>Atletico La Paz</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.63</v>
+        <v>1.88</v>
       </c>
       <c r="H23" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="I23" t="n">
-        <v>2.6</v>
+        <v>3.65</v>
       </c>
       <c r="J23" t="n">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="K23" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L23" t="n">
+        <v>4</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N23" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="T23" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V23" t="n">
         <v>2.1</v>
       </c>
-      <c r="L23" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N23" t="n">
-        <v>10</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P23" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T23" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V23" t="n">
-        <v>2</v>
-      </c>
       <c r="W23" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="X23" t="n">
-        <v>13</v>
+        <v>10.25</v>
       </c>
       <c r="Y23" t="n">
-        <v>10</v>
+        <v>8.25</v>
       </c>
       <c r="Z23" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AA23" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB23" t="n">
         <v>21</v>
       </c>
-      <c r="AB23" t="n">
-        <v>29</v>
-      </c>
       <c r="AC23" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AD23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE23" t="n">
         <v>13</v>
       </c>
       <c r="AF23" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AG23" t="n">
-        <v>251</v>
+        <v>300</v>
       </c>
       <c r="AH23" t="n">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AJ23" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AK23" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="AL23" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="AM23" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AN23" t="n">
-        <v>4.75</v>
+        <v>3.9</v>
       </c>
       <c r="AO23" t="n">
-        <v>15</v>
+        <v>9.25</v>
       </c>
       <c r="AP23" t="n">
-        <v>23</v>
+        <v>15.5</v>
       </c>
       <c r="AQ23" t="n">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="AS23" t="n">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="AU23" t="n">
-        <v>8</v>
+        <v>6.7</v>
       </c>
       <c r="AV23" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW23" t="n">
         <v>51</v>
       </c>
       <c r="AX23" t="n">
-        <v>4.5</v>
+        <v>5.6</v>
       </c>
       <c r="AY23" t="n">
-        <v>15</v>
+        <v>19.5</v>
       </c>
       <c r="AZ23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA23" t="n">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="BB23" t="n">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="BC23" t="n">
-        <v>151</v>
+        <v>250</v>
       </c>
       <c r="BD23" t="n">
         <v>51</v>
@@ -4722,7 +4722,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>vaHC9O5c</t>
+          <t>0GCXoLDj</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4732,7 +4732,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>04:30</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -4742,160 +4742,160 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Incheon</t>
+          <t>Daejeon</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Gwangju FC</t>
+          <t>Daegu</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.1</v>
+        <v>2.63</v>
       </c>
       <c r="H24" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I24" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="J24" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="K24" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N24" t="n">
+        <v>10</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V24" t="n">
         <v>2</v>
-      </c>
-      <c r="L24" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P24" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.8</v>
       </c>
       <c r="W24" t="n">
         <v>8.5</v>
       </c>
       <c r="X24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y24" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Z24" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AA24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB24" t="n">
         <v>29</v>
       </c>
-      <c r="AB24" t="n">
-        <v>41</v>
-      </c>
       <c r="AC24" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AD24" t="n">
         <v>6</v>
       </c>
       <c r="AE24" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AF24" t="n">
         <v>51</v>
       </c>
       <c r="AG24" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AH24" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AI24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ24" t="n">
         <v>10</v>
       </c>
-      <c r="AJ24" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AK24" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AL24" t="n">
         <v>21</v>
       </c>
       <c r="AM24" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN24" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO24" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AP24" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AQ24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR24" t="n">
         <v>67</v>
       </c>
-      <c r="AR24" t="n">
-        <v>101</v>
-      </c>
       <c r="AS24" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU24" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV24" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW24" t="n">
         <v>51</v>
       </c>
       <c r="AX24" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AY24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ24" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA24" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB24" t="n">
         <v>67</v>
       </c>
       <c r="BC24" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD24" t="n">
         <v>51</v>
@@ -4904,7 +4904,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>nPKK72zA</t>
+          <t>vaHC9O5c</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4924,67 +4924,67 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Jeju Utd</t>
+          <t>Incheon</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Jeonbuk</t>
+          <t>Gwangju FC</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H25" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I25" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="J25" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K25" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L25" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P25" t="n">
         <v>2.75</v>
       </c>
-      <c r="M25" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N25" t="n">
-        <v>13</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P25" t="n">
-        <v>4.33</v>
-      </c>
       <c r="Q25" t="n">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="R25" t="n">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="S25" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="T25" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="U25" t="n">
-        <v>1.53</v>
+        <v>1.91</v>
       </c>
       <c r="V25" t="n">
-        <v>2.38</v>
+        <v>1.8</v>
       </c>
       <c r="W25" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="X25" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Y25" t="n">
         <v>12</v>
@@ -4993,91 +4993,91 @@
         <v>34</v>
       </c>
       <c r="AA25" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AB25" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC25" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AD25" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE25" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AF25" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AG25" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="AH25" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI25" t="n">
         <v>10</v>
       </c>
-      <c r="AI25" t="n">
-        <v>12</v>
-      </c>
       <c r="AJ25" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK25" t="n">
         <v>21</v>
       </c>
       <c r="AL25" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AM25" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AN25" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP25" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AQ25" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR25" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV25" t="n">
         <v>67</v>
       </c>
-      <c r="AS25" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>41</v>
-      </c>
       <c r="AW25" t="n">
-        <v>401</v>
+        <v>51</v>
       </c>
       <c r="AX25" t="n">
         <v>4.33</v>
       </c>
       <c r="AY25" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ25" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="BA25" t="n">
         <v>41</v>
       </c>
       <c r="BB25" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC25" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="BD25" t="n">
         <v>51</v>
@@ -5086,7 +5086,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>zDLrRJqh</t>
+          <t>nPKK72zA</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5096,7 +5096,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>04:30</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -5106,121 +5106,121 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Pohang</t>
+          <t>Jeju Utd</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Ulsan HD</t>
+          <t>Jeonbuk</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="H26" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I26" t="n">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="J26" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K26" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N26" t="n">
+        <v>13</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R26" t="n">
         <v>2.1</v>
       </c>
-      <c r="L26" t="n">
-        <v>3</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N26" t="n">
-        <v>10</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P26" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.85</v>
-      </c>
       <c r="S26" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="T26" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="U26" t="n">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="V26" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="W26" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="X26" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Y26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z26" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA26" t="n">
         <v>23</v>
       </c>
       <c r="AB26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF26" t="n">
         <v>34</v>
       </c>
-      <c r="AC26" t="n">
+      <c r="AG26" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH26" t="n">
         <v>10</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>8.5</v>
       </c>
       <c r="AI26" t="n">
         <v>12</v>
       </c>
       <c r="AJ26" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL26" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AM26" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AN26" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO26" t="n">
         <v>17</v>
       </c>
       <c r="AP26" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AQ26" t="n">
         <v>51</v>
@@ -5229,37 +5229,37 @@
         <v>67</v>
       </c>
       <c r="AS26" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="AU26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV26" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW26" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="AX26" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AY26" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ26" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="BA26" t="n">
         <v>41</v>
       </c>
       <c r="BB26" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC26" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="BD26" t="n">
         <v>51</v>
@@ -5268,7 +5268,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>0YoHO6WF</t>
+          <t>zDLrRJqh</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5278,172 +5278,354 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>USA - MLS</t>
+          <t>SOUTH KOREA - K LEAGUE 1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Los Angeles Galaxy</t>
+          <t>Pohang</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Colorado Rapids</t>
+          <t>Ulsan HD</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.42</v>
+        <v>3</v>
       </c>
       <c r="H27" t="n">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="I27" t="n">
-        <v>6.5</v>
+        <v>2.35</v>
       </c>
       <c r="J27" t="n">
-        <v>1.83</v>
+        <v>3.5</v>
       </c>
       <c r="K27" t="n">
-        <v>2.88</v>
+        <v>2.1</v>
       </c>
       <c r="L27" t="n">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="M27" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N27" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="O27" t="n">
-        <v>1.07</v>
+        <v>1.29</v>
       </c>
       <c r="P27" t="n">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.29</v>
+        <v>2</v>
       </c>
       <c r="R27" t="n">
-        <v>3.6</v>
+        <v>1.85</v>
       </c>
       <c r="S27" t="n">
-        <v>1.17</v>
+        <v>1.4</v>
       </c>
       <c r="T27" t="n">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="U27" t="n">
-        <v>1.44</v>
+        <v>1.73</v>
       </c>
       <c r="V27" t="n">
-        <v>2.63</v>
+        <v>2</v>
       </c>
       <c r="W27" t="n">
-        <v>17</v>
+        <v>9.5</v>
       </c>
       <c r="X27" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Y27" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC27" t="n">
         <v>10</v>
       </c>
-      <c r="Z27" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>29</v>
-      </c>
       <c r="AD27" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE27" t="n">
         <v>13</v>
       </c>
       <c r="AF27" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG27" t="n">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="AH27" t="n">
-        <v>29</v>
+        <v>8.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AJ27" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL27" t="n">
         <v>19</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>41</v>
       </c>
       <c r="AM27" t="n">
         <v>29</v>
       </c>
       <c r="AN27" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="AO27" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="AP27" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="AQ27" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AR27" t="n">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="AS27" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="AT27" t="n">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="AU27" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV27" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AW27" t="n">
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="AX27" t="n">
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
       <c r="AY27" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AZ27" t="n">
         <v>23</v>
       </c>
       <c r="BA27" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="BB27" t="n">
         <v>67</v>
       </c>
       <c r="BC27" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>0YoHO6WF</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>27/10/2024</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>USA - MLS</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Los Angeles Galaxy</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Colorado Rapids</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+      <c r="I28" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="L28" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N28" t="n">
+        <v>26</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P28" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="T28" t="n">
+        <v>5</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V28" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W28" t="n">
+        <v>17</v>
+      </c>
+      <c r="X28" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>201</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC28" t="n">
         <v>101</v>
       </c>
-      <c r="BD27" t="n">
+      <c r="BD28" t="n">
         <v>176</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD28"/>
+  <dimension ref="A1:BD31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
         <v>3.95</v>
@@ -1120,43 +1120,43 @@
         <v>1.72</v>
       </c>
       <c r="J4" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="K4" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="L4" t="n">
         <v>2.25</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P4" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R4" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V4" t="n">
         <v>2.2</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2.15</v>
       </c>
       <c r="W4" t="n">
         <v>14.5</v>
@@ -1174,13 +1174,13 @@
         <v>32</v>
       </c>
       <c r="AB4" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AD4" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AE4" t="n">
         <v>13.5</v>
@@ -1192,22 +1192,22 @@
         <v>300</v>
       </c>
       <c r="AH4" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AI4" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AJ4" t="n">
         <v>8.25</v>
       </c>
       <c r="AK4" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AL4" t="n">
         <v>12.5</v>
       </c>
       <c r="AM4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN4" t="n">
         <v>6.1</v>
@@ -1216,7 +1216,7 @@
         <v>21</v>
       </c>
       <c r="AP4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ4" t="n">
         <v>110</v>
@@ -1225,16 +1225,16 @@
         <v>120</v>
       </c>
       <c r="AS4" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT4" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AU4" t="n">
         <v>7</v>
       </c>
       <c r="AV4" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AW4" t="n">
         <v>81</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Ea2rq5zB</t>
+          <t>Aqi7P4wH</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,170 +2730,170 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>JAPAN - J2 LEAGUE</t>
+          <t>ESTONIA - MEISTRILIIGA</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>V-Varen Nagasaki</t>
+          <t>Narva</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Kagoshima Utd</t>
+          <t>Parnu JK Vaprus</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.67</v>
+        <v>2.27</v>
       </c>
       <c r="H13" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="I13" t="n">
-        <v>4.5</v>
+        <v>2.92</v>
       </c>
       <c r="J13" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="M13" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="V13" t="n">
         <v>2.25</v>
       </c>
-      <c r="K13" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L13" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N13" t="n">
-        <v>15</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P13" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R13" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T13" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2.2</v>
-      </c>
       <c r="W13" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="X13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>175</v>
+      </c>
+      <c r="AH13" t="n">
         <v>9</v>
       </c>
-      <c r="X13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB13" t="n">
+      <c r="AI13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM13" t="n">
         <v>21</v>
       </c>
-      <c r="AC13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>34</v>
-      </c>
       <c r="AN13" t="n">
-        <v>4</v>
+        <v>4.35</v>
       </c>
       <c r="AO13" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AP13" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AQ13" t="n">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="AR13" t="n">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="AS13" t="n">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.4</v>
+        <v>2.82</v>
       </c>
       <c r="AU13" t="n">
-        <v>7.5</v>
+        <v>6.3</v>
       </c>
       <c r="AV13" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AW13" t="n">
         <v>51</v>
       </c>
       <c r="AX13" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="AY13" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AZ13" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="BA13" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="BB13" t="n">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="BC13" t="n">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="BD13" t="n">
         <v>51</v>
@@ -2902,7 +2902,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>rLRDTPzO</t>
+          <t>Ea2rq5zB</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,7 +2912,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2922,160 +2922,160 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Blaublitz</t>
+          <t>V-Varen Nagasaki</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Oita Trinita</t>
+          <t>Kagoshima Utd</t>
         </is>
       </c>
       <c r="G14" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J14" t="n">
         <v>2.25</v>
       </c>
-      <c r="H14" t="n">
-        <v>3</v>
-      </c>
-      <c r="I14" t="n">
+      <c r="K14" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N14" t="n">
+        <v>15</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T14" t="n">
         <v>3.4</v>
       </c>
-      <c r="J14" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L14" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N14" t="n">
-        <v>7</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.25</v>
-      </c>
       <c r="U14" t="n">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="V14" t="n">
-        <v>1.67</v>
+        <v>2.2</v>
       </c>
       <c r="W14" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="X14" t="n">
         <v>9.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Z14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB14" t="n">
         <v>21</v>
       </c>
-      <c r="AA14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>41</v>
-      </c>
       <c r="AC14" t="n">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="AD14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE14" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AF14" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AG14" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="AH14" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AI14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ14" t="n">
         <v>15</v>
       </c>
-      <c r="AJ14" t="n">
-        <v>13</v>
-      </c>
       <c r="AK14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL14" t="n">
         <v>34</v>
       </c>
       <c r="AM14" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN14" t="n">
         <v>4</v>
       </c>
       <c r="AO14" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="AP14" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AQ14" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="AR14" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AS14" t="n">
-        <v>251</v>
+        <v>101</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU14" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AV14" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AW14" t="n">
         <v>51</v>
       </c>
       <c r="AX14" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AY14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ14" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="BA14" t="n">
         <v>67</v>
       </c>
       <c r="BB14" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC14" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="BD14" t="n">
         <v>51</v>
@@ -3084,7 +3084,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Cz6Rnmyn</t>
+          <t>rLRDTPzO</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3104,31 +3104,31 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Kusatsu</t>
+          <t>Blaublitz</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tokushima</t>
+          <t>Oita Trinita</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="H15" t="n">
+        <v>3</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J15" t="n">
         <v>3.1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>4.33</v>
       </c>
       <c r="K15" t="n">
         <v>1.95</v>
       </c>
       <c r="L15" t="n">
-        <v>2.88</v>
+        <v>4.33</v>
       </c>
       <c r="M15" t="n">
         <v>1.1</v>
@@ -3137,22 +3137,22 @@
         <v>7</v>
       </c>
       <c r="O15" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P15" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R15" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S15" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T15" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U15" t="n">
         <v>2.1</v>
@@ -3161,25 +3161,25 @@
         <v>1.67</v>
       </c>
       <c r="W15" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="X15" t="n">
-        <v>17</v>
+        <v>9.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Z15" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AA15" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AB15" t="n">
         <v>41</v>
       </c>
       <c r="AC15" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD15" t="n">
         <v>6</v>
@@ -3191,46 +3191,46 @@
         <v>67</v>
       </c>
       <c r="AG15" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AH15" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AI15" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AJ15" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AK15" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AL15" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AM15" t="n">
         <v>41</v>
       </c>
       <c r="AN15" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="AO15" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AP15" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR15" t="n">
         <v>81</v>
       </c>
-      <c r="AR15" t="n">
-        <v>126</v>
-      </c>
       <c r="AS15" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU15" t="n">
         <v>9</v>
@@ -3242,22 +3242,22 @@
         <v>51</v>
       </c>
       <c r="AX15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY15" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AZ15" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="BA15" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BB15" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BC15" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BD15" t="n">
         <v>51</v>
@@ -3266,7 +3266,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>dOVHSqjU</t>
+          <t>Cz6Rnmyn</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3286,160 +3286,160 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Montedio Yamagata</t>
+          <t>Kusatsu</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Kumamoto</t>
+          <t>Tokushima</t>
         </is>
       </c>
       <c r="G16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>7</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q16" t="n">
         <v>2.5</v>
       </c>
-      <c r="H16" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N16" t="n">
+      <c r="R16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X16" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y16" t="n">
         <v>13</v>
       </c>
-      <c r="O16" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P16" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R16" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T16" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V16" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W16" t="n">
-        <v>10</v>
-      </c>
-      <c r="X16" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>10</v>
-      </c>
       <c r="Z16" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AA16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE16" t="n">
         <v>19</v>
       </c>
-      <c r="AB16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>12</v>
-      </c>
       <c r="AF16" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AG16" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH16" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AI16" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AJ16" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK16" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AL16" t="n">
         <v>21</v>
       </c>
       <c r="AM16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ16" t="n">
         <v>26</v>
       </c>
-      <c r="AN16" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>21</v>
-      </c>
       <c r="BA16" t="n">
         <v>41</v>
       </c>
       <c r="BB16" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC16" t="n">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="BD16" t="n">
         <v>51</v>
@@ -3448,7 +3448,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>82azoR5b</t>
+          <t>dOVHSqjU</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3468,64 +3468,64 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Renofa Yamaguchi</t>
+          <t>Montedio Yamagata</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Kofu</t>
+          <t>Kumamoto</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="H17" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L17" t="n">
         <v>3.2</v>
       </c>
-      <c r="I17" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="J17" t="n">
+      <c r="M17" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N17" t="n">
+        <v>13</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T17" t="n">
         <v>3.25</v>
       </c>
-      <c r="K17" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N17" t="n">
-        <v>11</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.75</v>
-      </c>
       <c r="U17" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="V17" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="W17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X17" t="n">
         <v>13</v>
@@ -3534,34 +3534,34 @@
         <v>10</v>
       </c>
       <c r="Z17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB17" t="n">
         <v>26</v>
       </c>
-      <c r="AA17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>29</v>
-      </c>
       <c r="AC17" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AD17" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF17" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG17" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH17" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ17" t="n">
         <v>10</v>
@@ -3573,34 +3573,34 @@
         <v>21</v>
       </c>
       <c r="AM17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN17" t="n">
         <v>4.75</v>
       </c>
       <c r="AO17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ17" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR17" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS17" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="AU17" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV17" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW17" t="n">
         <v>51</v>
@@ -3612,16 +3612,16 @@
         <v>15</v>
       </c>
       <c r="AZ17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA17" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB17" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC17" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD17" t="n">
         <v>51</v>
@@ -3630,7 +3630,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Yq7NmTLu</t>
+          <t>82azoR5b</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3650,31 +3650,31 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Tochigi SC</t>
+          <t>Renofa Yamaguchi</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Shimizu S-Pulse</t>
+          <t>Kofu</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>5.5</v>
+        <v>2.63</v>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="I18" t="n">
-        <v>1.57</v>
+        <v>2.63</v>
       </c>
       <c r="J18" t="n">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="K18" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L18" t="n">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="M18" t="n">
         <v>1.05</v>
@@ -3683,103 +3683,103 @@
         <v>11</v>
       </c>
       <c r="O18" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P18" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="R18" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="S18" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T18" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U18" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="V18" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W18" t="n">
+        <v>9</v>
+      </c>
+      <c r="X18" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO18" t="n">
         <v>15</v>
       </c>
-      <c r="X18" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>29</v>
-      </c>
       <c r="AP18" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AQ18" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AR18" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="AS18" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AT18" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU18" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV18" t="n">
         <v>51</v>
@@ -3788,19 +3788,19 @@
         <v>51</v>
       </c>
       <c r="AX18" t="n">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="AY18" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AZ18" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="BA18" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="BB18" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BC18" t="n">
         <v>151</v>
@@ -3812,7 +3812,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>UB0Wo7jh</t>
+          <t>Yq7NmTLu</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3832,85 +3832,85 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Yokohama FC</t>
+          <t>Tochigi SC</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Okayama</t>
+          <t>Shimizu S-Pulse</t>
         </is>
       </c>
       <c r="G19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="J19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N19" t="n">
+        <v>11</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T19" t="n">
+        <v>3</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V19" t="n">
         <v>1.8</v>
       </c>
-      <c r="H19" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I19" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K19" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L19" t="n">
-        <v>5</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P19" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.73</v>
-      </c>
       <c r="W19" t="n">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="X19" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="Y19" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="Z19" t="n">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="AA19" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AB19" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AD19" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE19" t="n">
         <v>17</v>
@@ -3919,73 +3919,73 @@
         <v>51</v>
       </c>
       <c r="AG19" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK19" t="n">
         <v>11</v>
       </c>
-      <c r="AI19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>51</v>
-      </c>
       <c r="AL19" t="n">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="AM19" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AN19" t="n">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="AO19" t="n">
-        <v>9.5</v>
+        <v>29</v>
       </c>
       <c r="AP19" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AQ19" t="n">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="AR19" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="AS19" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="AU19" t="n">
         <v>8.5</v>
       </c>
       <c r="AV19" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW19" t="n">
         <v>51</v>
       </c>
       <c r="AX19" t="n">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="AY19" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="AZ19" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="BA19" t="n">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="BB19" t="n">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="BC19" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="BD19" t="n">
         <v>51</v>
@@ -3994,7 +3994,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2PbvpoL4</t>
+          <t>UB0Wo7jh</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4004,7 +4004,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>04:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -4014,160 +4014,160 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Ehime</t>
+          <t>Yokohama FC</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Vegalta Sendai</t>
+          <t>Okayama</t>
         </is>
       </c>
       <c r="G20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I20" t="n">
         <v>4.5</v>
       </c>
-      <c r="H20" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>5</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
         <v>1.73</v>
       </c>
-      <c r="J20" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L20" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N20" t="n">
-        <v>11</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R20" t="n">
-        <v>2</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T20" t="n">
-        <v>3</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.91</v>
-      </c>
       <c r="W20" t="n">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="X20" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="Y20" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z20" t="n">
         <v>15</v>
       </c>
-      <c r="Z20" t="n">
-        <v>51</v>
-      </c>
       <c r="AA20" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AB20" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AC20" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AD20" t="n">
         <v>7</v>
       </c>
       <c r="AE20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>15</v>
       </c>
-      <c r="AF20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI20" t="n">
+      <c r="AK20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU20" t="n">
         <v>8.5</v>
       </c>
-      <c r="AJ20" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM20" t="n">
+      <c r="AV20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY20" t="n">
         <v>26</v>
       </c>
-      <c r="AN20" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ20" t="n">
+      <c r="AZ20" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA20" t="n">
         <v>81</v>
       </c>
-      <c r="AR20" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>19</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>29</v>
-      </c>
       <c r="BB20" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BC20" t="n">
-        <v>126</v>
+        <v>301</v>
       </c>
       <c r="BD20" t="n">
         <v>51</v>
@@ -4176,7 +4176,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>vgQ2st0d</t>
+          <t>2PbvpoL4</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4186,143 +4186,143 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>JAPAN - J2 LEAGUE</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>U.A.N.L.- Tigres</t>
+          <t>Ehime</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Pachuca</t>
+          <t>Vegalta Sendai</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.62</v>
+        <v>4.5</v>
       </c>
       <c r="H21" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="I21" t="n">
-        <v>5.25</v>
+        <v>1.73</v>
       </c>
       <c r="J21" t="n">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="K21" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="L21" t="n">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="M21" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
+        <v>11</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T21" t="n">
+        <v>3</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W21" t="n">
+        <v>13</v>
+      </c>
+      <c r="X21" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y21" t="n">
         <v>15</v>
       </c>
-      <c r="O21" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P21" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R21" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T21" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V21" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="W21" t="n">
-        <v>8</v>
-      </c>
-      <c r="X21" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z21" t="n">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="AA21" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="AB21" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AC21" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD21" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE21" t="n">
         <v>15</v>
       </c>
       <c r="AF21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG21" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS21" t="n">
         <v>201</v>
       </c>
-      <c r="AH21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>101</v>
-      </c>
       <c r="AT21" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="AU21" t="n">
         <v>8</v>
@@ -4331,34 +4331,34 @@
         <v>51</v>
       </c>
       <c r="AW21" t="n">
-        <v>501</v>
+        <v>51</v>
       </c>
       <c r="AX21" t="n">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="AY21" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="AZ21" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA21" t="n">
         <v>29</v>
       </c>
-      <c r="BA21" t="n">
-        <v>81</v>
-      </c>
       <c r="BB21" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BC21" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD21" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>6aIl5qh3</t>
+          <t>vgQ2st0d</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4368,7 +4368,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>00:05</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -4378,109 +4378,109 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Atlas</t>
+          <t>U.A.N.L.- Tigres</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Club Tijuana</t>
+          <t>Pachuca</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.85</v>
+        <v>1.62</v>
       </c>
       <c r="H22" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I22" t="n">
-        <v>4.1</v>
+        <v>5.25</v>
       </c>
       <c r="J22" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="K22" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="L22" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="O22" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="P22" t="n">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.87</v>
+        <v>1.67</v>
       </c>
       <c r="R22" t="n">
-        <v>1.87</v>
+        <v>2.15</v>
       </c>
       <c r="S22" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="T22" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="U22" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="V22" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W22" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X22" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y22" t="n">
         <v>8.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA22" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB22" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AC22" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AD22" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE22" t="n">
         <v>15</v>
       </c>
       <c r="AF22" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG22" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH22" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AI22" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AJ22" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AK22" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL22" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM22" t="n">
         <v>41</v>
@@ -4489,22 +4489,22 @@
         <v>3.75</v>
       </c>
       <c r="AO22" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AP22" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AQ22" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AR22" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS22" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="AU22" t="n">
         <v>8</v>
@@ -4513,13 +4513,13 @@
         <v>51</v>
       </c>
       <c r="AW22" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="AX22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY22" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ22" t="n">
         <v>29</v>
@@ -4531,16 +4531,16 @@
         <v>101</v>
       </c>
       <c r="BC22" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD22" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MmCberkA</t>
+          <t>6aIl5qh3</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4550,179 +4550,179 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>00:10</t>
+          <t>00:05</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Dorados de Sinaloa</t>
+          <t>Atlas</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Atletico La Paz</t>
+          <t>Club Tijuana</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="H23" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I23" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="J23" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K23" t="n">
         <v>2.2</v>
       </c>
       <c r="L23" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>12.6</v>
+        <v>11</v>
       </c>
       <c r="O23" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P23" t="n">
         <v>3.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.65</v>
+        <v>1.87</v>
       </c>
       <c r="R23" t="n">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="S23" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="T23" t="n">
-        <v>3.21</v>
+        <v>2.75</v>
       </c>
       <c r="U23" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="V23" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="W23" t="n">
-        <v>8.75</v>
+        <v>7.5</v>
       </c>
       <c r="X23" t="n">
-        <v>10.25</v>
+        <v>9</v>
       </c>
       <c r="Y23" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA23" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AB23" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AC23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD23" t="n">
         <v>7</v>
       </c>
       <c r="AE23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF23" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG23" t="n">
-        <v>300</v>
+        <v>251</v>
       </c>
       <c r="AH23" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AI23" t="n">
         <v>21</v>
       </c>
       <c r="AJ23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK23" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AL23" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AM23" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="AN23" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="AO23" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="AP23" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="AQ23" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AR23" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AS23" t="n">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="AT23" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU23" t="n">
-        <v>6.7</v>
+        <v>8</v>
       </c>
       <c r="AV23" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AW23" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="AX23" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="AY23" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AZ23" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="BA23" t="n">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="BB23" t="n">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="BC23" t="n">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="BD23" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>0GCXoLDj</t>
+          <t>MmCberkA</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4732,170 +4732,170 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>00:10</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>SOUTH KOREA - K LEAGUE 1</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Daejeon</t>
+          <t>Dorados de Sinaloa</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Daegu</t>
+          <t>Atletico La Paz</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.63</v>
+        <v>1.88</v>
       </c>
       <c r="H24" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="I24" t="n">
-        <v>2.6</v>
+        <v>3.65</v>
       </c>
       <c r="J24" t="n">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="K24" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L24" t="n">
+        <v>4</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N24" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="T24" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V24" t="n">
         <v>2.1</v>
       </c>
-      <c r="L24" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N24" t="n">
-        <v>10</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P24" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V24" t="n">
-        <v>2</v>
-      </c>
       <c r="W24" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="X24" t="n">
-        <v>13</v>
+        <v>10.25</v>
       </c>
       <c r="Y24" t="n">
-        <v>10</v>
+        <v>8.25</v>
       </c>
       <c r="Z24" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AA24" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB24" t="n">
         <v>21</v>
       </c>
-      <c r="AB24" t="n">
-        <v>29</v>
-      </c>
       <c r="AC24" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AD24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE24" t="n">
         <v>13</v>
       </c>
       <c r="AF24" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AG24" t="n">
-        <v>251</v>
+        <v>300</v>
       </c>
       <c r="AH24" t="n">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AJ24" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AK24" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="AL24" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="AM24" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AN24" t="n">
-        <v>4.75</v>
+        <v>3.9</v>
       </c>
       <c r="AO24" t="n">
-        <v>15</v>
+        <v>9.25</v>
       </c>
       <c r="AP24" t="n">
-        <v>23</v>
+        <v>15.5</v>
       </c>
       <c r="AQ24" t="n">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="AR24" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="AS24" t="n">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="AU24" t="n">
-        <v>8</v>
+        <v>6.7</v>
       </c>
       <c r="AV24" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW24" t="n">
         <v>51</v>
       </c>
       <c r="AX24" t="n">
-        <v>4.5</v>
+        <v>5.6</v>
       </c>
       <c r="AY24" t="n">
-        <v>15</v>
+        <v>19.5</v>
       </c>
       <c r="AZ24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA24" t="n">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="BB24" t="n">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="BC24" t="n">
-        <v>151</v>
+        <v>250</v>
       </c>
       <c r="BD24" t="n">
         <v>51</v>
@@ -4904,7 +4904,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>vaHC9O5c</t>
+          <t>0GCXoLDj</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4914,7 +4914,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>04:30</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -4924,160 +4924,160 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Incheon</t>
+          <t>Daejeon</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Gwangju FC</t>
+          <t>Daegu</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.1</v>
+        <v>2.63</v>
       </c>
       <c r="H25" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I25" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="J25" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="K25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N25" t="n">
+        <v>10</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V25" t="n">
         <v>2</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P25" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T25" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.8</v>
       </c>
       <c r="W25" t="n">
         <v>8.5</v>
       </c>
       <c r="X25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y25" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Z25" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AA25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB25" t="n">
         <v>29</v>
       </c>
-      <c r="AB25" t="n">
-        <v>41</v>
-      </c>
       <c r="AC25" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AD25" t="n">
         <v>6</v>
       </c>
       <c r="AE25" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AF25" t="n">
         <v>51</v>
       </c>
       <c r="AG25" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AH25" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AI25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ25" t="n">
         <v>10</v>
       </c>
-      <c r="AJ25" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AK25" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AL25" t="n">
         <v>21</v>
       </c>
       <c r="AM25" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN25" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO25" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AP25" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AQ25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR25" t="n">
         <v>67</v>
       </c>
-      <c r="AR25" t="n">
-        <v>101</v>
-      </c>
       <c r="AS25" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU25" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV25" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW25" t="n">
         <v>51</v>
       </c>
       <c r="AX25" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AY25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ25" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA25" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB25" t="n">
         <v>67</v>
       </c>
       <c r="BC25" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD25" t="n">
         <v>51</v>
@@ -5086,7 +5086,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>nPKK72zA</t>
+          <t>vaHC9O5c</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5106,67 +5106,67 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Jeju Utd</t>
+          <t>Incheon</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Jeonbuk</t>
+          <t>Gwangju FC</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H26" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I26" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="J26" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K26" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L26" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N26" t="n">
+        <v>8</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P26" t="n">
         <v>2.75</v>
       </c>
-      <c r="M26" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N26" t="n">
-        <v>13</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P26" t="n">
-        <v>4.33</v>
-      </c>
       <c r="Q26" t="n">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="R26" t="n">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="S26" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="T26" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="U26" t="n">
-        <v>1.53</v>
+        <v>1.91</v>
       </c>
       <c r="V26" t="n">
-        <v>2.38</v>
+        <v>1.8</v>
       </c>
       <c r="W26" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="X26" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Y26" t="n">
         <v>12</v>
@@ -5175,91 +5175,91 @@
         <v>34</v>
       </c>
       <c r="AA26" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AB26" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC26" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AD26" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE26" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AF26" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AG26" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="AH26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI26" t="n">
         <v>10</v>
       </c>
-      <c r="AI26" t="n">
-        <v>12</v>
-      </c>
       <c r="AJ26" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK26" t="n">
         <v>21</v>
       </c>
       <c r="AL26" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AM26" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AN26" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP26" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AQ26" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR26" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV26" t="n">
         <v>67</v>
       </c>
-      <c r="AS26" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>41</v>
-      </c>
       <c r="AW26" t="n">
-        <v>401</v>
+        <v>51</v>
       </c>
       <c r="AX26" t="n">
         <v>4.33</v>
       </c>
       <c r="AY26" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ26" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="BA26" t="n">
         <v>41</v>
       </c>
       <c r="BB26" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC26" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="BD26" t="n">
         <v>51</v>
@@ -5268,7 +5268,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>zDLrRJqh</t>
+          <t>nPKK72zA</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5278,7 +5278,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>04:30</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -5288,121 +5288,121 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Pohang</t>
+          <t>Jeju Utd</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Ulsan HD</t>
+          <t>Jeonbuk</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="H27" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I27" t="n">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="J27" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N27" t="n">
+        <v>13</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R27" t="n">
         <v>2.1</v>
       </c>
-      <c r="L27" t="n">
-        <v>3</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N27" t="n">
-        <v>10</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P27" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.85</v>
-      </c>
       <c r="S27" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="T27" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="U27" t="n">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="V27" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="W27" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="X27" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Y27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z27" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA27" t="n">
         <v>23</v>
       </c>
       <c r="AB27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF27" t="n">
         <v>34</v>
       </c>
-      <c r="AC27" t="n">
+      <c r="AG27" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH27" t="n">
         <v>10</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>8.5</v>
       </c>
       <c r="AI27" t="n">
         <v>12</v>
       </c>
       <c r="AJ27" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK27" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL27" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AM27" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AN27" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO27" t="n">
         <v>17</v>
       </c>
       <c r="AP27" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AQ27" t="n">
         <v>51</v>
@@ -5411,37 +5411,37 @@
         <v>67</v>
       </c>
       <c r="AS27" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="AU27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV27" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW27" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="AX27" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AY27" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ27" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="BA27" t="n">
         <v>41</v>
       </c>
       <c r="BB27" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC27" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="BD27" t="n">
         <v>51</v>
@@ -5450,7 +5450,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>0YoHO6WF</t>
+          <t>zDLrRJqh</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5460,172 +5460,718 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>USA - MLS</t>
+          <t>SOUTH KOREA - K LEAGUE 1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Los Angeles Galaxy</t>
+          <t>Pohang</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Colorado Rapids</t>
+          <t>Ulsan HD</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.42</v>
+        <v>3</v>
       </c>
       <c r="H28" t="n">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="I28" t="n">
-        <v>6.5</v>
+        <v>2.35</v>
       </c>
       <c r="J28" t="n">
-        <v>1.83</v>
+        <v>3.5</v>
       </c>
       <c r="K28" t="n">
-        <v>2.88</v>
+        <v>2.1</v>
       </c>
       <c r="L28" t="n">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="M28" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N28" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="O28" t="n">
-        <v>1.07</v>
+        <v>1.29</v>
       </c>
       <c r="P28" t="n">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.29</v>
+        <v>2</v>
       </c>
       <c r="R28" t="n">
-        <v>3.6</v>
+        <v>1.85</v>
       </c>
       <c r="S28" t="n">
-        <v>1.17</v>
+        <v>1.4</v>
       </c>
       <c r="T28" t="n">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="U28" t="n">
-        <v>1.44</v>
+        <v>1.73</v>
       </c>
       <c r="V28" t="n">
-        <v>2.63</v>
+        <v>2</v>
       </c>
       <c r="W28" t="n">
-        <v>17</v>
+        <v>9.5</v>
       </c>
       <c r="X28" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Y28" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC28" t="n">
         <v>10</v>
       </c>
-      <c r="Z28" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>29</v>
-      </c>
       <c r="AD28" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE28" t="n">
         <v>13</v>
       </c>
       <c r="AF28" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG28" t="n">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="AH28" t="n">
-        <v>29</v>
+        <v>8.5</v>
       </c>
       <c r="AI28" t="n">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AJ28" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL28" t="n">
         <v>19</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>41</v>
       </c>
       <c r="AM28" t="n">
         <v>29</v>
       </c>
       <c r="AN28" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="AO28" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="AP28" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="AQ28" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AR28" t="n">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="AS28" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="AT28" t="n">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="AU28" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV28" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AW28" t="n">
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="AX28" t="n">
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
       <c r="AY28" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AZ28" t="n">
         <v>23</v>
       </c>
       <c r="BA28" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="BB28" t="n">
         <v>67</v>
       </c>
       <c r="BC28" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>AFD7gkCc</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>27/10/2024</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Gaziantep</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Konyaspor</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2</v>
+      </c>
+      <c r="L29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N29" t="n">
+        <v>9</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W29" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X29" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>276</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>l0JzNAkL</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>27/10/2024</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Bandirmaspor</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Sakaryaspor</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L30" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N30" t="n">
+        <v>11</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W30" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X30" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB30" t="n">
         <v>101</v>
       </c>
-      <c r="BD28" t="n">
+      <c r="BC30" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>0YoHO6WF</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>27/10/2024</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>USA - MLS</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Los Angeles Galaxy</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Colorado Rapids</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+      <c r="I31" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="L31" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N31" t="n">
+        <v>26</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P31" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="T31" t="n">
+        <v>5</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V31" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W31" t="n">
+        <v>17</v>
+      </c>
+      <c r="X31" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>26</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>201</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>101</v>
+      </c>
+      <c r="BD31" t="n">
         <v>176</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD31"/>
+  <dimension ref="A1:BD36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="H4" t="n">
         <v>3.95</v>
       </c>
       <c r="I4" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="J4" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K4" t="n">
         <v>2.35</v>
       </c>
       <c r="L4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="M4" t="n">
         <v>1.03</v>
@@ -1138,40 +1138,40 @@
         <v>1.19</v>
       </c>
       <c r="P4" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R4" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="S4" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="T4" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="U4" t="n">
         <v>1.6</v>
       </c>
       <c r="V4" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="W4" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="X4" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Y4" t="n">
         <v>13.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AA4" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AB4" t="n">
         <v>32</v>
@@ -1192,28 +1192,28 @@
         <v>300</v>
       </c>
       <c r="AH4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI4" t="n">
         <v>9.25</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>9.5</v>
       </c>
       <c r="AJ4" t="n">
         <v>8.25</v>
       </c>
       <c r="AK4" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL4" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AM4" t="n">
         <v>20</v>
       </c>
       <c r="AN4" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AO4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP4" t="n">
         <v>24</v>
@@ -1228,7 +1228,7 @@
         <v>250</v>
       </c>
       <c r="AT4" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="AU4" t="n">
         <v>7</v>
@@ -1246,10 +1246,10 @@
         <v>8.25</v>
       </c>
       <c r="AZ4" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="BA4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB4" t="n">
         <v>50</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Aqi7P4wH</t>
+          <t>A5rcsYIi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,179 +2730,179 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ESTONIA - MEISTRILIIGA</t>
+          <t>DENMARK - SUPERLIGA</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Narva</t>
+          <t>Brondby</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Parnu JK Vaprus</t>
+          <t>FC Copenhagen</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.27</v>
+        <v>2.4</v>
       </c>
       <c r="H13" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="I13" t="n">
-        <v>2.92</v>
+        <v>2.7</v>
       </c>
       <c r="J13" t="n">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
-        <v>2.07</v>
+        <v>2.25</v>
       </c>
       <c r="L13" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="M13" t="n">
-        <v>10.4</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>1.04</v>
+        <v>15</v>
       </c>
       <c r="O13" t="n">
         <v>1.2</v>
       </c>
       <c r="P13" t="n">
-        <v>3.55</v>
+        <v>4.33</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="R13" t="n">
-        <v>1.9</v>
+        <v>2.15</v>
       </c>
       <c r="S13" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="T13" t="n">
-        <v>3.04</v>
+        <v>3.25</v>
       </c>
       <c r="U13" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="V13" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W13" t="n">
-        <v>7.8</v>
+        <v>10</v>
       </c>
       <c r="X13" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="Y13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU13" t="n">
         <v>7.5</v>
       </c>
-      <c r="Z13" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>175</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>14</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>45</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>70</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>175</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>6.3</v>
-      </c>
       <c r="AV13" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AW13" t="n">
-        <v>51</v>
+        <v>451</v>
       </c>
       <c r="AX13" t="n">
         <v>5</v>
       </c>
       <c r="AY13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA13" t="n">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="BB13" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="BC13" t="n">
-        <v>200</v>
+        <v>126</v>
       </c>
       <c r="BD13" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ea2rq5zB</t>
+          <t>Aqi7P4wH</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,170 +2912,170 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>JAPAN - J2 LEAGUE</t>
+          <t>ESTONIA - MEISTRILIIGA</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>V-Varen Nagasaki</t>
+          <t>Narva</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Kagoshima Utd</t>
+          <t>Parnu JK Vaprus</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.67</v>
+        <v>2.27</v>
       </c>
       <c r="H14" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="I14" t="n">
-        <v>4.5</v>
+        <v>2.92</v>
       </c>
       <c r="J14" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="M14" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="T14" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="V14" t="n">
         <v>2.25</v>
       </c>
-      <c r="K14" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L14" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N14" t="n">
-        <v>15</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P14" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T14" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V14" t="n">
-        <v>2.2</v>
-      </c>
       <c r="W14" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="X14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>175</v>
+      </c>
+      <c r="AH14" t="n">
         <v>9</v>
       </c>
-      <c r="X14" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB14" t="n">
+      <c r="AI14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM14" t="n">
         <v>21</v>
       </c>
-      <c r="AC14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>34</v>
-      </c>
       <c r="AN14" t="n">
-        <v>4</v>
+        <v>4.35</v>
       </c>
       <c r="AO14" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AP14" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AQ14" t="n">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="AR14" t="n">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="AS14" t="n">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="AT14" t="n">
-        <v>3.4</v>
+        <v>2.82</v>
       </c>
       <c r="AU14" t="n">
-        <v>7.5</v>
+        <v>6.3</v>
       </c>
       <c r="AV14" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AW14" t="n">
         <v>51</v>
       </c>
       <c r="AX14" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="AY14" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AZ14" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="BA14" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="BB14" t="n">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="BC14" t="n">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="BD14" t="n">
         <v>51</v>
@@ -3084,7 +3084,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>rLRDTPzO</t>
+          <t>Ea2rq5zB</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,7 +3094,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -3104,160 +3104,160 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Blaublitz</t>
+          <t>V-Varen Nagasaki</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Oita Trinita</t>
+          <t>Kagoshima Utd</t>
         </is>
       </c>
       <c r="G15" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J15" t="n">
         <v>2.25</v>
       </c>
-      <c r="H15" t="n">
-        <v>3</v>
-      </c>
-      <c r="I15" t="n">
+      <c r="K15" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N15" t="n">
+        <v>15</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T15" t="n">
         <v>3.4</v>
       </c>
-      <c r="J15" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L15" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N15" t="n">
-        <v>7</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.25</v>
-      </c>
       <c r="U15" t="n">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="V15" t="n">
-        <v>1.67</v>
+        <v>2.2</v>
       </c>
       <c r="W15" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="X15" t="n">
         <v>9.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Z15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB15" t="n">
         <v>21</v>
       </c>
-      <c r="AA15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>41</v>
-      </c>
       <c r="AC15" t="n">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="AD15" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE15" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AF15" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AG15" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AI15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>15</v>
       </c>
-      <c r="AJ15" t="n">
-        <v>13</v>
-      </c>
       <c r="AK15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL15" t="n">
         <v>34</v>
       </c>
       <c r="AM15" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN15" t="n">
         <v>4</v>
       </c>
       <c r="AO15" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="AP15" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AQ15" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="AR15" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AS15" t="n">
-        <v>251</v>
+        <v>101</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU15" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AV15" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AW15" t="n">
         <v>51</v>
       </c>
       <c r="AX15" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AY15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ15" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="BA15" t="n">
         <v>67</v>
       </c>
       <c r="BB15" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC15" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="BD15" t="n">
         <v>51</v>
@@ -3266,7 +3266,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Cz6Rnmyn</t>
+          <t>rLRDTPzO</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3286,31 +3286,31 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Kusatsu</t>
+          <t>Blaublitz</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tokushima</t>
+          <t>Oita Trinita</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="H16" t="n">
+        <v>3</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J16" t="n">
         <v>3.1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>4.33</v>
       </c>
       <c r="K16" t="n">
         <v>1.95</v>
       </c>
       <c r="L16" t="n">
-        <v>2.88</v>
+        <v>4.33</v>
       </c>
       <c r="M16" t="n">
         <v>1.1</v>
@@ -3319,22 +3319,22 @@
         <v>7</v>
       </c>
       <c r="O16" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P16" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R16" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S16" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T16" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U16" t="n">
         <v>2.1</v>
@@ -3343,25 +3343,25 @@
         <v>1.67</v>
       </c>
       <c r="W16" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="X16" t="n">
-        <v>17</v>
+        <v>9.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Z16" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AA16" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AB16" t="n">
         <v>41</v>
       </c>
       <c r="AC16" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD16" t="n">
         <v>6</v>
@@ -3373,46 +3373,46 @@
         <v>67</v>
       </c>
       <c r="AG16" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AH16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AI16" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AJ16" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AK16" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AL16" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AM16" t="n">
         <v>41</v>
       </c>
       <c r="AN16" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="AO16" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AP16" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR16" t="n">
         <v>81</v>
       </c>
-      <c r="AR16" t="n">
-        <v>126</v>
-      </c>
       <c r="AS16" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU16" t="n">
         <v>9</v>
@@ -3424,22 +3424,22 @@
         <v>51</v>
       </c>
       <c r="AX16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY16" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AZ16" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="BA16" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BB16" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BC16" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BD16" t="n">
         <v>51</v>
@@ -3448,7 +3448,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>dOVHSqjU</t>
+          <t>Cz6Rnmyn</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3468,160 +3468,160 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Montedio Yamagata</t>
+          <t>Kusatsu</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Kumamoto</t>
+          <t>Tokushima</t>
         </is>
       </c>
       <c r="G17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N17" t="n">
+        <v>7</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q17" t="n">
         <v>2.5</v>
       </c>
-      <c r="H17" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N17" t="n">
+      <c r="R17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X17" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y17" t="n">
         <v>13</v>
       </c>
-      <c r="O17" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P17" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V17" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W17" t="n">
-        <v>10</v>
-      </c>
-      <c r="X17" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>10</v>
-      </c>
       <c r="Z17" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AA17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE17" t="n">
         <v>19</v>
       </c>
-      <c r="AB17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>12</v>
-      </c>
       <c r="AF17" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AG17" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH17" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AI17" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AJ17" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK17" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AL17" t="n">
         <v>21</v>
       </c>
       <c r="AM17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ17" t="n">
         <v>26</v>
       </c>
-      <c r="AN17" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>21</v>
-      </c>
       <c r="BA17" t="n">
         <v>41</v>
       </c>
       <c r="BB17" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC17" t="n">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="BD17" t="n">
         <v>51</v>
@@ -3630,7 +3630,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>82azoR5b</t>
+          <t>dOVHSqjU</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3650,64 +3650,64 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Renofa Yamaguchi</t>
+          <t>Montedio Yamagata</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Kofu</t>
+          <t>Kumamoto</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="H18" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L18" t="n">
         <v>3.2</v>
       </c>
-      <c r="I18" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="J18" t="n">
+      <c r="M18" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N18" t="n">
+        <v>13</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T18" t="n">
         <v>3.25</v>
       </c>
-      <c r="K18" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L18" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N18" t="n">
-        <v>11</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2.75</v>
-      </c>
       <c r="U18" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="V18" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="W18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X18" t="n">
         <v>13</v>
@@ -3716,34 +3716,34 @@
         <v>10</v>
       </c>
       <c r="Z18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB18" t="n">
         <v>26</v>
       </c>
-      <c r="AA18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>29</v>
-      </c>
       <c r="AC18" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AD18" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG18" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH18" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ18" t="n">
         <v>10</v>
@@ -3755,34 +3755,34 @@
         <v>21</v>
       </c>
       <c r="AM18" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN18" t="n">
         <v>4.75</v>
       </c>
       <c r="AO18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR18" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS18" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="AU18" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW18" t="n">
         <v>51</v>
@@ -3794,16 +3794,16 @@
         <v>15</v>
       </c>
       <c r="AZ18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB18" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC18" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD18" t="n">
         <v>51</v>
@@ -3812,7 +3812,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Yq7NmTLu</t>
+          <t>82azoR5b</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3832,31 +3832,31 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Tochigi SC</t>
+          <t>Renofa Yamaguchi</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Shimizu S-Pulse</t>
+          <t>Kofu</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>5.5</v>
+        <v>2.63</v>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="I19" t="n">
-        <v>1.57</v>
+        <v>2.63</v>
       </c>
       <c r="J19" t="n">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="K19" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L19" t="n">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="M19" t="n">
         <v>1.05</v>
@@ -3865,103 +3865,103 @@
         <v>11</v>
       </c>
       <c r="O19" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P19" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="R19" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="S19" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T19" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U19" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="V19" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W19" t="n">
+        <v>9</v>
+      </c>
+      <c r="X19" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO19" t="n">
         <v>15</v>
       </c>
-      <c r="X19" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>29</v>
-      </c>
       <c r="AP19" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AQ19" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AR19" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="AS19" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AT19" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU19" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV19" t="n">
         <v>51</v>
@@ -3970,19 +3970,19 @@
         <v>51</v>
       </c>
       <c r="AX19" t="n">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="AY19" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AZ19" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="BA19" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="BB19" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BC19" t="n">
         <v>151</v>
@@ -3994,7 +3994,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>UB0Wo7jh</t>
+          <t>Yq7NmTLu</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4014,85 +4014,85 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Yokohama FC</t>
+          <t>Tochigi SC</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Okayama</t>
+          <t>Shimizu S-Pulse</t>
         </is>
       </c>
       <c r="G20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="J20" t="n">
+        <v>6</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N20" t="n">
+        <v>11</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T20" t="n">
+        <v>3</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V20" t="n">
         <v>1.8</v>
       </c>
-      <c r="H20" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I20" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L20" t="n">
-        <v>5</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N20" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.73</v>
-      </c>
       <c r="W20" t="n">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="X20" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="Y20" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="Z20" t="n">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="AA20" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AB20" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC20" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AD20" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE20" t="n">
         <v>17</v>
@@ -4101,73 +4101,73 @@
         <v>51</v>
       </c>
       <c r="AG20" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK20" t="n">
         <v>11</v>
       </c>
-      <c r="AI20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>51</v>
-      </c>
       <c r="AL20" t="n">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="AM20" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AN20" t="n">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="AO20" t="n">
-        <v>9.5</v>
+        <v>29</v>
       </c>
       <c r="AP20" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AQ20" t="n">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="AR20" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="AS20" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="AU20" t="n">
         <v>8.5</v>
       </c>
       <c r="AV20" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW20" t="n">
         <v>51</v>
       </c>
       <c r="AX20" t="n">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="AY20" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="AZ20" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="BA20" t="n">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="BB20" t="n">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="BC20" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="BD20" t="n">
         <v>51</v>
@@ -4176,7 +4176,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2PbvpoL4</t>
+          <t>UB0Wo7jh</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4186,7 +4186,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>04:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -4196,160 +4196,160 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Ehime</t>
+          <t>Yokohama FC</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Vegalta Sendai</t>
+          <t>Okayama</t>
         </is>
       </c>
       <c r="G21" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I21" t="n">
         <v>4.5</v>
       </c>
-      <c r="H21" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L21" t="n">
+        <v>5</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" t="n">
         <v>1.73</v>
       </c>
-      <c r="J21" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N21" t="n">
-        <v>11</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R21" t="n">
-        <v>2</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T21" t="n">
-        <v>3</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.91</v>
-      </c>
       <c r="W21" t="n">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="X21" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="Y21" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z21" t="n">
         <v>15</v>
       </c>
-      <c r="Z21" t="n">
-        <v>51</v>
-      </c>
       <c r="AA21" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AB21" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AC21" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AD21" t="n">
         <v>7</v>
       </c>
       <c r="AE21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ21" t="n">
         <v>15</v>
       </c>
-      <c r="AF21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI21" t="n">
+      <c r="AK21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU21" t="n">
         <v>8.5</v>
       </c>
-      <c r="AJ21" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM21" t="n">
+      <c r="AV21" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY21" t="n">
         <v>26</v>
       </c>
-      <c r="AN21" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ21" t="n">
+      <c r="AZ21" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA21" t="n">
         <v>81</v>
       </c>
-      <c r="AR21" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>9</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>19</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>29</v>
-      </c>
       <c r="BB21" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BC21" t="n">
-        <v>126</v>
+        <v>301</v>
       </c>
       <c r="BD21" t="n">
         <v>51</v>
@@ -4358,7 +4358,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>vgQ2st0d</t>
+          <t>2PbvpoL4</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4368,143 +4368,143 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>JAPAN - J2 LEAGUE</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>U.A.N.L.- Tigres</t>
+          <t>Ehime</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Pachuca</t>
+          <t>Vegalta Sendai</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.62</v>
+        <v>4.5</v>
       </c>
       <c r="H22" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="I22" t="n">
-        <v>5.25</v>
+        <v>1.73</v>
       </c>
       <c r="J22" t="n">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="K22" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="L22" t="n">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="M22" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
+        <v>11</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T22" t="n">
+        <v>3</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W22" t="n">
+        <v>13</v>
+      </c>
+      <c r="X22" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y22" t="n">
         <v>15</v>
       </c>
-      <c r="O22" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P22" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R22" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T22" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V22" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="W22" t="n">
-        <v>8</v>
-      </c>
-      <c r="X22" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z22" t="n">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="AA22" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="AB22" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AC22" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD22" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE22" t="n">
         <v>15</v>
       </c>
       <c r="AF22" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG22" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS22" t="n">
         <v>201</v>
       </c>
-      <c r="AH22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>101</v>
-      </c>
       <c r="AT22" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="AU22" t="n">
         <v>8</v>
@@ -4513,34 +4513,34 @@
         <v>51</v>
       </c>
       <c r="AW22" t="n">
-        <v>501</v>
+        <v>51</v>
       </c>
       <c r="AX22" t="n">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="AY22" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="AZ22" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA22" t="n">
         <v>29</v>
       </c>
-      <c r="BA22" t="n">
-        <v>81</v>
-      </c>
       <c r="BB22" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BC22" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD22" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>6aIl5qh3</t>
+          <t>vgQ2st0d</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4550,7 +4550,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>00:05</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4560,109 +4560,109 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Atlas</t>
+          <t>U.A.N.L.- Tigres</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Club Tijuana</t>
+          <t>Pachuca</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.85</v>
+        <v>1.62</v>
       </c>
       <c r="H23" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I23" t="n">
-        <v>4.1</v>
+        <v>5.25</v>
       </c>
       <c r="J23" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="K23" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="L23" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="O23" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="P23" t="n">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.87</v>
+        <v>1.67</v>
       </c>
       <c r="R23" t="n">
-        <v>1.87</v>
+        <v>2.15</v>
       </c>
       <c r="S23" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="T23" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="U23" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="V23" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W23" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X23" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y23" t="n">
         <v>8.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA23" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB23" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AC23" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AD23" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE23" t="n">
         <v>15</v>
       </c>
       <c r="AF23" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG23" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH23" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AI23" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AJ23" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AK23" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL23" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM23" t="n">
         <v>41</v>
@@ -4671,22 +4671,22 @@
         <v>3.75</v>
       </c>
       <c r="AO23" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AP23" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AQ23" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AR23" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS23" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="AU23" t="n">
         <v>8</v>
@@ -4695,13 +4695,13 @@
         <v>51</v>
       </c>
       <c r="AW23" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="AX23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY23" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ23" t="n">
         <v>29</v>
@@ -4713,16 +4713,16 @@
         <v>101</v>
       </c>
       <c r="BC23" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD23" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MmCberkA</t>
+          <t>6aIl5qh3</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4732,179 +4732,179 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>00:10</t>
+          <t>00:05</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Dorados de Sinaloa</t>
+          <t>Atlas</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Atletico La Paz</t>
+          <t>Club Tijuana</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="H24" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I24" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="J24" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K24" t="n">
         <v>2.2</v>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M24" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>12.6</v>
+        <v>11</v>
       </c>
       <c r="O24" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P24" t="n">
         <v>3.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.65</v>
+        <v>1.87</v>
       </c>
       <c r="R24" t="n">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="S24" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="T24" t="n">
-        <v>3.21</v>
+        <v>2.75</v>
       </c>
       <c r="U24" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="V24" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="W24" t="n">
-        <v>8.75</v>
+        <v>7.5</v>
       </c>
       <c r="X24" t="n">
-        <v>10.25</v>
+        <v>9</v>
       </c>
       <c r="Y24" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA24" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AB24" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AC24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD24" t="n">
         <v>7</v>
       </c>
       <c r="AE24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF24" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG24" t="n">
-        <v>300</v>
+        <v>251</v>
       </c>
       <c r="AH24" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AI24" t="n">
         <v>21</v>
       </c>
       <c r="AJ24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK24" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AL24" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AM24" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="AN24" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="AO24" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="AP24" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="AQ24" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AR24" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AS24" t="n">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="AT24" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU24" t="n">
-        <v>6.7</v>
+        <v>8</v>
       </c>
       <c r="AV24" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AW24" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="AX24" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="AY24" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AZ24" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="BA24" t="n">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="BB24" t="n">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="BC24" t="n">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="BD24" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>0GCXoLDj</t>
+          <t>MmCberkA</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4914,170 +4914,170 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>00:10</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SOUTH KOREA - K LEAGUE 1</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Daejeon</t>
+          <t>Dorados de Sinaloa</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Daegu</t>
+          <t>Atletico La Paz</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.63</v>
+        <v>1.88</v>
       </c>
       <c r="H25" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="I25" t="n">
-        <v>2.6</v>
+        <v>3.65</v>
       </c>
       <c r="J25" t="n">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="K25" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L25" t="n">
+        <v>4</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N25" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="T25" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V25" t="n">
         <v>2.1</v>
       </c>
-      <c r="L25" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N25" t="n">
-        <v>10</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P25" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T25" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V25" t="n">
-        <v>2</v>
-      </c>
       <c r="W25" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="X25" t="n">
-        <v>13</v>
+        <v>10.25</v>
       </c>
       <c r="Y25" t="n">
-        <v>10</v>
+        <v>8.25</v>
       </c>
       <c r="Z25" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AA25" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB25" t="n">
         <v>21</v>
       </c>
-      <c r="AB25" t="n">
-        <v>29</v>
-      </c>
       <c r="AC25" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AD25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
       </c>
       <c r="AF25" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AG25" t="n">
-        <v>251</v>
+        <v>300</v>
       </c>
       <c r="AH25" t="n">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AJ25" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AK25" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="AL25" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="AM25" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AN25" t="n">
-        <v>4.75</v>
+        <v>3.9</v>
       </c>
       <c r="AO25" t="n">
-        <v>15</v>
+        <v>9.25</v>
       </c>
       <c r="AP25" t="n">
-        <v>23</v>
+        <v>15.5</v>
       </c>
       <c r="AQ25" t="n">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="AR25" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="AS25" t="n">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="AU25" t="n">
-        <v>8</v>
+        <v>6.7</v>
       </c>
       <c r="AV25" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW25" t="n">
         <v>51</v>
       </c>
       <c r="AX25" t="n">
-        <v>4.5</v>
+        <v>5.6</v>
       </c>
       <c r="AY25" t="n">
-        <v>15</v>
+        <v>19.5</v>
       </c>
       <c r="AZ25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA25" t="n">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="BB25" t="n">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="BC25" t="n">
-        <v>151</v>
+        <v>250</v>
       </c>
       <c r="BD25" t="n">
         <v>51</v>
@@ -5086,7 +5086,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>vaHC9O5c</t>
+          <t>thRrWQf5</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5096,179 +5096,179 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>04:30</t>
+          <t>08:15</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SOUTH KOREA - K LEAGUE 1</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Incheon</t>
+          <t>FC Emmen</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Gwangju FC</t>
+          <t>Telstar</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="H26" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="I26" t="n">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="J26" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L26" t="n">
+        <v>4</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N26" t="n">
+        <v>13</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P26" t="n">
         <v>3.75</v>
       </c>
-      <c r="K26" t="n">
+      <c r="Q26" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T26" t="n">
+        <v>3</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V26" t="n">
         <v>2</v>
       </c>
-      <c r="L26" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N26" t="n">
+      <c r="W26" t="n">
         <v>8</v>
       </c>
-      <c r="O26" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P26" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T26" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W26" t="n">
-        <v>8.5</v>
-      </c>
       <c r="X26" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA26" t="n">
         <v>15</v>
       </c>
-      <c r="Y26" t="n">
+      <c r="AB26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC26" t="n">
         <v>12</v>
       </c>
-      <c r="Z26" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA26" t="n">
+      <c r="AD26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL26" t="n">
         <v>29</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>21</v>
       </c>
       <c r="AM26" t="n">
         <v>34</v>
       </c>
       <c r="AN26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY26" t="n">
         <v>19</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>13</v>
       </c>
       <c r="AZ26" t="n">
         <v>26</v>
       </c>
       <c r="BA26" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BB26" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC26" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD26" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>nPKK72zA</t>
+          <t>fq3Jow9l</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5278,41 +5278,41 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>04:30</t>
+          <t>08:15</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>SOUTH KOREA - K LEAGUE 1</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Jeju Utd</t>
+          <t>Stal Mielec</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Jeonbuk</t>
+          <t>Zaglebie</t>
         </is>
       </c>
       <c r="G27" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L27" t="n">
         <v>3.25</v>
-      </c>
-      <c r="H27" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I27" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K27" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2.75</v>
       </c>
       <c r="M27" t="n">
         <v>1.04</v>
@@ -5321,136 +5321,136 @@
         <v>13</v>
       </c>
       <c r="O27" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P27" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="R27" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S27" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="T27" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="U27" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="V27" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="W27" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X27" t="n">
         <v>13</v>
       </c>
-      <c r="X27" t="n">
+      <c r="Y27" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA27" t="n">
         <v>19</v>
       </c>
-      <c r="Y27" t="n">
+      <c r="AB27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC27" t="n">
         <v>12</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>13</v>
       </c>
       <c r="AD27" t="n">
         <v>6.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF27" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG27" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH27" t="n">
         <v>10</v>
       </c>
       <c r="AI27" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AJ27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL27" t="n">
         <v>21</v>
       </c>
-      <c r="AL27" t="n">
-        <v>15</v>
-      </c>
       <c r="AM27" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AN27" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO27" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AP27" t="n">
         <v>21</v>
       </c>
       <c r="AQ27" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR27" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS27" t="n">
         <v>126</v>
       </c>
       <c r="AT27" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="AU27" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV27" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW27" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="AX27" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="AY27" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ27" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA27" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB27" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC27" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BD27" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>zDLrRJqh</t>
+          <t>8OMQYD2B</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5460,179 +5460,179 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>SOUTH KOREA - K LEAGUE 1</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Pohang</t>
+          <t>Torreense</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Ulsan HD</t>
+          <t>Alverca</t>
         </is>
       </c>
       <c r="G28" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L28" t="n">
+        <v>4</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N28" t="n">
+        <v>9</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P28" t="n">
         <v>3</v>
       </c>
-      <c r="H28" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I28" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K28" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L28" t="n">
-        <v>3</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N28" t="n">
+      <c r="Q28" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W28" t="n">
+        <v>7</v>
+      </c>
+      <c r="X28" t="n">
         <v>10</v>
       </c>
-      <c r="O28" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P28" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T28" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V28" t="n">
-        <v>2</v>
-      </c>
-      <c r="W28" t="n">
+      <c r="Y28" t="n">
         <v>9.5</v>
       </c>
-      <c r="X28" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>11</v>
-      </c>
       <c r="Z28" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AA28" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AB28" t="n">
         <v>34</v>
       </c>
       <c r="AC28" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AD28" t="n">
         <v>6</v>
       </c>
       <c r="AE28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO28" t="n">
         <v>13</v>
       </c>
-      <c r="AF28" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK28" t="n">
+      <c r="AP28" t="n">
         <v>23</v>
       </c>
-      <c r="AL28" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ28" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR28" t="n">
         <v>67</v>
       </c>
       <c r="AS28" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT28" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU28" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV28" t="n">
         <v>51</v>
       </c>
       <c r="AW28" t="n">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="AX28" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AY28" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AZ28" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="BA28" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BB28" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BC28" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BD28" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>AFD7gkCc</t>
+          <t>0GCXoLDj</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5642,77 +5642,77 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>SOUTH KOREA - K LEAGUE 1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Daejeon</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Daegu</t>
         </is>
       </c>
       <c r="G29" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I29" t="n">
         <v>2.6</v>
-      </c>
-      <c r="H29" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I29" t="n">
-        <v>2.7</v>
       </c>
       <c r="J29" t="n">
         <v>3.4</v>
       </c>
       <c r="K29" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L29" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N29" t="n">
+        <v>10</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V29" t="n">
         <v>2</v>
       </c>
-      <c r="L29" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N29" t="n">
-        <v>9</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P29" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T29" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W29" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="X29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y29" t="n">
         <v>10</v>
@@ -5721,100 +5721,100 @@
         <v>26</v>
       </c>
       <c r="AA29" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB29" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC29" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE29" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AF29" t="n">
         <v>51</v>
       </c>
       <c r="AG29" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AH29" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK29" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM29" t="n">
         <v>29</v>
       </c>
-      <c r="AL29" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>34</v>
-      </c>
       <c r="AN29" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO29" t="n">
         <v>15</v>
       </c>
       <c r="AP29" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ29" t="n">
         <v>51</v>
       </c>
       <c r="AR29" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS29" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT29" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU29" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB29" t="n">
         <v>67</v>
       </c>
-      <c r="AW29" t="n">
-        <v>276</v>
-      </c>
-      <c r="AX29" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AY29" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ29" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA29" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB29" t="n">
-        <v>81</v>
-      </c>
       <c r="BC29" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD29" t="n">
-        <v>276</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>l0JzNAkL</t>
+          <t>vaHC9O5c</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -5824,179 +5824,179 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>04:30</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>SOUTH KOREA - K LEAGUE 1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Bandirmaspor</t>
+          <t>Incheon</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Sakaryaspor</t>
+          <t>Gwangju FC</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.83</v>
+        <v>3.1</v>
       </c>
       <c r="H30" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I30" t="n">
-        <v>3.9</v>
+        <v>2.3</v>
       </c>
       <c r="J30" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2</v>
+      </c>
+      <c r="L30" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N30" t="n">
+        <v>8</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T30" t="n">
         <v>2.5</v>
       </c>
-      <c r="K30" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L30" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N30" t="n">
-        <v>11</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P30" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S30" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T30" t="n">
-        <v>2.75</v>
-      </c>
       <c r="U30" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V30" t="n">
         <v>1.8</v>
       </c>
-      <c r="V30" t="n">
-        <v>1.91</v>
-      </c>
       <c r="W30" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="X30" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Y30" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU30" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z30" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB30" t="n">
+      <c r="AV30" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ30" t="n">
         <v>26</v>
       </c>
-      <c r="AC30" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR30" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW30" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX30" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ30" t="n">
-        <v>29</v>
-      </c>
       <c r="BA30" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB30" t="n">
         <v>67</v>
-      </c>
-      <c r="BB30" t="n">
-        <v>101</v>
       </c>
       <c r="BC30" t="n">
         <v>201</v>
       </c>
       <c r="BD30" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>0YoHO6WF</t>
+          <t>nPKK72zA</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6006,172 +6006,1082 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>04:30</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>USA - MLS</t>
+          <t>SOUTH KOREA - K LEAGUE 1</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Los Angeles Galaxy</t>
+          <t>Jeju Utd</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Colorado Rapids</t>
+          <t>Jeonbuk</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.42</v>
+        <v>3.25</v>
       </c>
       <c r="H31" t="n">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="I31" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L31" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N31" t="n">
+        <v>13</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T31" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V31" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W31" t="n">
+        <v>13</v>
+      </c>
+      <c r="X31" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD31" t="n">
         <v>6.5</v>
       </c>
-      <c r="J31" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="K31" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="L31" t="n">
+      <c r="AE31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN31" t="n">
         <v>5.5</v>
       </c>
-      <c r="M31" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N31" t="n">
-        <v>26</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="P31" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="R31" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="S31" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="T31" t="n">
-        <v>5</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V31" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W31" t="n">
+      <c r="AO31" t="n">
         <v>17</v>
       </c>
-      <c r="X31" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>29</v>
-      </c>
-      <c r="AD31" t="n">
+      <c r="AP31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>401</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AY31" t="n">
         <v>11</v>
       </c>
-      <c r="AE31" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>81</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ31" t="n">
+      <c r="AZ31" t="n">
         <v>19</v>
       </c>
-      <c r="AK31" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>12</v>
-      </c>
-      <c r="AQ31" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR31" t="n">
-        <v>26</v>
-      </c>
-      <c r="AS31" t="n">
-        <v>51</v>
-      </c>
-      <c r="AT31" t="n">
-        <v>5</v>
-      </c>
-      <c r="AU31" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV31" t="n">
-        <v>34</v>
-      </c>
-      <c r="AW31" t="n">
-        <v>201</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AY31" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ31" t="n">
-        <v>23</v>
-      </c>
       <c r="BA31" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="BB31" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC31" t="n">
         <v>101</v>
       </c>
       <c r="BD31" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>zDLrRJqh</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>27/10/2024</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>SOUTH KOREA - K LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Pohang</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Ulsan HD</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>3</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L32" t="n">
+        <v>3</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N32" t="n">
+        <v>10</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V32" t="n">
+        <v>2</v>
+      </c>
+      <c r="W32" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X32" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>AFD7gkCc</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>27/10/2024</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Gaziantep</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Konyaspor</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2</v>
+      </c>
+      <c r="L33" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N33" t="n">
+        <v>9</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T33" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W33" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X33" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>276</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>l0JzNAkL</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>27/10/2024</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Bandirmaspor</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Sakaryaspor</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L34" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N34" t="n">
+        <v>11</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T34" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W34" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X34" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>QmTOkFCG</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>27/10/2024</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Livyi Bereg</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>FK Zorya Luhansk</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J35" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="L35" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N35" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T35" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="U35" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W35" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="X35" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>55</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>120</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>67</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>120</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>175</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>90</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>50</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>100</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>400</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>0YoHO6WF</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>27/10/2024</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>USA - MLS</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Los Angeles Galaxy</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Colorado Rapids</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+      <c r="I36" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="L36" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N36" t="n">
+        <v>26</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P36" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="T36" t="n">
+        <v>5</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V36" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W36" t="n">
+        <v>17</v>
+      </c>
+      <c r="X36" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>12</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>26</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>51</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>201</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>101</v>
+      </c>
+      <c r="BD36" t="n">
         <v>176</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD24"/>
+  <dimension ref="A1:BD32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H2" t="n">
         <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J2" t="n">
         <v>2.75</v>
@@ -765,22 +765,22 @@
         <v>3.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
         <v>11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
         <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="R2" t="n">
-        <v>2.06</v>
+        <v>2.03</v>
       </c>
       <c r="S2" t="n">
         <v>1.36</v>
@@ -831,7 +831,7 @@
         <v>12</v>
       </c>
       <c r="AI2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ2" t="n">
         <v>12</v>
@@ -840,7 +840,7 @@
         <v>34</v>
       </c>
       <c r="AL2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM2" t="n">
         <v>29</v>
@@ -849,7 +849,7 @@
         <v>4.33</v>
       </c>
       <c r="AO2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP2" t="n">
         <v>21</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H3" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I3" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="J3" t="n">
         <v>4</v>
@@ -947,22 +947,22 @@
         <v>2.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O3" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P3" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R3" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S3" t="n">
         <v>1.33</v>
@@ -1025,7 +1025,7 @@
         <v>15</v>
       </c>
       <c r="AM3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN3" t="n">
         <v>6</v>
@@ -1052,10 +1052,10 @@
         <v>7.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW3" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AX3" t="n">
         <v>4</v>
@@ -1073,7 +1073,7 @@
         <v>51</v>
       </c>
       <c r="BC3" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BD3" t="n">
         <v>151</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>hdOn9MOH</t>
+          <t>02sgHz9e</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,179 +1092,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BELGIUM - JUPILER PRO LEAGUE</t>
+          <t>SPAIN - LALIGA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Club Brugge KV</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Anderlecht</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="G4" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R4" t="n">
         <v>1.62</v>
       </c>
-      <c r="H4" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="S4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T4" t="n">
         <v>2.5</v>
       </c>
-      <c r="L4" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W4" t="n">
+        <v>9</v>
+      </c>
+      <c r="X4" t="n">
         <v>17</v>
       </c>
-      <c r="O4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W4" t="n">
+      <c r="Y4" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>9.5</v>
       </c>
-      <c r="X4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>15</v>
-      </c>
       <c r="AK4" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="AL4" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AM4" t="n">
         <v>34</v>
       </c>
       <c r="AN4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX4" t="n">
         <v>4</v>
       </c>
-      <c r="AO4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>401</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>7</v>
-      </c>
       <c r="AY4" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AZ4" t="n">
         <v>26</v>
       </c>
       <c r="BA4" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="BB4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC4" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD4" t="n">
         <v>151</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>176</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>zF8p3n8s</t>
+          <t>hdOn9MOH</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1279,93 +1279,93 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
+          <t>BELGIUM - JUPILER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>K. Lierse S.K.</t>
+          <t>Club Brugge KV</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>RAAL La Louviere</t>
+          <t>Anderlecht</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.9</v>
+        <v>1.62</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="I5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N5" t="n">
+        <v>17</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R5" t="n">
         <v>2.35</v>
       </c>
-      <c r="J5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="S5" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V5" t="n">
         <v>2.2</v>
       </c>
-      <c r="L5" t="n">
-        <v>3</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N5" t="n">
-        <v>11</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2.1</v>
-      </c>
       <c r="W5" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="X5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE5" t="n">
         <v>15</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>13</v>
       </c>
       <c r="AF5" t="n">
         <v>41</v>
@@ -1374,79 +1374,79 @@
         <v>151</v>
       </c>
       <c r="AH5" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AI5" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="AJ5" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="AK5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ5" t="n">
         <v>23</v>
       </c>
-      <c r="AL5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>51</v>
-      </c>
       <c r="AR5" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AS5" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="AT5" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="AU5" t="n">
         <v>7.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW5" t="n">
+        <v>401</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB5" t="n">
         <v>81</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>51</v>
       </c>
       <c r="BC5" t="n">
         <v>151</v>
       </c>
       <c r="BD5" t="n">
-        <v>81</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Me6e4taT</t>
+          <t>zF8p3n8s</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,92 +1456,92 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CZECH REPUBLIC - CHANCE LIGA</t>
+          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Teplice</t>
+          <t>K. Lierse S.K.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Bohemians</t>
+          <t>RAAL La Louviere</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I6" t="n">
         <v>2.35</v>
       </c>
-      <c r="H6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.8</v>
-      </c>
       <c r="J6" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="K6" t="n">
         <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O6" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P6" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q6" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R6" t="n">
         <v>1.98</v>
       </c>
-      <c r="R6" t="n">
-        <v>1.88</v>
-      </c>
       <c r="S6" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T6" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U6" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="V6" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W6" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="X6" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Z6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA6" t="n">
         <v>23</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>19</v>
       </c>
       <c r="AB6" t="n">
         <v>29</v>
       </c>
       <c r="AC6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD6" t="n">
         <v>6.5</v>
@@ -1553,37 +1553,37 @@
         <v>41</v>
       </c>
       <c r="AG6" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>9.5</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AK6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO6" t="n">
         <v>15</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>13</v>
       </c>
       <c r="AP6" t="n">
         <v>23</v>
       </c>
       <c r="AQ6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR6" t="n">
         <v>67</v>
@@ -1592,7 +1592,7 @@
         <v>151</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU6" t="n">
         <v>7.5</v>
@@ -1601,22 +1601,22 @@
         <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="AX6" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AY6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC6" t="n">
         <v>151</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A5rcsYIi</t>
+          <t>Me6e4taT</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,74 +1638,74 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DENMARK - SUPERLIGA</t>
+          <t>CZECH REPUBLIC - CHANCE LIGA</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Brondby</t>
+          <t>Teplice</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>FC Copenhagen</t>
+          <t>Bohemians</t>
         </is>
       </c>
       <c r="G7" t="n">
         <v>2.35</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="I7" t="n">
         <v>2.8</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K7" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L7" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O7" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P7" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q7" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U7" t="n">
         <v>1.75</v>
       </c>
-      <c r="R7" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.62</v>
-      </c>
       <c r="V7" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="W7" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="X7" t="n">
         <v>12</v>
@@ -1717,16 +1717,16 @@
         <v>23</v>
       </c>
       <c r="AA7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB7" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AC7" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE7" t="n">
         <v>13</v>
@@ -1735,25 +1735,25 @@
         <v>41</v>
       </c>
       <c r="AG7" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH7" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AI7" t="n">
         <v>15</v>
       </c>
       <c r="AJ7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK7" t="n">
         <v>29</v>
       </c>
       <c r="AL7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN7" t="n">
         <v>4.5</v>
@@ -1762,25 +1762,25 @@
         <v>13</v>
       </c>
       <c r="AP7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ7" t="n">
         <v>41</v>
       </c>
       <c r="AR7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="AU7" t="n">
         <v>7.5</v>
       </c>
       <c r="AV7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW7" t="n">
         <v>501</v>
@@ -1792,7 +1792,7 @@
         <v>15</v>
       </c>
       <c r="AZ7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA7" t="n">
         <v>51</v>
@@ -1801,16 +1801,16 @@
         <v>67</v>
       </c>
       <c r="BC7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD7" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Aqi7P4wH</t>
+          <t>A5rcsYIi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,179 +1820,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ESTONIA - MEISTRILIIGA</t>
+          <t>DENMARK - SUPERLIGA</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Narva</t>
+          <t>Brondby</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Parnu JK Vaprus</t>
+          <t>FC Copenhagen</t>
         </is>
       </c>
       <c r="G8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" t="n">
         <v>2.25</v>
       </c>
-      <c r="H8" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.05</v>
-      </c>
       <c r="L8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
+        <v>13</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC8" t="n">
         <v>12</v>
       </c>
-      <c r="O8" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="T8" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="W8" t="n">
-        <v>8</v>
-      </c>
-      <c r="X8" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AD8" t="n">
-        <v>5.4</v>
+        <v>6.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AF8" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="AG8" t="n">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="AH8" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AI8" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AJ8" t="n">
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="AK8" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL8" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AM8" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="AP8" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AQ8" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AR8" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AS8" t="n">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="AU8" t="n">
-        <v>6.3</v>
+        <v>7.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>51</v>
+        <v>501</v>
       </c>
       <c r="AX8" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AY8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA8" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="BB8" t="n">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="BC8" t="n">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="BD8" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Cjx2S6gb</t>
+          <t>WhhLyUnT</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ESTONIA - MEISTRILIIGA</t>
+          <t>DENMARK - SUPERLIGA</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Kalju</t>
+          <t>Vejle</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Levadia</t>
+          <t>Lyngby</t>
         </is>
       </c>
       <c r="G9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J9" t="n">
         <v>3.2</v>
       </c>
-      <c r="H9" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.6</v>
-      </c>
       <c r="K9" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="L9" t="n">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="O9" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="P9" t="n">
-        <v>3.82</v>
+        <v>3.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.65</v>
+        <v>1.88</v>
       </c>
       <c r="R9" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S9" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="T9" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="U9" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="V9" t="n">
-        <v>2.34</v>
+        <v>2.1</v>
       </c>
       <c r="W9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y9" t="n">
         <v>10</v>
       </c>
-      <c r="X9" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>9.25</v>
-      </c>
       <c r="Z9" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="AA9" t="n">
         <v>21</v>
       </c>
       <c r="AB9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP9" t="n">
         <v>23</v>
       </c>
-      <c r="AC9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>35</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>200</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>21</v>
-      </c>
       <c r="AQ9" t="n">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AR9" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="AS9" t="n">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="AT9" t="n">
         <v>3</v>
       </c>
       <c r="AU9" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV9" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>51</v>
+        <v>501</v>
       </c>
       <c r="AX9" t="n">
-        <v>4.1</v>
+        <v>4.75</v>
       </c>
       <c r="AY9" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ9" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="BA9" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="BB9" t="n">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="BC9" t="n">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="BD9" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Od8RJbU8</t>
+          <t>Cjx2S6gb</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2189,174 +2189,174 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>GERMANY - 2. BUNDESLIGA</t>
+          <t>ESTONIA - MEISTRILIIGA</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Kalju</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Preussen Munster</t>
+          <t>Levadia</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.95</v>
+        <v>3.2</v>
       </c>
       <c r="H10" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="I10" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" t="n">
         <v>3.6</v>
       </c>
-      <c r="J10" t="n">
-        <v>2.6</v>
-      </c>
       <c r="K10" t="n">
-        <v>2.38</v>
+        <v>2.18</v>
       </c>
       <c r="L10" t="n">
-        <v>3.75</v>
+        <v>2.57</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.17</v>
       </c>
       <c r="P10" t="n">
-        <v>5</v>
+        <v>3.82</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="R10" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="S10" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="T10" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="U10" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V10" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="W10" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="X10" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>35</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE10" t="n">
         <v>10</v>
       </c>
-      <c r="X10" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB10" t="n">
+      <c r="AF10" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>175</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP10" t="n">
         <v>21</v>
       </c>
-      <c r="AC10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>17</v>
-      </c>
       <c r="AQ10" t="n">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="AR10" t="n">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="AS10" t="n">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="AU10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AV10" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AW10" t="n">
-        <v>351</v>
+        <v>51</v>
       </c>
       <c r="AX10" t="n">
-        <v>5.5</v>
+        <v>4.1</v>
       </c>
       <c r="AY10" t="n">
-        <v>17</v>
+        <v>10.25</v>
       </c>
       <c r="AZ10" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="BA10" t="n">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="BB10" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="BC10" t="n">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="BD10" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Io8X1Q8N</t>
+          <t>Od8RJbU8</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2376,124 +2376,124 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Ulm</t>
+          <t>Preussen Munster</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.63</v>
+        <v>1.95</v>
       </c>
       <c r="H11" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>4.75</v>
+        <v>3.7</v>
       </c>
       <c r="J11" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="K11" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N11" t="n">
+        <v>15</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V11" t="n">
         <v>2.38</v>
       </c>
-      <c r="L11" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N11" t="n">
-        <v>13</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P11" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2</v>
-      </c>
       <c r="W11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="X11" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z11" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AA11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AF11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG11" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="AH11" t="n">
         <v>15</v>
       </c>
       <c r="AI11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL11" t="n">
         <v>26</v>
       </c>
-      <c r="AJ11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>34</v>
-      </c>
       <c r="AM11" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="AO11" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AP11" t="n">
         <v>17</v>
       </c>
       <c r="AQ11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR11" t="n">
         <v>41</v>
@@ -2502,34 +2502,34 @@
         <v>101</v>
       </c>
       <c r="AT11" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="AU11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW11" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="AX11" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AY11" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AZ11" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="BA11" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB11" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC11" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD11" t="n">
         <v>81</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AHQvdex2</t>
+          <t>Io8X1Q8N</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2558,31 +2558,31 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Ulm</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.35</v>
+        <v>1.7</v>
       </c>
       <c r="H12" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="I12" t="n">
-        <v>2.87</v>
+        <v>4.75</v>
       </c>
       <c r="J12" t="n">
-        <v>2.88</v>
+        <v>2.3</v>
       </c>
       <c r="K12" t="n">
         <v>2.3</v>
       </c>
       <c r="L12" t="n">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M12" t="n">
         <v>1.04</v>
@@ -2591,16 +2591,16 @@
         <v>13</v>
       </c>
       <c r="O12" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P12" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R12" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="S12" t="n">
         <v>1.33</v>
@@ -2609,25 +2609,25 @@
         <v>3.25</v>
       </c>
       <c r="U12" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="V12" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="W12" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="X12" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z12" t="n">
         <v>13</v>
       </c>
-      <c r="Y12" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>23</v>
-      </c>
       <c r="AA12" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AB12" t="n">
         <v>23</v>
@@ -2636,82 +2636,82 @@
         <v>13</v>
       </c>
       <c r="AD12" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AF12" t="n">
         <v>41</v>
       </c>
       <c r="AG12" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH12" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AI12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP12" t="n">
         <v>17</v>
       </c>
-      <c r="AJ12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM12" t="n">
+      <c r="AQ12" t="n">
         <v>26</v>
       </c>
-      <c r="AN12" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ12" t="n">
+      <c r="AR12" t="n">
         <v>41</v>
       </c>
-      <c r="AR12" t="n">
-        <v>51</v>
-      </c>
       <c r="AS12" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT12" t="n">
         <v>3.25</v>
       </c>
       <c r="AU12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW12" t="n">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="AX12" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AY12" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AZ12" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BB12" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BC12" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD12" t="n">
         <v>81</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>neJ7Lqi3</t>
+          <t>AHQvdex2</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2735,114 +2735,114 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>GERMANY - 3. LIGA</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Cottbus</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Munich 1860</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.05</v>
+        <v>2.35</v>
       </c>
       <c r="H13" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I13" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="J13" t="n">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="K13" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L13" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
+        <v>13</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W13" t="n">
+        <v>10</v>
+      </c>
+      <c r="X13" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA13" t="n">
         <v>17</v>
       </c>
-      <c r="O13" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R13" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W13" t="n">
-        <v>11</v>
-      </c>
-      <c r="X13" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>15</v>
-      </c>
       <c r="AB13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC13" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AD13" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE13" t="n">
         <v>12</v>
       </c>
       <c r="AF13" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG13" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH13" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AI13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK13" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM13" t="n">
         <v>26</v>
@@ -2851,22 +2851,22 @@
         <v>4.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ13" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS13" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="AU13" t="n">
         <v>7</v>
@@ -2878,7 +2878,7 @@
         <v>351</v>
       </c>
       <c r="AX13" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AY13" t="n">
         <v>15</v>
@@ -2887,13 +2887,13 @@
         <v>21</v>
       </c>
       <c r="BA13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB13" t="n">
         <v>51</v>
       </c>
       <c r="BC13" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BD13" t="n">
         <v>81</v>
@@ -2902,7 +2902,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>YLSklwr1</t>
+          <t>neJ7Lqi3</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,110 +2912,110 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>HUNGARY - OTP BANK LIGA</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>Cottbus</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Zalaegerszegi</t>
+          <t>Munich 1860</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H14" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="I14" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J14" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K14" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L14" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="O14" t="n">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="P14" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="R14" t="n">
-        <v>2.03</v>
+        <v>2.35</v>
       </c>
       <c r="S14" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="T14" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U14" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="V14" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="W14" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="X14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y14" t="n">
         <v>9</v>
       </c>
       <c r="Z14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB14" t="n">
         <v>21</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AC14" t="n">
         <v>17</v>
       </c>
-      <c r="AB14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>11</v>
-      </c>
       <c r="AD14" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF14" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG14" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="AH14" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AI14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ14" t="n">
         <v>12</v>
@@ -3024,40 +3024,40 @@
         <v>34</v>
       </c>
       <c r="AL14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM14" t="n">
         <v>26</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AN14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ14" t="n">
         <v>34</v>
       </c>
-      <c r="AN14" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ14" t="n">
+      <c r="AR14" t="n">
         <v>41</v>
       </c>
-      <c r="AR14" t="n">
-        <v>51</v>
-      </c>
       <c r="AS14" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT14" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="AU14" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV14" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW14" t="n">
-        <v>51</v>
+        <v>351</v>
       </c>
       <c r="AX14" t="n">
         <v>5.5</v>
@@ -3066,25 +3066,25 @@
         <v>17</v>
       </c>
       <c r="AZ14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA14" t="n">
         <v>51</v>
       </c>
       <c r="BB14" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC14" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="BD14" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>67SIOKm0</t>
+          <t>YLSklwr1</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3099,165 +3099,165 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>HUNGARY - OTP BANK LIGA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Riga FC</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tukums 2000</t>
+          <t>Zalaegerszegi</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.06</v>
+        <v>2.1</v>
       </c>
       <c r="H15" t="n">
-        <v>7.8</v>
+        <v>3.4</v>
       </c>
       <c r="I15" t="n">
-        <v>24</v>
+        <v>3.25</v>
       </c>
       <c r="J15" t="n">
-        <v>1.29</v>
+        <v>2.75</v>
       </c>
       <c r="K15" t="n">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="L15" t="n">
-        <v>15</v>
+        <v>3.75</v>
       </c>
       <c r="M15" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="O15" t="n">
-        <v>1.02</v>
+        <v>1.25</v>
       </c>
       <c r="P15" t="n">
-        <v>9.800000000000001</v>
+        <v>3.75</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.16</v>
+        <v>1.85</v>
       </c>
       <c r="R15" t="n">
-        <v>3.94</v>
+        <v>2</v>
       </c>
       <c r="S15" t="n">
-        <v>1.12</v>
+        <v>1.36</v>
       </c>
       <c r="T15" t="n">
-        <v>5.35</v>
+        <v>3</v>
       </c>
       <c r="U15" t="n">
-        <v>2.12</v>
+        <v>1.67</v>
       </c>
       <c r="V15" t="n">
-        <v>1.69</v>
+        <v>2.1</v>
       </c>
       <c r="W15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X15" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>12</v>
       </c>
-      <c r="X15" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>28</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>100</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>350</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>80</v>
-      </c>
       <c r="AK15" t="n">
-        <v>500</v>
+        <v>34</v>
       </c>
       <c r="AL15" t="n">
-        <v>400</v>
+        <v>26</v>
       </c>
       <c r="AM15" t="n">
-        <v>175</v>
+        <v>34</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.45</v>
+        <v>4.33</v>
       </c>
       <c r="AO15" t="n">
-        <v>4.05</v>
+        <v>12</v>
       </c>
       <c r="AP15" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AQ15" t="n">
-        <v>6.9</v>
+        <v>41</v>
       </c>
       <c r="AR15" t="n">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="AS15" t="n">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="AT15" t="n">
-        <v>5.4</v>
+        <v>3</v>
       </c>
       <c r="AU15" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="AV15" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="AW15" t="n">
         <v>51</v>
       </c>
       <c r="AX15" t="n">
-        <v>24</v>
+        <v>5.5</v>
       </c>
       <c r="AY15" t="n">
-        <v>175</v>
+        <v>17</v>
       </c>
       <c r="AZ15" t="n">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="BA15" t="n">
         <v>51</v>
       </c>
       <c r="BB15" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC15" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BD15" t="n">
         <v>51</v>
@@ -3266,7 +3266,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>U3UTs1w3</t>
+          <t>67SIOKm0</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,170 +3276,170 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>MALAYSIA - SUPER LEAGUE</t>
+          <t>LATVIA - VIRSLIGA</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Selangor</t>
+          <t>Riga FC</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Johor DT</t>
+          <t>Tukums 2000</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>6.2</v>
+        <v>1.06</v>
       </c>
       <c r="H16" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="I16" t="n">
+        <v>24</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L16" t="n">
+        <v>15</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N16" t="n">
+        <v>29</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P16" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="T16" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="W16" t="n">
+        <v>12</v>
+      </c>
+      <c r="X16" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>100</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>350</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>500</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>400</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>175</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AO16" t="n">
         <v>4.05</v>
       </c>
-      <c r="I16" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="J16" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N16" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P16" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R16" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T16" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="W16" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="X16" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>100</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>40</v>
-      </c>
-      <c r="AC16" t="n">
+      <c r="AP16" t="n">
         <v>13</v>
       </c>
-      <c r="AD16" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AJ16" t="n">
+      <c r="AQ16" t="n">
         <v>6.9</v>
       </c>
-      <c r="AK16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>18</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>35</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>35</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>250</v>
-      </c>
       <c r="AR16" t="n">
-        <v>200</v>
+        <v>22</v>
       </c>
       <c r="AS16" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="AT16" t="n">
-        <v>3.1</v>
+        <v>5.4</v>
       </c>
       <c r="AU16" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="AV16" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AW16" t="n">
         <v>51</v>
       </c>
       <c r="AX16" t="n">
-        <v>3.35</v>
+        <v>24</v>
       </c>
       <c r="AY16" t="n">
-        <v>6.6</v>
+        <v>175</v>
       </c>
       <c r="AZ16" t="n">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="BA16" t="n">
-        <v>18.5</v>
+        <v>51</v>
       </c>
       <c r="BB16" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="BC16" t="n">
-        <v>175</v>
+        <v>51</v>
       </c>
       <c r="BD16" t="n">
         <v>51</v>
@@ -3448,7 +3448,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>thRrWQf5</t>
+          <t>U3UTs1w3</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,179 +3458,179 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>08:15</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>MALAYSIA - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>FC Emmen</t>
+          <t>Selangor</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Telstar</t>
+          <t>Johor DT</t>
         </is>
       </c>
       <c r="G17" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="J17" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="L17" t="n">
         <v>1.91</v>
-      </c>
-      <c r="H17" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L17" t="n">
-        <v>4</v>
       </c>
       <c r="M17" t="n">
         <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>11</v>
+        <v>11.9</v>
       </c>
       <c r="O17" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="P17" t="n">
-        <v>3.5</v>
+        <v>4.65</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.98</v>
+        <v>1.57</v>
       </c>
       <c r="R17" t="n">
-        <v>1.88</v>
+        <v>2.1</v>
       </c>
       <c r="S17" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="T17" t="n">
-        <v>3</v>
+        <v>3.42</v>
       </c>
       <c r="U17" t="n">
-        <v>1.69</v>
+        <v>1.77</v>
       </c>
       <c r="V17" t="n">
         <v>2</v>
       </c>
       <c r="W17" t="n">
-        <v>8</v>
+        <v>15.5</v>
       </c>
       <c r="X17" t="n">
-        <v>9.5</v>
+        <v>35</v>
       </c>
       <c r="Y17" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="Z17" t="n">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="AA17" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>35</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>35</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>250</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>200</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AZ17" t="n">
         <v>15</v>
       </c>
-      <c r="AB17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>26</v>
-      </c>
       <c r="BA17" t="n">
-        <v>67</v>
+        <v>18.5</v>
       </c>
       <c r="BB17" t="n">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="BC17" t="n">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="BD17" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>fq3Jow9l</t>
+          <t>thRrWQf5</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3645,42 +3645,42 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Stal Mielec</t>
+          <t>FC Emmen</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Zaglebie</t>
+          <t>Telstar</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.38</v>
+        <v>1.85</v>
       </c>
       <c r="H18" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="I18" t="n">
-        <v>2.88</v>
+        <v>3.75</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="K18" t="n">
         <v>2.2</v>
       </c>
       <c r="L18" t="n">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="M18" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O18" t="n">
         <v>1.25</v>
@@ -3689,10 +3689,10 @@
         <v>3.75</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="R18" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="S18" t="n">
         <v>1.36</v>
@@ -3701,118 +3701,118 @@
         <v>3</v>
       </c>
       <c r="U18" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="V18" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="W18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X18" t="n">
         <v>9</v>
       </c>
-      <c r="X18" t="n">
-        <v>12</v>
-      </c>
       <c r="Y18" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AA18" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AB18" t="n">
         <v>26</v>
       </c>
       <c r="AC18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH18" t="n">
         <v>11</v>
       </c>
-      <c r="AD18" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE18" t="n">
+      <c r="AI18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>13</v>
       </c>
-      <c r="AF18" t="n">
+      <c r="AK18" t="n">
         <v>41</v>
       </c>
-      <c r="AG18" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH18" t="n">
+      <c r="AL18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO18" t="n">
         <v>10</v>
       </c>
-      <c r="AI18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>13</v>
-      </c>
       <c r="AP18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ18" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR18" t="n">
         <v>51</v>
       </c>
       <c r="AS18" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT18" t="n">
         <v>3</v>
       </c>
       <c r="AU18" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV18" t="n">
         <v>51</v>
       </c>
       <c r="AW18" t="n">
-        <v>501</v>
+        <v>126</v>
       </c>
       <c r="AX18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY18" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AZ18" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="BA18" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB18" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC18" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD18" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>8OMQYD2B</t>
+          <t>fq3Jow9l</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3822,110 +3822,110 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08:15</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Torreense</t>
+          <t>Stal Mielec</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Alverca</t>
+          <t>Zaglebie</t>
         </is>
       </c>
       <c r="G19" t="n">
         <v>2.35</v>
       </c>
       <c r="H19" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="I19" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J19" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="K19" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L19" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M19" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O19" t="n">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="P19" t="n">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="R19" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U19" t="n">
         <v>1.62</v>
       </c>
-      <c r="S19" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.91</v>
-      </c>
       <c r="V19" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="W19" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="X19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y19" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z19" t="n">
         <v>23</v>
       </c>
       <c r="AA19" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AB19" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AC19" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AD19" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AF19" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG19" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="AH19" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AI19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ19" t="n">
         <v>11</v>
@@ -3934,58 +3934,58 @@
         <v>29</v>
       </c>
       <c r="AL19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM19" t="n">
         <v>26</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AN19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ19" t="n">
         <v>41</v>
       </c>
-      <c r="AN19" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO19" t="n">
+      <c r="AR19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY19" t="n">
         <v>15</v>
       </c>
-      <c r="AP19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR19" t="n">
+      <c r="AZ19" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB19" t="n">
         <v>67</v>
       </c>
-      <c r="AS19" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>81</v>
-      </c>
       <c r="BC19" t="n">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="BD19" t="n">
         <v>81</v>
@@ -3994,7 +3994,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>hIXUsgQk</t>
+          <t>8OMQYD2B</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4004,77 +4004,77 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>SCOTLAND - PREMIERSHIP</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>Torreense</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Alverca</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.55</v>
+        <v>2.35</v>
       </c>
       <c r="H20" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I20" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J20" t="n">
         <v>3.2</v>
       </c>
       <c r="K20" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L20" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M20" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="O20" t="n">
-        <v>1.27</v>
+        <v>1.4</v>
       </c>
       <c r="P20" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.03</v>
+        <v>2.25</v>
       </c>
       <c r="R20" t="n">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="S20" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="T20" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U20" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="V20" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W20" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="X20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y20" t="n">
         <v>10</v>
@@ -4086,25 +4086,25 @@
         <v>21</v>
       </c>
       <c r="AB20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AD20" t="n">
         <v>6</v>
       </c>
       <c r="AE20" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AF20" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG20" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AH20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI20" t="n">
         <v>13</v>
@@ -4116,67 +4116,67 @@
         <v>29</v>
       </c>
       <c r="AL20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM20" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AN20" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO20" t="n">
         <v>15</v>
       </c>
       <c r="AP20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ20" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR20" t="n">
         <v>67</v>
       </c>
       <c r="AS20" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="AU20" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV20" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW20" t="n">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="AX20" t="n">
         <v>4.75</v>
       </c>
       <c r="AY20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ20" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="BA20" t="n">
         <v>51</v>
       </c>
       <c r="BB20" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC20" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BD20" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>UeCVH3Z3</t>
+          <t>hIXUsgQk</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4191,90 +4191,90 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>SWEDEN - SUPERETTAN</t>
+          <t>SCOTLAND - PREMIERSHIP</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="G21" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I21" t="n">
         <v>3.1</v>
       </c>
-      <c r="H21" t="n">
+      <c r="J21" t="n">
+        <v>3</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N21" t="n">
+        <v>10</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P21" t="n">
         <v>3.5</v>
       </c>
-      <c r="I21" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N21" t="n">
-        <v>13</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P21" t="n">
-        <v>4</v>
-      </c>
       <c r="Q21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U21" t="n">
         <v>1.75</v>
       </c>
-      <c r="R21" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T21" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.62</v>
-      </c>
       <c r="V21" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="W21" t="n">
+        <v>8</v>
+      </c>
+      <c r="X21" t="n">
         <v>11</v>
       </c>
-      <c r="X21" t="n">
-        <v>17</v>
-      </c>
       <c r="Y21" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AA21" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AB21" t="n">
         <v>29</v>
       </c>
       <c r="AC21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AD21" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE21" t="n">
         <v>13</v>
@@ -4283,49 +4283,49 @@
         <v>41</v>
       </c>
       <c r="AG21" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI21" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AJ21" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AK21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP21" t="n">
         <v>21</v>
       </c>
-      <c r="AL21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ21" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR21" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS21" t="n">
         <v>151</v>
       </c>
       <c r="AT21" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="AU21" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV21" t="n">
         <v>51</v>
@@ -4334,22 +4334,22 @@
         <v>501</v>
       </c>
       <c r="AX21" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="AY21" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AZ21" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="BA21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB21" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BC21" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD21" t="n">
         <v>126</v>
@@ -4358,7 +4358,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>AFD7gkCc</t>
+          <t>EBOaxPOE</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4368,179 +4368,179 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H22" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="I22" t="n">
+        <v>3</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q22" t="n">
         <v>2.7</v>
       </c>
-      <c r="J22" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="R22" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U22" t="n">
         <v>2.1</v>
       </c>
-      <c r="L22" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N22" t="n">
-        <v>10</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P22" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.8</v>
-      </c>
       <c r="V22" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="W22" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="X22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA22" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AB22" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC22" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AD22" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE22" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AF22" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG22" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH22" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AI22" t="n">
         <v>13</v>
       </c>
       <c r="AJ22" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AK22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL22" t="n">
         <v>29</v>
       </c>
-      <c r="AL22" t="n">
-        <v>23</v>
-      </c>
       <c r="AM22" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN22" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO22" t="n">
         <v>15</v>
       </c>
       <c r="AP22" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AQ22" t="n">
         <v>51</v>
       </c>
       <c r="AR22" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS22" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.62</v>
+        <v>2.25</v>
       </c>
       <c r="AU22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV22" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW22" t="n">
-        <v>276</v>
+        <v>81</v>
       </c>
       <c r="AX22" t="n">
         <v>4.75</v>
       </c>
       <c r="AY22" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AZ22" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="BA22" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB22" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BC22" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="BD22" t="n">
-        <v>301</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>l0JzNAkL</t>
+          <t>OnZ4j3yI</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4550,59 +4550,59 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Bandirmaspor</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Sakaryaspor</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H23" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I23" t="n">
         <v>3.9</v>
       </c>
       <c r="J23" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="K23" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L23" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M23" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O23" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="P23" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="R23" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S23" t="n">
         <v>1.4</v>
@@ -4614,28 +4614,28 @@
         <v>1.8</v>
       </c>
       <c r="V23" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W23" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X23" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y23" t="n">
         <v>9</v>
       </c>
-      <c r="Y23" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC23" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD23" t="n">
         <v>6.5</v>
@@ -4650,10 +4650,10 @@
         <v>251</v>
       </c>
       <c r="AH23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ23" t="n">
         <v>13</v>
@@ -4671,13 +4671,13 @@
         <v>4</v>
       </c>
       <c r="AO23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP23" t="n">
         <v>21</v>
       </c>
       <c r="AQ23" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR23" t="n">
         <v>51</v>
@@ -4698,7 +4698,7 @@
         <v>126</v>
       </c>
       <c r="AX23" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AY23" t="n">
         <v>21</v>
@@ -4716,189 +4716,1645 @@
         <v>201</v>
       </c>
       <c r="BD23" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>2kdWgxrA</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>27/10/2024</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>SWEDEN - ALLSVENSKAN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Varnamo</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Norrkoping</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L24" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N24" t="n">
+        <v>10</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W24" t="n">
+        <v>7</v>
+      </c>
+      <c r="X24" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>UeCVH3Z3</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>27/10/2024</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>SWEDEN - SUPERETTAN</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Varberg</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Degerfors</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L25" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N25" t="n">
+        <v>13</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V25" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W25" t="n">
+        <v>11</v>
+      </c>
+      <c r="X25" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>K89QUUl2</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>27/10/2024</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>10:15</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Sion</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>St. Gallen</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N26" t="n">
+        <v>15</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T26" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V26" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W26" t="n">
+        <v>10</v>
+      </c>
+      <c r="X26" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>351</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>t41Tvb5t</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>27/10/2024</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>10:15</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Wil</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Vaduz</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="L27" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N27" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="T27" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V27" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="W27" t="n">
+        <v>10</v>
+      </c>
+      <c r="X27" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>27</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>32</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>80</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>100</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>200</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>r9LLVoKj</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>27/10/2024</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Alanyaspor</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Antalyaspor</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L28" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N28" t="n">
+        <v>11</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V28" t="n">
+        <v>2</v>
+      </c>
+      <c r="W28" t="n">
+        <v>8</v>
+      </c>
+      <c r="X28" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>276</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>zFpfAX5F</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>27/10/2024</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Amedspor</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Pendikspor</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L29" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N29" t="n">
+        <v>11</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W29" t="n">
+        <v>8</v>
+      </c>
+      <c r="X29" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>23qAyA4E</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>27/10/2024</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Erzurumspor</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Keciorengucu</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L30" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N30" t="n">
+        <v>8</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W30" t="n">
+        <v>6</v>
+      </c>
+      <c r="X30" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>301</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
           <t>QmTOkFCG</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>27/10/2024</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>08:00</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>Livyi Bereg</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>FK Zorya Luhansk</t>
         </is>
       </c>
-      <c r="G24" t="n">
+      <c r="G31" t="n">
         <v>3.4</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H31" t="n">
         <v>3.05</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I31" t="n">
         <v>2.15</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J31" t="n">
         <v>4</v>
       </c>
-      <c r="K24" t="n">
+      <c r="K31" t="n">
         <v>1.93</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L31" t="n">
         <v>2.82</v>
       </c>
-      <c r="M24" t="n">
+      <c r="M31" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N31" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T31" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W31" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="X31" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>37</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>55</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>120</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>67</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>110</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>175</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>90</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>24</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>50</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>100</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>400</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>d6fazKkT</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>27/10/2024</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>WALES - CYMRU PREMIER</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Aberystwyth</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>TNS</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>35</v>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="J32" t="n">
+        <v>23</v>
+      </c>
+      <c r="K32" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N32" t="n">
+        <v>21</v>
+      </c>
+      <c r="O32" t="n">
         <v>1.09</v>
       </c>
-      <c r="N24" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P24" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="U24" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W24" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="X24" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>50</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>37</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>55</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>120</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>67</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK24" t="n">
+      <c r="P32" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="T32" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="W32" t="n">
+        <v>150</v>
+      </c>
+      <c r="X32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>200</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>201</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>700</v>
+      </c>
+      <c r="AC32" t="n">
         <v>20</v>
       </c>
-      <c r="AL24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>40</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AP24" t="n">
+      <c r="AD32" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>400</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>350</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>175</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>14</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>150</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>18</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="BB32" t="n">
         <v>32</v>
       </c>
-      <c r="AQ24" t="n">
-        <v>110</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>175</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>500</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>90</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>24</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>50</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>100</v>
-      </c>
-      <c r="BC24" t="n">
-        <v>400</v>
-      </c>
-      <c r="BD24" t="n">
-        <v>81</v>
+      <c r="BC32" t="n">
+        <v>300</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-10-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD32"/>
+  <dimension ref="A1:BD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,40 +747,40 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H2" t="n">
         <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J2" t="n">
         <v>2.75</v>
       </c>
       <c r="K2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L2" t="n">
         <v>3.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
         <v>11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P2" t="n">
         <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="R2" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="S2" t="n">
         <v>1.36</v>
@@ -819,7 +819,7 @@
         <v>6.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF2" t="n">
         <v>41</v>
@@ -828,10 +828,10 @@
         <v>151</v>
       </c>
       <c r="AH2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ2" t="n">
         <v>12</v>
@@ -840,7 +840,7 @@
         <v>34</v>
       </c>
       <c r="AL2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM2" t="n">
         <v>29</v>
@@ -849,7 +849,7 @@
         <v>4.33</v>
       </c>
       <c r="AO2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP2" t="n">
         <v>21</v>
@@ -876,7 +876,7 @@
         <v>501</v>
       </c>
       <c r="AX2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AY2" t="n">
         <v>17</v>
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="H3" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I3" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K3" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L3" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
@@ -965,16 +965,16 @@
         <v>2.15</v>
       </c>
       <c r="S3" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T3" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U3" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W3" t="n">
         <v>13</v>
@@ -992,13 +992,13 @@
         <v>29</v>
       </c>
       <c r="AB3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE3" t="n">
         <v>13</v>
@@ -1010,7 +1010,7 @@
         <v>151</v>
       </c>
       <c r="AH3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI3" t="n">
         <v>10</v>
@@ -1019,10 +1019,10 @@
         <v>8.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM3" t="n">
         <v>21</v>
@@ -1034,7 +1034,7 @@
         <v>21</v>
       </c>
       <c r="AP3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ3" t="n">
         <v>67</v>
@@ -1046,7 +1046,7 @@
         <v>151</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU3" t="n">
         <v>7.5</v>
@@ -1061,16 +1061,16 @@
         <v>4</v>
       </c>
       <c r="AY3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AZ3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BB3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BC3" t="n">
         <v>101</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>02sgHz9e</t>
+          <t>2asCMBIO</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,170 +1092,170 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA</t>
+          <t>NETHERLANDS - EREDIVISIE</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Twente</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Heracles</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.7</v>
+        <v>1.27</v>
       </c>
       <c r="H4" t="n">
-        <v>3.3</v>
+        <v>6.25</v>
       </c>
       <c r="I4" t="n">
-        <v>2.1</v>
+        <v>9.5</v>
       </c>
       <c r="J4" t="n">
-        <v>4.33</v>
+        <v>1.67</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>2.88</v>
       </c>
       <c r="L4" t="n">
-        <v>2.88</v>
+        <v>8</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="O4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P4" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q4" t="n">
         <v>1.44</v>
       </c>
-      <c r="P4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.3</v>
-      </c>
       <c r="R4" t="n">
-        <v>1.62</v>
+        <v>2.7</v>
       </c>
       <c r="S4" t="n">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="T4" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V4" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="W4" t="n">
         <v>9</v>
       </c>
       <c r="X4" t="n">
-        <v>17</v>
+        <v>7.5</v>
       </c>
       <c r="Y4" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>126</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ4" t="n">
         <v>13</v>
       </c>
-      <c r="Z4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA4" t="n">
+      <c r="AR4" t="n">
         <v>34</v>
       </c>
-      <c r="AB4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>401</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI4" t="n">
+      <c r="AS4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU4" t="n">
         <v>9</v>
       </c>
-      <c r="AJ4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS4" t="n">
+      <c r="AV4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC4" t="n">
         <v>251</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>67</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>201</v>
       </c>
       <c r="BD4" t="n">
         <v>151</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>hdOn9MOH</t>
+          <t>02sgHz9e</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BELGIUM - JUPILER PRO LEAGUE</t>
+          <t>SPAIN - LALIGA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Club Brugge KV</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Anderlecht</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="G5" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N5" t="n">
+        <v>8</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R5" t="n">
         <v>1.62</v>
       </c>
-      <c r="H5" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="S5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T5" t="n">
         <v>2.5</v>
       </c>
-      <c r="L5" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W5" t="n">
+        <v>9</v>
+      </c>
+      <c r="X5" t="n">
         <v>17</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P5" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W5" t="n">
+      <c r="Y5" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>9.5</v>
       </c>
-      <c r="X5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>15</v>
-      </c>
       <c r="AK5" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AM5" t="n">
         <v>34</v>
       </c>
       <c r="AN5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX5" t="n">
         <v>4</v>
       </c>
-      <c r="AO5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>401</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>7</v>
-      </c>
       <c r="AY5" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AZ5" t="n">
         <v>26</v>
       </c>
       <c r="BA5" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB5" t="n">
         <v>67</v>
       </c>
-      <c r="BB5" t="n">
-        <v>81</v>
-      </c>
       <c r="BC5" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD5" t="n">
         <v>151</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>176</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>zF8p3n8s</t>
+          <t>GA39zZG5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,65 +1456,65 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
+          <t>AUSTRIA - BUNDESLIGA</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>K. Lierse S.K.</t>
+          <t>Grazer AK</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>RAAL La Louviere</t>
+          <t>SK Rapid</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.9</v>
+        <v>5.75</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="I6" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N6" t="n">
+        <v>17</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R6" t="n">
         <v>2.35</v>
       </c>
-      <c r="J6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N6" t="n">
-        <v>11</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.98</v>
-      </c>
       <c r="S6" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="T6" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U6" t="n">
         <v>1.67</v>
@@ -1523,28 +1523,28 @@
         <v>2.1</v>
       </c>
       <c r="W6" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="X6" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC6" t="n">
         <v>15</v>
       </c>
-      <c r="Y6" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>11</v>
-      </c>
       <c r="AD6" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1559,76 +1559,76 @@
         <v>9</v>
       </c>
       <c r="AI6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK6" t="n">
         <v>12</v>
       </c>
-      <c r="AJ6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>23</v>
-      </c>
       <c r="AL6" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AM6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO6" t="n">
         <v>26</v>
       </c>
-      <c r="AN6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>15</v>
-      </c>
       <c r="AP6" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AQ6" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AR6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS6" t="n">
         <v>151</v>
       </c>
       <c r="AT6" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="AU6" t="n">
         <v>7.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW6" t="n">
-        <v>81</v>
+        <v>451</v>
       </c>
       <c r="AX6" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="AY6" t="n">
-        <v>13</v>
+        <v>7.5</v>
       </c>
       <c r="AZ6" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA6" t="n">
         <v>21</v>
       </c>
-      <c r="BA6" t="n">
-        <v>41</v>
-      </c>
       <c r="BB6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BC6" t="n">
+        <v>101</v>
+      </c>
+      <c r="BD6" t="n">
         <v>151</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Me6e4taT</t>
+          <t>r3WrKDWO</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,95 +1638,95 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CZECH REPUBLIC - CHANCE LIGA</t>
+          <t>AUSTRIA - BUNDESLIGA</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Teplice</t>
+          <t>Wolfsberger AC</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Bohemians</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.35</v>
+        <v>4.75</v>
       </c>
       <c r="H7" t="n">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="I7" t="n">
-        <v>2.8</v>
+        <v>1.62</v>
       </c>
       <c r="J7" t="n">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="K7" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L7" t="n">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="O7" t="n">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="P7" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.89</v>
+        <v>1.53</v>
       </c>
       <c r="R7" t="n">
-        <v>1.84</v>
+        <v>2.4</v>
       </c>
       <c r="S7" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="T7" t="n">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U7" t="n">
-        <v>1.75</v>
+        <v>1.53</v>
       </c>
       <c r="V7" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="W7" t="n">
-        <v>8.5</v>
+        <v>19</v>
       </c>
       <c r="X7" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="Z7" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AA7" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AB7" t="n">
         <v>29</v>
       </c>
       <c r="AC7" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE7" t="n">
         <v>13</v>
@@ -1735,82 +1735,82 @@
         <v>41</v>
       </c>
       <c r="AG7" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AH7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI7" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="AL7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO7" t="n">
         <v>23</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>13</v>
       </c>
       <c r="AP7" t="n">
         <v>23</v>
       </c>
       <c r="AQ7" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AR7" t="n">
         <v>67</v>
       </c>
       <c r="AS7" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="AU7" t="n">
         <v>7.5</v>
       </c>
       <c r="AV7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW7" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="AX7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ7" t="n">
         <v>15</v>
       </c>
-      <c r="AZ7" t="n">
+      <c r="BA7" t="n">
         <v>23</v>
       </c>
-      <c r="BA7" t="n">
-        <v>51</v>
-      </c>
       <c r="BB7" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BC7" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD7" t="n">
         <v>151</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A5rcsYIi</t>
+          <t>hdOn9MOH</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,95 +1820,95 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DENMARK - SUPERLIGA</t>
+          <t>BELGIUM - JUPILER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Brondby</t>
+          <t>Club Brugge KV</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>FC Copenhagen</t>
+          <t>Anderlecht</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.38</v>
+        <v>1.6</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="I8" t="n">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="K8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N8" t="n">
+        <v>19</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V8" t="n">
         <v>2.25</v>
       </c>
-      <c r="L8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N8" t="n">
+      <c r="W8" t="n">
+        <v>10</v>
+      </c>
+      <c r="X8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z8" t="n">
         <v>13</v>
       </c>
-      <c r="O8" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P8" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T8" t="n">
-        <v>3</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X8" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>23</v>
-      </c>
       <c r="AA8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB8" t="n">
         <v>19</v>
       </c>
-      <c r="AB8" t="n">
-        <v>26</v>
-      </c>
       <c r="AC8" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE8" t="n">
         <v>13</v>
@@ -1917,73 +1917,73 @@
         <v>41</v>
       </c>
       <c r="AG8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH8" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AI8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>15</v>
       </c>
-      <c r="AJ8" t="n">
-        <v>10</v>
-      </c>
       <c r="AK8" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AL8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ8" t="n">
         <v>21</v>
       </c>
-      <c r="AM8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>41</v>
-      </c>
       <c r="AR8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS8" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="AT8" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="AU8" t="n">
         <v>7.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW8" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="AX8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY8" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AZ8" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="BA8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD8" t="n">
         <v>151</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>WhhLyUnT</t>
+          <t>zF8p3n8s</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,41 +2002,41 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DENMARK - SUPERLIGA</t>
+          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Vejle</t>
+          <t>K. Lierse S.K.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lyngby</t>
+          <t>RAAL La Louviere</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.63</v>
+        <v>2.9</v>
       </c>
       <c r="H9" t="n">
         <v>3.3</v>
       </c>
       <c r="I9" t="n">
-        <v>2.63</v>
+        <v>2.35</v>
       </c>
       <c r="J9" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K9" t="n">
         <v>2.2</v>
       </c>
       <c r="L9" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
         <v>1.05</v>
@@ -2069,19 +2069,19 @@
         <v>2.1</v>
       </c>
       <c r="W9" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="X9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB9" t="n">
         <v>29</v>
@@ -2102,25 +2102,25 @@
         <v>151</v>
       </c>
       <c r="AH9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>9.5</v>
       </c>
-      <c r="AI9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>10</v>
-      </c>
       <c r="AK9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM9" t="n">
         <v>26</v>
       </c>
-      <c r="AL9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>29</v>
-      </c>
       <c r="AN9" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO9" t="n">
         <v>15</v>
@@ -2129,7 +2129,7 @@
         <v>23</v>
       </c>
       <c r="AQ9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR9" t="n">
         <v>67</v>
@@ -2147,34 +2147,34 @@
         <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="AX9" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AY9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA9" t="n">
         <v>41</v>
       </c>
       <c r="BB9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC9" t="n">
         <v>151</v>
       </c>
       <c r="BD9" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Cjx2S6gb</t>
+          <t>Me6e4taT</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,179 +2184,179 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ESTONIA - MEISTRILIIGA</t>
+          <t>CZECH REPUBLIC - CHANCE LIGA</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Kalju</t>
+          <t>Teplice</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Levadia</t>
+          <t>Bohemians</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="H10" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>2.88</v>
       </c>
       <c r="J10" t="n">
+        <v>3</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L10" t="n">
         <v>3.6</v>
       </c>
-      <c r="K10" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.57</v>
-      </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="O10" t="n">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="P10" t="n">
-        <v>3.82</v>
+        <v>3.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.65</v>
+        <v>2.03</v>
       </c>
       <c r="R10" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="S10" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="T10" t="n">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="U10" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="V10" t="n">
-        <v>2.34</v>
+        <v>1.95</v>
       </c>
       <c r="W10" t="n">
-        <v>10.25</v>
+        <v>8</v>
       </c>
       <c r="X10" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="Y10" t="n">
         <v>9.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="AA10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AB10" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AC10" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AD10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AF10" t="n">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="AG10" t="n">
-        <v>175</v>
+        <v>251</v>
       </c>
       <c r="AH10" t="n">
-        <v>7.6</v>
+        <v>9</v>
       </c>
       <c r="AI10" t="n">
-        <v>9.25</v>
+        <v>15</v>
       </c>
       <c r="AJ10" t="n">
-        <v>7.2</v>
+        <v>11</v>
       </c>
       <c r="AK10" t="n">
-        <v>15.5</v>
+        <v>29</v>
       </c>
       <c r="AL10" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="AM10" t="n">
-        <v>17.5</v>
+        <v>34</v>
       </c>
       <c r="AN10" t="n">
-        <v>5.3</v>
+        <v>4.33</v>
       </c>
       <c r="AO10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY10" t="n">
         <v>17</v>
       </c>
-      <c r="AP10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>75</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>90</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>50</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>10.25</v>
-      </c>
       <c r="AZ10" t="n">
-        <v>16.5</v>
+        <v>26</v>
       </c>
       <c r="BA10" t="n">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="BB10" t="n">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="BC10" t="n">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="BD10" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Od8RJbU8</t>
+          <t>WhhLyUnT</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,179 +2366,179 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>GERMANY - 2. BUNDESLIGA</t>
+          <t>DENMARK - SUPERLIGA</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Vejle</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Preussen Munster</t>
+          <t>Lyngby</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.95</v>
+        <v>2.63</v>
       </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I11" t="n">
-        <v>3.7</v>
+        <v>2.63</v>
       </c>
       <c r="J11" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="K11" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N11" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P11" t="n">
         <v>3.75</v>
       </c>
-      <c r="M11" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N11" t="n">
-        <v>15</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P11" t="n">
-        <v>5</v>
-      </c>
       <c r="Q11" t="n">
-        <v>1.57</v>
+        <v>1.88</v>
       </c>
       <c r="R11" t="n">
-        <v>2.35</v>
+        <v>1.98</v>
       </c>
       <c r="S11" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="T11" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U11" t="n">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="V11" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="W11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X11" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y11" t="n">
         <v>10</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Z11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC11" t="n">
         <v>11</v>
       </c>
-      <c r="Y11" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB11" t="n">
+      <c r="AD11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL11" t="n">
         <v>21</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>26</v>
       </c>
       <c r="AM11" t="n">
         <v>29</v>
       </c>
       <c r="AN11" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="AO11" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AP11" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AQ11" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AR11" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AS11" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AT11" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="AU11" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW11" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="AX11" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="AY11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB11" t="n">
         <v>67</v>
       </c>
       <c r="BC11" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD11" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Io8X1Q8N</t>
+          <t>Cjx2S6gb</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2553,174 +2553,174 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>GERMANY - 2. BUNDESLIGA</t>
+          <t>ESTONIA - MEISTRILIIGA</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Kalju</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Ulm</t>
+          <t>Levadia</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="H12" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="I12" t="n">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="K12" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="L12" t="n">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="P12" t="n">
-        <v>4</v>
+        <v>3.82</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="R12" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="S12" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="T12" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="U12" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="V12" t="n">
-        <v>2.1</v>
+        <v>2.34</v>
       </c>
       <c r="W12" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="X12" t="n">
-        <v>9</v>
+        <v>15.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="AA12" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AB12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD12" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AE12" t="n">
-        <v>15</v>
+        <v>10.25</v>
       </c>
       <c r="AF12" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="AG12" t="n">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="AH12" t="n">
-        <v>15</v>
+        <v>7.7</v>
       </c>
       <c r="AI12" t="n">
-        <v>23</v>
+        <v>9.25</v>
       </c>
       <c r="AJ12" t="n">
-        <v>15</v>
+        <v>7.2</v>
       </c>
       <c r="AK12" t="n">
-        <v>51</v>
+        <v>15.5</v>
       </c>
       <c r="AL12" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="AM12" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.75</v>
+        <v>5.3</v>
       </c>
       <c r="AO12" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="AP12" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AQ12" t="n">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="AR12" t="n">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="AS12" t="n">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU12" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AV12" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW12" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AX12" t="n">
-        <v>6.5</v>
+        <v>4.1</v>
       </c>
       <c r="AY12" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="AZ12" t="n">
-        <v>29</v>
+        <v>16.5</v>
       </c>
       <c r="BA12" t="n">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="BB12" t="n">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="BC12" t="n">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="BD12" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AHQvdex2</t>
+          <t>Od8RJbU8</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2740,55 +2740,55 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Preussen Munster</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.35</v>
+        <v>1.85</v>
       </c>
       <c r="H13" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I13" t="n">
-        <v>2.88</v>
+        <v>4</v>
       </c>
       <c r="J13" t="n">
-        <v>2.88</v>
+        <v>2.4</v>
       </c>
       <c r="K13" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L13" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O13" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P13" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R13" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S13" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T13" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U13" t="n">
         <v>1.57</v>
@@ -2797,25 +2797,25 @@
         <v>2.25</v>
       </c>
       <c r="W13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X13" t="n">
         <v>10</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Y13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA13" t="n">
         <v>13</v>
       </c>
-      <c r="Y13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>17</v>
-      </c>
       <c r="AB13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD13" t="n">
         <v>7</v>
@@ -2830,46 +2830,46 @@
         <v>126</v>
       </c>
       <c r="AH13" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AI13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP13" t="n">
         <v>17</v>
       </c>
-      <c r="AJ13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK13" t="n">
+      <c r="AQ13" t="n">
         <v>29</v>
       </c>
-      <c r="AL13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>41</v>
-      </c>
       <c r="AR13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS13" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU13" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV13" t="n">
         <v>41</v>
@@ -2878,19 +2878,19 @@
         <v>351</v>
       </c>
       <c r="AX13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY13" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AZ13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB13" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC13" t="n">
         <v>126</v>
@@ -2902,7 +2902,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>neJ7Lqi3</t>
+          <t>Io8X1Q8N</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2917,165 +2917,165 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>GERMANY - 3. LIGA</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Cottbus</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Munich 1860</t>
+          <t>Ulm</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.05</v>
+        <v>1.62</v>
       </c>
       <c r="H14" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="J14" t="n">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="K14" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L14" t="n">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O14" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="P14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="R14" t="n">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="S14" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="T14" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U14" t="n">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="V14" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="W14" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="X14" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z14" t="n">
         <v>12</v>
       </c>
-      <c r="Y14" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>19</v>
-      </c>
       <c r="AA14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC14" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AD14" t="n">
         <v>7.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AF14" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AG14" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="AH14" t="n">
         <v>15</v>
       </c>
       <c r="AI14" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AJ14" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AK14" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AL14" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AM14" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="AO14" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AP14" t="n">
         <v>17</v>
       </c>
       <c r="AQ14" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AR14" t="n">
         <v>41</v>
       </c>
       <c r="AS14" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB14" t="n">
         <v>101</v>
       </c>
-      <c r="AT14" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>351</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>51</v>
-      </c>
       <c r="BC14" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="BD14" t="n">
         <v>81</v>
@@ -3084,7 +3084,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>YLSklwr1</t>
+          <t>AHQvdex2</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,128 +3094,128 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>HUNGARY - OTP BANK LIGA</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Zalaegerszegi</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="H15" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I15" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N15" t="n">
+        <v>13</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T15" t="n">
         <v>3.25</v>
       </c>
-      <c r="J15" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N15" t="n">
+      <c r="U15" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W15" t="n">
         <v>11</v>
       </c>
-      <c r="O15" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R15" t="n">
-        <v>2</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T15" t="n">
-        <v>3</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V15" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W15" t="n">
-        <v>8.5</v>
-      </c>
       <c r="X15" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Y15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z15" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AA15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AD15" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF15" t="n">
         <v>41</v>
       </c>
       <c r="AG15" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AH15" t="n">
         <v>11</v>
       </c>
       <c r="AI15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ15" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AK15" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AL15" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AM15" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="AO15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP15" t="n">
         <v>21</v>
@@ -3230,43 +3230,43 @@
         <v>126</v>
       </c>
       <c r="AT15" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU15" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW15" t="n">
-        <v>51</v>
+        <v>351</v>
       </c>
       <c r="AX15" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="AY15" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AZ15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB15" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC15" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD15" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>67SIOKm0</t>
+          <t>neJ7Lqi3</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,161 +3276,161 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Riga FC</t>
+          <t>Cottbus</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tukums 2000</t>
+          <t>Munich 1860</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.06</v>
+        <v>2.05</v>
       </c>
       <c r="H16" t="n">
-        <v>7.8</v>
+        <v>3.7</v>
       </c>
       <c r="I16" t="n">
-        <v>24</v>
+        <v>3.1</v>
       </c>
       <c r="J16" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N16" t="n">
+        <v>17</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S16" t="n">
         <v>1.29</v>
       </c>
-      <c r="K16" t="n">
+      <c r="T16" t="n">
         <v>3.5</v>
       </c>
-      <c r="L16" t="n">
+      <c r="U16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W16" t="n">
+        <v>11</v>
+      </c>
+      <c r="X16" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA16" t="n">
         <v>15</v>
       </c>
-      <c r="M16" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N16" t="n">
-        <v>29</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="P16" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="R16" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="T16" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="W16" t="n">
+      <c r="AB16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE16" t="n">
         <v>12</v>
       </c>
-      <c r="X16" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>28</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>32</v>
-      </c>
       <c r="AF16" t="n">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="AG16" t="n">
-        <v>600</v>
+        <v>101</v>
       </c>
       <c r="AH16" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="AI16" t="n">
-        <v>350</v>
+        <v>19</v>
       </c>
       <c r="AJ16" t="n">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="AK16" t="n">
-        <v>500</v>
+        <v>34</v>
       </c>
       <c r="AL16" t="n">
-        <v>400</v>
+        <v>23</v>
       </c>
       <c r="AM16" t="n">
-        <v>175</v>
+        <v>26</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.45</v>
+        <v>4.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>4.05</v>
+        <v>11</v>
       </c>
       <c r="AP16" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AQ16" t="n">
-        <v>6.9</v>
+        <v>34</v>
       </c>
       <c r="AR16" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="AS16" t="n">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="AT16" t="n">
-        <v>5.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU16" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AV16" t="n">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="AW16" t="n">
-        <v>51</v>
+        <v>351</v>
       </c>
       <c r="AX16" t="n">
-        <v>24</v>
+        <v>5.5</v>
       </c>
       <c r="AY16" t="n">
-        <v>175</v>
+        <v>17</v>
       </c>
       <c r="AZ16" t="n">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="BA16" t="n">
         <v>51</v>
@@ -3439,16 +3439,16 @@
         <v>51</v>
       </c>
       <c r="BC16" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BD16" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>U3UTs1w3</t>
+          <t>YLSklwr1</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,170 +3458,170 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>MALAYSIA - SUPER LEAGUE</t>
+          <t>HUNGARY - OTP BANK LIGA</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Selangor</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Johor DT</t>
+          <t>Zalaegerszegi</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>6.2</v>
+        <v>2.1</v>
       </c>
       <c r="H17" t="n">
-        <v>4.05</v>
+        <v>3.4</v>
       </c>
       <c r="I17" t="n">
-        <v>1.42</v>
+        <v>3.25</v>
       </c>
       <c r="J17" t="n">
-        <v>5.8</v>
+        <v>2.75</v>
       </c>
       <c r="K17" t="n">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="L17" t="n">
-        <v>1.91</v>
+        <v>3.75</v>
       </c>
       <c r="M17" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>11.9</v>
+        <v>11</v>
       </c>
       <c r="O17" t="n">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="P17" t="n">
-        <v>4.65</v>
+        <v>3.75</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.57</v>
+        <v>1.85</v>
       </c>
       <c r="R17" t="n">
+        <v>2</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V17" t="n">
         <v>2.1</v>
       </c>
-      <c r="S17" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T17" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="V17" t="n">
-        <v>2</v>
-      </c>
       <c r="W17" t="n">
-        <v>15.5</v>
+        <v>8.5</v>
       </c>
       <c r="X17" t="n">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="Y17" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="Z17" t="n">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="AA17" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="AB17" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="AC17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE17" t="n">
         <v>13</v>
       </c>
-      <c r="AD17" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AF17" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG17" t="n">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="AH17" t="n">
-        <v>6.6</v>
+        <v>11</v>
       </c>
       <c r="AI17" t="n">
-        <v>6.3</v>
+        <v>17</v>
       </c>
       <c r="AJ17" t="n">
-        <v>6.9</v>
+        <v>12</v>
       </c>
       <c r="AK17" t="n">
-        <v>8.5</v>
+        <v>34</v>
       </c>
       <c r="AL17" t="n">
-        <v>9.25</v>
+        <v>26</v>
       </c>
       <c r="AM17" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="AN17" t="n">
-        <v>7.8</v>
+        <v>4.33</v>
       </c>
       <c r="AO17" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="AP17" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="AQ17" t="n">
-        <v>250</v>
+        <v>41</v>
       </c>
       <c r="AR17" t="n">
-        <v>200</v>
+        <v>51</v>
       </c>
       <c r="AS17" t="n">
-        <v>400</v>
+        <v>126</v>
       </c>
       <c r="AT17" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AU17" t="n">
         <v>7.5</v>
       </c>
       <c r="AV17" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AW17" t="n">
         <v>51</v>
       </c>
       <c r="AX17" t="n">
-        <v>3.35</v>
+        <v>5.5</v>
       </c>
       <c r="AY17" t="n">
-        <v>6.6</v>
+        <v>17</v>
       </c>
       <c r="AZ17" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="BA17" t="n">
-        <v>18.5</v>
+        <v>51</v>
       </c>
       <c r="BB17" t="n">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="BC17" t="n">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="BD17" t="n">
         <v>51</v>
@@ -3630,7 +3630,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>thRrWQf5</t>
+          <t>67SIOKm0</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3640,179 +3640,179 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>08:15</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>LATVIA - VIRSLIGA</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>FC Emmen</t>
+          <t>Riga FC</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Telstar</t>
+          <t>Tukums 2000</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.85</v>
+        <v>1.07</v>
       </c>
       <c r="H18" t="n">
-        <v>3.8</v>
+        <v>7.7</v>
       </c>
       <c r="I18" t="n">
-        <v>3.75</v>
+        <v>24</v>
       </c>
       <c r="J18" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="K18" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="L18" t="n">
-        <v>4.33</v>
+        <v>15.5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="O18" t="n">
-        <v>1.25</v>
+        <v>1.03</v>
       </c>
       <c r="P18" t="n">
-        <v>3.75</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.88</v>
+        <v>1.16</v>
       </c>
       <c r="R18" t="n">
-        <v>1.98</v>
+        <v>3.86</v>
       </c>
       <c r="S18" t="n">
-        <v>1.36</v>
+        <v>1.12</v>
       </c>
       <c r="T18" t="n">
-        <v>3</v>
+        <v>5.3</v>
       </c>
       <c r="U18" t="n">
-        <v>1.8</v>
+        <v>2.12</v>
       </c>
       <c r="V18" t="n">
-        <v>1.91</v>
+        <v>1.69</v>
       </c>
       <c r="W18" t="n">
-        <v>7.5</v>
+        <v>11.25</v>
       </c>
       <c r="X18" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Y18" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Z18" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AA18" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC18" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="AD18" t="n">
-        <v>7.5</v>
+        <v>19</v>
       </c>
       <c r="AE18" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="AF18" t="n">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="AG18" t="n">
-        <v>251</v>
+        <v>600</v>
       </c>
       <c r="AH18" t="n">
+        <v>90</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>350</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>500</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>450</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AU18" t="n">
         <v>11</v>
       </c>
-      <c r="AI18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>8</v>
-      </c>
       <c r="AV18" t="n">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AW18" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="AX18" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="AY18" t="n">
-        <v>21</v>
+        <v>175</v>
       </c>
       <c r="AZ18" t="n">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="BA18" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB18" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BC18" t="n">
-        <v>201</v>
+        <v>51</v>
       </c>
       <c r="BD18" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>fq3Jow9l</t>
+          <t>U3UTs1w3</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3822,92 +3822,92 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>08:15</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>MALAYSIA - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Stal Mielec</t>
+          <t>Selangor</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Zaglebie</t>
+          <t>Johor DT</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.35</v>
+        <v>5.6</v>
       </c>
       <c r="H19" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="I19" t="n">
-        <v>2.88</v>
+        <v>1.52</v>
       </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="K19" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L19" t="n">
-        <v>3.4</v>
+        <v>2.02</v>
       </c>
       <c r="M19" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="O19" t="n">
-        <v>1.22</v>
+        <v>1.12</v>
       </c>
       <c r="P19" t="n">
-        <v>4</v>
+        <v>4.45</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="R19" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="S19" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T19" t="n">
-        <v>3.25</v>
+        <v>3.32</v>
       </c>
       <c r="U19" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="V19" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="W19" t="n">
-        <v>9.5</v>
+        <v>14</v>
       </c>
       <c r="X19" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="AA19" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="AB19" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="AC19" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AD19" t="n">
         <v>6.5</v>
@@ -3916,85 +3916,85 @@
         <v>12</v>
       </c>
       <c r="AF19" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AG19" t="n">
-        <v>151</v>
+        <v>250</v>
       </c>
       <c r="AH19" t="n">
-        <v>11</v>
+        <v>6.6</v>
       </c>
       <c r="AI19" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>32</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>200</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>200</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AZ19" t="n">
         <v>15</v>
       </c>
-      <c r="AJ19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>501</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>21</v>
-      </c>
       <c r="BA19" t="n">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="BB19" t="n">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="BC19" t="n">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="BD19" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>8OMQYD2B</t>
+          <t>OvyDvM1L</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4004,170 +4004,170 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>10:45</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Torreense</t>
+          <t>Jagiellonia</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Alverca</t>
+          <t>Korona Kielce</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.35</v>
+        <v>1.8</v>
       </c>
       <c r="H20" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="I20" t="n">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="J20" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="K20" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L20" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="M20" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O20" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="P20" t="n">
-        <v>2.75</v>
+        <v>4.33</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.25</v>
+        <v>1.67</v>
       </c>
       <c r="R20" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U20" t="n">
         <v>1.62</v>
       </c>
-      <c r="S20" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.91</v>
-      </c>
       <c r="V20" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="W20" t="n">
+        <v>9</v>
+      </c>
+      <c r="X20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD20" t="n">
         <v>7</v>
       </c>
-      <c r="X20" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z20" t="n">
+      <c r="AE20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI20" t="n">
         <v>23</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AJ20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>451</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY20" t="n">
         <v>21</v>
       </c>
-      <c r="AB20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL20" t="n">
+      <c r="AZ20" t="n">
         <v>26</v>
       </c>
-      <c r="AM20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR20" t="n">
+      <c r="BA20" t="n">
         <v>67</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>51</v>
       </c>
       <c r="BB20" t="n">
         <v>81</v>
       </c>
       <c r="BC20" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BD20" t="n">
         <v>81</v>
@@ -4176,7 +4176,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>hIXUsgQk</t>
+          <t>bkuVVgxf</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4186,95 +4186,95 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>SCOTLAND - PREMIERSHIP</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>Wisla Plock</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Wisla</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.3</v>
+        <v>2.63</v>
       </c>
       <c r="H21" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I21" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L21" t="n">
         <v>3.1</v>
       </c>
-      <c r="J21" t="n">
+      <c r="M21" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N21" t="n">
+        <v>12</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T21" t="n">
         <v>3</v>
       </c>
-      <c r="K21" t="n">
+      <c r="U21" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V21" t="n">
         <v>2.1</v>
       </c>
-      <c r="L21" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N21" t="n">
+      <c r="W21" t="n">
         <v>10</v>
       </c>
-      <c r="O21" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V21" t="n">
-        <v>2</v>
-      </c>
-      <c r="W21" t="n">
-        <v>8</v>
-      </c>
       <c r="X21" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Y21" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA21" t="n">
         <v>21</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>19</v>
       </c>
       <c r="AB21" t="n">
         <v>29</v>
       </c>
       <c r="AC21" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AD21" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE21" t="n">
         <v>13</v>
@@ -4283,82 +4283,82 @@
         <v>41</v>
       </c>
       <c r="AG21" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO21" t="n">
         <v>15</v>
       </c>
-      <c r="AJ21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL21" t="n">
+      <c r="AP21" t="n">
         <v>23</v>
       </c>
-      <c r="AM21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>21</v>
-      </c>
       <c r="AQ21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR21" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS21" t="n">
         <v>151</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU21" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV21" t="n">
         <v>51</v>
       </c>
       <c r="AW21" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="AX21" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AY21" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AZ21" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="BA21" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB21" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BC21" t="n">
         <v>151</v>
       </c>
       <c r="BD21" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>EBOaxPOE</t>
+          <t>hIXUsgQk</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4368,179 +4368,179 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SCOTLAND - PREMIERSHIP</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="H22" t="n">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="I22" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J22" t="n">
         <v>3</v>
       </c>
-      <c r="J22" t="n">
-        <v>3.4</v>
-      </c>
       <c r="K22" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="L22" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M22" t="n">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="O22" t="n">
-        <v>1.53</v>
+        <v>1.3</v>
       </c>
       <c r="P22" t="n">
-        <v>2.38</v>
+        <v>3.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="R22" t="n">
-        <v>1.44</v>
+        <v>1.85</v>
       </c>
       <c r="S22" t="n">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="T22" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U22" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="V22" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="W22" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="X22" t="n">
         <v>11</v>
       </c>
       <c r="Y22" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AA22" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AB22" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AC22" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AD22" t="n">
         <v>6</v>
       </c>
       <c r="AE22" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AF22" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AG22" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AH22" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AI22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK22" t="n">
         <v>34</v>
       </c>
       <c r="AL22" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AM22" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN22" t="n">
         <v>4.33</v>
       </c>
       <c r="AO22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP22" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AQ22" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB22" t="n">
         <v>81</v>
       </c>
-      <c r="AS22" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>101</v>
-      </c>
       <c r="BC22" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="BD22" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>OnZ4j3yI</t>
+          <t>h8nZOlLa</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4550,179 +4550,179 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>SLOVENIA - PRVA LIGA</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Koper</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Bravo</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="H23" t="n">
-        <v>3.3</v>
+        <v>2.87</v>
       </c>
       <c r="I23" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="J23" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="K23" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="L23" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="M23" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N23" t="n">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="O23" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="P23" t="n">
-        <v>3.4</v>
+        <v>2.72</v>
       </c>
       <c r="Q23" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="R23" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="S23" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="T23" t="n">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="U23" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V23" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="W23" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X23" t="n">
-        <v>9.5</v>
+        <v>11.25</v>
       </c>
       <c r="Y23" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Z23" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AA23" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB23" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AC23" t="n">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="AD23" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF23" t="n">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="AG23" t="n">
-        <v>251</v>
+        <v>600</v>
       </c>
       <c r="AH23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ23" t="n">
         <v>11</v>
       </c>
-      <c r="AI23" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ23" t="n">
+      <c r="AK23" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AO23" t="n">
         <v>13</v>
       </c>
-      <c r="AK23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>11</v>
-      </c>
       <c r="AP23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ23" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="AR23" t="n">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="AS23" t="n">
-        <v>151</v>
+        <v>250</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="AU23" t="n">
-        <v>8</v>
+        <v>6.7</v>
       </c>
       <c r="AV23" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="AW23" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="AX23" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="AY23" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AZ23" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="BA23" t="n">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="BB23" t="n">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="BC23" t="n">
-        <v>201</v>
+        <v>300</v>
       </c>
       <c r="BD23" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2kdWgxrA</t>
+          <t>EBOaxPOE</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4737,174 +4737,174 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.91</v>
+        <v>2.32</v>
       </c>
       <c r="H24" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I24" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="J24" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="K24" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L24" t="n">
+        <v>4</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U24" t="n">
         <v>2.1</v>
       </c>
-      <c r="L24" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N24" t="n">
+      <c r="V24" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X24" t="n">
         <v>10</v>
       </c>
-      <c r="O24" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P24" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W24" t="n">
-        <v>7</v>
-      </c>
-      <c r="X24" t="n">
-        <v>9</v>
-      </c>
       <c r="Y24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z24" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AA24" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AB24" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC24" t="n">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF24" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG24" t="n">
         <v>301</v>
       </c>
       <c r="AH24" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AJ24" t="n">
         <v>13</v>
       </c>
       <c r="AK24" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ24" t="n">
         <v>34</v>
       </c>
-      <c r="AM24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>29</v>
-      </c>
       <c r="BA24" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB24" t="n">
         <v>101</v>
       </c>
       <c r="BC24" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BD24" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>UeCVH3Z3</t>
+          <t>OnZ4j3yI</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4914,179 +4914,179 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SWEDEN - SUPERETTAN</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="H25" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I25" t="n">
-        <v>2.2</v>
+        <v>3.9</v>
       </c>
       <c r="J25" t="n">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="K25" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L25" t="n">
-        <v>2.88</v>
+        <v>4.33</v>
       </c>
       <c r="M25" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="O25" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="P25" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="R25" t="n">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S25" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="T25" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U25" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="V25" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="W25" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="X25" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z25" t="n">
         <v>17</v>
       </c>
-      <c r="Y25" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>34</v>
-      </c>
       <c r="AA25" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AB25" t="n">
         <v>29</v>
       </c>
       <c r="AC25" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AD25" t="n">
         <v>6.5</v>
       </c>
       <c r="AE25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ25" t="n">
         <v>13</v>
       </c>
-      <c r="AF25" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>9</v>
-      </c>
       <c r="AK25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP25" t="n">
         <v>21</v>
       </c>
-      <c r="AL25" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ25" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR25" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS25" t="n">
         <v>151</v>
       </c>
       <c r="AT25" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="AU25" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV25" t="n">
         <v>51</v>
       </c>
       <c r="AW25" t="n">
-        <v>501</v>
+        <v>126</v>
       </c>
       <c r="AX25" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="AY25" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AZ25" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="BA25" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BB25" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BC25" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="BD25" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>K89QUUl2</t>
+          <t>2kdWgxrA</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5096,179 +5096,179 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Sion</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>St. Gallen</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="H26" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="J26" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K26" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L26" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M26" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O26" t="n">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="P26" t="n">
-        <v>4.33</v>
+        <v>3.25</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.67</v>
+        <v>2.05</v>
       </c>
       <c r="R26" t="n">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="S26" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="T26" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="U26" t="n">
-        <v>1.57</v>
+        <v>1.95</v>
       </c>
       <c r="V26" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="W26" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="X26" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Y26" t="n">
         <v>9</v>
       </c>
       <c r="Z26" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AA26" t="n">
         <v>17</v>
       </c>
       <c r="AB26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP26" t="n">
         <v>21</v>
       </c>
-      <c r="AC26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG26" t="n">
+      <c r="AQ26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW26" t="n">
         <v>126</v>
       </c>
-      <c r="AH26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL26" t="n">
+      <c r="AX26" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY26" t="n">
         <v>21</v>
       </c>
-      <c r="AM26" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS26" t="n">
+      <c r="AZ26" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB26" t="n">
         <v>101</v>
       </c>
-      <c r="AT26" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>351</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>51</v>
-      </c>
       <c r="BC26" t="n">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="BD26" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>t41Tvb5t</t>
+          <t>UeCVH3Z3</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5278,179 +5278,179 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>SWEDEN - SUPERETTAN</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Wil</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Vaduz</t>
+          <t>Degerfors</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.98</v>
+        <v>3.1</v>
       </c>
       <c r="H27" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="I27" t="n">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="J27" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="K27" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="L27" t="n">
-        <v>3.7</v>
+        <v>2.88</v>
       </c>
       <c r="M27" t="n">
         <v>1.04</v>
       </c>
       <c r="N27" t="n">
-        <v>8.75</v>
+        <v>13</v>
       </c>
       <c r="O27" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P27" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="R27" t="n">
-        <v>2.22</v>
+        <v>2.08</v>
       </c>
       <c r="S27" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="T27" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="U27" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="V27" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="W27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X27" t="n">
-        <v>11.5</v>
+        <v>17</v>
       </c>
       <c r="Y27" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Z27" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AA27" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AB27" t="n">
-        <v>19.5</v>
+        <v>29</v>
       </c>
       <c r="AC27" t="n">
-        <v>8.75</v>
+        <v>13</v>
       </c>
       <c r="AD27" t="n">
-        <v>7.3</v>
+        <v>6.5</v>
       </c>
       <c r="AE27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI27" t="n">
         <v>12</v>
       </c>
-      <c r="AF27" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>20</v>
-      </c>
       <c r="AJ27" t="n">
-        <v>11.5</v>
+        <v>9</v>
       </c>
       <c r="AK27" t="n">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="AL27" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AM27" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AN27" t="n">
-        <v>4.15</v>
+        <v>5</v>
       </c>
       <c r="AO27" t="n">
-        <v>9.75</v>
+        <v>17</v>
       </c>
       <c r="AP27" t="n">
-        <v>15.5</v>
+        <v>23</v>
       </c>
       <c r="AQ27" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="AR27" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="AS27" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AT27" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="AU27" t="n">
-        <v>6.6</v>
+        <v>7.5</v>
       </c>
       <c r="AV27" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AW27" t="n">
-        <v>51</v>
+        <v>501</v>
       </c>
       <c r="AX27" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="AY27" t="n">
-        <v>17.5</v>
+        <v>12</v>
       </c>
       <c r="AZ27" t="n">
         <v>21</v>
       </c>
       <c r="BA27" t="n">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="BB27" t="n">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="BC27" t="n">
-        <v>200</v>
+        <v>126</v>
       </c>
       <c r="BD27" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>r9LLVoKj</t>
+          <t>CKu51rkN</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5460,95 +5460,95 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>SWEDEN - SUPERETTAN</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Orebro</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Oster</t>
         </is>
       </c>
       <c r="G28" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J28" t="n">
+        <v>4</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N28" t="n">
+        <v>13</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T28" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V28" t="n">
         <v>2.1</v>
       </c>
-      <c r="H28" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I28" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J28" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K28" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L28" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N28" t="n">
-        <v>11</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P28" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T28" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V28" t="n">
-        <v>2</v>
-      </c>
       <c r="W28" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="X28" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="Y28" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Z28" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AA28" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AB28" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC28" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AD28" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE28" t="n">
         <v>13</v>
@@ -5557,82 +5557,82 @@
         <v>41</v>
       </c>
       <c r="AG28" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH28" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK28" t="n">
         <v>17</v>
       </c>
-      <c r="AJ28" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>34</v>
-      </c>
       <c r="AL28" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AM28" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AN28" t="n">
-        <v>4.33</v>
+        <v>6</v>
       </c>
       <c r="AO28" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AP28" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ28" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR28" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS28" t="n">
         <v>151</v>
       </c>
       <c r="AT28" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="AU28" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV28" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW28" t="n">
-        <v>276</v>
+        <v>501</v>
       </c>
       <c r="AX28" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="AY28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ28" t="n">
         <v>19</v>
       </c>
-      <c r="AZ28" t="n">
-        <v>26</v>
-      </c>
       <c r="BA28" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="BB28" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BC28" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="BD28" t="n">
-        <v>301</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>zFpfAX5F</t>
+          <t>K89QUUl2</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5642,77 +5642,77 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Amedspor</t>
+          <t>Sion</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>St. Gallen</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H29" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="I29" t="n">
         <v>3</v>
       </c>
       <c r="J29" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K29" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L29" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M29" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N29" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="O29" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S29" t="n">
         <v>1.3</v>
       </c>
-      <c r="P29" t="n">
+      <c r="T29" t="n">
         <v>3.4</v>
       </c>
-      <c r="Q29" t="n">
-        <v>2</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T29" t="n">
-        <v>2.75</v>
-      </c>
       <c r="U29" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="V29" t="n">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="W29" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="X29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y29" t="n">
         <v>9</v>
@@ -5724,49 +5724,49 @@
         <v>17</v>
       </c>
       <c r="AB29" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AC29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AD29" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE29" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AF29" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG29" t="n">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="AH29" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AI29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK29" t="n">
         <v>34</v>
       </c>
       <c r="AL29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM29" t="n">
         <v>26</v>
       </c>
-      <c r="AM29" t="n">
-        <v>34</v>
-      </c>
       <c r="AN29" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO29" t="n">
         <v>12</v>
       </c>
       <c r="AP29" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ29" t="n">
         <v>41</v>
@@ -5775,46 +5775,46 @@
         <v>51</v>
       </c>
       <c r="AS29" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AT29" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="AU29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV29" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW29" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="AX29" t="n">
         <v>5</v>
       </c>
       <c r="AY29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ29" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="BA29" t="n">
         <v>51</v>
       </c>
       <c r="BB29" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD29" t="n">
         <v>81</v>
-      </c>
-      <c r="BC29" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD29" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>23qAyA4E</t>
+          <t>t41Tvb5t</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -5824,179 +5824,179 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Erzurumspor</t>
+          <t>Wil</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Keciorengucu</t>
+          <t>Vaduz</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H30" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="I30" t="n">
-        <v>3.9</v>
+        <v>3.15</v>
       </c>
       <c r="J30" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="K30" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L30" t="n">
-        <v>4.75</v>
+        <v>3.55</v>
       </c>
       <c r="M30" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N30" t="n">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="O30" t="n">
-        <v>1.4</v>
+        <v>1.19</v>
       </c>
       <c r="P30" t="n">
-        <v>2.75</v>
+        <v>4.1</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="R30" t="n">
-        <v>1.6</v>
+        <v>2.22</v>
       </c>
       <c r="S30" t="n">
-        <v>1.5</v>
+        <v>1.32</v>
       </c>
       <c r="T30" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="U30" t="n">
-        <v>2</v>
+        <v>1.52</v>
       </c>
       <c r="V30" t="n">
-        <v>1.73</v>
+        <v>2.37</v>
       </c>
       <c r="W30" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="X30" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Y30" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA30" t="n">
         <v>15</v>
       </c>
-      <c r="AA30" t="n">
-        <v>17</v>
-      </c>
       <c r="AB30" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="AC30" t="n">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="AD30" t="n">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="AE30" t="n">
-        <v>19</v>
+        <v>11.5</v>
       </c>
       <c r="AF30" t="n">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="AG30" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="AH30" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AI30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ30" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AK30" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AL30" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="AM30" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="AN30" t="n">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="AO30" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AP30" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AQ30" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AR30" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="AS30" t="n">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="AU30" t="n">
-        <v>9</v>
+        <v>6.4</v>
       </c>
       <c r="AV30" t="n">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AW30" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="AX30" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="AY30" t="n">
-        <v>23</v>
+        <v>16.5</v>
       </c>
       <c r="AZ30" t="n">
-        <v>34</v>
+        <v>19.5</v>
       </c>
       <c r="BA30" t="n">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="BB30" t="n">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="BC30" t="n">
-        <v>301</v>
+        <v>200</v>
       </c>
       <c r="BD30" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>QmTOkFCG</t>
+          <t>r9LLVoKj</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6006,354 +6006,900 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Livyi Bereg</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>FK Zorya Luhansk</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="G31" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H31" t="n">
         <v>3.4</v>
       </c>
-      <c r="H31" t="n">
-        <v>3.05</v>
-      </c>
       <c r="I31" t="n">
-        <v>2.15</v>
+        <v>3.4</v>
       </c>
       <c r="J31" t="n">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="K31" t="n">
-        <v>1.93</v>
+        <v>2.2</v>
       </c>
       <c r="L31" t="n">
-        <v>2.82</v>
+        <v>3.75</v>
       </c>
       <c r="M31" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N31" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="O31" t="n">
-        <v>1.47</v>
+        <v>1.29</v>
       </c>
       <c r="P31" t="n">
-        <v>2.35</v>
+        <v>3.5</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.32</v>
+        <v>1.98</v>
       </c>
       <c r="R31" t="n">
-        <v>1.47</v>
+        <v>1.88</v>
       </c>
       <c r="S31" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="T31" t="n">
-        <v>2.27</v>
+        <v>2.75</v>
       </c>
       <c r="U31" t="n">
-        <v>2.02</v>
+        <v>1.73</v>
       </c>
       <c r="V31" t="n">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="W31" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="X31" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="Y31" t="n">
-        <v>12.5</v>
+        <v>9</v>
       </c>
       <c r="Z31" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="AA31" t="n">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="AB31" t="n">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="AC31" t="n">
-        <v>6.8</v>
+        <v>10</v>
       </c>
       <c r="AD31" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>18.5</v>
+        <v>13</v>
       </c>
       <c r="AF31" t="n">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="AG31" t="n">
-        <v>67</v>
+        <v>201</v>
       </c>
       <c r="AH31" t="n">
-        <v>5.8</v>
+        <v>11</v>
       </c>
       <c r="AI31" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AJ31" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AK31" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="AL31" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP31" t="n">
         <v>21</v>
       </c>
-      <c r="AM31" t="n">
-        <v>40</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>32</v>
-      </c>
       <c r="AQ31" t="n">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="AR31" t="n">
-        <v>175</v>
+        <v>51</v>
       </c>
       <c r="AS31" t="n">
-        <v>500</v>
+        <v>151</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.22</v>
+        <v>2.75</v>
       </c>
       <c r="AU31" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AV31" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AW31" t="n">
+        <v>276</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB31" t="n">
         <v>81</v>
       </c>
-      <c r="AX31" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AY31" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AZ31" t="n">
-        <v>24</v>
-      </c>
-      <c r="BA31" t="n">
-        <v>50</v>
-      </c>
-      <c r="BB31" t="n">
-        <v>100</v>
-      </c>
       <c r="BC31" t="n">
-        <v>400</v>
+        <v>151</v>
       </c>
       <c r="BD31" t="n">
-        <v>81</v>
+        <v>301</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>zFpfAX5F</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>27/10/2024</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Amedspor</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Pendikspor</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L32" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N32" t="n">
+        <v>11</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W32" t="n">
+        <v>8</v>
+      </c>
+      <c r="X32" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>23qAyA4E</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>27/10/2024</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Erzurumspor</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Keciorengucu</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L33" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N33" t="n">
+        <v>8</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T33" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U33" t="n">
+        <v>2</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W33" t="n">
+        <v>6</v>
+      </c>
+      <c r="X33" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>301</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>dtgik7Bt</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>27/10/2024</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Veres-Rivne</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Vorskla Poltava</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="L34" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N34" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="T34" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W34" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X34" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>60</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>25</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>80</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>120</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>350</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
           <t>d6fazKkT</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>27/10/2024</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>10:00</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>WALES - CYMRU PREMIER</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>Aberystwyth</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>TNS</t>
         </is>
       </c>
-      <c r="G32" t="n">
+      <c r="G35" t="n">
+        <v>37</v>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="J35" t="n">
+        <v>25</v>
+      </c>
+      <c r="K35" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N35" t="n">
+        <v>20</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="P35" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="T35" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="U35" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="W35" t="n">
+        <v>150</v>
+      </c>
+      <c r="X35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>250</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>201</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>800</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>450</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN35" t="n">
         <v>35</v>
       </c>
-      <c r="H32" t="n">
-        <v>8</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="J32" t="n">
-        <v>23</v>
-      </c>
-      <c r="K32" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N32" t="n">
-        <v>21</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="P32" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="R32" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="S32" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="T32" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="U32" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="V32" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="W32" t="n">
-        <v>150</v>
-      </c>
-      <c r="X32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y32" t="n">
+      <c r="AO35" t="n">
+        <v>400</v>
+      </c>
+      <c r="AP35" t="n">
         <v>200</v>
       </c>
-      <c r="Z32" t="n">
-        <v>201</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>700</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>20</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>400</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>60</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>30</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>350</v>
-      </c>
-      <c r="AP32" t="n">
+      <c r="AQ35" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>51</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AV35" t="n">
         <v>175</v>
       </c>
-      <c r="AQ32" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR32" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS32" t="n">
-        <v>51</v>
-      </c>
-      <c r="AT32" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="AU32" t="n">
-        <v>14</v>
-      </c>
-      <c r="AV32" t="n">
-        <v>150</v>
-      </c>
-      <c r="AW32" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX32" t="n">
+      <c r="AW35" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX35" t="n">
         <v>3</v>
       </c>
-      <c r="AY32" t="n">
+      <c r="AY35" t="n">
         <v>3.85</v>
       </c>
-      <c r="AZ32" t="n">
+      <c r="AZ35" t="n">
         <v>18</v>
       </c>
-      <c r="BA32" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="BB32" t="n">
+      <c r="BA35" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB35" t="n">
         <v>32</v>
       </c>
-      <c r="BC32" t="n">
+      <c r="BC35" t="n">
         <v>300</v>
       </c>
-      <c r="BD32" t="n">
+      <c r="BD35" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD45"/>
+  <dimension ref="A1:BD44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -762,25 +762,25 @@
         <v>2.2</v>
       </c>
       <c r="L2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="R2" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="S2" t="n">
         <v>1.36</v>
@@ -816,7 +816,7 @@
         <v>11</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         <v>13</v>
       </c>
       <c r="AK2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL2" t="n">
         <v>26</v>
@@ -929,61 +929,61 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H3" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I3" t="n">
         <v>2.1</v>
       </c>
       <c r="J3" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K3" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N3" t="n">
+        <v>15</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R3" t="n">
         <v>2.3</v>
       </c>
-      <c r="L3" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="S3" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W3" t="n">
         <v>13</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P3" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y3" t="n">
         <v>12</v>
-      </c>
-      <c r="X3" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>11</v>
       </c>
       <c r="Z3" t="n">
         <v>34</v>
@@ -992,28 +992,28 @@
         <v>23</v>
       </c>
       <c r="AB3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF3" t="n">
         <v>41</v>
       </c>
       <c r="AG3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ3" t="n">
         <v>9</v>
@@ -1025,7 +1025,7 @@
         <v>15</v>
       </c>
       <c r="AM3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN3" t="n">
         <v>5.5</v>
@@ -1034,7 +1034,7 @@
         <v>17</v>
       </c>
       <c r="AP3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ3" t="n">
         <v>51</v>
@@ -1046,16 +1046,16 @@
         <v>126</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV3" t="n">
         <v>41</v>
       </c>
       <c r="AW3" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AX3" t="n">
         <v>4.33</v>
@@ -1064,10 +1064,10 @@
         <v>11</v>
       </c>
       <c r="AZ3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BB3" t="n">
         <v>51</v>
@@ -1111,58 +1111,58 @@
         </is>
       </c>
       <c r="G4" t="n">
+        <v>4</v>
+      </c>
+      <c r="H4" t="n">
         <v>3.7</v>
       </c>
-      <c r="H4" t="n">
-        <v>3.5</v>
-      </c>
       <c r="I4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N4" t="n">
+        <v>13</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R4" t="n">
         <v>2</v>
       </c>
-      <c r="J4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N4" t="n">
-        <v>11</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.99</v>
-      </c>
       <c r="S4" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T4" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U4" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V4" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="X4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y4" t="n">
         <v>13</v>
@@ -1177,10 +1177,10 @@
         <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
         <v>13</v>
@@ -1195,25 +1195,25 @@
         <v>8</v>
       </c>
       <c r="AI4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ4" t="n">
         <v>8.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL4" t="n">
         <v>15</v>
       </c>
       <c r="AM4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP4" t="n">
         <v>26</v>
@@ -1228,7 +1228,7 @@
         <v>151</v>
       </c>
       <c r="AT4" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU4" t="n">
         <v>7.5</v>
@@ -1243,10 +1243,10 @@
         <v>4</v>
       </c>
       <c r="AY4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA4" t="n">
         <v>34</v>
@@ -1258,7 +1258,7 @@
         <v>126</v>
       </c>
       <c r="BD4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
@@ -1323,10 +1323,10 @@
         <v>3.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R5" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="S5" t="n">
         <v>1.36</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>WQadeyWO</t>
+          <t>ABBmcc1C</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1466,169 +1466,169 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N6" t="n">
         <v>11</v>
       </c>
-      <c r="H6" t="n">
+      <c r="O6" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W6" t="n">
+        <v>9</v>
+      </c>
+      <c r="X6" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y6" t="n">
         <v>9.5</v>
       </c>
-      <c r="I6" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="J6" t="n">
-        <v>9</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N6" t="n">
-        <v>34</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="P6" t="n">
+      <c r="Z6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH6" t="n">
         <v>10</v>
       </c>
-      <c r="Q6" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="R6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="T6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W6" t="n">
-        <v>41</v>
-      </c>
-      <c r="X6" t="n">
-        <v>67</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>151</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>17</v>
-      </c>
       <c r="AI6" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AJ6" t="n">
         <v>11</v>
       </c>
       <c r="AK6" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="AL6" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AM6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP6" t="n">
         <v>21</v>
       </c>
-      <c r="AN6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>34</v>
-      </c>
       <c r="AQ6" t="n">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="AR6" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="AS6" t="n">
         <v>151</v>
       </c>
       <c r="AT6" t="n">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="AU6" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>301</v>
+        <v>501</v>
       </c>
       <c r="AX6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY6" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AZ6" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="BA6" t="n">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="BB6" t="n">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="BC6" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="BD6" t="n">
-        <v>176</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ABBmcc1C</t>
+          <t>jwaINpP6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,59 +1638,59 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>GERMANY - BUNDESLIGA</t>
+          <t>ITALY - SERIE A</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J7" t="n">
         <v>2.4</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3</v>
       </c>
       <c r="K7" t="n">
         <v>2.2</v>
       </c>
       <c r="L7" t="n">
+        <v>5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N7" t="n">
+        <v>10</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P7" t="n">
         <v>3.4</v>
       </c>
-      <c r="M7" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N7" t="n">
-        <v>11</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.75</v>
-      </c>
       <c r="Q7" t="n">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="R7" t="n">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="S7" t="n">
         <v>1.4</v>
@@ -1699,73 +1699,73 @@
         <v>2.75</v>
       </c>
       <c r="U7" t="n">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="V7" t="n">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W7" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="X7" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="Y7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC7" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC7" t="n">
+      <c r="AD7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH7" t="n">
         <v>11</v>
       </c>
-      <c r="AD7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>10</v>
-      </c>
       <c r="AI7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>15</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>11</v>
-      </c>
       <c r="AK7" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AL7" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AM7" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="AO7" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AP7" t="n">
         <v>21</v>
       </c>
       <c r="AQ7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR7" t="n">
         <v>51</v>
@@ -1777,34 +1777,34 @@
         <v>2.75</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV7" t="n">
         <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>501</v>
+        <v>126</v>
       </c>
       <c r="AX7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY7" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AZ7" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="BA7" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB7" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BC7" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD7" t="n">
         <v>151</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="8">
@@ -1839,46 +1839,46 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="H8" t="n">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="I8" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="J8" t="n">
-        <v>1.73</v>
+        <v>1.87</v>
       </c>
       <c r="K8" t="n">
-        <v>2.63</v>
+        <v>2.4</v>
       </c>
       <c r="L8" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="O8" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="P8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="R8" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="S8" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="T8" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U8" t="n">
         <v>1.95</v>
@@ -1887,28 +1887,28 @@
         <v>1.8</v>
       </c>
       <c r="W8" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="X8" t="n">
         <v>7</v>
       </c>
       <c r="Y8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC8" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AD8" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AE8" t="n">
         <v>21</v>
@@ -1917,19 +1917,19 @@
         <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH8" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AI8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK8" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AL8" t="n">
         <v>51</v>
@@ -1941,22 +1941,22 @@
         <v>3.4</v>
       </c>
       <c r="AO8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP8" t="n">
         <v>17</v>
       </c>
       <c r="AQ8" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AR8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS8" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="AU8" t="n">
         <v>9</v>
@@ -1968,10 +1968,10 @@
         <v>151</v>
       </c>
       <c r="AX8" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AY8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ8" t="n">
         <v>41</v>
@@ -2021,16 +2021,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H9" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I9" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J9" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
         <v>1.8</v>
@@ -2045,16 +2045,16 @@
         <v>5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="P9" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R9" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S9" t="n">
         <v>1.78</v>
@@ -2072,16 +2072,16 @@
         <v>4.5</v>
       </c>
       <c r="X9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y9" t="n">
         <v>11</v>
       </c>
       <c r="Z9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB9" t="n">
         <v>51</v>
@@ -2090,7 +2090,7 @@
         <v>4.75</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
         <v>26</v>
@@ -2102,13 +2102,13 @@
         <v>501</v>
       </c>
       <c r="AH9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK9" t="n">
         <v>51</v>
@@ -2120,7 +2120,7 @@
         <v>67</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO9" t="n">
         <v>13</v>
@@ -2153,16 +2153,16 @@
         <v>6</v>
       </c>
       <c r="AY9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA9" t="n">
         <v>126</v>
       </c>
       <c r="BB9" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC9" t="n">
         <v>501</v>
@@ -2203,40 +2203,40 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="H10" t="n">
         <v>3.6</v>
       </c>
       <c r="I10" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="J10" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K10" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L10" t="n">
         <v>3</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O10" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P10" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R10" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S10" t="n">
         <v>1.33</v>
@@ -2245,10 +2245,10 @@
         <v>3.25</v>
       </c>
       <c r="U10" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V10" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W10" t="n">
         <v>11</v>
@@ -2266,10 +2266,10 @@
         <v>21</v>
       </c>
       <c r="AB10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD10" t="n">
         <v>7</v>
@@ -2281,10 +2281,10 @@
         <v>41</v>
       </c>
       <c r="AG10" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI10" t="n">
         <v>13</v>
@@ -2296,7 +2296,7 @@
         <v>23</v>
       </c>
       <c r="AL10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM10" t="n">
         <v>23</v>
@@ -2311,7 +2311,7 @@
         <v>21</v>
       </c>
       <c r="AQ10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR10" t="n">
         <v>51</v>
@@ -2329,10 +2329,10 @@
         <v>41</v>
       </c>
       <c r="AW10" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AX10" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AY10" t="n">
         <v>13</v>
@@ -2388,10 +2388,10 @@
         <v>1.8</v>
       </c>
       <c r="H11" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I11" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J11" t="n">
         <v>2.4</v>
@@ -2400,7 +2400,7 @@
         <v>2.2</v>
       </c>
       <c r="L11" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M11" t="n">
         <v>1.05</v>
@@ -2409,16 +2409,16 @@
         <v>11</v>
       </c>
       <c r="O11" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P11" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="R11" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S11" t="n">
         <v>1.36</v>
@@ -2493,7 +2493,7 @@
         <v>19</v>
       </c>
       <c r="AQ11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR11" t="n">
         <v>51</v>
@@ -2902,7 +2902,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>hvcRbKMj</t>
+          <t>jwZiW7Aj</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,98 +2912,98 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>CZECH REPUBLIC - CHANCE LIGA</t>
+          <t>DENMARK - SUPERLIGA</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Mlada Boleslav</t>
+          <t>Viborg</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Karvina</t>
+          <t>Sonderjyske</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="H14" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N14" t="n">
+        <v>15</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T14" t="n">
         <v>3.4</v>
       </c>
-      <c r="I14" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N14" t="n">
+      <c r="U14" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W14" t="n">
+        <v>9</v>
+      </c>
+      <c r="X14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA14" t="n">
         <v>13</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P14" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T14" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V14" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W14" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X14" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>15</v>
       </c>
       <c r="AB14" t="n">
         <v>21</v>
       </c>
       <c r="AC14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE14" t="n">
         <v>13</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>12</v>
       </c>
       <c r="AF14" t="n">
         <v>41</v>
@@ -3012,43 +3012,43 @@
         <v>151</v>
       </c>
       <c r="AH14" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AI14" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AJ14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM14" t="n">
         <v>34</v>
       </c>
-      <c r="AL14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>29</v>
-      </c>
       <c r="AN14" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO14" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AP14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ14" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AR14" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS14" t="n">
         <v>101</v>
       </c>
       <c r="AT14" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU14" t="n">
         <v>7.5</v>
@@ -3060,31 +3060,31 @@
         <v>451</v>
       </c>
       <c r="AX14" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AY14" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AZ14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA14" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB14" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC14" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD14" t="n">
-        <v>81</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jwZiW7Aj</t>
+          <t>2D04uCm4</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,7 +3094,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -3104,31 +3104,31 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Viborg</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Sonderjyske</t>
+          <t>Aarhus</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="I15" t="n">
-        <v>4.33</v>
+        <v>3.2</v>
       </c>
       <c r="J15" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="K15" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L15" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
@@ -3137,100 +3137,100 @@
         <v>15</v>
       </c>
       <c r="O15" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P15" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="R15" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="S15" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="T15" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U15" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V15" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y15" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA15" t="n">
         <v>15</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AB15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE15" t="n">
         <v>12</v>
       </c>
-      <c r="AB15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>13</v>
-      </c>
       <c r="AF15" t="n">
         <v>41</v>
       </c>
       <c r="AG15" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH15" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AI15" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AJ15" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AK15" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL15" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AM15" t="n">
         <v>29</v>
       </c>
       <c r="AN15" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO15" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AP15" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AQ15" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AR15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS15" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AT15" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="AU15" t="n">
         <v>7.5</v>
@@ -3239,28 +3239,28 @@
         <v>41</v>
       </c>
       <c r="AW15" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="AX15" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AY15" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AZ15" t="n">
         <v>23</v>
       </c>
       <c r="BA15" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB15" t="n">
         <v>67</v>
       </c>
       <c r="BC15" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD15" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16">
@@ -3295,22 +3295,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H16" t="n">
         <v>3.7</v>
       </c>
       <c r="I16" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J16" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="K16" t="n">
         <v>2.25</v>
       </c>
       <c r="L16" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="M16" t="n">
         <v>1.06</v>
@@ -3349,13 +3349,13 @@
         <v>6.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z16" t="n">
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB16" t="n">
         <v>34</v>
@@ -3385,7 +3385,7 @@
         <v>21</v>
       </c>
       <c r="AK16" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL16" t="n">
         <v>51</v>
@@ -3409,7 +3409,7 @@
         <v>51</v>
       </c>
       <c r="AS16" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT16" t="n">
         <v>2.63</v>
@@ -3659,22 +3659,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="H18" t="n">
         <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="J18" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="K18" t="n">
         <v>2.3</v>
       </c>
       <c r="L18" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M18" t="n">
         <v>1.03</v>
@@ -3701,22 +3701,22 @@
         <v>3.25</v>
       </c>
       <c r="U18" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V18" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y18" t="n">
         <v>10</v>
       </c>
       <c r="Z18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA18" t="n">
         <v>19</v>
@@ -3725,7 +3725,7 @@
         <v>23</v>
       </c>
       <c r="AC18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD18" t="n">
         <v>7</v>
@@ -3734,7 +3734,7 @@
         <v>12</v>
       </c>
       <c r="AF18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG18" t="n">
         <v>126</v>
@@ -3749,7 +3749,7 @@
         <v>10</v>
       </c>
       <c r="AK18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL18" t="n">
         <v>19</v>
@@ -3758,7 +3758,7 @@
         <v>23</v>
       </c>
       <c r="AN18" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO18" t="n">
         <v>13</v>
@@ -3788,13 +3788,13 @@
         <v>81</v>
       </c>
       <c r="AX18" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AY18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA18" t="n">
         <v>41</v>
@@ -3994,7 +3994,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SIKRmoGE</t>
+          <t>zqOZoPpR</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4004,7 +4004,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -4014,37 +4014,37 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Renaissance Zemamra</t>
+          <t>Jeunesse Sportive Soualem</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>FUS Rabat</t>
+          <t>IR Tanger</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.9</v>
+        <v>2.35</v>
       </c>
       <c r="H20" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="I20" t="n">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="J20" t="n">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="K20" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L20" t="n">
-        <v>2.88</v>
+        <v>3.75</v>
       </c>
       <c r="M20" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O20" t="n">
         <v>1.5</v>
@@ -4053,118 +4053,118 @@
         <v>2.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="R20" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S20" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T20" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U20" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V20" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W20" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="X20" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="Y20" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Z20" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AA20" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AB20" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD20" t="n">
         <v>6</v>
       </c>
-      <c r="AD20" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AE20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF20" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG20" t="n">
         <v>101</v>
       </c>
       <c r="AH20" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AJ20" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AK20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY20" t="n">
         <v>19</v>
       </c>
-      <c r="AL20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>500</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>13</v>
-      </c>
       <c r="AZ20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA20" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BB20" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC20" t="n">
         <v>301</v>
@@ -4205,28 +4205,28 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="I21" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="J21" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="K21" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L21" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M21" t="n">
         <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O21" t="n">
         <v>1.18</v>
@@ -4235,10 +4235,10 @@
         <v>4.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R21" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S21" t="n">
         <v>1.3</v>
@@ -4247,25 +4247,25 @@
         <v>3.4</v>
       </c>
       <c r="U21" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V21" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y21" t="n">
         <v>10</v>
       </c>
       <c r="Z21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB21" t="n">
         <v>23</v>
@@ -4295,22 +4295,22 @@
         <v>9.5</v>
       </c>
       <c r="AK21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL21" t="n">
         <v>17</v>
       </c>
       <c r="AM21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN21" t="n">
         <v>5</v>
       </c>
       <c r="AO21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ21" t="n">
         <v>41</v>
@@ -4334,10 +4334,10 @@
         <v>351</v>
       </c>
       <c r="AX21" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AY21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ21" t="n">
         <v>19</v>
@@ -4387,28 +4387,28 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H22" t="n">
         <v>3.5</v>
       </c>
       <c r="I22" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J22" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K22" t="n">
         <v>2.3</v>
       </c>
       <c r="L22" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M22" t="n">
         <v>1.04</v>
       </c>
       <c r="N22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O22" t="n">
         <v>1.22</v>
@@ -4417,10 +4417,10 @@
         <v>4</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R22" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S22" t="n">
         <v>1.33</v>
@@ -4429,31 +4429,31 @@
         <v>3.25</v>
       </c>
       <c r="U22" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V22" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W22" t="n">
+        <v>8</v>
+      </c>
+      <c r="X22" t="n">
         <v>8.5</v>
-      </c>
-      <c r="X22" t="n">
-        <v>9.5</v>
       </c>
       <c r="Y22" t="n">
         <v>8.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA22" t="n">
         <v>13</v>
       </c>
       <c r="AB22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD22" t="n">
         <v>7</v>
@@ -4465,34 +4465,34 @@
         <v>41</v>
       </c>
       <c r="AG22" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH22" t="n">
         <v>15</v>
       </c>
       <c r="AI22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK22" t="n">
         <v>51</v>
       </c>
       <c r="AL22" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM22" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN22" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO22" t="n">
         <v>9</v>
       </c>
       <c r="AP22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ22" t="n">
         <v>29</v>
@@ -4501,13 +4501,13 @@
         <v>41</v>
       </c>
       <c r="AS22" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT22" t="n">
         <v>3.25</v>
       </c>
       <c r="AU22" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV22" t="n">
         <v>51</v>
@@ -4516,22 +4516,22 @@
         <v>501</v>
       </c>
       <c r="AX22" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AY22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ22" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA22" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB22" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC22" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD22" t="n">
         <v>151</v>
@@ -4751,28 +4751,28 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H24" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I24" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J24" t="n">
         <v>2.2</v>
       </c>
       <c r="K24" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L24" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M24" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O24" t="n">
         <v>1.25</v>
@@ -4781,64 +4781,64 @@
         <v>3.75</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="R24" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S24" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T24" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U24" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="V24" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X24" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y24" t="n">
         <v>8.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA24" t="n">
         <v>13</v>
       </c>
       <c r="AB24" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC24" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD24" t="n">
         <v>7.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF24" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG24" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AH24" t="n">
         <v>15</v>
       </c>
       <c r="AI24" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK24" t="n">
         <v>51</v>
@@ -4850,13 +4850,13 @@
         <v>41</v>
       </c>
       <c r="AN24" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO24" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ24" t="n">
         <v>26</v>
@@ -4868,10 +4868,10 @@
         <v>126</v>
       </c>
       <c r="AT24" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU24" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV24" t="n">
         <v>51</v>
@@ -4880,22 +4880,22 @@
         <v>501</v>
       </c>
       <c r="AX24" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AY24" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ24" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA24" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB24" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC24" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD24" t="n">
         <v>151</v>
@@ -4951,10 +4951,10 @@
         <v>4</v>
       </c>
       <c r="M25" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O25" t="n">
         <v>1.29</v>
@@ -5115,22 +5115,22 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="H26" t="n">
         <v>3.6</v>
       </c>
       <c r="I26" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="J26" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K26" t="n">
         <v>2.5</v>
       </c>
       <c r="L26" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M26" t="n">
         <v>1.02</v>
@@ -5163,7 +5163,7 @@
         <v>2.75</v>
       </c>
       <c r="W26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X26" t="n">
         <v>19</v>
@@ -5199,22 +5199,22 @@
         <v>15</v>
       </c>
       <c r="AI26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ26" t="n">
         <v>10</v>
       </c>
       <c r="AK26" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM26" t="n">
         <v>19</v>
       </c>
       <c r="AN26" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO26" t="n">
         <v>13</v>
@@ -5226,7 +5226,7 @@
         <v>41</v>
       </c>
       <c r="AR26" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS26" t="n">
         <v>81</v>
@@ -5250,10 +5250,10 @@
         <v>12</v>
       </c>
       <c r="AZ26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BA26" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BB26" t="n">
         <v>41</v>
@@ -5297,22 +5297,22 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H27" t="n">
         <v>3.4</v>
       </c>
       <c r="I27" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J27" t="n">
         <v>2.75</v>
       </c>
       <c r="K27" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L27" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M27" t="n">
         <v>1.04</v>
@@ -5348,7 +5348,7 @@
         <v>9.5</v>
       </c>
       <c r="X27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y27" t="n">
         <v>9</v>
@@ -5357,7 +5357,7 @@
         <v>21</v>
       </c>
       <c r="AA27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB27" t="n">
         <v>23</v>
@@ -5378,10 +5378,10 @@
         <v>151</v>
       </c>
       <c r="AH27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ27" t="n">
         <v>12</v>
@@ -5399,7 +5399,7 @@
         <v>4.33</v>
       </c>
       <c r="AO27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP27" t="n">
         <v>19</v>
@@ -5441,7 +5441,7 @@
         <v>67</v>
       </c>
       <c r="BC27" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD27" t="n">
         <v>81</v>
@@ -5509,10 +5509,10 @@
         <v>3.75</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R28" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S28" t="n">
         <v>1.36</v>
@@ -5545,7 +5545,7 @@
         <v>29</v>
       </c>
       <c r="AC28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD28" t="n">
         <v>6.5</v>
@@ -5557,7 +5557,7 @@
         <v>41</v>
       </c>
       <c r="AG28" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH28" t="n">
         <v>9</v>
@@ -5623,7 +5623,7 @@
         <v>51</v>
       </c>
       <c r="BC28" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD28" t="n">
         <v>81</v>
@@ -5682,7 +5682,7 @@
         <v>1.03</v>
       </c>
       <c r="N29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O29" t="n">
         <v>1.18</v>
@@ -5873,10 +5873,10 @@
         <v>3.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R30" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S30" t="n">
         <v>1.4</v>
@@ -5996,7 +5996,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>IJgRt7m4</t>
+          <t>C0eswPnT</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6006,7 +6006,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -6016,160 +6016,160 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Al Wakra</t>
+          <t>Al Arabi</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Al-Sadd</t>
+          <t>Qatar SC</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.65</v>
+        <v>1.75</v>
       </c>
       <c r="H31" t="n">
-        <v>3.55</v>
+        <v>4.15</v>
       </c>
       <c r="I31" t="n">
-        <v>2.37</v>
+        <v>3.7</v>
       </c>
       <c r="J31" t="n">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="K31" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="L31" t="n">
-        <v>2.82</v>
+        <v>3.9</v>
       </c>
       <c r="M31" t="n">
         <v>1.03</v>
       </c>
       <c r="N31" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="O31" t="n">
         <v>1.16</v>
       </c>
       <c r="P31" t="n">
-        <v>4.55</v>
+        <v>4.65</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="R31" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="S31" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="T31" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="U31" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="V31" t="n">
-        <v>2.62</v>
+        <v>2.37</v>
       </c>
       <c r="W31" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="X31" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE31" t="n">
         <v>13</v>
       </c>
-      <c r="X31" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>10.75</v>
-      </c>
       <c r="AF31" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AG31" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="AH31" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ31" t="n">
         <v>13</v>
       </c>
-      <c r="AI31" t="n">
-        <v>16</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AK31" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL31" t="n">
         <v>28</v>
       </c>
-      <c r="AL31" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AM31" t="n">
-        <v>18.5</v>
+        <v>28</v>
       </c>
       <c r="AN31" t="n">
-        <v>5.1</v>
+        <v>4</v>
       </c>
       <c r="AO31" t="n">
-        <v>13.5</v>
+        <v>8.5</v>
       </c>
       <c r="AP31" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AQ31" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="AR31" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AS31" t="n">
         <v>150</v>
       </c>
       <c r="AT31" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="AU31" t="n">
-        <v>6.1</v>
+        <v>6.8</v>
       </c>
       <c r="AV31" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AW31" t="n">
-        <v>450</v>
+        <v>51</v>
       </c>
       <c r="AX31" t="n">
-        <v>4.8</v>
+        <v>6</v>
       </c>
       <c r="AY31" t="n">
-        <v>12</v>
+        <v>18.5</v>
       </c>
       <c r="AZ31" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="BA31" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="BB31" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="BC31" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="BD31" t="n">
         <v>51</v>
@@ -6178,7 +6178,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>C0eswPnT</t>
+          <t>vZszuoIG</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6198,85 +6198,85 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Al Arabi</t>
+          <t>Al-Duhail</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Qatar SC</t>
+          <t>Al-Gharafa</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="H32" t="n">
-        <v>4.15</v>
+        <v>4.45</v>
       </c>
       <c r="I32" t="n">
-        <v>3.7</v>
+        <v>5.2</v>
       </c>
       <c r="J32" t="n">
-        <v>2.25</v>
+        <v>1.93</v>
       </c>
       <c r="K32" t="n">
-        <v>2.45</v>
+        <v>2.57</v>
       </c>
       <c r="L32" t="n">
-        <v>3.9</v>
+        <v>4.9</v>
       </c>
       <c r="M32" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N32" t="n">
-        <v>9.5</v>
+        <v>18</v>
       </c>
       <c r="O32" t="n">
-        <v>1.16</v>
+        <v>1.11</v>
       </c>
       <c r="P32" t="n">
-        <v>4.65</v>
+        <v>5.5</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
       <c r="R32" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="S32" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="T32" t="n">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="U32" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="V32" t="n">
-        <v>2.37</v>
+        <v>2.57</v>
       </c>
       <c r="W32" t="n">
-        <v>10.75</v>
+        <v>13</v>
       </c>
       <c r="X32" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="Y32" t="n">
         <v>8.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AB32" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AC32" t="n">
-        <v>9.5</v>
+        <v>25</v>
       </c>
       <c r="AD32" t="n">
-        <v>8.5</v>
+        <v>9.75</v>
       </c>
       <c r="AE32" t="n">
         <v>13</v>
@@ -6285,70 +6285,70 @@
         <v>37</v>
       </c>
       <c r="AG32" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AH32" t="n">
-        <v>16.5</v>
+        <v>24</v>
       </c>
       <c r="AI32" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>18</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>30</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>100</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>40</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>450</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>27</v>
+      </c>
+      <c r="AZ32" t="n">
         <v>24</v>
       </c>
-      <c r="AJ32" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>28</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP32" t="n">
-        <v>14</v>
-      </c>
-      <c r="AQ32" t="n">
-        <v>25</v>
-      </c>
-      <c r="AR32" t="n">
-        <v>45</v>
-      </c>
-      <c r="AS32" t="n">
+      <c r="BA32" t="n">
         <v>150</v>
       </c>
-      <c r="AT32" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AU32" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV32" t="n">
-        <v>45</v>
-      </c>
-      <c r="AW32" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX32" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY32" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AZ32" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA32" t="n">
-        <v>80</v>
-      </c>
       <c r="BB32" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="BC32" t="n">
         <v>200</v>
@@ -6360,7 +6360,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>vZszuoIG</t>
+          <t>0E90uA5t</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6375,165 +6375,165 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>QATAR - QSL</t>
+          <t>SLOVENIA - PRVA LIGA</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Al-Duhail</t>
+          <t>Radomlje</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Al-Gharafa</t>
+          <t>Celje</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.55</v>
+        <v>4.35</v>
       </c>
       <c r="H33" t="n">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="I33" t="n">
-        <v>5</v>
+        <v>1.75</v>
       </c>
       <c r="J33" t="n">
-        <v>1.98</v>
+        <v>4.75</v>
       </c>
       <c r="K33" t="n">
-        <v>2.57</v>
+        <v>2.12</v>
       </c>
       <c r="L33" t="n">
-        <v>4.7</v>
+        <v>2.32</v>
       </c>
       <c r="M33" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N33" t="n">
-        <v>18</v>
+        <v>7.3</v>
       </c>
       <c r="O33" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="P33" t="n">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.36</v>
+        <v>1.9</v>
       </c>
       <c r="R33" t="n">
-        <v>2.9</v>
+        <v>1.83</v>
       </c>
       <c r="S33" t="n">
-        <v>1.22</v>
+        <v>1.42</v>
       </c>
       <c r="T33" t="n">
-        <v>3.8</v>
+        <v>2.67</v>
       </c>
       <c r="U33" t="n">
-        <v>1.44</v>
+        <v>1.83</v>
       </c>
       <c r="V33" t="n">
-        <v>2.62</v>
+        <v>1.87</v>
       </c>
       <c r="W33" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="X33" t="n">
-        <v>11.25</v>
+        <v>24</v>
       </c>
       <c r="Y33" t="n">
-        <v>8.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z33" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>45</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AL33" t="n">
         <v>14</v>
       </c>
-      <c r="AA33" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC33" t="n">
+      <c r="AM33" t="n">
+        <v>27</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AO33" t="n">
         <v>25</v>
       </c>
-      <c r="AD33" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>35</v>
-      </c>
-      <c r="AG33" t="n">
+      <c r="AP33" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ33" t="n">
         <v>150</v>
       </c>
-      <c r="AH33" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>90</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AP33" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AQ33" t="n">
+      <c r="AR33" t="n">
+        <v>200</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>450</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>75</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AZ33" t="n">
         <v>18.5</v>
       </c>
-      <c r="AR33" t="n">
+      <c r="BA33" t="n">
         <v>30</v>
       </c>
-      <c r="AS33" t="n">
-        <v>90</v>
-      </c>
-      <c r="AT33" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AU33" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AV33" t="n">
-        <v>37</v>
-      </c>
-      <c r="AW33" t="n">
-        <v>400</v>
-      </c>
-      <c r="AX33" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AY33" t="n">
-        <v>25</v>
-      </c>
-      <c r="AZ33" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA33" t="n">
-        <v>120</v>
-      </c>
       <c r="BB33" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="BC33" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="BD33" t="n">
         <v>51</v>
@@ -6542,7 +6542,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>EXLwtXf2</t>
+          <t>QT6U34Ik</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6552,179 +6552,179 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>SCOTLAND - PREMIERSHIP</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Dep. La Coruna</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>9</v>
+        <v>2.45</v>
       </c>
       <c r="H34" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L34" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N34" t="n">
+        <v>12</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T34" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V34" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W34" t="n">
+        <v>10</v>
+      </c>
+      <c r="X34" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU34" t="n">
         <v>7.5</v>
       </c>
-      <c r="I34" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="J34" t="n">
-        <v>9</v>
-      </c>
-      <c r="K34" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N34" t="n">
+      <c r="AV34" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ34" t="n">
         <v>21</v>
       </c>
-      <c r="O34" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P34" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R34" t="n">
-        <v>3</v>
-      </c>
-      <c r="S34" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T34" t="n">
-        <v>4</v>
-      </c>
-      <c r="U34" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V34" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W34" t="n">
-        <v>26</v>
-      </c>
-      <c r="X34" t="n">
-        <v>51</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z34" t="n">
+      <c r="BA34" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC34" t="n">
         <v>126</v>
       </c>
-      <c r="AA34" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>8</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>10</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>11</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP34" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ34" t="n">
-        <v>201</v>
-      </c>
-      <c r="AR34" t="n">
-        <v>151</v>
-      </c>
-      <c r="AS34" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT34" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU34" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV34" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW34" t="n">
-        <v>501</v>
-      </c>
-      <c r="AX34" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AY34" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AZ34" t="n">
-        <v>15</v>
-      </c>
-      <c r="BA34" t="n">
-        <v>12</v>
-      </c>
-      <c r="BB34" t="n">
-        <v>29</v>
-      </c>
-      <c r="BC34" t="n">
+      <c r="BD34" t="n">
         <v>81</v>
-      </c>
-      <c r="BD34" t="n">
-        <v>151</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>KU8P3zm9</t>
+          <t>6mS3I3Xr</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -6734,74 +6734,74 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>SCOTLAND - PREMIERSHIP</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>St. Mirren</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.29</v>
+        <v>1.62</v>
       </c>
       <c r="H35" t="n">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="I35" t="n">
-        <v>10</v>
+        <v>5.75</v>
       </c>
       <c r="J35" t="n">
-        <v>1.73</v>
+        <v>2.3</v>
       </c>
       <c r="K35" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L35" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M35" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N35" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="O35" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="P35" t="n">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="R35" t="n">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="S35" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="T35" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U35" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V35" t="n">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="W35" t="n">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="X35" t="n">
         <v>6.5</v>
@@ -6810,103 +6810,103 @@
         <v>9</v>
       </c>
       <c r="Z35" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC35" t="n">
         <v>8</v>
       </c>
-      <c r="AA35" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>13</v>
-      </c>
       <c r="AD35" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE35" t="n">
         <v>21</v>
       </c>
       <c r="AF35" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK35" t="n">
         <v>67</v>
       </c>
-      <c r="AG35" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH35" t="n">
+      <c r="AL35" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP35" t="n">
         <v>23</v>
       </c>
-      <c r="AI35" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ35" t="n">
+      <c r="AQ35" t="n">
         <v>29</v>
       </c>
-      <c r="AK35" t="n">
-        <v>126</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>6</v>
-      </c>
-      <c r="AP35" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ35" t="n">
-        <v>15</v>
-      </c>
       <c r="AR35" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS35" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AT35" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="AU35" t="n">
         <v>9.5</v>
       </c>
       <c r="AV35" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW35" t="n">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="AX35" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AY35" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ35" t="n">
         <v>41</v>
       </c>
       <c r="BA35" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="BB35" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC35" t="n">
         <v>351</v>
       </c>
       <c r="BD35" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>0E90uA5t</t>
+          <t>tO9rD8e3</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -6916,179 +6916,179 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SLOVENIA - PRVA LIGA</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Radomlje</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Celje</t>
+          <t>Gijon</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4.35</v>
+        <v>2.45</v>
       </c>
       <c r="H36" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="I36" t="n">
-        <v>1.75</v>
+        <v>2.9</v>
       </c>
       <c r="J36" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L36" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N36" t="n">
+        <v>9</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T36" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W36" t="n">
+        <v>8</v>
+      </c>
+      <c r="X36" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX36" t="n">
         <v>4.75</v>
       </c>
-      <c r="K36" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="L36" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N36" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P36" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S36" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="T36" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="U36" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V36" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="W36" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="X36" t="n">
-        <v>24</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>70</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>45</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>50</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>14</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>27</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>25</v>
-      </c>
-      <c r="AP36" t="n">
-        <v>32</v>
-      </c>
-      <c r="AQ36" t="n">
-        <v>150</v>
-      </c>
-      <c r="AR36" t="n">
-        <v>200</v>
-      </c>
-      <c r="AS36" t="n">
-        <v>450</v>
-      </c>
-      <c r="AT36" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="AU36" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AV36" t="n">
-        <v>75</v>
-      </c>
-      <c r="AW36" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX36" t="n">
-        <v>3.55</v>
-      </c>
       <c r="AY36" t="n">
-        <v>8.75</v>
+        <v>17</v>
       </c>
       <c r="AZ36" t="n">
-        <v>18.5</v>
+        <v>26</v>
       </c>
       <c r="BA36" t="n">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="BB36" t="n">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="BC36" t="n">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="BD36" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>QT6U34Ik</t>
+          <t>AHtYNP9L</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -7098,7 +7098,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -7108,136 +7108,136 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Dep. La Coruna</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="H37" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="I37" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K37" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L37" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N37" t="n">
+        <v>9</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P37" t="n">
         <v>3</v>
       </c>
-      <c r="J37" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K37" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L37" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N37" t="n">
-        <v>13</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P37" t="n">
-        <v>4</v>
-      </c>
       <c r="Q37" t="n">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="R37" t="n">
-        <v>2.05</v>
+        <v>1.67</v>
       </c>
       <c r="S37" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="T37" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="U37" t="n">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="V37" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="W37" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X37" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y37" t="n">
         <v>12</v>
       </c>
-      <c r="Y37" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z37" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL37" t="n">
         <v>21</v>
       </c>
-      <c r="AA37" t="n">
+      <c r="AM37" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO37" t="n">
         <v>17</v>
       </c>
-      <c r="AB37" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK37" t="n">
+      <c r="AP37" t="n">
         <v>29</v>
       </c>
-      <c r="AL37" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP37" t="n">
-        <v>21</v>
-      </c>
       <c r="AQ37" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR37" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS37" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AT37" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="AU37" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV37" t="n">
         <v>51</v>
@@ -7246,22 +7246,22 @@
         <v>81</v>
       </c>
       <c r="AX37" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="AY37" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ37" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA37" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB37" t="n">
         <v>67</v>
       </c>
       <c r="BC37" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD37" t="n">
         <v>81</v>
@@ -7270,7 +7270,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6mS3I3Xr</t>
+          <t>WjuLdvbi</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -7280,110 +7280,110 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.62</v>
+        <v>1.42</v>
       </c>
       <c r="H38" t="n">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="I38" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="J38" t="n">
-        <v>2.3</v>
+        <v>1.91</v>
       </c>
       <c r="K38" t="n">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="L38" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M38" t="n">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="N38" t="n">
+        <v>21</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P38" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T38" t="n">
+        <v>4</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V38" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W38" t="n">
+        <v>11</v>
+      </c>
+      <c r="X38" t="n">
         <v>9</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P38" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S38" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T38" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U38" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V38" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W38" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X38" t="n">
-        <v>6.5</v>
       </c>
       <c r="Y38" t="n">
         <v>9</v>
       </c>
       <c r="Z38" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA38" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE38" t="n">
         <v>15</v>
       </c>
-      <c r="AB38" t="n">
+      <c r="AF38" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI38" t="n">
         <v>34</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>26</v>
       </c>
       <c r="AJ38" t="n">
         <v>19</v>
@@ -7392,67 +7392,67 @@
         <v>67</v>
       </c>
       <c r="AL38" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM38" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AN38" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="AO38" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AP38" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AQ38" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>301</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY38" t="n">
         <v>29</v>
       </c>
-      <c r="AR38" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS38" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT38" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU38" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV38" t="n">
+      <c r="AZ38" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA38" t="n">
         <v>81</v>
       </c>
-      <c r="AW38" t="n">
+      <c r="BB38" t="n">
         <v>81</v>
       </c>
-      <c r="AX38" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY38" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ38" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA38" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB38" t="n">
+      <c r="BC38" t="n">
         <v>151</v>
       </c>
-      <c r="BC38" t="n">
-        <v>351</v>
-      </c>
       <c r="BD38" t="n">
-        <v>81</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>WjuLdvbi</t>
+          <t>zHiDhYt9</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -7467,93 +7467,93 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.45</v>
+        <v>1.95</v>
       </c>
       <c r="H39" t="n">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="I39" t="n">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="J39" t="n">
-        <v>1.91</v>
+        <v>2.5</v>
       </c>
       <c r="K39" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="L39" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M39" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N39" t="n">
+        <v>15</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R39" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T39" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V39" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W39" t="n">
+        <v>10</v>
+      </c>
+      <c r="X39" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB39" t="n">
         <v>21</v>
       </c>
-      <c r="O39" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P39" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R39" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="S39" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T39" t="n">
-        <v>4</v>
-      </c>
-      <c r="U39" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V39" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W39" t="n">
-        <v>11</v>
-      </c>
-      <c r="X39" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z39" t="n">
+      <c r="AC39" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE39" t="n">
         <v>12</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>15</v>
       </c>
       <c r="AF39" t="n">
         <v>41</v>
@@ -7562,79 +7562,79 @@
         <v>126</v>
       </c>
       <c r="AH39" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI39" t="n">
         <v>21</v>
       </c>
-      <c r="AI39" t="n">
+      <c r="AJ39" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ39" t="n">
         <v>34</v>
       </c>
-      <c r="AJ39" t="n">
+      <c r="AR39" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>351</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY39" t="n">
         <v>17</v>
       </c>
-      <c r="AK39" t="n">
+      <c r="AZ39" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB39" t="n">
         <v>67</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP39" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ39" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR39" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS39" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT39" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU39" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV39" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW39" t="n">
-        <v>301</v>
-      </c>
-      <c r="AX39" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY39" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ39" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA39" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB39" t="n">
-        <v>81</v>
       </c>
       <c r="BC39" t="n">
         <v>126</v>
       </c>
       <c r="BD39" t="n">
-        <v>176</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>zHiDhYt9</t>
+          <t>63EpzQQs</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -7654,160 +7654,160 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="H40" t="n">
         <v>3.6</v>
       </c>
       <c r="I40" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="J40" t="n">
         <v>3.4</v>
       </c>
-      <c r="J40" t="n">
-        <v>2.6</v>
-      </c>
       <c r="K40" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="L40" t="n">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M40" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N40" t="n">
+        <v>11</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T40" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V40" t="n">
+        <v>2</v>
+      </c>
+      <c r="W40" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X40" t="n">
         <v>15</v>
       </c>
-      <c r="O40" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P40" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R40" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S40" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T40" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U40" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V40" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W40" t="n">
+      <c r="Y40" t="n">
         <v>10</v>
       </c>
-      <c r="X40" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>9</v>
-      </c>
       <c r="Z40" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AA40" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AB40" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AC40" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AD40" t="n">
         <v>7</v>
       </c>
       <c r="AE40" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI40" t="n">
         <v>12</v>
       </c>
-      <c r="AF40" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH40" t="n">
+      <c r="AJ40" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AY40" t="n">
         <v>13</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP40" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ40" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR40" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS40" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT40" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU40" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV40" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW40" t="n">
-        <v>351</v>
-      </c>
-      <c r="AX40" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY40" t="n">
-        <v>17</v>
       </c>
       <c r="AZ40" t="n">
         <v>21</v>
       </c>
       <c r="BA40" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB40" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC40" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD40" t="n">
         <v>81</v>
@@ -7816,7 +7816,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>63EpzQQs</t>
+          <t>UifrL3E7</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -7831,174 +7831,174 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Thun</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>Schaffhausen</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.8</v>
+        <v>1.52</v>
       </c>
       <c r="H41" t="n">
-        <v>3.5</v>
+        <v>4.15</v>
       </c>
       <c r="I41" t="n">
-        <v>2.38</v>
+        <v>5.6</v>
       </c>
       <c r="J41" t="n">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="K41" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L41" t="n">
-        <v>3.1</v>
+        <v>5.4</v>
       </c>
       <c r="M41" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N41" t="n">
-        <v>10</v>
+        <v>8.25</v>
       </c>
       <c r="O41" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="P41" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R41" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="T41" t="n">
+        <v>3</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="W41" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X41" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>110</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN41" t="n">
         <v>3.4</v>
       </c>
-      <c r="Q41" t="n">
-        <v>2</v>
-      </c>
-      <c r="R41" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S41" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T41" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U41" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V41" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W41" t="n">
-        <v>9</v>
-      </c>
-      <c r="X41" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>4.75</v>
-      </c>
       <c r="AO41" t="n">
-        <v>15</v>
+        <v>7.2</v>
       </c>
       <c r="AP41" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AQ41" t="n">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="AR41" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="AS41" t="n">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="AT41" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU41" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AV41" t="n">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="AW41" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AX41" t="n">
-        <v>4.5</v>
+        <v>7.1</v>
       </c>
       <c r="AY41" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="AZ41" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="BA41" t="n">
-        <v>41</v>
+        <v>200</v>
       </c>
       <c r="BB41" t="n">
-        <v>67</v>
+        <v>200</v>
       </c>
       <c r="BC41" t="n">
-        <v>151</v>
+        <v>450</v>
       </c>
       <c r="BD41" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>UifrL3E7</t>
+          <t>2XbPgb6t</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -8008,179 +8008,179 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Thun</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Schaffhausen</t>
+          <t>Bodrumspor</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.52</v>
+        <v>1.29</v>
       </c>
       <c r="H42" t="n">
-        <v>4.15</v>
+        <v>5.75</v>
       </c>
       <c r="I42" t="n">
-        <v>5.6</v>
+        <v>9</v>
       </c>
       <c r="J42" t="n">
-        <v>2.05</v>
+        <v>1.73</v>
       </c>
       <c r="K42" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L42" t="n">
-        <v>5.4</v>
+        <v>9</v>
       </c>
       <c r="M42" t="n">
         <v>1.04</v>
       </c>
       <c r="N42" t="n">
-        <v>8.25</v>
+        <v>13</v>
       </c>
       <c r="O42" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P42" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="R42" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="S42" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="T42" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U42" t="n">
-        <v>1.78</v>
+        <v>2.38</v>
       </c>
       <c r="V42" t="n">
-        <v>1.93</v>
+        <v>1.53</v>
       </c>
       <c r="W42" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X42" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z42" t="n">
         <v>7.5</v>
       </c>
-      <c r="X42" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>10.75</v>
-      </c>
       <c r="AA42" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AB42" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="AC42" t="n">
-        <v>8.25</v>
+        <v>12</v>
       </c>
       <c r="AD42" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AE42" t="n">
-        <v>16.5</v>
+        <v>29</v>
       </c>
       <c r="AF42" t="n">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="AG42" t="n">
-        <v>500</v>
+        <v>201</v>
       </c>
       <c r="AH42" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AI42" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AJ42" t="n">
-        <v>17.5</v>
+        <v>26</v>
       </c>
       <c r="AK42" t="n">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="AL42" t="n">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="AM42" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="AN42" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="AO42" t="n">
-        <v>7.2</v>
+        <v>6</v>
       </c>
       <c r="AP42" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AQ42" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AR42" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AS42" t="n">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="AT42" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU42" t="n">
-        <v>7.7</v>
+        <v>11</v>
       </c>
       <c r="AV42" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AW42" t="n">
-        <v>51</v>
+        <v>276</v>
       </c>
       <c r="AX42" t="n">
-        <v>7.1</v>
+        <v>10</v>
       </c>
       <c r="AY42" t="n">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="AZ42" t="n">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="BA42" t="n">
-        <v>200</v>
+        <v>251</v>
       </c>
       <c r="BB42" t="n">
-        <v>200</v>
+        <v>251</v>
       </c>
       <c r="BC42" t="n">
-        <v>450</v>
+        <v>351</v>
       </c>
       <c r="BD42" t="n">
-        <v>51</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2XbPgb6t</t>
+          <t>GY5TOWK8</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -8195,174 +8195,174 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>TURKEY - 1. LIG</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Istanbulspor AS</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Bodrumspor</t>
+          <t>Boluspor</t>
         </is>
       </c>
       <c r="G43" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H43" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I43" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J43" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K43" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L43" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N43" t="n">
+        <v>10</v>
+      </c>
+      <c r="O43" t="n">
         <v>1.3</v>
       </c>
-      <c r="H43" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="I43" t="n">
+      <c r="P43" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T43" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W43" t="n">
+        <v>7</v>
+      </c>
+      <c r="X43" t="n">
         <v>8.5</v>
       </c>
-      <c r="J43" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K43" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L43" t="n">
+      <c r="Y43" t="n">
         <v>8.5</v>
       </c>
-      <c r="M43" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N43" t="n">
+      <c r="Z43" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH43" t="n">
         <v>12</v>
       </c>
-      <c r="O43" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P43" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R43" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S43" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T43" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U43" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V43" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W43" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X43" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH43" t="n">
+      <c r="AI43" t="n">
         <v>21</v>
       </c>
-      <c r="AI43" t="n">
-        <v>41</v>
-      </c>
       <c r="AJ43" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AK43" t="n">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AL43" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="AM43" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AN43" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="AO43" t="n">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="AP43" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ43" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AR43" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS43" t="n">
         <v>151</v>
       </c>
       <c r="AT43" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="AU43" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AV43" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW43" t="n">
-        <v>276</v>
+        <v>126</v>
       </c>
       <c r="AX43" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AY43" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AZ43" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA43" t="n">
-        <v>201</v>
+        <v>81</v>
       </c>
       <c r="BB43" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="BC43" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="BD43" t="n">
-        <v>301</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>GY5TOWK8</t>
+          <t>6ex7IQtJ</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -8377,349 +8377,167 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Dyn. Kyiv</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Shakhtar Donetsk</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.73</v>
+        <v>2.7</v>
       </c>
       <c r="H44" t="n">
-        <v>3.5</v>
+        <v>2.77</v>
       </c>
       <c r="I44" t="n">
-        <v>4.33</v>
+        <v>2.8</v>
       </c>
       <c r="J44" t="n">
-        <v>2.38</v>
+        <v>3.25</v>
       </c>
       <c r="K44" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L44" t="n">
-        <v>5</v>
+        <v>3.35</v>
       </c>
       <c r="M44" t="n">
         <v>1.05</v>
       </c>
       <c r="N44" t="n">
-        <v>11</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="O44" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="P44" t="n">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="R44" t="n">
-        <v>1.85</v>
+        <v>1.55</v>
       </c>
       <c r="S44" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T44" t="n">
-        <v>2.75</v>
+        <v>2.42</v>
       </c>
       <c r="U44" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="V44" t="n">
         <v>1.83</v>
       </c>
       <c r="W44" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X44" t="n">
-        <v>8</v>
+        <v>13.5</v>
       </c>
       <c r="Y44" t="n">
-        <v>8.5</v>
+        <v>9.75</v>
       </c>
       <c r="Z44" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="AA44" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AB44" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="AC44" t="n">
-        <v>10</v>
+        <v>7.1</v>
       </c>
       <c r="AD44" t="n">
-        <v>7</v>
+        <v>5.4</v>
       </c>
       <c r="AE44" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AF44" t="n">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="AG44" t="n">
-        <v>251</v>
+        <v>600</v>
       </c>
       <c r="AH44" t="n">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="AI44" t="n">
-        <v>23</v>
+        <v>13.5</v>
       </c>
       <c r="AJ44" t="n">
-        <v>15</v>
+        <v>10.25</v>
       </c>
       <c r="AK44" t="n">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="AL44" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="AM44" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AN44" t="n">
-        <v>3.75</v>
+        <v>4.55</v>
       </c>
       <c r="AO44" t="n">
-        <v>9</v>
+        <v>14.5</v>
       </c>
       <c r="AP44" t="n">
         <v>21</v>
       </c>
       <c r="AQ44" t="n">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="AR44" t="n">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="AS44" t="n">
-        <v>151</v>
+        <v>250</v>
       </c>
       <c r="AT44" t="n">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="AU44" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AV44" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AW44" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="AX44" t="n">
-        <v>6.5</v>
+        <v>4.65</v>
       </c>
       <c r="AY44" t="n">
-        <v>23</v>
+        <v>15.5</v>
       </c>
       <c r="AZ44" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="BA44" t="n">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="BB44" t="n">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="BC44" t="n">
-        <v>251</v>
+        <v>300</v>
       </c>
       <c r="BD44" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>6ex7IQtJ</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>27/10/2024</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Dyn. Kyiv</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Shakhtar Donetsk</t>
-        </is>
-      </c>
-      <c r="G45" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="I45" t="n">
-        <v>3</v>
-      </c>
-      <c r="J45" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K45" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M45" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N45" t="n">
-        <v>8</v>
-      </c>
-      <c r="O45" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P45" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R45" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S45" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="T45" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="U45" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V45" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W45" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="X45" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>37</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM45" t="n">
-        <v>37</v>
-      </c>
-      <c r="AN45" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="AO45" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AP45" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ45" t="n">
-        <v>65</v>
-      </c>
-      <c r="AR45" t="n">
-        <v>100</v>
-      </c>
-      <c r="AS45" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT45" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="AU45" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AV45" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW45" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX45" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="AY45" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AZ45" t="n">
-        <v>22</v>
-      </c>
-      <c r="BA45" t="n">
-        <v>80</v>
-      </c>
-      <c r="BB45" t="n">
-        <v>110</v>
-      </c>
-      <c r="BC45" t="n">
-        <v>250</v>
-      </c>
-      <c r="BD45" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD44"/>
+  <dimension ref="A1:BD37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H2" t="n">
         <v>3.3</v>
       </c>
       <c r="I2" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J2" t="n">
         <v>2.88</v>
@@ -765,22 +765,22 @@
         <v>3.6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R2" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="S2" t="n">
         <v>1.36</v>
@@ -795,10 +795,10 @@
         <v>2.1</v>
       </c>
       <c r="W2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
@@ -840,7 +840,7 @@
         <v>41</v>
       </c>
       <c r="AL2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM2" t="n">
         <v>34</v>
@@ -861,7 +861,7 @@
         <v>51</v>
       </c>
       <c r="AS2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT2" t="n">
         <v>3</v>
@@ -947,10 +947,10 @@
         <v>2.63</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O3" t="n">
         <v>1.2</v>
@@ -959,10 +959,10 @@
         <v>4.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R3" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S3" t="n">
         <v>1.3</v>
@@ -971,10 +971,10 @@
         <v>3.4</v>
       </c>
       <c r="U3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V3" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W3" t="n">
         <v>13</v>
@@ -1111,16 +1111,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H4" t="n">
         <v>3.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="J4" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
         <v>2.25</v>
@@ -1159,7 +1159,7 @@
         <v>2.05</v>
       </c>
       <c r="W4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X4" t="n">
         <v>21</v>
@@ -1177,7 +1177,7 @@
         <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD4" t="n">
         <v>7</v>
@@ -1189,19 +1189,19 @@
         <v>41</v>
       </c>
       <c r="AG4" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ4" t="n">
         <v>8.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL4" t="n">
         <v>15</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="J5" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K5" t="n">
         <v>2.2</v>
       </c>
       <c r="L5" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
@@ -1329,10 +1329,10 @@
         <v>1.95</v>
       </c>
       <c r="S5" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T5" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U5" t="n">
         <v>1.75</v>
@@ -1344,19 +1344,19 @@
         <v>7.5</v>
       </c>
       <c r="X5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y5" t="n">
         <v>8.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA5" t="n">
         <v>15</v>
       </c>
       <c r="AB5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC5" t="n">
         <v>11</v>
@@ -1368,28 +1368,28 @@
         <v>15</v>
       </c>
       <c r="AF5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG5" t="n">
         <v>201</v>
       </c>
       <c r="AH5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>13</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>15</v>
       </c>
       <c r="AK5" t="n">
         <v>41</v>
       </c>
       <c r="AL5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM5" t="n">
         <v>34</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>41</v>
       </c>
       <c r="AN5" t="n">
         <v>4</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="AP5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ5" t="n">
         <v>34</v>
@@ -1407,10 +1407,10 @@
         <v>51</v>
       </c>
       <c r="AS5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT5" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU5" t="n">
         <v>8</v>
@@ -1419,10 +1419,10 @@
         <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AX5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AY5" t="n">
         <v>21</v>
@@ -1475,28 +1475,28 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="H6" t="n">
         <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
         <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O6" t="n">
         <v>1.29</v>
@@ -1505,10 +1505,10 @@
         <v>3.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="R6" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S6" t="n">
         <v>1.4</v>
@@ -1517,13 +1517,13 @@
         <v>2.75</v>
       </c>
       <c r="U6" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V6" t="n">
         <v>2.05</v>
       </c>
       <c r="W6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X6" t="n">
         <v>12</v>
@@ -1568,7 +1568,7 @@
         <v>29</v>
       </c>
       <c r="AL6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM6" t="n">
         <v>29</v>
@@ -1607,7 +1607,7 @@
         <v>5</v>
       </c>
       <c r="AY6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ6" t="n">
         <v>23</v>
@@ -1666,43 +1666,43 @@
         <v>4.5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K7" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L7" t="n">
         <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P7" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R7" t="n">
-        <v>1.82</v>
+        <v>1.68</v>
       </c>
       <c r="S7" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T7" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U7" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="V7" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W7" t="n">
         <v>6.5</v>
@@ -1723,10 +1723,10 @@
         <v>29</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE7" t="n">
         <v>17</v>
@@ -1741,7 +1741,7 @@
         <v>11</v>
       </c>
       <c r="AI7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ7" t="n">
         <v>15</v>
@@ -1774,7 +1774,7 @@
         <v>151</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU7" t="n">
         <v>8.5</v>
@@ -1798,7 +1798,7 @@
         <v>81</v>
       </c>
       <c r="BB7" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC7" t="n">
         <v>251</v>
@@ -1839,28 +1839,28 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="H8" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L8" t="n">
         <v>7</v>
       </c>
-      <c r="J8" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L8" t="n">
-        <v>6.5</v>
-      </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O8" t="n">
         <v>1.22</v>
@@ -1881,22 +1881,22 @@
         <v>3.25</v>
       </c>
       <c r="U8" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W8" t="n">
         <v>7</v>
       </c>
       <c r="X8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y8" t="n">
         <v>8.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA8" t="n">
         <v>12</v>
@@ -1914,16 +1914,16 @@
         <v>21</v>
       </c>
       <c r="AF8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG8" t="n">
         <v>351</v>
       </c>
       <c r="AH8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ8" t="n">
         <v>21</v>
@@ -1941,7 +1941,7 @@
         <v>3.4</v>
       </c>
       <c r="AO8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AP8" t="n">
         <v>17</v>
@@ -1971,7 +1971,7 @@
         <v>8.5</v>
       </c>
       <c r="AY8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ8" t="n">
         <v>41</v>
@@ -1983,7 +1983,7 @@
         <v>151</v>
       </c>
       <c r="BC8" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BD8" t="n">
         <v>151</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>naHJ2yf2</t>
+          <t>842EOIGL</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2012,169 +2012,169 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Betis</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Atl. Madrid</t>
         </is>
       </c>
       <c r="G9" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K9" t="n">
         <v>2.1</v>
       </c>
-      <c r="H9" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N9" t="n">
+        <v>10</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U9" t="n">
         <v>1.8</v>
       </c>
-      <c r="L9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N9" t="n">
-        <v>5</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.63</v>
-      </c>
       <c r="V9" t="n">
-        <v>1.44</v>
+        <v>1.95</v>
       </c>
       <c r="W9" t="n">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="X9" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="Y9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z9" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AA9" t="n">
         <v>26</v>
       </c>
       <c r="AB9" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AC9" t="n">
-        <v>4.75</v>
+        <v>9.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AF9" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>501</v>
+        <v>251</v>
       </c>
       <c r="AH9" t="n">
         <v>7.5</v>
       </c>
       <c r="AI9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL9" t="n">
         <v>19</v>
       </c>
-      <c r="AJ9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>51</v>
-      </c>
       <c r="AM9" t="n">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="AO9" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AP9" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AQ9" t="n">
         <v>51</v>
       </c>
       <c r="AR9" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS9" t="n">
-        <v>451</v>
+        <v>201</v>
       </c>
       <c r="AT9" t="n">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="AU9" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AV9" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AW9" t="n">
         <v>126</v>
       </c>
       <c r="AX9" t="n">
-        <v>6</v>
+        <v>4.33</v>
       </c>
       <c r="AY9" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="AZ9" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA9" t="n">
         <v>41</v>
       </c>
-      <c r="BA9" t="n">
-        <v>126</v>
-      </c>
       <c r="BB9" t="n">
-        <v>201</v>
+        <v>51</v>
       </c>
       <c r="BC9" t="n">
-        <v>501</v>
+        <v>151</v>
       </c>
       <c r="BD9" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>zwTzMZ1C</t>
+          <t>rsqBW6tK</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,170 +2184,170 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>AUSTRIA - BUNDESLIGA</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>LASK</t>
+          <t>Platense</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Argentinos Jrs</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="H10" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J10" t="n">
         <v>3.6</v>
       </c>
-      <c r="I10" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.25</v>
-      </c>
       <c r="K10" t="n">
-        <v>2.25</v>
+        <v>1.69</v>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>4.33</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>1.17</v>
       </c>
       <c r="N10" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.22</v>
+        <v>1.73</v>
       </c>
       <c r="P10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.73</v>
+        <v>3.5</v>
       </c>
       <c r="R10" t="n">
-        <v>2.08</v>
+        <v>1.3</v>
       </c>
       <c r="S10" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="T10" t="n">
-        <v>3.25</v>
+        <v>2.03</v>
       </c>
       <c r="U10" t="n">
-        <v>1.62</v>
+        <v>2.63</v>
       </c>
       <c r="V10" t="n">
-        <v>2.2</v>
+        <v>1.44</v>
       </c>
       <c r="W10" t="n">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="X10" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Y10" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Z10" t="n">
         <v>29</v>
       </c>
       <c r="AA10" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AB10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE10" t="n">
         <v>26</v>
       </c>
-      <c r="AC10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>12</v>
-      </c>
       <c r="AF10" t="n">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="AG10" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH10" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AI10" t="n">
         <v>13</v>
       </c>
       <c r="AJ10" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AK10" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AL10" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AM10" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AN10" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="AO10" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AP10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>501</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY10" t="n">
         <v>21</v>
       </c>
-      <c r="AQ10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV10" t="n">
+      <c r="AZ10" t="n">
         <v>41</v>
       </c>
-      <c r="AW10" t="n">
-        <v>451</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>21</v>
-      </c>
       <c r="BA10" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BB10" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BC10" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD10" t="n">
         <v>126</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AXfDPs9b</t>
+          <t>zwTzMZ1C</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,134 +2366,134 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>BELGIUM - JUPILER PRO LEAGUE</t>
+          <t>AUSTRIA - BUNDESLIGA</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Antwerp</t>
+          <t>LASK</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>St. Liege</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.8</v>
+        <v>2.63</v>
       </c>
       <c r="H11" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="J11" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="K11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N11" t="n">
+        <v>13</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V11" t="n">
         <v>2.2</v>
       </c>
-      <c r="L11" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N11" t="n">
+      <c r="W11" t="n">
         <v>11</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T11" t="n">
-        <v>3</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W11" t="n">
-        <v>7.5</v>
-      </c>
       <c r="X11" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Z11" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AA11" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AB11" t="n">
         <v>26</v>
       </c>
       <c r="AC11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AD11" t="n">
         <v>7</v>
       </c>
       <c r="AE11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO11" t="n">
         <v>15</v>
       </c>
-      <c r="AF11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI11" t="n">
+      <c r="AP11" t="n">
         <v>21</v>
       </c>
-      <c r="AJ11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK11" t="n">
+      <c r="AQ11" t="n">
         <v>41</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>29</v>
       </c>
       <c r="AR11" t="n">
         <v>51</v>
@@ -2502,43 +2502,43 @@
         <v>126</v>
       </c>
       <c r="AT11" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW11" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AX11" t="n">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="AY11" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AZ11" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="BA11" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="BB11" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BC11" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="BD11" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>W6ydLoUP</t>
+          <t>xKd5R3vn</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,134 +2548,134 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
+          <t>BELGIUM - JUPILER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>RFC Liege</t>
+          <t>Gent</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Club Brugge KV U23</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J12" t="n">
         <v>3.4</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L12" t="n">
         <v>2.75</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N12" t="n">
+        <v>15</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="R12" t="n">
         <v>2.25</v>
       </c>
-      <c r="L12" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N12" t="n">
+      <c r="S12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W12" t="n">
+        <v>13</v>
+      </c>
+      <c r="X12" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y12" t="n">
         <v>11</v>
       </c>
-      <c r="O12" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T12" t="n">
-        <v>3</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W12" t="n">
+      <c r="Z12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>9</v>
       </c>
-      <c r="X12" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA12" t="n">
+      <c r="AK12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL12" t="n">
         <v>17</v>
       </c>
-      <c r="AB12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>26</v>
-      </c>
       <c r="AM12" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="AO12" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AP12" t="n">
         <v>21</v>
       </c>
       <c r="AQ12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR12" t="n">
         <v>51</v>
@@ -2684,43 +2684,43 @@
         <v>126</v>
       </c>
       <c r="AT12" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="AU12" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW12" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AX12" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="AY12" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AZ12" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="BA12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB12" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC12" t="n">
+        <v>101</v>
+      </c>
+      <c r="BD12" t="n">
         <v>151</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>hCvDGGi3</t>
+          <t>nFiRhDad</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,7 +2730,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2740,136 +2740,136 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>D. Zagreb</t>
+          <t>Gorica</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Osijek</t>
+          <t>Istra 1961</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.3</v>
+        <v>2.55</v>
       </c>
       <c r="H13" t="n">
+        <v>3</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N13" t="n">
+        <v>8</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X13" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN13" t="n">
         <v>4.5</v>
       </c>
-      <c r="I13" t="n">
-        <v>8</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="AO13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT13" t="n">
         <v>2.5</v>
       </c>
-      <c r="L13" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N13" t="n">
-        <v>15</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P13" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R13" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T13" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W13" t="n">
-        <v>7</v>
-      </c>
-      <c r="X13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y13" t="n">
+      <c r="AU13" t="n">
         <v>8.5</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>9.5</v>
       </c>
       <c r="AV13" t="n">
         <v>51</v>
@@ -2878,22 +2878,22 @@
         <v>81</v>
       </c>
       <c r="AX13" t="n">
-        <v>9</v>
+        <v>4.75</v>
       </c>
       <c r="AY13" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="AZ13" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="BA13" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="BB13" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="BC13" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="BD13" t="n">
         <v>81</v>
@@ -2902,7 +2902,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jwZiW7Aj</t>
+          <t>vXxMK1qA</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,98 +2912,98 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>DENMARK - SUPERLIGA</t>
+          <t>CZECH REPUBLIC - CHANCE LIGA</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Viborg</t>
+          <t>Plzen</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Sonderjyske</t>
+          <t>Sparta Prague</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.73</v>
+        <v>2.55</v>
       </c>
       <c r="H14" t="n">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="I14" t="n">
-        <v>4.33</v>
+        <v>2.55</v>
       </c>
       <c r="J14" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="K14" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="L14" t="n">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M14" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="P14" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.62</v>
+        <v>1.88</v>
       </c>
       <c r="R14" t="n">
-        <v>2.25</v>
+        <v>1.98</v>
       </c>
       <c r="S14" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="T14" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="U14" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V14" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X14" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Z14" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AA14" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AB14" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AC14" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AD14" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF14" t="n">
         <v>41</v>
@@ -3012,73 +3012,73 @@
         <v>151</v>
       </c>
       <c r="AH14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO14" t="n">
         <v>15</v>
       </c>
-      <c r="AI14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK14" t="n">
+      <c r="AP14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ14" t="n">
         <v>41</v>
       </c>
-      <c r="AL14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>26</v>
-      </c>
       <c r="AR14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS14" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AT14" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="AU14" t="n">
         <v>7.5</v>
       </c>
       <c r="AV14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA14" t="n">
         <v>41</v>
       </c>
-      <c r="AW14" t="n">
-        <v>451</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>67</v>
-      </c>
       <c r="BB14" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BC14" t="n">
         <v>151</v>
       </c>
       <c r="BD14" t="n">
-        <v>176</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15">
@@ -3116,52 +3116,52 @@
         <v>2.1</v>
       </c>
       <c r="H15" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I15" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J15" t="n">
         <v>2.75</v>
       </c>
       <c r="K15" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L15" t="n">
         <v>3.75</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="P15" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="R15" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T15" t="n">
+        <v>3</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V15" t="n">
         <v>2.1</v>
       </c>
-      <c r="S15" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T15" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V15" t="n">
-        <v>2.2</v>
-      </c>
       <c r="W15" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="X15" t="n">
         <v>11</v>
@@ -3173,19 +3173,19 @@
         <v>19</v>
       </c>
       <c r="AA15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB15" t="n">
         <v>23</v>
       </c>
       <c r="AC15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD15" t="n">
         <v>7</v>
       </c>
       <c r="AE15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF15" t="n">
         <v>41</v>
@@ -3194,10 +3194,10 @@
         <v>151</v>
       </c>
       <c r="AH15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ15" t="n">
         <v>12</v>
@@ -3206,7 +3206,7 @@
         <v>34</v>
       </c>
       <c r="AL15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM15" t="n">
         <v>29</v>
@@ -3218,7 +3218,7 @@
         <v>11</v>
       </c>
       <c r="AP15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ15" t="n">
         <v>41</v>
@@ -3230,16 +3230,16 @@
         <v>126</v>
       </c>
       <c r="AT15" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU15" t="n">
         <v>7.5</v>
       </c>
       <c r="AV15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW15" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AX15" t="n">
         <v>5.5</v>
@@ -3266,7 +3266,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0SpNLFR1</t>
+          <t>MXVHsclL</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,7 +3276,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -3286,160 +3286,160 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Macara</t>
+          <t>EL Nacional</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Cumbaya</t>
+          <t>Orense</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.53</v>
+        <v>1.95</v>
       </c>
       <c r="H16" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="I16" t="n">
-        <v>6.5</v>
+        <v>4.33</v>
       </c>
       <c r="J16" t="n">
-        <v>1.83</v>
+        <v>2.63</v>
       </c>
       <c r="K16" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N16" t="n">
+        <v>8</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q16" t="n">
         <v>2.25</v>
       </c>
-      <c r="L16" t="n">
-        <v>10</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N16" t="n">
-        <v>10</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.05</v>
-      </c>
       <c r="R16" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="S16" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T16" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U16" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V16" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W16" t="n">
         <v>6</v>
       </c>
       <c r="X16" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z16" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AA16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB16" t="n">
         <v>34</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AE16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI16" t="n">
         <v>21</v>
       </c>
-      <c r="AF16" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH16" t="n">
+      <c r="AJ16" t="n">
         <v>15</v>
       </c>
-      <c r="AI16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>21</v>
-      </c>
       <c r="AK16" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AL16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN16" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="AO16" t="n">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="AP16" t="n">
         <v>23</v>
       </c>
       <c r="AQ16" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AR16" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS16" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU16" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AV16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA16" t="n">
         <v>81</v>
       </c>
-      <c r="AW16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA16" t="n">
+      <c r="BB16" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC16" t="n">
         <v>301</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>351</v>
       </c>
       <c r="BD16" t="n">
         <v>51</v>
@@ -3448,7 +3448,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>IoKn3urB</t>
+          <t>KxiX0GR6</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,41 +3458,41 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>HUNGARY - OTP BANK LIGA</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Gyor</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Ferencvaros</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="H17" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="I17" t="n">
-        <v>2.45</v>
+        <v>1.57</v>
       </c>
       <c r="J17" t="n">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="K17" t="n">
         <v>2.3</v>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="M17" t="n">
         <v>1.04</v>
@@ -3501,136 +3501,136 @@
         <v>13</v>
       </c>
       <c r="O17" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P17" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="R17" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="S17" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T17" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U17" t="n">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="V17" t="n">
-        <v>2.38</v>
+        <v>1.91</v>
       </c>
       <c r="W17" t="n">
+        <v>15</v>
+      </c>
+      <c r="X17" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC17" t="n">
         <v>12</v>
       </c>
-      <c r="X17" t="n">
+      <c r="AD17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE17" t="n">
         <v>17</v>
       </c>
-      <c r="Y17" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC17" t="n">
+      <c r="AF17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL17" t="n">
         <v>13</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>17</v>
       </c>
       <c r="AM17" t="n">
         <v>23</v>
       </c>
       <c r="AN17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AO17" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AP17" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AQ17" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AR17" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AS17" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AT17" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW17" t="n">
-        <v>401</v>
+        <v>51</v>
       </c>
       <c r="AX17" t="n">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="AY17" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AZ17" t="n">
         <v>19</v>
       </c>
       <c r="BA17" t="n">
+        <v>23</v>
+      </c>
+      <c r="BB17" t="n">
         <v>41</v>
       </c>
-      <c r="BB17" t="n">
-        <v>51</v>
-      </c>
       <c r="BC17" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BD17" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4CHwo3Fj</t>
+          <t>vuPiNori</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3640,170 +3640,170 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>GERMANY - 3. LIGA</t>
+          <t>IRELAND - PREMIER DIVISION</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Stuttgart II</t>
+          <t>Dundalk</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Aue</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.45</v>
+        <v>7.5</v>
       </c>
       <c r="H18" t="n">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="I18" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J18" t="n">
+        <v>8</v>
+      </c>
+      <c r="K18" t="n">
         <v>2.6</v>
       </c>
-      <c r="J18" t="n">
-        <v>3</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2.3</v>
-      </c>
       <c r="L18" t="n">
-        <v>3.2</v>
+        <v>1.77</v>
       </c>
       <c r="M18" t="n">
         <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O18" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P18" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="R18" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="S18" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="T18" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U18" t="n">
-        <v>1.57</v>
+        <v>1.95</v>
       </c>
       <c r="V18" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="W18" t="n">
+        <v>19</v>
+      </c>
+      <c r="X18" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>101</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD18" t="n">
         <v>11</v>
       </c>
-      <c r="X18" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z18" t="n">
+      <c r="AE18" t="n">
         <v>23</v>
       </c>
-      <c r="AA18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>12</v>
-      </c>
       <c r="AF18" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AO18" t="n">
         <v>41</v>
       </c>
-      <c r="AG18" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>13</v>
-      </c>
       <c r="AP18" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AQ18" t="n">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="AR18" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="AS18" t="n">
-        <v>126</v>
+        <v>301</v>
       </c>
       <c r="AT18" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="AU18" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AV18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW18" t="n">
         <v>81</v>
       </c>
       <c r="AX18" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="AY18" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AZ18" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="BA18" t="n">
+        <v>17</v>
+      </c>
+      <c r="BB18" t="n">
         <v>41</v>
       </c>
-      <c r="BB18" t="n">
-        <v>51</v>
-      </c>
       <c r="BC18" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BD18" t="n">
         <v>81</v>
@@ -3812,7 +3812,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>KxiX0GR6</t>
+          <t>YRV3Z0Sj</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3822,170 +3822,170 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>HUNGARY - OTP BANK LIGA</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Gyor</t>
+          <t>Leones Negros</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Ferencvaros</t>
+          <t>Celaya</t>
         </is>
       </c>
       <c r="G19" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N19" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V19" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="W19" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="X19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD19" t="n">
         <v>6</v>
       </c>
-      <c r="H19" t="n">
-        <v>4</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="J19" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="K19" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N19" t="n">
-        <v>13</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P19" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R19" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T19" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W19" t="n">
-        <v>17</v>
-      </c>
-      <c r="X19" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AE19" t="n">
-        <v>17</v>
+        <v>12.5</v>
       </c>
       <c r="AF19" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AG19" t="n">
-        <v>251</v>
+        <v>400</v>
       </c>
       <c r="AH19" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AI19" t="n">
-        <v>7.5</v>
+        <v>17.5</v>
       </c>
       <c r="AJ19" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AK19" t="n">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="AL19" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="AM19" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="AN19" t="n">
-        <v>7</v>
+        <v>4.15</v>
       </c>
       <c r="AO19" t="n">
-        <v>29</v>
+        <v>11.75</v>
       </c>
       <c r="AP19" t="n">
-        <v>34</v>
+        <v>18.5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="AR19" t="n">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="AS19" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT19" t="n">
-        <v>3.25</v>
+        <v>2.47</v>
       </c>
       <c r="AU19" t="n">
-        <v>8.5</v>
+        <v>6.6</v>
       </c>
       <c r="AV19" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AW19" t="n">
         <v>51</v>
       </c>
       <c r="AX19" t="n">
-        <v>3.6</v>
+        <v>5.1</v>
       </c>
       <c r="AY19" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AZ19" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="BA19" t="n">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="BB19" t="n">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="BC19" t="n">
-        <v>126</v>
+        <v>300</v>
       </c>
       <c r="BD19" t="n">
         <v>51</v>
@@ -4023,19 +4023,19 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="H20" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="J20" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K20" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L20" t="n">
         <v>3.75</v>
@@ -4059,10 +4059,10 @@
         <v>1.5</v>
       </c>
       <c r="S20" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T20" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U20" t="n">
         <v>2.1</v>
@@ -4077,13 +4077,13 @@
         <v>11</v>
       </c>
       <c r="Y20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB20" t="n">
         <v>41</v>
@@ -4095,7 +4095,7 @@
         <v>6</v>
       </c>
       <c r="AE20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF20" t="n">
         <v>67</v>
@@ -4104,7 +4104,7 @@
         <v>101</v>
       </c>
       <c r="AH20" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI20" t="n">
         <v>13</v>
@@ -4113,7 +4113,7 @@
         <v>12</v>
       </c>
       <c r="AK20" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL20" t="n">
         <v>29</v>
@@ -4122,7 +4122,7 @@
         <v>41</v>
       </c>
       <c r="AN20" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO20" t="n">
         <v>15</v>
@@ -4137,10 +4137,10 @@
         <v>81</v>
       </c>
       <c r="AS20" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU20" t="n">
         <v>9</v>
@@ -4152,16 +4152,16 @@
         <v>51</v>
       </c>
       <c r="AX20" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AY20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ20" t="n">
         <v>34</v>
       </c>
       <c r="BA20" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB20" t="n">
         <v>101</v>
@@ -4176,7 +4176,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>KMdcyMWp</t>
+          <t>2DpwtgkC</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4186,170 +4186,170 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>NORWAY - ELITESERIEN</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Maastricht</t>
+          <t>HamKam</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Helmond</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.8</v>
+        <v>1.65</v>
       </c>
       <c r="H21" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I21" t="n">
-        <v>2.25</v>
+        <v>5.5</v>
       </c>
       <c r="J21" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="K21" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L21" t="n">
-        <v>2.88</v>
+        <v>5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O21" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="P21" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="R21" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="S21" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T21" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U21" t="n">
-        <v>1.53</v>
+        <v>1.75</v>
       </c>
       <c r="V21" t="n">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="W21" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="X21" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="Y21" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="AA21" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AB21" t="n">
         <v>23</v>
       </c>
       <c r="AC21" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AD21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF21" t="n">
         <v>41</v>
       </c>
       <c r="AG21" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS21" t="n">
         <v>126</v>
       </c>
-      <c r="AH21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS21" t="n">
+      <c r="AT21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB21" t="n">
         <v>101</v>
       </c>
-      <c r="AT21" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>351</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>19</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>51</v>
-      </c>
       <c r="BC21" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="BD21" t="n">
         <v>151</v>
@@ -4358,7 +4358,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2DpwtgkC</t>
+          <t>WnksuD4I</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4378,37 +4378,37 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>HamKam</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="H22" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I22" t="n">
-        <v>5</v>
+        <v>1.75</v>
       </c>
       <c r="J22" t="n">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="K22" t="n">
         <v>2.3</v>
       </c>
       <c r="L22" t="n">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="M22" t="n">
         <v>1.04</v>
       </c>
       <c r="N22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O22" t="n">
         <v>1.22</v>
@@ -4417,10 +4417,10 @@
         <v>4</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R22" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S22" t="n">
         <v>1.33</v>
@@ -4435,25 +4435,25 @@
         <v>2.05</v>
       </c>
       <c r="W22" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="X22" t="n">
-        <v>8.5</v>
+        <v>23</v>
       </c>
       <c r="Y22" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="Z22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC22" t="n">
         <v>13</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>12</v>
       </c>
       <c r="AD22" t="n">
         <v>7</v>
@@ -4465,49 +4465,49 @@
         <v>41</v>
       </c>
       <c r="AG22" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK22" t="n">
         <v>15</v>
       </c>
-      <c r="AI22" t="n">
+      <c r="AL22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP22" t="n">
         <v>26</v>
       </c>
-      <c r="AJ22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>19</v>
-      </c>
       <c r="AQ22" t="n">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="AR22" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AS22" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT22" t="n">
         <v>3.25</v>
       </c>
       <c r="AU22" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV22" t="n">
         <v>51</v>
@@ -4516,22 +4516,22 @@
         <v>501</v>
       </c>
       <c r="AX22" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="AY22" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="AZ22" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA22" t="n">
         <v>29</v>
       </c>
-      <c r="BA22" t="n">
-        <v>81</v>
-      </c>
       <c r="BB22" t="n">
+        <v>41</v>
+      </c>
+      <c r="BC22" t="n">
         <v>101</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>201</v>
       </c>
       <c r="BD22" t="n">
         <v>151</v>
@@ -4540,7 +4540,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>WnksuD4I</t>
+          <t>AwlovXJO</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4560,136 +4560,136 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Lillestrom</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="H23" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I23" t="n">
-        <v>1.75</v>
+        <v>5.5</v>
       </c>
       <c r="J23" t="n">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="K23" t="n">
         <v>2.3</v>
       </c>
       <c r="L23" t="n">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N23" t="n">
+        <v>11</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T23" t="n">
+        <v>3</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W23" t="n">
+        <v>7</v>
+      </c>
+      <c r="X23" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA23" t="n">
         <v>13</v>
       </c>
-      <c r="O23" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P23" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R23" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T23" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V23" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="W23" t="n">
+      <c r="AB23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH23" t="n">
         <v>15</v>
       </c>
-      <c r="X23" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF23" t="n">
+      <c r="AI23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL23" t="n">
         <v>41</v>
       </c>
-      <c r="AG23" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH23" t="n">
+      <c r="AM23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU23" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>7.5</v>
       </c>
       <c r="AV23" t="n">
         <v>51</v>
@@ -4698,22 +4698,22 @@
         <v>501</v>
       </c>
       <c r="AX23" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AY23" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="AZ23" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="BA23" t="n">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="BB23" t="n">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="BC23" t="n">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="BD23" t="n">
         <v>151</v>
@@ -4722,7 +4722,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>AwlovXJO</t>
+          <t>CrST2GdP</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4742,31 +4742,31 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Lillestrom</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>KFUM Oslo</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="I24" t="n">
-        <v>5.5</v>
+        <v>3.7</v>
       </c>
       <c r="J24" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K24" t="n">
         <v>2.2</v>
       </c>
-      <c r="K24" t="n">
-        <v>2.3</v>
-      </c>
       <c r="L24" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M24" t="n">
         <v>1.05</v>
@@ -4775,103 +4775,103 @@
         <v>11</v>
       </c>
       <c r="O24" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P24" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q24" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R24" t="n">
         <v>1.88</v>
       </c>
-      <c r="R24" t="n">
-        <v>1.98</v>
-      </c>
       <c r="S24" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T24" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U24" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V24" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W24" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X24" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z24" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AA24" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AB24" t="n">
         <v>26</v>
       </c>
       <c r="AC24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH24" t="n">
         <v>11</v>
       </c>
-      <c r="AD24" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>15</v>
-      </c>
       <c r="AI24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL24" t="n">
         <v>29</v>
       </c>
-      <c r="AJ24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL24" t="n">
+      <c r="AM24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ24" t="n">
         <v>41</v>
       </c>
-      <c r="AM24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO24" t="n">
+      <c r="AR24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU24" t="n">
         <v>8</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>8.5</v>
       </c>
       <c r="AV24" t="n">
         <v>51</v>
@@ -4880,22 +4880,22 @@
         <v>501</v>
       </c>
       <c r="AX24" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="AY24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ24" t="n">
         <v>29</v>
       </c>
-      <c r="AZ24" t="n">
-        <v>34</v>
-      </c>
       <c r="BA24" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BB24" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BC24" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD24" t="n">
         <v>151</v>
@@ -4904,7 +4904,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CrST2GdP</t>
+          <t>nyJebz5t</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4924,121 +4924,121 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>KFUM Oslo</t>
+          <t>Viking</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="H25" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I25" t="n">
-        <v>3.7</v>
+        <v>2.3</v>
       </c>
       <c r="J25" t="n">
-        <v>2.63</v>
+        <v>3.1</v>
       </c>
       <c r="K25" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L25" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N25" t="n">
+        <v>19</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P25" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T25" t="n">
         <v>4</v>
       </c>
-      <c r="M25" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N25" t="n">
+      <c r="U25" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W25" t="n">
+        <v>17</v>
+      </c>
+      <c r="X25" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y25" t="n">
         <v>11</v>
       </c>
-      <c r="O25" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P25" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T25" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W25" t="n">
+      <c r="Z25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD25" t="n">
         <v>7.5</v>
       </c>
-      <c r="X25" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z25" t="n">
+      <c r="AE25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>67</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP25" t="n">
         <v>17</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>21</v>
       </c>
       <c r="AQ25" t="n">
         <v>41</v>
@@ -5047,46 +5047,46 @@
         <v>51</v>
       </c>
       <c r="AS25" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="AU25" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AV25" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AW25" t="n">
-        <v>501</v>
+        <v>251</v>
       </c>
       <c r="AX25" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AY25" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AZ25" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="BA25" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="BB25" t="n">
+        <v>41</v>
+      </c>
+      <c r="BC25" t="n">
         <v>81</v>
       </c>
-      <c r="BC25" t="n">
-        <v>201</v>
-      </c>
       <c r="BD25" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>nyJebz5t</t>
+          <t>OMoZtZZ5</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5096,7 +5096,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -5106,169 +5106,169 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Viking</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.8</v>
+        <v>1.51</v>
       </c>
       <c r="H26" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="I26" t="n">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="J26" t="n">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="K26" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L26" t="n">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="M26" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N26" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="O26" t="n">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="P26" t="n">
-        <v>6</v>
+        <v>4.33</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.44</v>
+        <v>1.65</v>
       </c>
       <c r="R26" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="S26" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="T26" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="U26" t="n">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="V26" t="n">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="W26" t="n">
-        <v>17</v>
+        <v>8.5</v>
       </c>
       <c r="X26" t="n">
-        <v>19</v>
+        <v>8.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Z26" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="AA26" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AB26" t="n">
         <v>21</v>
       </c>
       <c r="AC26" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AD26" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AE26" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AF26" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AG26" t="n">
-        <v>67</v>
+        <v>201</v>
       </c>
       <c r="AH26" t="n">
         <v>15</v>
       </c>
       <c r="AI26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ26" t="n">
         <v>15</v>
       </c>
-      <c r="AJ26" t="n">
-        <v>10</v>
-      </c>
       <c r="AK26" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AL26" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AM26" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AN26" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="AO26" t="n">
-        <v>13</v>
+        <v>7.5</v>
       </c>
       <c r="AP26" t="n">
         <v>17</v>
       </c>
       <c r="AQ26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR26" t="n">
         <v>41</v>
       </c>
-      <c r="AR26" t="n">
-        <v>51</v>
-      </c>
       <c r="AS26" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA26" t="n">
         <v>81</v>
       </c>
-      <c r="AT26" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>34</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>251</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>15</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>34</v>
-      </c>
       <c r="BB26" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="BC26" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BD26" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>296RqHw1</t>
+          <t>WMN2M3ke</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5278,110 +5278,110 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Widzew Lodz</t>
+          <t>Sport Boys</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Gornik Zabrze</t>
+          <t>Cajamarca</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H27" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I27" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J27" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="K27" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L27" t="n">
         <v>3.6</v>
       </c>
       <c r="M27" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N27" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O27" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="P27" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="R27" t="n">
-        <v>2.08</v>
+        <v>1.7</v>
       </c>
       <c r="S27" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="T27" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="U27" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="V27" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="W27" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X27" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y27" t="n">
         <v>9.5</v>
-      </c>
-      <c r="X27" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>9</v>
       </c>
       <c r="Z27" t="n">
         <v>21</v>
       </c>
       <c r="AA27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB27" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AC27" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AD27" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE27" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AF27" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG27" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AH27" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ27" t="n">
         <v>12</v>
@@ -5390,67 +5390,67 @@
         <v>34</v>
       </c>
       <c r="AL27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM27" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN27" t="n">
         <v>4.33</v>
       </c>
       <c r="AO27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP27" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AQ27" t="n">
         <v>41</v>
       </c>
       <c r="AR27" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS27" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW27" t="n">
         <v>126</v>
       </c>
-      <c r="AT27" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>451</v>
-      </c>
       <c r="AX27" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AY27" t="n">
         <v>17</v>
       </c>
       <c r="AZ27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA27" t="n">
         <v>51</v>
       </c>
       <c r="BB27" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC27" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="BD27" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SUWoSByJ</t>
+          <t>Kr4croCE</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5460,179 +5460,179 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>S. Wola</t>
+          <t>Union Comercio</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Polonia Warszawa</t>
+          <t>Sporting Cristal</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.7</v>
+        <v>13</v>
       </c>
       <c r="H28" t="n">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="I28" t="n">
-        <v>2.3</v>
+        <v>1.13</v>
       </c>
       <c r="J28" t="n">
-        <v>3.4</v>
+        <v>12</v>
       </c>
       <c r="K28" t="n">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="L28" t="n">
-        <v>3</v>
+        <v>1.44</v>
       </c>
       <c r="M28" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N28" t="n">
+        <v>19</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P28" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="T28" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W28" t="n">
+        <v>34</v>
+      </c>
+      <c r="X28" t="n">
+        <v>67</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>201</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>81</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>67</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AL28" t="n">
         <v>11</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P28" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T28" t="n">
-        <v>3</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V28" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W28" t="n">
-        <v>10</v>
-      </c>
-      <c r="X28" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>19</v>
       </c>
       <c r="AM28" t="n">
         <v>26</v>
       </c>
       <c r="AN28" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AO28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>301</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>251</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AZ28" t="n">
         <v>15</v>
       </c>
-      <c r="AP28" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS28" t="n">
+      <c r="BA28" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>26</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD28" t="n">
         <v>151</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA28" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB28" t="n">
-        <v>51</v>
-      </c>
-      <c r="BC28" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD28" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Y7sM2Knl</t>
+          <t>296RqHw1</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5642,179 +5642,179 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Widzew Lodz</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>SC Farense</t>
+          <t>Gornik Zabrze</t>
         </is>
       </c>
       <c r="G29" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L29" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N29" t="n">
+        <v>13</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S29" t="n">
         <v>1.33</v>
       </c>
-      <c r="H29" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="I29" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K29" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L29" t="n">
-        <v>8</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N29" t="n">
-        <v>15</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P29" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R29" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1.29</v>
-      </c>
       <c r="T29" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U29" t="n">
-        <v>2</v>
+        <v>1.58</v>
       </c>
       <c r="V29" t="n">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="W29" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="X29" t="n">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="Y29" t="n">
         <v>9</v>
       </c>
       <c r="Z29" t="n">
-        <v>8.5</v>
+        <v>19</v>
       </c>
       <c r="AA29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO29" t="n">
         <v>11</v>
       </c>
-      <c r="AB29" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>6</v>
-      </c>
       <c r="AP29" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ29" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AR29" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS29" t="n">
         <v>126</v>
       </c>
       <c r="AT29" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="AU29" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV29" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW29" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AX29" t="n">
-        <v>9.5</v>
+        <v>5.5</v>
       </c>
       <c r="AY29" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="AZ29" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="BA29" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC29" t="n">
         <v>151</v>
       </c>
-      <c r="BB29" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC29" t="n">
-        <v>301</v>
-      </c>
       <c r="BD29" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>OSCQYYJ8</t>
+          <t>SUWoSByJ</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -5824,146 +5824,146 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Leixoes</t>
+          <t>S. Wola</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>FC Porto B</t>
+          <t>Polonia Warszawa</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="H30" t="n">
         <v>3.4</v>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="J30" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="K30" t="n">
         <v>2.2</v>
       </c>
       <c r="L30" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="M30" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N30" t="n">
+        <v>12</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T30" t="n">
+        <v>3</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V30" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W30" t="n">
+        <v>10</v>
+      </c>
+      <c r="X30" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y30" t="n">
         <v>11</v>
       </c>
-      <c r="O30" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P30" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S30" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T30" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V30" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W30" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X30" t="n">
+      <c r="Z30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH30" t="n">
         <v>9</v>
       </c>
-      <c r="Y30" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z30" t="n">
+      <c r="AI30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO30" t="n">
         <v>15</v>
       </c>
-      <c r="AA30" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>10</v>
-      </c>
       <c r="AP30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ30" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AR30" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS30" t="n">
         <v>151</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU30" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV30" t="n">
         <v>51</v>
@@ -5972,22 +5972,22 @@
         <v>81</v>
       </c>
       <c r="AX30" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="AY30" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AZ30" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="BA30" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="BB30" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BC30" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="BD30" t="n">
         <v>81</v>
@@ -5996,7 +5996,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>C0eswPnT</t>
+          <t>UgROMuvK</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6006,179 +6006,179 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>QATAR - QSL</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Al Arabi</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Qatar SC</t>
+          <t>Rio Ave</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.75</v>
+        <v>1.17</v>
       </c>
       <c r="H31" t="n">
-        <v>4.15</v>
+        <v>7.5</v>
       </c>
       <c r="I31" t="n">
-        <v>3.7</v>
+        <v>13</v>
       </c>
       <c r="J31" t="n">
-        <v>2.25</v>
+        <v>1.53</v>
       </c>
       <c r="K31" t="n">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="L31" t="n">
-        <v>3.9</v>
+        <v>12</v>
       </c>
       <c r="M31" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N31" t="n">
-        <v>9.5</v>
+        <v>21</v>
       </c>
       <c r="O31" t="n">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="P31" t="n">
-        <v>4.65</v>
+        <v>6</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="R31" t="n">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
       <c r="S31" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="T31" t="n">
-        <v>3.45</v>
+        <v>4</v>
       </c>
       <c r="U31" t="n">
-        <v>1.52</v>
+        <v>2.2</v>
       </c>
       <c r="V31" t="n">
-        <v>2.37</v>
+        <v>1.58</v>
       </c>
       <c r="W31" t="n">
-        <v>10.75</v>
+        <v>9</v>
       </c>
       <c r="X31" t="n">
-        <v>10.75</v>
+        <v>6.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Z31" t="n">
-        <v>15.5</v>
+        <v>7</v>
       </c>
       <c r="AA31" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AB31" t="n">
-        <v>18.5</v>
+        <v>34</v>
       </c>
       <c r="AC31" t="n">
-        <v>9.5</v>
+        <v>19</v>
       </c>
       <c r="AD31" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AE31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>67</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>201</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>101</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>81</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX31" t="n">
         <v>13</v>
       </c>
-      <c r="AF31" t="n">
-        <v>37</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>200</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>24</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>28</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>14</v>
-      </c>
-      <c r="AQ31" t="n">
-        <v>25</v>
-      </c>
-      <c r="AR31" t="n">
-        <v>45</v>
-      </c>
-      <c r="AS31" t="n">
-        <v>150</v>
-      </c>
-      <c r="AT31" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AU31" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV31" t="n">
-        <v>45</v>
-      </c>
-      <c r="AW31" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>6</v>
-      </c>
       <c r="AY31" t="n">
-        <v>18.5</v>
+        <v>51</v>
       </c>
       <c r="AZ31" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="BA31" t="n">
-        <v>80</v>
+        <v>351</v>
       </c>
       <c r="BB31" t="n">
-        <v>100</v>
+        <v>301</v>
       </c>
       <c r="BC31" t="n">
-        <v>200</v>
+        <v>401</v>
       </c>
       <c r="BD31" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>vZszuoIG</t>
+          <t>C0eswPnT</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6198,160 +6198,160 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Al-Duhail</t>
+          <t>Al Arabi</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Al-Gharafa</t>
+          <t>Qatar SC</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.5</v>
+        <v>1.78</v>
       </c>
       <c r="H32" t="n">
-        <v>4.45</v>
+        <v>4.2</v>
       </c>
       <c r="I32" t="n">
-        <v>5.2</v>
+        <v>3.6</v>
       </c>
       <c r="J32" t="n">
-        <v>1.93</v>
+        <v>2.22</v>
       </c>
       <c r="K32" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="L32" t="n">
-        <v>4.9</v>
+        <v>3.75</v>
       </c>
       <c r="M32" t="n">
         <v>1.02</v>
       </c>
       <c r="N32" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="O32" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="P32" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="R32" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="S32" t="n">
         <v>1.23</v>
       </c>
       <c r="T32" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="U32" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="V32" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="W32" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="X32" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y32" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z32" t="n">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AB32" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AC32" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AD32" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AE32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF32" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG32" t="n">
         <v>175</v>
       </c>
       <c r="AH32" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>25</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ32" t="n">
         <v>24</v>
       </c>
-      <c r="AI32" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>100</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP32" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AQ32" t="n">
-        <v>18</v>
-      </c>
       <c r="AR32" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="AS32" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AT32" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="AU32" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AV32" t="n">
         <v>40</v>
       </c>
       <c r="AW32" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AX32" t="n">
-        <v>7.5</v>
+        <v>6.1</v>
       </c>
       <c r="AY32" t="n">
-        <v>27</v>
+        <v>17.5</v>
       </c>
       <c r="AZ32" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="BA32" t="n">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="BB32" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="BC32" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BD32" t="n">
         <v>51</v>
@@ -6360,7 +6360,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>0E90uA5t</t>
+          <t>vZszuoIG</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6375,165 +6375,165 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>SLOVENIA - PRVA LIGA</t>
+          <t>QATAR - QSL</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Radomlje</t>
+          <t>Al-Duhail</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Celje</t>
+          <t>Al-Gharafa</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>4.35</v>
+        <v>1.47</v>
       </c>
       <c r="H33" t="n">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="I33" t="n">
-        <v>1.75</v>
+        <v>5.6</v>
       </c>
       <c r="J33" t="n">
-        <v>4.75</v>
+        <v>1.88</v>
       </c>
       <c r="K33" t="n">
-        <v>2.12</v>
+        <v>2.62</v>
       </c>
       <c r="L33" t="n">
-        <v>2.32</v>
+        <v>5.1</v>
       </c>
       <c r="M33" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="N33" t="n">
-        <v>7.3</v>
+        <v>19</v>
       </c>
       <c r="O33" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="P33" t="n">
-        <v>3.2</v>
+        <v>5.7</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.9</v>
+        <v>1.34</v>
       </c>
       <c r="R33" t="n">
-        <v>1.83</v>
+        <v>3</v>
       </c>
       <c r="S33" t="n">
-        <v>1.42</v>
+        <v>1.22</v>
       </c>
       <c r="T33" t="n">
-        <v>2.67</v>
+        <v>3.85</v>
       </c>
       <c r="U33" t="n">
-        <v>1.83</v>
+        <v>1.45</v>
       </c>
       <c r="V33" t="n">
-        <v>1.87</v>
+        <v>2.55</v>
       </c>
       <c r="W33" t="n">
+        <v>13</v>
+      </c>
+      <c r="X33" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>37</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>175</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>45</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>110</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>45</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AP33" t="n">
         <v>11.75</v>
       </c>
-      <c r="X33" t="n">
+      <c r="AQ33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>30</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>100</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>37</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>450</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>28</v>
+      </c>
+      <c r="AZ33" t="n">
         <v>24</v>
       </c>
-      <c r="Y33" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>70</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>45</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>50</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>14</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>27</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>25</v>
-      </c>
-      <c r="AP33" t="n">
-        <v>32</v>
-      </c>
-      <c r="AQ33" t="n">
+      <c r="BA33" t="n">
         <v>150</v>
       </c>
-      <c r="AR33" t="n">
+      <c r="BB33" t="n">
+        <v>120</v>
+      </c>
+      <c r="BC33" t="n">
         <v>200</v>
-      </c>
-      <c r="AS33" t="n">
-        <v>450</v>
-      </c>
-      <c r="AT33" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="AU33" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AV33" t="n">
-        <v>75</v>
-      </c>
-      <c r="AW33" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX33" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AY33" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AZ33" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="BA33" t="n">
-        <v>30</v>
-      </c>
-      <c r="BB33" t="n">
-        <v>65</v>
-      </c>
-      <c r="BC33" t="n">
-        <v>250</v>
       </c>
       <c r="BD33" t="n">
         <v>51</v>
@@ -6542,7 +6542,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>QT6U34Ik</t>
+          <t>CtPzu3dt</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6552,179 +6552,179 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Dep. La Coruna</t>
+          <t>Napredak</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>TSC</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.45</v>
+        <v>4.4</v>
       </c>
       <c r="H34" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="I34" t="n">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="J34" t="n">
-        <v>3</v>
+        <v>4.65</v>
       </c>
       <c r="K34" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L34" t="n">
-        <v>3.25</v>
+        <v>2.27</v>
       </c>
       <c r="M34" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N34" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="O34" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P34" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="R34" t="n">
         <v>2.05</v>
       </c>
       <c r="S34" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="T34" t="n">
-        <v>3.25</v>
+        <v>2.85</v>
       </c>
       <c r="U34" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="V34" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="W34" t="n">
-        <v>10</v>
+        <v>13.5</v>
       </c>
       <c r="X34" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="Y34" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="Z34" t="n">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="AA34" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="AB34" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="AC34" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AD34" t="n">
-        <v>6.5</v>
+        <v>7.4</v>
       </c>
       <c r="AE34" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AF34" t="n">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="AG34" t="n">
-        <v>151</v>
+        <v>400</v>
       </c>
       <c r="AH34" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AI34" t="n">
-        <v>15</v>
+        <v>8.75</v>
       </c>
       <c r="AJ34" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AK34" t="n">
-        <v>29</v>
+        <v>13.5</v>
       </c>
       <c r="AL34" t="n">
-        <v>21</v>
+        <v>12.5</v>
       </c>
       <c r="AM34" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AN34" t="n">
-        <v>4.5</v>
+        <v>6.2</v>
       </c>
       <c r="AO34" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="AP34" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="AQ34" t="n">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="AR34" t="n">
-        <v>51</v>
+        <v>175</v>
       </c>
       <c r="AS34" t="n">
-        <v>126</v>
+        <v>400</v>
       </c>
       <c r="AT34" t="n">
-        <v>3.25</v>
+        <v>2.85</v>
       </c>
       <c r="AU34" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AV34" t="n">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="AW34" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AX34" t="n">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="AY34" t="n">
-        <v>15</v>
+        <v>8.25</v>
       </c>
       <c r="AZ34" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="BA34" t="n">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="BB34" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="BC34" t="n">
-        <v>126</v>
+        <v>200</v>
       </c>
       <c r="BD34" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>6mS3I3Xr</t>
+          <t>0E90uA5t</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -6734,173 +6734,173 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SLOVENIA - PRVA LIGA</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Radomlje</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>Celje</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.62</v>
+        <v>4.55</v>
       </c>
       <c r="H35" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I35" t="n">
-        <v>5.75</v>
+        <v>1.7</v>
       </c>
       <c r="J35" t="n">
-        <v>2.3</v>
+        <v>4.85</v>
       </c>
       <c r="K35" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L35" t="n">
-        <v>6</v>
+        <v>2.27</v>
       </c>
       <c r="M35" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N35" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="O35" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S35" t="n">
         <v>1.4</v>
       </c>
-      <c r="P35" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S35" t="n">
-        <v>1.5</v>
-      </c>
       <c r="T35" t="n">
-        <v>2.5</v>
+        <v>2.72</v>
       </c>
       <c r="U35" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="V35" t="n">
-        <v>1.57</v>
+        <v>1.9</v>
       </c>
       <c r="W35" t="n">
-        <v>5.5</v>
+        <v>12.5</v>
       </c>
       <c r="X35" t="n">
-        <v>6.5</v>
+        <v>25</v>
       </c>
       <c r="Y35" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Z35" t="n">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="AA35" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="AB35" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="AC35" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AI35" t="n">
         <v>8</v>
       </c>
-      <c r="AD35" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI35" t="n">
+      <c r="AJ35" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AM35" t="n">
         <v>26</v>
       </c>
-      <c r="AJ35" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>51</v>
-      </c>
       <c r="AN35" t="n">
-        <v>3.4</v>
+        <v>6.2</v>
       </c>
       <c r="AO35" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>150</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>200</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>450</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>75</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AY35" t="n">
         <v>8.5</v>
       </c>
-      <c r="AP35" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ35" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR35" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS35" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT35" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU35" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV35" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW35" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX35" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY35" t="n">
-        <v>34</v>
-      </c>
       <c r="AZ35" t="n">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="BA35" t="n">
-        <v>126</v>
+        <v>28</v>
       </c>
       <c r="BB35" t="n">
-        <v>151</v>
+        <v>60</v>
       </c>
       <c r="BC35" t="n">
-        <v>351</v>
+        <v>250</v>
       </c>
       <c r="BD35" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36">
@@ -6935,40 +6935,40 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="H36" t="n">
         <v>3.1</v>
       </c>
       <c r="I36" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="J36" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="K36" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L36" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M36" t="n">
         <v>1.07</v>
       </c>
       <c r="N36" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O36" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P36" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R36" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S36" t="n">
         <v>1.44</v>
@@ -6980,19 +6980,19 @@
         <v>1.8</v>
       </c>
       <c r="V36" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W36" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X36" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y36" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA36" t="n">
         <v>21</v>
@@ -7001,7 +7001,7 @@
         <v>29</v>
       </c>
       <c r="AC36" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD36" t="n">
         <v>6</v>
@@ -7013,28 +7013,28 @@
         <v>51</v>
       </c>
       <c r="AG36" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH36" t="n">
         <v>9</v>
       </c>
       <c r="AI36" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ36" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK36" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL36" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM36" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN36" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO36" t="n">
         <v>13</v>
@@ -7064,13 +7064,13 @@
         <v>81</v>
       </c>
       <c r="AX36" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AY36" t="n">
         <v>17</v>
       </c>
       <c r="AZ36" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA36" t="n">
         <v>51</v>
@@ -7123,40 +7123,40 @@
         <v>3</v>
       </c>
       <c r="I37" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J37" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K37" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L37" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M37" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N37" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="O37" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P37" t="n">
         <v>3</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R37" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S37" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T37" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U37" t="n">
         <v>1.83</v>
@@ -7165,7 +7165,7 @@
         <v>1.83</v>
       </c>
       <c r="W37" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X37" t="n">
         <v>15</v>
@@ -7180,13 +7180,13 @@
         <v>26</v>
       </c>
       <c r="AB37" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC37" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD37" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE37" t="n">
         <v>15</v>
@@ -7231,16 +7231,16 @@
         <v>81</v>
       </c>
       <c r="AS37" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU37" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV37" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW37" t="n">
         <v>81</v>
@@ -7249,13 +7249,13 @@
         <v>4.33</v>
       </c>
       <c r="AY37" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ37" t="n">
         <v>26</v>
       </c>
       <c r="BA37" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB37" t="n">
         <v>67</v>
@@ -7264,1280 +7264,6 @@
         <v>201</v>
       </c>
       <c r="BD37" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>WjuLdvbi</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>27/10/2024</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>12:30</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Hacken</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Halmstad</t>
-        </is>
-      </c>
-      <c r="G38" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="H38" t="n">
-        <v>5</v>
-      </c>
-      <c r="I38" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K38" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="L38" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N38" t="n">
-        <v>21</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P38" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R38" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="S38" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T38" t="n">
-        <v>4</v>
-      </c>
-      <c r="U38" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V38" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W38" t="n">
-        <v>11</v>
-      </c>
-      <c r="X38" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP38" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ38" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR38" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS38" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT38" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU38" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV38" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW38" t="n">
-        <v>301</v>
-      </c>
-      <c r="AX38" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY38" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ38" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA38" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB38" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC38" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD38" t="n">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>zHiDhYt9</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>27/10/2024</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>12:30</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Lugano</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Young Boys</t>
-        </is>
-      </c>
-      <c r="G39" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="H39" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I39" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J39" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K39" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L39" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N39" t="n">
-        <v>15</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P39" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R39" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S39" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T39" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U39" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V39" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W39" t="n">
-        <v>10</v>
-      </c>
-      <c r="X39" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP39" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ39" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR39" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS39" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT39" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU39" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV39" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW39" t="n">
-        <v>351</v>
-      </c>
-      <c r="AX39" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY39" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ39" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA39" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB39" t="n">
-        <v>67</v>
-      </c>
-      <c r="BC39" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD39" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>63EpzQQs</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>27/10/2024</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>12:30</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Zurich</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Servette</t>
-        </is>
-      </c>
-      <c r="G40" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="H40" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I40" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="J40" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K40" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L40" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N40" t="n">
-        <v>11</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P40" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S40" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T40" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U40" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V40" t="n">
-        <v>2</v>
-      </c>
-      <c r="W40" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X40" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP40" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ40" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR40" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS40" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT40" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU40" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV40" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW40" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX40" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AY40" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ40" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA40" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB40" t="n">
-        <v>51</v>
-      </c>
-      <c r="BC40" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD40" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>UifrL3E7</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>27/10/2024</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>12:30</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Thun</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Schaffhausen</t>
-        </is>
-      </c>
-      <c r="G41" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="H41" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="I41" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="J41" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="K41" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L41" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="M41" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N41" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="O41" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P41" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R41" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="S41" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="T41" t="n">
-        <v>3</v>
-      </c>
-      <c r="U41" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="V41" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="W41" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X41" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>70</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>35</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>110</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>50</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AP41" t="n">
-        <v>16</v>
-      </c>
-      <c r="AQ41" t="n">
-        <v>22</v>
-      </c>
-      <c r="AR41" t="n">
-        <v>50</v>
-      </c>
-      <c r="AS41" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT41" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU41" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AV41" t="n">
-        <v>70</v>
-      </c>
-      <c r="AW41" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX41" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AY41" t="n">
-        <v>30</v>
-      </c>
-      <c r="AZ41" t="n">
-        <v>35</v>
-      </c>
-      <c r="BA41" t="n">
-        <v>200</v>
-      </c>
-      <c r="BB41" t="n">
-        <v>200</v>
-      </c>
-      <c r="BC41" t="n">
-        <v>450</v>
-      </c>
-      <c r="BD41" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>2XbPgb6t</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>27/10/2024</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>TURKEY - SUPER LIG</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Fenerbahce</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Bodrumspor</t>
-        </is>
-      </c>
-      <c r="G42" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="H42" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="I42" t="n">
-        <v>9</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="K42" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L42" t="n">
-        <v>9</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N42" t="n">
-        <v>13</v>
-      </c>
-      <c r="O42" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P42" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R42" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S42" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T42" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U42" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V42" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W42" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X42" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>126</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM42" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AO42" t="n">
-        <v>6</v>
-      </c>
-      <c r="AP42" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ42" t="n">
-        <v>15</v>
-      </c>
-      <c r="AR42" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS42" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT42" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU42" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV42" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW42" t="n">
-        <v>276</v>
-      </c>
-      <c r="AX42" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY42" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ42" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA42" t="n">
-        <v>251</v>
-      </c>
-      <c r="BB42" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC42" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD42" t="n">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>GY5TOWK8</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>27/10/2024</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>TURKEY - 1. LIG</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Istanbulspor AS</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Boluspor</t>
-        </is>
-      </c>
-      <c r="G43" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="H43" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I43" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J43" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K43" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L43" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N43" t="n">
-        <v>10</v>
-      </c>
-      <c r="O43" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P43" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R43" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S43" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T43" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U43" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V43" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W43" t="n">
-        <v>7</v>
-      </c>
-      <c r="X43" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO43" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP43" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ43" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR43" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS43" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT43" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU43" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV43" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW43" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX43" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY43" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ43" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA43" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB43" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC43" t="n">
-        <v>251</v>
-      </c>
-      <c r="BD43" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>6ex7IQtJ</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>27/10/2024</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Dyn. Kyiv</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Shakhtar Donetsk</t>
-        </is>
-      </c>
-      <c r="G44" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="H44" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="I44" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J44" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K44" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L44" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="M44" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N44" t="n">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="O44" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P44" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R44" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S44" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T44" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="U44" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="V44" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W44" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X44" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>35</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>70</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>35</v>
-      </c>
-      <c r="AL44" t="n">
-        <v>27</v>
-      </c>
-      <c r="AM44" t="n">
-        <v>37</v>
-      </c>
-      <c r="AN44" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="AO44" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AP44" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ44" t="n">
-        <v>65</v>
-      </c>
-      <c r="AR44" t="n">
-        <v>100</v>
-      </c>
-      <c r="AS44" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT44" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AU44" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AV44" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW44" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX44" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="AY44" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AZ44" t="n">
-        <v>22</v>
-      </c>
-      <c r="BA44" t="n">
-        <v>75</v>
-      </c>
-      <c r="BB44" t="n">
-        <v>110</v>
-      </c>
-      <c r="BC44" t="n">
-        <v>300</v>
-      </c>
-      <c r="BD44" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD29"/>
+  <dimension ref="A1:BD30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>EqY7Orsg</t>
+          <t>zyC4c6ee</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,131 +728,131 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ENGLAND - PREMIER LEAGUE</t>
+          <t>GERMANY - BUNDESLIGA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Heidenheim</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="H2" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="J2" t="n">
         <v>2.88</v>
       </c>
       <c r="K2" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L2" t="n">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="P2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.84</v>
+        <v>1.57</v>
       </c>
       <c r="R2" t="n">
-        <v>1.94</v>
+        <v>2.38</v>
       </c>
       <c r="S2" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="T2" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U2" t="n">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
       <c r="V2" t="n">
-        <v>2.1</v>
+        <v>2.63</v>
       </c>
       <c r="W2" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="X2" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
       </c>
       <c r="Z2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB2" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AC2" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AD2" t="n">
         <v>7</v>
       </c>
       <c r="AE2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AF2" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AG2" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="AH2" t="n">
         <v>13</v>
       </c>
       <c r="AI2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL2" t="n">
         <v>19</v>
       </c>
-      <c r="AJ2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>29</v>
-      </c>
       <c r="AM2" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="AO2" t="n">
         <v>12</v>
       </c>
       <c r="AP2" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AQ2" t="n">
         <v>41</v>
@@ -861,46 +861,46 @@
         <v>51</v>
       </c>
       <c r="AS2" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT2" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="AU2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW2" t="n">
-        <v>501</v>
+        <v>301</v>
       </c>
       <c r="AX2" t="n">
         <v>5</v>
       </c>
       <c r="AY2" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AZ2" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="BA2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC2" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="BD2" t="n">
-        <v>140</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ABBmcc1C</t>
+          <t>jwaINpP6</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,41 +910,41 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>GERMANY - BUNDESLIGA</t>
+          <t>ITALY - SERIE A</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.45</v>
+        <v>1.75</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="I3" t="n">
-        <v>2.87</v>
+        <v>4.75</v>
       </c>
       <c r="J3" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="K3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
@@ -953,91 +953,91 @@
         <v>10</v>
       </c>
       <c r="O3" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="P3" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="R3" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="S3" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U3" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="W3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="X3" t="n">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AA3" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AB3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC3" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AD3" t="n">
         <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AF3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL3" t="n">
         <v>41</v>
       </c>
-      <c r="AG3" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>21</v>
-      </c>
       <c r="AM3" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO3" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AP3" t="n">
         <v>21</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR3" t="n">
         <v>51</v>
@@ -1046,34 +1046,34 @@
         <v>151</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU3" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>501</v>
+        <v>151</v>
       </c>
       <c r="AX3" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AY3" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AZ3" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="BA3" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BB3" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="BC3" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="BD3" t="n">
         <v>151</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>zyC4c6ee</t>
+          <t>Uoq4OXmC</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,41 +1092,41 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>GERMANY - BUNDESLIGA</t>
+          <t>NETHERLANDS - EREDIVISIE</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>G.A. Eagles</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.5</v>
+        <v>1.67</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="J4" t="n">
-        <v>2.88</v>
+        <v>2.2</v>
       </c>
       <c r="K4" t="n">
         <v>2.4</v>
       </c>
       <c r="L4" t="n">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="M4" t="n">
         <v>1.03</v>
@@ -1135,127 +1135,127 @@
         <v>15</v>
       </c>
       <c r="O4" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P4" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="R4" t="n">
-        <v>2.38</v>
+        <v>2.15</v>
       </c>
       <c r="S4" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U4" t="n">
-        <v>1.41</v>
+        <v>1.67</v>
       </c>
       <c r="V4" t="n">
-        <v>2.62</v>
+        <v>2.1</v>
       </c>
       <c r="W4" t="n">
+        <v>9</v>
+      </c>
+      <c r="X4" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z4" t="n">
         <v>13</v>
       </c>
-      <c r="X4" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>26</v>
-      </c>
       <c r="AA4" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AB4" t="n">
         <v>21</v>
       </c>
       <c r="AC4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH4" t="n">
         <v>17</v>
       </c>
-      <c r="AD4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>13</v>
-      </c>
       <c r="AI4" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AJ4" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AK4" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AL4" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AM4" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="AO4" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="AP4" t="n">
         <v>17</v>
       </c>
       <c r="AQ4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR4" t="n">
         <v>41</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>51</v>
       </c>
       <c r="AS4" t="n">
         <v>101</v>
       </c>
       <c r="AT4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV4" t="n">
         <v>41</v>
       </c>
       <c r="AW4" t="n">
-        <v>301</v>
+        <v>451</v>
       </c>
       <c r="AX4" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AY4" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AZ4" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="BA4" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BB4" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BC4" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BD4" t="n">
         <v>151</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jwaINpP6</t>
+          <t>842EOIGL</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,41 +1274,41 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ITALY - SERIE A</t>
+          <t>SPAIN - LALIGA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Betis</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Atl. Madrid</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="J5" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
         <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>2.88</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
@@ -1317,10 +1317,10 @@
         <v>9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P5" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q5" t="n">
         <v>2.1</v>
@@ -1335,28 +1335,28 @@
         <v>2.63</v>
       </c>
       <c r="U5" t="n">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="V5" t="n">
-        <v>1.77</v>
+        <v>1.95</v>
       </c>
       <c r="W5" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="X5" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="Z5" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AA5" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AB5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC5" t="n">
         <v>9</v>
@@ -1365,88 +1365,88 @@
         <v>6.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF5" t="n">
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AH5" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AJ5" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AK5" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="AM5" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>9.5</v>
+        <v>19</v>
       </c>
       <c r="AP5" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AQ5" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="AR5" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS5" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT5" t="n">
         <v>2.63</v>
       </c>
       <c r="AU5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV5" t="n">
         <v>51</v>
       </c>
       <c r="AW5" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC5" t="n">
         <v>151</v>
       </c>
-      <c r="AX5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB5" t="n">
+      <c r="BD5" t="n">
         <v>126</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>251</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>151</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>842EOIGL</t>
+          <t>rsqBW6tK</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,179 +1456,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Betis</t>
+          <t>Platense</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Atl. Madrid</t>
+          <t>Argentinos Jrs</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I6" t="n">
         <v>3.4</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>3.4</v>
       </c>
-      <c r="I6" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4</v>
-      </c>
       <c r="K6" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L6" t="n">
-        <v>2.88</v>
+        <v>4.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
       <c r="N6" t="n">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.33</v>
+        <v>1.73</v>
       </c>
       <c r="P6" t="n">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="Q6" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="R6" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="S6" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V6" t="n">
         <v>1.44</v>
       </c>
-      <c r="T6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.95</v>
-      </c>
       <c r="W6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="X6" t="n">
-        <v>17</v>
+        <v>9.5</v>
       </c>
       <c r="Y6" t="n">
         <v>12</v>
       </c>
       <c r="Z6" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AA6" t="n">
         <v>29</v>
       </c>
       <c r="AB6" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.5</v>
+        <v>5</v>
       </c>
       <c r="AD6" t="n">
         <v>6.5</v>
       </c>
       <c r="AE6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI6" t="n">
         <v>15</v>
       </c>
-      <c r="AF6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>10</v>
-      </c>
       <c r="AJ6" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AK6" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AL6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO6" t="n">
         <v>17</v>
       </c>
-      <c r="AM6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>19</v>
-      </c>
       <c r="AP6" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AQ6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR6" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AS6" t="n">
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.63</v>
+        <v>2</v>
       </c>
       <c r="AU6" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AV6" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AW6" t="n">
         <v>126</v>
       </c>
       <c r="AX6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY6" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AZ6" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="BA6" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="BB6" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BC6" t="n">
-        <v>151</v>
+        <v>501</v>
       </c>
       <c r="BD6" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>rsqBW6tK</t>
+          <t>xKd5R3vn</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>BELGIUM - JUPILER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Platense</t>
+          <t>Gent</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Argentinos Jrs</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="H7" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="J7" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="K7" t="n">
-        <v>1.73</v>
+        <v>2.3</v>
       </c>
       <c r="L7" t="n">
-        <v>4.33</v>
+        <v>2.88</v>
       </c>
       <c r="M7" t="n">
-        <v>1.17</v>
+        <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="O7" t="n">
-        <v>1.73</v>
+        <v>1.15</v>
       </c>
       <c r="P7" t="n">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.5</v>
+        <v>1.62</v>
       </c>
       <c r="R7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S7" t="n">
         <v>1.3</v>
       </c>
-      <c r="S7" t="n">
-        <v>1.78</v>
-      </c>
       <c r="T7" t="n">
-        <v>2.03</v>
+        <v>3.4</v>
       </c>
       <c r="U7" t="n">
-        <v>2.63</v>
+        <v>1.53</v>
       </c>
       <c r="V7" t="n">
-        <v>1.44</v>
+        <v>2.38</v>
       </c>
       <c r="W7" t="n">
-        <v>5.5</v>
+        <v>12</v>
       </c>
       <c r="X7" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="Y7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z7" t="n">
         <v>29</v>
       </c>
       <c r="AA7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF7" t="n">
         <v>34</v>
       </c>
-      <c r="AB7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF7" t="n">
+      <c r="AG7" t="n">
         <v>126</v>
       </c>
-      <c r="AG7" t="n">
-        <v>201</v>
-      </c>
       <c r="AH7" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AI7" t="n">
         <v>13</v>
       </c>
       <c r="AJ7" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AL7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV7" t="n">
         <v>41</v>
       </c>
-      <c r="AM7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO7" t="n">
+      <c r="AW7" t="n">
+        <v>401</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ7" t="n">
         <v>19</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="BA7" t="n">
         <v>41</v>
       </c>
-      <c r="AQ7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>501</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV7" t="n">
+      <c r="BB7" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC7" t="n">
         <v>101</v>
       </c>
-      <c r="AW7" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB7" t="n">
+      <c r="BD7" t="n">
         <v>151</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>xKd5R3vn</t>
+          <t>0MRf70gU</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1830,49 +1830,49 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Gent</t>
+          <t>Royale Union SG</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Cercle Brugge KSV</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.9</v>
+        <v>1.48</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="I8" t="n">
-        <v>2.3</v>
+        <v>5.75</v>
       </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L8" t="n">
-        <v>2.88</v>
+        <v>6</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N8" t="n">
         <v>15</v>
       </c>
       <c r="O8" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P8" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R8" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S8" t="n">
         <v>1.3</v>
@@ -1881,76 +1881,76 @@
         <v>3.4</v>
       </c>
       <c r="U8" t="n">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="V8" t="n">
-        <v>2.38</v>
+        <v>1.95</v>
       </c>
       <c r="W8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA8" t="n">
         <v>12</v>
       </c>
-      <c r="X8" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>21</v>
-      </c>
       <c r="AB8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC8" t="n">
         <v>15</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI8" t="n">
         <v>34</v>
       </c>
-      <c r="AG8" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>13</v>
-      </c>
       <c r="AJ8" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="AK8" t="n">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="AL8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP8" t="n">
         <v>17</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AQ8" t="n">
         <v>21</v>
       </c>
-      <c r="AN8" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>51</v>
-      </c>
       <c r="AR8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS8" t="n">
         <v>126</v>
@@ -1959,31 +1959,31 @@
         <v>3.4</v>
       </c>
       <c r="AU8" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>401</v>
+        <v>151</v>
       </c>
       <c r="AX8" t="n">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="AY8" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="AZ8" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="BA8" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="BB8" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BC8" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="BD8" t="n">
         <v>151</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0MRf70gU</t>
+          <t>dUdg1Qxf</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2007,90 +2007,90 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>BELGIUM - JUPILER PRO LEAGUE</t>
+          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Royale Union SG</t>
+          <t>Eupen</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Cercle Brugge KSV</t>
+          <t>Lokeren-Temse</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="H9" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="I9" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="J9" t="n">
-        <v>2.05</v>
+        <v>2.38</v>
       </c>
       <c r="K9" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O9" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="P9" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="R9" t="n">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S9" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="T9" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U9" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V9" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W9" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y9" t="n">
         <v>8.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA9" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AB9" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AC9" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AD9" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AE9" t="n">
         <v>17</v>
@@ -2099,19 +2099,19 @@
         <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>15</v>
       </c>
-      <c r="AI9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>17</v>
-      </c>
       <c r="AK9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL9" t="n">
         <v>41</v>
@@ -2120,25 +2120,25 @@
         <v>41</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AO9" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AP9" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AQ9" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AR9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS9" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="AU9" t="n">
         <v>8.5</v>
@@ -2147,34 +2147,34 @@
         <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="AX9" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AY9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ9" t="n">
         <v>34</v>
       </c>
       <c r="BA9" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB9" t="n">
         <v>101</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>126</v>
       </c>
       <c r="BC9" t="n">
         <v>251</v>
       </c>
       <c r="BD9" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>dUdg1Qxf</t>
+          <t>WY38mDxe</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,98 +2184,98 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Eupen</t>
+          <t>Tomayapo</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Lokeren-Temse</t>
+          <t>Always Ready</t>
         </is>
       </c>
       <c r="G10" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N10" t="n">
+        <v>9</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R10" t="n">
         <v>1.67</v>
       </c>
-      <c r="H10" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I10" t="n">
-        <v>5</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L10" t="n">
-        <v>5</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N10" t="n">
-        <v>11</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.85</v>
-      </c>
       <c r="S10" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T10" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U10" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V10" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W10" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="X10" t="n">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="Y10" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC10" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA10" t="n">
+      <c r="AD10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE10" t="n">
         <v>15</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>17</v>
       </c>
       <c r="AF10" t="n">
         <v>51</v>
@@ -2284,43 +2284,43 @@
         <v>301</v>
       </c>
       <c r="AH10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI10" t="n">
         <v>13</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AJ10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL10" t="n">
         <v>23</v>
       </c>
-      <c r="AJ10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>41</v>
-      </c>
       <c r="AM10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AP10" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ10" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AR10" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS10" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU10" t="n">
         <v>8.5</v>
@@ -2329,34 +2329,34 @@
         <v>51</v>
       </c>
       <c r="AW10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB10" t="n">
         <v>81</v>
       </c>
-      <c r="AX10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>126</v>
-      </c>
       <c r="BC10" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD10" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>nFiRhDad</t>
+          <t>r9RgWXfJ</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,158 +2366,158 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>CROATIA - HNL</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Gorica</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Istra 1961</t>
+          <t>Atl. Nacional</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="H11" t="n">
         <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="J11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L11" t="n">
         <v>3.25</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N11" t="n">
+        <v>7</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U11" t="n">
         <v>2</v>
       </c>
-      <c r="L11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N11" t="n">
+      <c r="V11" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W11" t="n">
         <v>8</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W11" t="n">
-        <v>7.5</v>
-      </c>
       <c r="X11" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y11" t="n">
         <v>12</v>
       </c>
-      <c r="Y11" t="n">
-        <v>10</v>
-      </c>
       <c r="Z11" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AA11" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AB11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD11" t="n">
         <v>6</v>
       </c>
       <c r="AE11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG11" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH11" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AJ11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP11" t="n">
         <v>29</v>
       </c>
-      <c r="AL11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR11" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS11" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV11" t="n">
         <v>67</v>
       </c>
       <c r="AW11" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AX11" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="AY11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ11" t="n">
         <v>29</v>
@@ -2529,16 +2529,16 @@
         <v>81</v>
       </c>
       <c r="BC11" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD11" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>vXxMK1qA</t>
+          <t>nFiRhDad</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2553,105 +2553,105 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>CZECH REPUBLIC - CHANCE LIGA</t>
+          <t>CROATIA - HNL</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Plzen</t>
+          <t>Gorica</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Sparta Prague</t>
+          <t>Istra 1961</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="H12" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J12" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K12" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L12" t="n">
         <v>3.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="P12" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.98</v>
+        <v>2.25</v>
       </c>
       <c r="R12" t="n">
-        <v>1.88</v>
+        <v>1.62</v>
       </c>
       <c r="S12" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="T12" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U12" t="n">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="V12" t="n">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W12" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="X12" t="n">
         <v>12</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA12" t="n">
         <v>23</v>
       </c>
-      <c r="AA12" t="n">
-        <v>19</v>
-      </c>
       <c r="AB12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC12" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AD12" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI12" t="n">
         <v>13</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>15</v>
       </c>
       <c r="AJ12" t="n">
         <v>11</v>
@@ -2660,58 +2660,58 @@
         <v>29</v>
       </c>
       <c r="AL12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN12" t="n">
         <v>4.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV12" t="n">
         <v>67</v>
       </c>
-      <c r="AS12" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>51</v>
-      </c>
       <c r="AW12" t="n">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="AX12" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AY12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ12" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="BA12" t="n">
         <v>51</v>
       </c>
       <c r="BB12" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC12" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD12" t="n">
         <v>81</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2D04uCm4</t>
+          <t>vXxMK1qA</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,95 +2730,95 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>DENMARK - SUPERLIGA</t>
+          <t>CZECH REPUBLIC - CHANCE LIGA</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Midtjylland</t>
+          <t>Plzen</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Aarhus</t>
+          <t>Sparta Prague</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="H13" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="I13" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="J13" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
         <v>2.2</v>
       </c>
       <c r="L13" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O13" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P13" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="R13" t="n">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="S13" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T13" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U13" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V13" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W13" t="n">
         <v>8.5</v>
       </c>
       <c r="X13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y13" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC13" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AD13" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE13" t="n">
         <v>13</v>
@@ -2827,19 +2827,19 @@
         <v>41</v>
       </c>
       <c r="AG13" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ13" t="n">
         <v>11</v>
       </c>
       <c r="AK13" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL13" t="n">
         <v>23</v>
@@ -2848,10 +2848,10 @@
         <v>29</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP13" t="n">
         <v>21</v>
@@ -2863,10 +2863,10 @@
         <v>51</v>
       </c>
       <c r="AS13" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT13" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU13" t="n">
         <v>7.5</v>
@@ -2896,13 +2896,13 @@
         <v>151</v>
       </c>
       <c r="BD13" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MXVHsclL</t>
+          <t>2D04uCm4</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,179 +2912,179 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>DENMARK - SUPERLIGA</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>EL Nacional</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Orense</t>
+          <t>Aarhus</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="H14" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="I14" t="n">
-        <v>4.33</v>
+        <v>3.2</v>
       </c>
       <c r="J14" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K14" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L14" t="n">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O14" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="P14" t="n">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="R14" t="n">
-        <v>1.62</v>
+        <v>2.03</v>
       </c>
       <c r="S14" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="T14" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U14" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="V14" t="n">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="W14" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="X14" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Y14" t="n">
         <v>9</v>
       </c>
       <c r="Z14" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AA14" t="n">
         <v>17</v>
       </c>
       <c r="AB14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK14" t="n">
         <v>34</v>
       </c>
-      <c r="AC14" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI14" t="n">
+      <c r="AL14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP14" t="n">
         <v>21</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>23</v>
       </c>
       <c r="AQ14" t="n">
         <v>41</v>
       </c>
       <c r="AR14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB14" t="n">
         <v>67</v>
       </c>
-      <c r="AS14" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB14" t="n">
+      <c r="BC14" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD14" t="n">
         <v>126</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>301</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>8tW7jPiT</t>
+          <t>MXVHsclL</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,179 +3094,179 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>GERMANY - 3. LIGA</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Mannheim</t>
+          <t>EL Nacional</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>Orense</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="H15" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="J15" t="n">
         <v>2.88</v>
       </c>
       <c r="K15" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L15" t="n">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>13</v>
+        <v>7.5</v>
       </c>
       <c r="O15" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="P15" t="n">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.73</v>
+        <v>2.25</v>
       </c>
       <c r="R15" t="n">
-        <v>2.08</v>
+        <v>1.62</v>
       </c>
       <c r="S15" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="T15" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U15" t="n">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="V15" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="W15" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="X15" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Y15" t="n">
         <v>9.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AA15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB15" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AC15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>13</v>
       </c>
-      <c r="AD15" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF15" t="n">
+      <c r="AK15" t="n">
         <v>41</v>
       </c>
-      <c r="AG15" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>29</v>
-      </c>
       <c r="AL15" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AM15" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AO15" t="n">
         <v>12</v>
       </c>
       <c r="AP15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ15" t="n">
         <v>41</v>
       </c>
       <c r="AR15" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS15" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AT15" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="AU15" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV15" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AW15" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AX15" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AY15" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AZ15" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="BA15" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB15" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BC15" t="n">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="BD15" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>KxiX0GR6</t>
+          <t>8tW7jPiT</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,47 +3276,47 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>HUNGARY - OTP BANK LIGA</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Gyor</t>
+          <t>Mannheim</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ferencvaros</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="H16" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="I16" t="n">
-        <v>1.55</v>
+        <v>2.75</v>
       </c>
       <c r="J16" t="n">
-        <v>5.5</v>
+        <v>2.88</v>
       </c>
       <c r="K16" t="n">
         <v>2.3</v>
       </c>
       <c r="L16" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
         <v>1.22</v>
@@ -3325,10 +3325,10 @@
         <v>4</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R16" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="S16" t="n">
         <v>1.33</v>
@@ -3337,112 +3337,112 @@
         <v>3.25</v>
       </c>
       <c r="U16" t="n">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="V16" t="n">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="W16" t="n">
+        <v>10</v>
+      </c>
+      <c r="X16" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA16" t="n">
         <v>17</v>
       </c>
-      <c r="X16" t="n">
+      <c r="AB16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK16" t="n">
         <v>29</v>
       </c>
-      <c r="Y16" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>67</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>11</v>
-      </c>
       <c r="AL16" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AM16" t="n">
         <v>26</v>
       </c>
       <c r="AN16" t="n">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="AP16" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AQ16" t="n">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AR16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS16" t="n">
         <v>126</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>251</v>
       </c>
       <c r="AT16" t="n">
         <v>3.25</v>
       </c>
       <c r="AU16" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW16" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AX16" t="n">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="AY16" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AZ16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA16" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="BB16" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BC16" t="n">
         <v>126</v>
       </c>
       <c r="BD16" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
@@ -3841,13 +3841,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="H19" t="n">
         <v>3.05</v>
       </c>
       <c r="I19" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J19" t="n">
         <v>2.82</v>
@@ -3856,7 +3856,7 @@
         <v>2</v>
       </c>
       <c r="L19" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M19" t="n">
         <v>1.02</v>
@@ -3865,49 +3865,49 @@
         <v>9.449999999999999</v>
       </c>
       <c r="O19" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P19" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="R19" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S19" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T19" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="U19" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="V19" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="W19" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="X19" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y19" t="n">
         <v>8.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA19" t="n">
         <v>17.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AD19" t="n">
         <v>6</v>
@@ -3916,16 +3916,16 @@
         <v>12.5</v>
       </c>
       <c r="AF19" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG19" t="n">
         <v>400</v>
       </c>
       <c r="AH19" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AI19" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AJ19" t="n">
         <v>11</v>
@@ -3940,31 +3940,31 @@
         <v>32</v>
       </c>
       <c r="AN19" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="AO19" t="n">
         <v>11.75</v>
       </c>
       <c r="AP19" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AQ19" t="n">
         <v>45</v>
       </c>
       <c r="AR19" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AS19" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="AU19" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AV19" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW19" t="n">
         <v>51</v>
@@ -3973,7 +3973,7 @@
         <v>5.1</v>
       </c>
       <c r="AY19" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AZ19" t="n">
         <v>24</v>
@@ -3994,7 +3994,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>zqOZoPpR</t>
+          <t>OMoZtZZ5</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4004,179 +4004,179 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>NORWAY - ELITESERIEN</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Jeunesse Sportive Soualem</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>IR Tanger</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="G20" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2</v>
+      </c>
+      <c r="K20" t="n">
         <v>2.5</v>
       </c>
-      <c r="H20" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K20" t="n">
-        <v>1.91</v>
-      </c>
       <c r="L20" t="n">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M20" t="n">
-        <v>1.11</v>
+        <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>6.5</v>
+        <v>17</v>
       </c>
       <c r="O20" t="n">
-        <v>1.5</v>
+        <v>1.18</v>
       </c>
       <c r="P20" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="R20" t="n">
-        <v>1.48</v>
+        <v>2.3</v>
       </c>
       <c r="S20" t="n">
-        <v>1.57</v>
+        <v>1.29</v>
       </c>
       <c r="T20" t="n">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U20" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="V20" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="W20" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="X20" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z20" t="n">
         <v>11</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="AA20" t="n">
         <v>11</v>
       </c>
-      <c r="Z20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>26</v>
-      </c>
       <c r="AB20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL20" t="n">
         <v>41</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>29</v>
       </c>
       <c r="AM20" t="n">
         <v>41</v>
       </c>
       <c r="AN20" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO20" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AP20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AY20" t="n">
         <v>29</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>17</v>
       </c>
       <c r="AZ20" t="n">
         <v>34</v>
       </c>
       <c r="BA20" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BB20" t="n">
         <v>101</v>
       </c>
       <c r="BC20" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="BD20" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>OMoZtZZ5</t>
+          <t>WMN2M3ke</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4186,143 +4186,143 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NORWAY - ELITESERIEN</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Sport Boys</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Cajamarca</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.53</v>
+        <v>2.5</v>
       </c>
       <c r="H21" t="n">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>2.88</v>
       </c>
       <c r="J21" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K21" t="n">
         <v>2.05</v>
       </c>
-      <c r="K21" t="n">
-        <v>2.4</v>
-      </c>
       <c r="L21" t="n">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="O21" t="n">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="P21" t="n">
-        <v>4.33</v>
+        <v>3.25</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="R21" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="S21" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="T21" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="U21" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="V21" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="W21" t="n">
         <v>8</v>
       </c>
       <c r="X21" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Y21" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC21" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="AD21" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ21" t="n">
         <v>11</v>
       </c>
-      <c r="AA21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB21" t="n">
+      <c r="AK21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL21" t="n">
         <v>23</v>
       </c>
-      <c r="AC21" t="n">
+      <c r="AM21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO21" t="n">
         <v>15</v>
       </c>
-      <c r="AD21" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG21" t="n">
+      <c r="AP21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS21" t="n">
         <v>201</v>
       </c>
-      <c r="AH21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>101</v>
-      </c>
       <c r="AT21" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="AU21" t="n">
         <v>8</v>
@@ -4331,22 +4331,22 @@
         <v>51</v>
       </c>
       <c r="AW21" t="n">
-        <v>501</v>
+        <v>126</v>
       </c>
       <c r="AX21" t="n">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="AY21" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AZ21" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA21" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BB21" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC21" t="n">
         <v>201</v>
@@ -4358,7 +4358,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>WMN2M3ke</t>
+          <t>Kr4croCE</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4378,88 +4378,88 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Sport Boys</t>
+          <t>Union Comercio</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Cajamarca</t>
+          <t>Sporting Cristal</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.5</v>
+        <v>15</v>
       </c>
       <c r="H22" t="n">
-        <v>3.2</v>
+        <v>7.5</v>
       </c>
       <c r="I22" t="n">
-        <v>2.88</v>
+        <v>1.09</v>
       </c>
       <c r="J22" t="n">
-        <v>3.2</v>
+        <v>12</v>
       </c>
       <c r="K22" t="n">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="L22" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N22" t="n">
+        <v>19</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="R22" t="n">
         <v>3.5</v>
       </c>
-      <c r="M22" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N22" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P22" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.7</v>
-      </c>
       <c r="S22" t="n">
-        <v>1.44</v>
+        <v>1.17</v>
       </c>
       <c r="T22" t="n">
-        <v>2.63</v>
+        <v>5</v>
       </c>
       <c r="U22" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V22" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W22" t="n">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="X22" t="n">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="Y22" t="n">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="Z22" t="n">
-        <v>23</v>
+        <v>251</v>
       </c>
       <c r="AA22" t="n">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="AB22" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.5</v>
+        <v>26</v>
       </c>
       <c r="AD22" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AE22" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AF22" t="n">
         <v>51</v>
@@ -4468,70 +4468,70 @@
         <v>251</v>
       </c>
       <c r="AH22" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AI22" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AJ22" t="n">
         <v>11</v>
       </c>
       <c r="AK22" t="n">
-        <v>29</v>
+        <v>7.5</v>
       </c>
       <c r="AL22" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="AM22" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AN22" t="n">
-        <v>4.5</v>
+        <v>15</v>
       </c>
       <c r="AO22" t="n">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="AP22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>301</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>201</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>151</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB22" t="n">
         <v>26</v>
       </c>
-      <c r="AQ22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB22" t="n">
+      <c r="BC22" t="n">
         <v>81</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>201</v>
       </c>
       <c r="BD22" t="n">
         <v>151</v>
@@ -4540,7 +4540,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Kr4croCE</t>
+          <t>O2JaVHO7</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4550,173 +4550,173 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Union Comercio</t>
+          <t>Legia</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Sporting Cristal</t>
+          <t>GKS Katowice</t>
         </is>
       </c>
       <c r="G23" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H23" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>5</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L23" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N23" t="n">
+        <v>12</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W23" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X23" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA23" t="n">
         <v>13</v>
       </c>
-      <c r="H23" t="n">
-        <v>6</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="J23" t="n">
+      <c r="AB23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC23" t="n">
         <v>12</v>
       </c>
-      <c r="K23" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N23" t="n">
+      <c r="AD23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP23" t="n">
         <v>19</v>
       </c>
-      <c r="O23" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P23" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R23" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="T23" t="n">
-        <v>5</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W23" t="n">
+      <c r="AQ23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ23" t="n">
         <v>34</v>
       </c>
-      <c r="X23" t="n">
-        <v>67</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z23" t="n">
+      <c r="BA23" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC23" t="n">
         <v>201</v>
       </c>
-      <c r="AA23" t="n">
+      <c r="BD23" t="n">
         <v>81</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>67</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>301</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>201</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>5</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>151</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>13</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>9</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>26</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD23" t="n">
-        <v>151</v>
       </c>
     </row>
     <row r="24">
@@ -4760,10 +4760,10 @@
         <v>15</v>
       </c>
       <c r="J24" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="K24" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L24" t="n">
         <v>12</v>
@@ -4781,40 +4781,40 @@
         <v>6.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="R24" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="S24" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="T24" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="U24" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V24" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X24" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y24" t="n">
         <v>11</v>
       </c>
       <c r="Z24" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA24" t="n">
         <v>11</v>
       </c>
       <c r="AB24" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC24" t="n">
         <v>21</v>
@@ -4826,7 +4826,7 @@
         <v>34</v>
       </c>
       <c r="AF24" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG24" t="n">
         <v>501</v>
@@ -4850,7 +4850,7 @@
         <v>81</v>
       </c>
       <c r="AN24" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AO24" t="n">
         <v>4.75</v>
@@ -4862,13 +4862,13 @@
         <v>10</v>
       </c>
       <c r="AR24" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AS24" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT24" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AU24" t="n">
         <v>11</v>
@@ -4889,13 +4889,13 @@
         <v>51</v>
       </c>
       <c r="BA24" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BB24" t="n">
         <v>301</v>
       </c>
       <c r="BC24" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="BD24" t="n">
         <v>126</v>
@@ -5118,148 +5118,148 @@
         <v>4.4</v>
       </c>
       <c r="H26" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I26" t="n">
         <v>1.7</v>
       </c>
       <c r="J26" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="K26" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L26" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="M26" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N26" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O26" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="P26" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="R26" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="S26" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="T26" t="n">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="U26" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="V26" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="W26" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="X26" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y26" t="n">
         <v>14</v>
       </c>
       <c r="Z26" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AA26" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AB26" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AC26" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AE26" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AF26" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AG26" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AH26" t="n">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="AI26" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AJ26" t="n">
         <v>8</v>
       </c>
       <c r="AK26" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AL26" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AM26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN26" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AO26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP26" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AQ26" t="n">
         <v>150</v>
       </c>
       <c r="AR26" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AS26" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="AU26" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="AV26" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AW26" t="n">
         <v>51</v>
       </c>
       <c r="AX26" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="AY26" t="n">
         <v>8.25</v>
       </c>
       <c r="AZ26" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="BA26" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="BB26" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BC26" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BD26" t="n">
         <v>51</v>
@@ -5297,22 +5297,22 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="H27" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I27" t="n">
-        <v>3.9</v>
+        <v>4.35</v>
       </c>
       <c r="J27" t="n">
-        <v>2.47</v>
+        <v>2.37</v>
       </c>
       <c r="K27" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L27" t="n">
-        <v>4.25</v>
+        <v>4.65</v>
       </c>
       <c r="M27" t="n">
         <v>1.06</v>
@@ -5333,34 +5333,34 @@
         <v>1.88</v>
       </c>
       <c r="S27" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="T27" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="U27" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="V27" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="W27" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="X27" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="Y27" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Z27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AA27" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AB27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC27" t="n">
         <v>7.4</v>
@@ -5372,76 +5372,76 @@
         <v>14</v>
       </c>
       <c r="AF27" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AG27" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AH27" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AJ27" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AK27" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AL27" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AM27" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AN27" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="AO27" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP27" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AQ27" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AR27" t="n">
         <v>65</v>
       </c>
       <c r="AS27" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="AU27" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AV27" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AW27" t="n">
         <v>51</v>
       </c>
       <c r="AX27" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="AY27" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AZ27" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="BA27" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="BB27" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BC27" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BD27" t="n">
         <v>51</v>
@@ -5450,7 +5450,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>tO9rD8e3</t>
+          <t>MmvjL6KO</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5460,179 +5460,179 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SLOVENIA - PRVA LIGA</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>O. Ljubljana</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>Domzale</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.38</v>
+        <v>1.26</v>
       </c>
       <c r="H28" t="n">
-        <v>3.1</v>
+        <v>4.9</v>
       </c>
       <c r="I28" t="n">
-        <v>3.1</v>
+        <v>11.75</v>
       </c>
       <c r="J28" t="n">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="K28" t="n">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="L28" t="n">
-        <v>3.6</v>
+        <v>9.5</v>
       </c>
       <c r="M28" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O28" t="n">
-        <v>1.36</v>
+        <v>1.23</v>
       </c>
       <c r="P28" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W28" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X28" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>37</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>450</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>200</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN28" t="n">
         <v>3</v>
       </c>
-      <c r="Q28" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T28" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W28" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X28" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>4.33</v>
-      </c>
       <c r="AO28" t="n">
-        <v>13</v>
+        <v>5.5</v>
       </c>
       <c r="AP28" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AQ28" t="n">
-        <v>41</v>
+        <v>14.5</v>
       </c>
       <c r="AR28" t="n">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AS28" t="n">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="AT28" t="n">
-        <v>2.63</v>
+        <v>2.92</v>
       </c>
       <c r="AU28" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AV28" t="n">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="AW28" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AX28" t="n">
-        <v>5</v>
+        <v>11.25</v>
       </c>
       <c r="AY28" t="n">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="AZ28" t="n">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="BA28" t="n">
-        <v>51</v>
+        <v>500</v>
       </c>
       <c r="BB28" t="n">
-        <v>81</v>
+        <v>500</v>
       </c>
       <c r="BC28" t="n">
-        <v>201</v>
+        <v>51</v>
       </c>
       <c r="BD28" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>AHtYNP9L</t>
+          <t>tO9rD8e3</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5652,31 +5652,31 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Gijon</t>
         </is>
       </c>
       <c r="G29" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H29" t="n">
         <v>3.1</v>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
         <v>3</v>
       </c>
-      <c r="I29" t="n">
-        <v>2.45</v>
-      </c>
       <c r="J29" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="K29" t="n">
         <v>2.05</v>
       </c>
       <c r="L29" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M29" t="n">
         <v>1.08</v>
@@ -5709,22 +5709,22 @@
         <v>1.83</v>
       </c>
       <c r="W29" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="X29" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Y29" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Z29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB29" t="n">
         <v>34</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>41</v>
       </c>
       <c r="AC29" t="n">
         <v>8</v>
@@ -5742,37 +5742,37 @@
         <v>301</v>
       </c>
       <c r="AH29" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI29" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AJ29" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AK29" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AL29" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AM29" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN29" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="AO29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP29" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ29" t="n">
         <v>51</v>
       </c>
       <c r="AR29" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS29" t="n">
         <v>201</v>
@@ -5790,24 +5790,206 @@
         <v>81</v>
       </c>
       <c r="AX29" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="AY29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ29" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA29" t="n">
         <v>51</v>
       </c>
       <c r="BB29" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC29" t="n">
         <v>201</v>
       </c>
       <c r="BD29" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>AHtYNP9L</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>27/10/2024</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Almeria</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L30" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N30" t="n">
+        <v>8</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X30" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD30" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD30"/>
+  <dimension ref="A1:BD27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>zyC4c6ee</t>
+          <t>AsQgyP6l</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,41 +728,41 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>GERMANY - BUNDESLIGA</t>
+          <t>FRANCE - LIGUE 1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>PSG</t>
         </is>
       </c>
       <c r="G2" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K2" t="n">
         <v>2.5</v>
       </c>
-      <c r="H2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.4</v>
-      </c>
       <c r="L2" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
@@ -777,10 +777,10 @@
         <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R2" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S2" t="n">
         <v>1.29</v>
@@ -789,79 +789,79 @@
         <v>3.5</v>
       </c>
       <c r="U2" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W2" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="X2" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y2" t="n">
         <v>15</v>
       </c>
-      <c r="Y2" t="n">
-        <v>10</v>
-      </c>
       <c r="Z2" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AA2" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AB2" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AC2" t="n">
         <v>17</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG2" t="n">
         <v>101</v>
       </c>
       <c r="AH2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL2" t="n">
         <v>13</v>
       </c>
-      <c r="AI2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL2" t="n">
+      <c r="AM2" t="n">
         <v>19</v>
       </c>
-      <c r="AM2" t="n">
-        <v>21</v>
-      </c>
       <c r="AN2" t="n">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="AO2" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AP2" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AQ2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT2" t="n">
         <v>3.5</v>
@@ -873,34 +873,34 @@
         <v>41</v>
       </c>
       <c r="AW2" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AX2" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="AY2" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AZ2" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="BA2" t="n">
+        <v>26</v>
+      </c>
+      <c r="BB2" t="n">
         <v>41</v>
       </c>
-      <c r="BB2" t="n">
-        <v>51</v>
-      </c>
       <c r="BC2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BD2" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jwaINpP6</t>
+          <t>zyC4c6ee</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,170 +910,170 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ITALY - SERIE A</t>
+          <t>GERMANY - BUNDESLIGA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Heidenheim</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="H3" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I3" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N3" t="n">
+        <v>15</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W3" t="n">
+        <v>12</v>
+      </c>
+      <c r="X3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN3" t="n">
         <v>4.75</v>
       </c>
-      <c r="J3" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L3" t="n">
+      <c r="AO3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>351</v>
+      </c>
+      <c r="AX3" t="n">
         <v>5</v>
       </c>
-      <c r="M3" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N3" t="n">
-        <v>10</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W3" t="n">
-        <v>6</v>
-      </c>
-      <c r="X3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z3" t="n">
+      <c r="AY3" t="n">
         <v>13</v>
       </c>
-      <c r="AA3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>401</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL3" t="n">
+      <c r="AZ3" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA3" t="n">
         <v>41</v>
       </c>
-      <c r="AM3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>151</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA3" t="n">
+      <c r="BB3" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC3" t="n">
         <v>101</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>301</v>
       </c>
       <c r="BD3" t="n">
         <v>151</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Uoq4OXmC</t>
+          <t>fB59P6ff</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,167 +1092,167 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EREDIVISIE</t>
+          <t>ITALY - SERIE A</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>G.A. Eagles</t>
+          <t>AS Roma</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.67</v>
+        <v>2.35</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
+        <v>10</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2</v>
+      </c>
+      <c r="W4" t="n">
+        <v>8</v>
+      </c>
+      <c r="X4" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE4" t="n">
         <v>15</v>
       </c>
-      <c r="O4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W4" t="n">
-        <v>9</v>
-      </c>
-      <c r="X4" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC4" t="n">
+      <c r="AF4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI4" t="n">
         <v>15</v>
       </c>
-      <c r="AD4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>26</v>
-      </c>
       <c r="AJ4" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AK4" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AL4" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AM4" t="n">
         <v>34</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="AO4" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AP4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY4" t="n">
         <v>17</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>451</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>23</v>
       </c>
       <c r="AZ4" t="n">
         <v>26</v>
       </c>
       <c r="BA4" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC4" t="n">
         <v>151</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>842EOIGL</t>
+          <t>Uoq4OXmC</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,143 +1274,143 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA</t>
+          <t>NETHERLANDS - EREDIVISIE</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Betis</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Atl. Madrid</t>
+          <t>G.A. Eagles</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.4</v>
+        <v>1.67</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="I5" t="n">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N5" t="n">
+        <v>13</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P5" t="n">
         <v>4</v>
       </c>
-      <c r="K5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N5" t="n">
-        <v>9</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="Q5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S5" t="n">
         <v>1.33</v>
       </c>
-      <c r="P5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.44</v>
-      </c>
       <c r="T5" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="U5" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="V5" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="X5" t="n">
-        <v>17</v>
+        <v>8.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="AA5" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="AB5" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AC5" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE5" t="n">
         <v>15</v>
       </c>
       <c r="AF5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG5" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="AI5" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="AJ5" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AK5" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="AL5" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AM5" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AN5" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="AO5" t="n">
-        <v>19</v>
+        <v>8.5</v>
       </c>
       <c r="AP5" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AQ5" t="n">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="AR5" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AS5" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="AU5" t="n">
         <v>8</v>
@@ -1419,34 +1419,34 @@
         <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="AX5" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="AY5" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AZ5" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="BA5" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BB5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC5" t="n">
         <v>151</v>
       </c>
       <c r="BD5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>rsqBW6tK</t>
+          <t>842EOIGL</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,179 +1456,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>SPAIN - LALIGA</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Platense</t>
+          <t>Betis</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Argentinos Jrs</t>
+          <t>Atl. Madrid</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="H6" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>3.4</v>
+        <v>2.15</v>
       </c>
       <c r="J6" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L6" t="n">
-        <v>4.5</v>
+        <v>2.88</v>
       </c>
       <c r="M6" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.73</v>
+        <v>1.36</v>
       </c>
       <c r="P6" t="n">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.3</v>
+        <v>1.67</v>
       </c>
       <c r="S6" t="n">
-        <v>1.78</v>
+        <v>1.44</v>
       </c>
       <c r="T6" t="n">
-        <v>2.03</v>
+        <v>2.63</v>
       </c>
       <c r="U6" t="n">
-        <v>2.63</v>
+        <v>1.91</v>
       </c>
       <c r="V6" t="n">
-        <v>1.44</v>
+        <v>1.91</v>
       </c>
       <c r="W6" t="n">
-        <v>5</v>
+        <v>9.5</v>
       </c>
       <c r="X6" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="Y6" t="n">
         <v>12</v>
       </c>
       <c r="Z6" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AA6" t="n">
         <v>29</v>
       </c>
       <c r="AB6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN6" t="n">
         <v>5</v>
       </c>
-      <c r="AD6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>126</v>
-      </c>
-      <c r="AG6" t="n">
+      <c r="AO6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS6" t="n">
         <v>201</v>
       </c>
-      <c r="AH6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>501</v>
-      </c>
       <c r="AT6" t="n">
-        <v>2</v>
+        <v>2.63</v>
       </c>
       <c r="AU6" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AV6" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AW6" t="n">
         <v>126</v>
       </c>
       <c r="AX6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ6" t="n">
         <v>23</v>
       </c>
-      <c r="AZ6" t="n">
+      <c r="BA6" t="n">
         <v>41</v>
       </c>
-      <c r="BA6" t="n">
-        <v>101</v>
-      </c>
       <c r="BB6" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC6" t="n">
         <v>151</v>
       </c>
-      <c r="BC6" t="n">
-        <v>501</v>
-      </c>
       <c r="BD6" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>xKd5R3vn</t>
+          <t>rsqBW6tK</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>BELGIUM - JUPILER PRO LEAGUE</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Gent</t>
+          <t>Platense</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Argentinos Jrs</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="I7" t="n">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="J7" t="n">
         <v>3.4</v>
       </c>
       <c r="K7" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="L7" t="n">
-        <v>2.88</v>
+        <v>4.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.02</v>
+        <v>1.14</v>
       </c>
       <c r="N7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W7" t="n">
+        <v>5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI7" t="n">
         <v>15</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P7" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W7" t="n">
-        <v>12</v>
-      </c>
-      <c r="X7" t="n">
+      <c r="AJ7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO7" t="n">
         <v>17</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="AP7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>451</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU7" t="n">
         <v>11</v>
       </c>
-      <c r="Z7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG7" t="n">
+      <c r="AV7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW7" t="n">
         <v>126</v>
       </c>
-      <c r="AH7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK7" t="n">
+      <c r="AX7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY7" t="n">
         <v>23</v>
       </c>
-      <c r="AL7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS7" t="n">
+      <c r="AZ7" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD7" t="n">
         <v>126</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>401</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>19</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>51</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>101</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>151</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0MRf70gU</t>
+          <t>xKd5R3vn</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1830,49 +1830,49 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Royale Union SG</t>
+          <t>Gent</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Cercle Brugge KSV</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.48</v>
+        <v>2.9</v>
       </c>
       <c r="H8" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>5.75</v>
+        <v>2.3</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="K8" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L8" t="n">
-        <v>6</v>
+        <v>2.88</v>
       </c>
       <c r="M8" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
         <v>15</v>
       </c>
       <c r="O8" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P8" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R8" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S8" t="n">
         <v>1.3</v>
@@ -1881,76 +1881,76 @@
         <v>3.4</v>
       </c>
       <c r="U8" t="n">
-        <v>1.8</v>
+        <v>1.53</v>
       </c>
       <c r="V8" t="n">
-        <v>1.95</v>
+        <v>2.38</v>
       </c>
       <c r="W8" t="n">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="X8" t="n">
-        <v>7.5</v>
+        <v>17</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Z8" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AA8" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AB8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC8" t="n">
         <v>15</v>
       </c>
       <c r="AD8" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AE8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL8" t="n">
         <v>17</v>
       </c>
-      <c r="AF8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>41</v>
-      </c>
       <c r="AM8" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="AO8" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="AP8" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AQ8" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="AR8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS8" t="n">
         <v>126</v>
@@ -1959,31 +1959,31 @@
         <v>3.4</v>
       </c>
       <c r="AU8" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AV8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW8" t="n">
-        <v>151</v>
+        <v>401</v>
       </c>
       <c r="AX8" t="n">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="AY8" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="AZ8" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="BA8" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC8" t="n">
         <v>101</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>201</v>
       </c>
       <c r="BD8" t="n">
         <v>151</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>dUdg1Qxf</t>
+          <t>0MRf70gU</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2007,174 +2007,174 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
+          <t>BELGIUM - JUPILER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Eupen</t>
+          <t>Royale Union SG</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lokeren-Temse</t>
+          <t>Cercle Brugge KSV</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.75</v>
+        <v>1.42</v>
       </c>
       <c r="H9" t="n">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="I9" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="J9" t="n">
-        <v>2.38</v>
+        <v>1.91</v>
       </c>
       <c r="K9" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="O9" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="P9" t="n">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="Q9" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="R9" t="n">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="S9" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="T9" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U9" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="V9" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X9" t="n">
         <v>7</v>
-      </c>
-      <c r="X9" t="n">
-        <v>8</v>
       </c>
       <c r="Y9" t="n">
         <v>8.5</v>
       </c>
       <c r="Z9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC9" t="n">
         <v>13</v>
       </c>
-      <c r="AA9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>10</v>
-      </c>
       <c r="AD9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO9" t="n">
         <v>7</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AP9" t="n">
         <v>17</v>
       </c>
-      <c r="AF9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL9" t="n">
+      <c r="AQ9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR9" t="n">
         <v>41</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AS9" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>151</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ9" t="n">
         <v>41</v>
       </c>
-      <c r="AN9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS9" t="n">
+      <c r="BA9" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB9" t="n">
         <v>151</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>101</v>
       </c>
       <c r="BC9" t="n">
         <v>251</v>
       </c>
       <c r="BD9" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>WY38mDxe</t>
+          <t>dUdg1Qxf</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,65 +2184,65 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Tomayapo</t>
+          <t>Eupen</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Always Ready</t>
+          <t>Lokeren-Temse</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="H10" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="I10" t="n">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="J10" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L10" t="n">
+        <v>5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N10" t="n">
+        <v>11</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P10" t="n">
         <v>3.4</v>
       </c>
-      <c r="K10" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N10" t="n">
-        <v>9</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3</v>
-      </c>
       <c r="Q10" t="n">
-        <v>2.15</v>
+        <v>2.03</v>
       </c>
       <c r="R10" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="S10" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T10" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U10" t="n">
         <v>1.83</v>
@@ -2251,31 +2251,31 @@
         <v>1.83</v>
       </c>
       <c r="W10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X10" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="Y10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC10" t="n">
         <v>10</v>
       </c>
-      <c r="Z10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AD10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF10" t="n">
         <v>51</v>
@@ -2284,43 +2284,43 @@
         <v>301</v>
       </c>
       <c r="AH10" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AI10" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AJ10" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AK10" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AL10" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AM10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="AO10" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AP10" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AQ10" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AR10" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS10" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU10" t="n">
         <v>8.5</v>
@@ -2329,34 +2329,34 @@
         <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AX10" t="n">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="AY10" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AZ10" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="BA10" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB10" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD10" t="n">
         <v>81</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>r9RgWXfJ</t>
+          <t>WY38mDxe</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2371,156 +2371,156 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Tomayapo</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Atl. Nacional</t>
+          <t>Always Ready</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="H11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N11" t="n">
+        <v>9</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P11" t="n">
         <v>3</v>
       </c>
-      <c r="I11" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N11" t="n">
-        <v>7</v>
-      </c>
-      <c r="O11" t="n">
+      <c r="Q11" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S11" t="n">
         <v>1.44</v>
       </c>
-      <c r="P11" t="n">
+      <c r="T11" t="n">
         <v>2.63</v>
       </c>
-      <c r="Q11" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.38</v>
-      </c>
       <c r="U11" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="V11" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="W11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X11" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Y11" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Z11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB11" t="n">
         <v>34</v>
       </c>
-      <c r="AA11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>41</v>
-      </c>
       <c r="AC11" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AD11" t="n">
         <v>6</v>
       </c>
       <c r="AE11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG11" t="n">
         <v>301</v>
       </c>
       <c r="AH11" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AI11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>11</v>
       </c>
-      <c r="AJ11" t="n">
-        <v>10</v>
-      </c>
       <c r="AK11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL11" t="n">
         <v>23</v>
       </c>
       <c r="AM11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN11" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AP11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR11" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS11" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="AU11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW11" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="AX11" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="AY11" t="n">
         <v>15</v>
       </c>
       <c r="AZ11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA11" t="n">
         <v>51</v>
@@ -2529,16 +2529,16 @@
         <v>81</v>
       </c>
       <c r="BC11" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD11" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>nFiRhDad</t>
+          <t>r9RgWXfJ</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,158 +2548,158 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>CROATIA - HNL</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Gorica</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Istra 1961</t>
+          <t>Atl. Nacional</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="H12" t="n">
         <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="J12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L12" t="n">
         <v>3.25</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>7</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U12" t="n">
         <v>2</v>
       </c>
-      <c r="L12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N12" t="n">
+      <c r="V12" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W12" t="n">
         <v>8</v>
       </c>
-      <c r="O12" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W12" t="n">
-        <v>7.5</v>
-      </c>
       <c r="X12" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y12" t="n">
         <v>12</v>
       </c>
-      <c r="Y12" t="n">
-        <v>10</v>
-      </c>
       <c r="Z12" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AA12" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AB12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD12" t="n">
         <v>6</v>
       </c>
       <c r="AE12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG12" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH12" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AJ12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP12" t="n">
         <v>29</v>
       </c>
-      <c r="AL12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR12" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS12" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU12" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV12" t="n">
         <v>67</v>
       </c>
       <c r="AW12" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AX12" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="AY12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ12" t="n">
         <v>29</v>
@@ -2711,16 +2711,16 @@
         <v>81</v>
       </c>
       <c r="BC12" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD12" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>vXxMK1qA</t>
+          <t>MXVHsclL</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,179 +2730,179 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>CZECH REPUBLIC - CHANCE LIGA</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Plzen</t>
+          <t>EL Nacional</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Sparta Prague</t>
+          <t>Orense</t>
         </is>
       </c>
       <c r="G13" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>7</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q13" t="n">
         <v>2.3</v>
       </c>
-      <c r="H13" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N13" t="n">
-        <v>10</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.95</v>
-      </c>
       <c r="R13" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="S13" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="T13" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U13" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="V13" t="n">
-        <v>2.05</v>
+        <v>1.73</v>
       </c>
       <c r="W13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X13" t="n">
         <v>8.5</v>
-      </c>
-      <c r="X13" t="n">
-        <v>12</v>
       </c>
       <c r="Y13" t="n">
         <v>9.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AA13" t="n">
         <v>19</v>
       </c>
       <c r="AB13" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AC13" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AD13" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE13" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AF13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG13" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AH13" t="n">
         <v>10</v>
       </c>
       <c r="AI13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>15</v>
       </c>
-      <c r="AJ13" t="n">
-        <v>11</v>
-      </c>
       <c r="AK13" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AL13" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AM13" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AO13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP13" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ13" t="n">
         <v>41</v>
       </c>
       <c r="AR13" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS13" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="AU13" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV13" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW13" t="n">
-        <v>501</v>
+        <v>51</v>
       </c>
       <c r="AX13" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AY13" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AZ13" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="BA13" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB13" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BC13" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="BD13" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2D04uCm4</t>
+          <t>8tW7jPiT</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,41 +2912,41 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>DENMARK - SUPERLIGA</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Midtjylland</t>
+          <t>Mannheim</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Aarhus</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H14" t="n">
         <v>3.5</v>
       </c>
       <c r="I14" t="n">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="J14" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K14" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L14" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M14" t="n">
         <v>1.04</v>
@@ -2955,40 +2955,40 @@
         <v>13</v>
       </c>
       <c r="O14" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P14" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="R14" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="S14" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T14" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U14" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V14" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W14" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="X14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y14" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA14" t="n">
         <v>17</v>
@@ -2997,7 +2997,7 @@
         <v>23</v>
       </c>
       <c r="AC14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD14" t="n">
         <v>7</v>
@@ -3015,22 +3015,22 @@
         <v>11</v>
       </c>
       <c r="AI14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="n">
         <v>11</v>
       </c>
       <c r="AK14" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO14" t="n">
         <v>12</v>
@@ -3048,43 +3048,43 @@
         <v>126</v>
       </c>
       <c r="AT14" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU14" t="n">
         <v>7.5</v>
       </c>
       <c r="AV14" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW14" t="n">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="AX14" t="n">
         <v>5</v>
       </c>
       <c r="AY14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA14" t="n">
         <v>51</v>
       </c>
       <c r="BB14" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC14" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD14" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MXVHsclL</t>
+          <t>tK16YTIa</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,170 +3094,170 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>ICELAND - BESTA DEILD KARLA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>EL Nacional</t>
+          <t>Vikingur Reykjavik</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Orense</t>
+          <t>Breidablik</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="J15" t="n">
-        <v>2.88</v>
+        <v>2.4</v>
       </c>
       <c r="K15" t="n">
-        <v>2.05</v>
+        <v>2.47</v>
       </c>
       <c r="L15" t="n">
-        <v>4.33</v>
+        <v>3.45</v>
       </c>
       <c r="M15" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>7.5</v>
+        <v>9.75</v>
       </c>
       <c r="O15" t="n">
-        <v>1.4</v>
+        <v>1.14</v>
       </c>
       <c r="P15" t="n">
-        <v>2.75</v>
+        <v>4.9</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.25</v>
+        <v>1.45</v>
       </c>
       <c r="R15" t="n">
-        <v>1.62</v>
+        <v>2.57</v>
       </c>
       <c r="S15" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="T15" t="n">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="U15" t="n">
-        <v>1.91</v>
+        <v>1.45</v>
       </c>
       <c r="V15" t="n">
-        <v>1.8</v>
+        <v>2.57</v>
       </c>
       <c r="W15" t="n">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="X15" t="n">
-        <v>9</v>
+        <v>12.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z15" t="n">
         <v>19</v>
       </c>
       <c r="AA15" t="n">
-        <v>19</v>
+        <v>13.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.5</v>
+        <v>9.75</v>
       </c>
       <c r="AD15" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>15</v>
+        <v>11.75</v>
       </c>
       <c r="AF15" t="n">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="AG15" t="n">
-        <v>351</v>
+        <v>175</v>
       </c>
       <c r="AH15" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AO15" t="n">
         <v>9.5</v>
       </c>
-      <c r="AI15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>12</v>
-      </c>
       <c r="AP15" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="AQ15" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AR15" t="n">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AS15" t="n">
-        <v>201</v>
+        <v>120</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="AU15" t="n">
-        <v>8.5</v>
+        <v>6.4</v>
       </c>
       <c r="AV15" t="n">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="AW15" t="n">
-        <v>51</v>
+        <v>500</v>
       </c>
       <c r="AX15" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="AY15" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AZ15" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="BA15" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="BB15" t="n">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="BC15" t="n">
-        <v>251</v>
+        <v>150</v>
       </c>
       <c r="BD15" t="n">
         <v>51</v>
@@ -3266,7 +3266,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>8tW7jPiT</t>
+          <t>vuPiNori</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,167 +3276,167 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>GERMANY - 3. LIGA</t>
+          <t>IRELAND - PREMIER DIVISION</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Mannheim</t>
+          <t>Dundalk</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.25</v>
+        <v>9</v>
       </c>
       <c r="H16" t="n">
-        <v>3.5</v>
+        <v>6.25</v>
       </c>
       <c r="I16" t="n">
-        <v>2.75</v>
+        <v>1.25</v>
       </c>
       <c r="J16" t="n">
-        <v>2.88</v>
+        <v>9.5</v>
       </c>
       <c r="K16" t="n">
-        <v>2.3</v>
+        <v>2.63</v>
       </c>
       <c r="L16" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N16" t="n">
+        <v>17</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T16" t="n">
         <v>3.4</v>
       </c>
-      <c r="M16" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N16" t="n">
-        <v>13</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P16" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R16" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T16" t="n">
-        <v>3.25</v>
-      </c>
       <c r="U16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V16" t="n">
         <v>1.62</v>
       </c>
-      <c r="V16" t="n">
-        <v>2.2</v>
-      </c>
       <c r="W16" t="n">
+        <v>21</v>
+      </c>
+      <c r="X16" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>126</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>251</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>251</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>401</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU16" t="n">
         <v>10</v>
       </c>
-      <c r="X16" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AV16" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AW16" t="n">
         <v>81</v>
       </c>
       <c r="AX16" t="n">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="AY16" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA16" t="n">
         <v>15</v>
       </c>
-      <c r="AZ16" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>51</v>
-      </c>
       <c r="BB16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BC16" t="n">
         <v>126</v>
@@ -3448,7 +3448,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>tK16YTIa</t>
+          <t>YRV3Z0Sj</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,170 +3458,170 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ICELAND - BESTA DEILD KARLA</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Vikingur Reykjavik</t>
+          <t>Leones Negros</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Breidablik</t>
+          <t>Celaya</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="H17" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="I17" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="J17" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="K17" t="n">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="L17" t="n">
-        <v>3.35</v>
+        <v>3.8</v>
       </c>
       <c r="M17" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="O17" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="P17" t="n">
-        <v>4.8</v>
+        <v>3</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.45</v>
+        <v>1.9</v>
       </c>
       <c r="R17" t="n">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="S17" t="n">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="T17" t="n">
-        <v>3.55</v>
+        <v>2.47</v>
       </c>
       <c r="U17" t="n">
-        <v>1.44</v>
+        <v>1.65</v>
       </c>
       <c r="V17" t="n">
-        <v>2.57</v>
+        <v>2</v>
       </c>
       <c r="W17" t="n">
-        <v>12</v>
+        <v>7.8</v>
       </c>
       <c r="X17" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AA17" t="n">
-        <v>14</v>
+        <v>17.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AD17" t="n">
-        <v>8.25</v>
+        <v>6</v>
       </c>
       <c r="AE17" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AF17" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="AG17" t="n">
-        <v>175</v>
+        <v>400</v>
       </c>
       <c r="AH17" t="n">
-        <v>15.5</v>
+        <v>10.25</v>
       </c>
       <c r="AI17" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AJ17" t="n">
         <v>11.25</v>
       </c>
       <c r="AK17" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AL17" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AM17" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AN17" t="n">
-        <v>4.45</v>
+        <v>4.05</v>
       </c>
       <c r="AO17" t="n">
-        <v>9.75</v>
+        <v>11.5</v>
       </c>
       <c r="AP17" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AQ17" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="AR17" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AS17" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>24</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>90</v>
+      </c>
+      <c r="BB17" t="n">
         <v>120</v>
       </c>
-      <c r="AT17" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>37</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>450</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>60</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>70</v>
-      </c>
       <c r="BC17" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="BD17" t="n">
         <v>51</v>
@@ -3630,7 +3630,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>vuPiNori</t>
+          <t>OMoZtZZ5</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3640,41 +3640,41 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>IRELAND - PREMIER DIVISION</t>
+          <t>NORWAY - ELITESERIEN</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Dundalk</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>9</v>
+        <v>1.48</v>
       </c>
       <c r="H18" t="n">
-        <v>6.25</v>
+        <v>4.75</v>
       </c>
       <c r="I18" t="n">
-        <v>1.25</v>
+        <v>5.5</v>
       </c>
       <c r="J18" t="n">
-        <v>9.5</v>
+        <v>2</v>
       </c>
       <c r="K18" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="L18" t="n">
-        <v>1.67</v>
+        <v>6</v>
       </c>
       <c r="M18" t="n">
         <v>1.03</v>
@@ -3683,136 +3683,136 @@
         <v>17</v>
       </c>
       <c r="O18" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P18" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="R18" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S18" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T18" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U18" t="n">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="V18" t="n">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="W18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X18" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB18" t="n">
         <v>21</v>
       </c>
-      <c r="X18" t="n">
+      <c r="AC18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL18" t="n">
         <v>41</v>
       </c>
-      <c r="Y18" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>126</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>67</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE18" t="n">
+      <c r="AM18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AY18" t="n">
         <v>29</v>
       </c>
-      <c r="AF18" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>6</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>251</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>251</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>401</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AZ18" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="BA18" t="n">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="BB18" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="BC18" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="BD18" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>YRV3Z0Sj</t>
+          <t>WMN2M3ke</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3827,174 +3827,174 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Leones Negros</t>
+          <t>Sport Boys</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Celaya</t>
+          <t>Cajamarca</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.18</v>
+        <v>2.6</v>
       </c>
       <c r="H19" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I19" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J19" t="n">
         <v>3.25</v>
       </c>
-      <c r="J19" t="n">
-        <v>2.82</v>
-      </c>
       <c r="K19" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L19" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M19" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>9.449999999999999</v>
+        <v>9</v>
       </c>
       <c r="O19" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P19" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="R19" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="S19" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="T19" t="n">
-        <v>2.47</v>
+        <v>2.63</v>
       </c>
       <c r="U19" t="n">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
       <c r="V19" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="W19" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="X19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y19" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC19" t="n">
         <v>8.5</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>9.25</v>
       </c>
       <c r="AD19" t="n">
         <v>6</v>
       </c>
       <c r="AE19" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AF19" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AG19" t="n">
-        <v>400</v>
+        <v>251</v>
       </c>
       <c r="AH19" t="n">
-        <v>10.25</v>
+        <v>8.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AJ19" t="n">
         <v>11</v>
       </c>
       <c r="AK19" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="AL19" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AM19" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AN19" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>11.75</v>
+        <v>15</v>
       </c>
       <c r="AP19" t="n">
-        <v>19.5</v>
+        <v>26</v>
       </c>
       <c r="AQ19" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AR19" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="AS19" t="n">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.45</v>
+        <v>2.63</v>
       </c>
       <c r="AU19" t="n">
-        <v>6.7</v>
+        <v>8</v>
       </c>
       <c r="AV19" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AW19" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="AX19" t="n">
-        <v>5.1</v>
+        <v>4.75</v>
       </c>
       <c r="AY19" t="n">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="AZ19" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BA19" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="BB19" t="n">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="BC19" t="n">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="BD19" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>OMoZtZZ5</t>
+          <t>Kr4croCE</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4004,170 +4004,170 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NORWAY - ELITESERIEN</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Union Comercio</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Sporting Cristal</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.48</v>
+        <v>15</v>
       </c>
       <c r="H20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="J20" t="n">
+        <v>12</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N20" t="n">
+        <v>19</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="T20" t="n">
+        <v>5</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W20" t="n">
+        <v>41</v>
+      </c>
+      <c r="X20" t="n">
+        <v>81</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>251</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>101</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>301</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>201</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>151</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AY20" t="n">
         <v>4.75</v>
       </c>
-      <c r="I20" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L20" t="n">
-        <v>6</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N20" t="n">
-        <v>17</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P20" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R20" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T20" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V20" t="n">
-        <v>2</v>
-      </c>
-      <c r="W20" t="n">
+      <c r="AZ20" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA20" t="n">
         <v>8.5</v>
       </c>
-      <c r="X20" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>501</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>101</v>
-      </c>
       <c r="BB20" t="n">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="BC20" t="n">
-        <v>201</v>
+        <v>81</v>
       </c>
       <c r="BD20" t="n">
         <v>151</v>
@@ -4176,7 +4176,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>WMN2M3ke</t>
+          <t>O2JaVHO7</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4186,98 +4186,98 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Sport Boys</t>
+          <t>Legia</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Cajamarca</t>
+          <t>GKS Katowice</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.5</v>
+        <v>1.62</v>
       </c>
       <c r="H21" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="I21" t="n">
-        <v>2.88</v>
+        <v>5</v>
       </c>
       <c r="J21" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="K21" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L21" t="n">
+        <v>5</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N21" t="n">
+        <v>12</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R21" t="n">
         <v>2.05</v>
       </c>
-      <c r="L21" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N21" t="n">
-        <v>9</v>
-      </c>
-      <c r="O21" t="n">
+      <c r="S21" t="n">
         <v>1.33</v>
       </c>
-      <c r="P21" t="n">
+      <c r="T21" t="n">
         <v>3.25</v>
       </c>
-      <c r="Q21" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.63</v>
-      </c>
       <c r="U21" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V21" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="W21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X21" t="n">
         <v>8</v>
       </c>
-      <c r="X21" t="n">
+      <c r="Y21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z21" t="n">
         <v>12</v>
       </c>
-      <c r="Y21" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z21" t="n">
+      <c r="AA21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB21" t="n">
         <v>23</v>
       </c>
-      <c r="AA21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>34</v>
-      </c>
       <c r="AC21" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AD21" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF21" t="n">
         <v>51</v>
@@ -4286,43 +4286,43 @@
         <v>251</v>
       </c>
       <c r="AH21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO21" t="n">
         <v>8.5</v>
       </c>
-      <c r="AI21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>15</v>
-      </c>
       <c r="AP21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ21" t="n">
         <v>26</v>
       </c>
-      <c r="AQ21" t="n">
-        <v>51</v>
-      </c>
       <c r="AR21" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AS21" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="AU21" t="n">
         <v>8</v>
@@ -4331,34 +4331,34 @@
         <v>51</v>
       </c>
       <c r="AW21" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="AX21" t="n">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="AY21" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AZ21" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="BA21" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB21" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC21" t="n">
         <v>201</v>
       </c>
       <c r="BD21" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Kr4croCE</t>
+          <t>UgROMuvK</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4373,174 +4373,174 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Union Comercio</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Sporting Cristal</t>
+          <t>Rio Ave</t>
         </is>
       </c>
       <c r="G22" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+      <c r="I22" t="n">
         <v>15</v>
       </c>
-      <c r="H22" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1.09</v>
-      </c>
       <c r="J22" t="n">
-        <v>12</v>
+        <v>1.44</v>
       </c>
       <c r="K22" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="L22" t="n">
-        <v>1.4</v>
+        <v>13</v>
       </c>
       <c r="M22" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O22" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P22" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="T22" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X22" t="n">
         <v>6.5</v>
       </c>
-      <c r="Q22" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="R22" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="T22" t="n">
-        <v>5</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W22" t="n">
+      <c r="Y22" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH22" t="n">
         <v>41</v>
       </c>
-      <c r="X22" t="n">
+      <c r="AI22" t="n">
         <v>81</v>
       </c>
-      <c r="Y22" t="n">
+      <c r="AJ22" t="n">
         <v>41</v>
       </c>
-      <c r="Z22" t="n">
+      <c r="AK22" t="n">
         <v>251</v>
       </c>
-      <c r="AA22" t="n">
+      <c r="AL22" t="n">
         <v>101</v>
       </c>
-      <c r="AB22" t="n">
+      <c r="AM22" t="n">
+        <v>81</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV22" t="n">
         <v>67</v>
       </c>
-      <c r="AC22" t="n">
-        <v>26</v>
-      </c>
-      <c r="AD22" t="n">
+      <c r="AW22" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX22" t="n">
         <v>15</v>
       </c>
-      <c r="AE22" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ22" t="n">
+      <c r="AY22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>401</v>
+      </c>
+      <c r="BB22" t="n">
         <v>301</v>
       </c>
-      <c r="AR22" t="n">
-        <v>201</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>5</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>151</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>13</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>9</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>26</v>
-      </c>
       <c r="BC22" t="n">
-        <v>81</v>
+        <v>451</v>
       </c>
       <c r="BD22" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>O2JaVHO7</t>
+          <t>YPYTi5lL</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4550,179 +4550,179 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Legia</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>GKS Katowice</t>
+          <t>FC Rapid Bucuresti</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="H23" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="I23" t="n">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="J23" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="K23" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L23" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M23" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O23" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P23" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
       <c r="R23" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="S23" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T23" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U23" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V23" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W23" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X23" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="Y23" t="n">
         <v>8.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AA23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC23" t="n">
         <v>12</v>
       </c>
       <c r="AD23" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF23" t="n">
         <v>51</v>
       </c>
       <c r="AG23" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH23" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI23" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AJ23" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AK23" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL23" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AM23" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN23" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="AO23" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AP23" t="n">
         <v>19</v>
       </c>
       <c r="AQ23" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AR23" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS23" t="n">
         <v>126</v>
       </c>
       <c r="AT23" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU23" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV23" t="n">
         <v>51</v>
       </c>
       <c r="AW23" t="n">
-        <v>501</v>
+        <v>51</v>
       </c>
       <c r="AX23" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="AY23" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AZ23" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="BA23" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BB23" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC23" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD23" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>UgROMuvK</t>
+          <t>CtPzu3dt</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4737,174 +4737,174 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Napredak</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Rio Ave</t>
+          <t>TSC</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.13</v>
+        <v>4.25</v>
       </c>
       <c r="H24" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="J24" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N24" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V24" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W24" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="X24" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>35</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>120</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>150</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AY24" t="n">
         <v>8.5</v>
       </c>
-      <c r="I24" t="n">
-        <v>15</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="K24" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L24" t="n">
-        <v>12</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N24" t="n">
-        <v>23</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P24" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R24" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="T24" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="U24" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W24" t="n">
-        <v>10</v>
-      </c>
-      <c r="X24" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>67</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>251</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>101</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>81</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>10</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>29</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>51</v>
-      </c>
       <c r="AZ24" t="n">
-        <v>51</v>
+        <v>16.5</v>
       </c>
       <c r="BA24" t="n">
-        <v>351</v>
+        <v>28</v>
       </c>
       <c r="BB24" t="n">
-        <v>301</v>
+        <v>55</v>
       </c>
       <c r="BC24" t="n">
-        <v>401</v>
+        <v>200</v>
       </c>
       <c r="BD24" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>YPYTi5lL</t>
+          <t>A188XxeU</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4919,165 +4919,165 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Radnicki Nis</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>FC Rapid Bucuresti</t>
+          <t>Mladost</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="H25" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="I25" t="n">
-        <v>3.2</v>
+        <v>4.35</v>
       </c>
       <c r="J25" t="n">
-        <v>2.6</v>
+        <v>2.37</v>
       </c>
       <c r="K25" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L25" t="n">
-        <v>4</v>
+        <v>4.65</v>
       </c>
       <c r="M25" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>13</v>
+        <v>7.4</v>
       </c>
       <c r="O25" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="P25" t="n">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="Q25" t="n">
         <v>1.85</v>
       </c>
       <c r="R25" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="S25" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T25" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="U25" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="V25" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="W25" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="X25" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Y25" t="n">
         <v>8</v>
       </c>
-      <c r="X25" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB25" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AC25" t="n">
-        <v>12</v>
+        <v>7.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>7.5</v>
+        <v>6.6</v>
       </c>
       <c r="AE25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF25" t="n">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="AG25" t="n">
-        <v>201</v>
+        <v>500</v>
       </c>
       <c r="AH25" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AJ25" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AK25" t="n">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AL25" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="AM25" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="AN25" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="AO25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ25" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AR25" t="n">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="AS25" t="n">
-        <v>126</v>
+        <v>250</v>
       </c>
       <c r="AT25" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="AU25" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="AV25" t="n">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="AW25" t="n">
         <v>51</v>
       </c>
       <c r="AX25" t="n">
-        <v>5.5</v>
+        <v>6.1</v>
       </c>
       <c r="AY25" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AZ25" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="BA25" t="n">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="BB25" t="n">
-        <v>81</v>
+        <v>175</v>
       </c>
       <c r="BC25" t="n">
-        <v>151</v>
+        <v>400</v>
       </c>
       <c r="BD25" t="n">
         <v>51</v>
@@ -5086,7 +5086,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CtPzu3dt</t>
+          <t>MmvjL6KO</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5096,170 +5096,170 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>SLOVENIA - PRVA LIGA</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Napredak</t>
+          <t>O. Ljubljana</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>TSC</t>
+          <t>Domzale</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>4.4</v>
+        <v>1.28</v>
       </c>
       <c r="H26" t="n">
-        <v>3.85</v>
+        <v>4.8</v>
       </c>
       <c r="I26" t="n">
-        <v>1.7</v>
+        <v>11.5</v>
       </c>
       <c r="J26" t="n">
-        <v>4.6</v>
+        <v>1.75</v>
       </c>
       <c r="K26" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="L26" t="n">
-        <v>2.22</v>
+        <v>8.75</v>
       </c>
       <c r="M26" t="n">
         <v>1.04</v>
       </c>
       <c r="N26" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="O26" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P26" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="Q26" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V26" t="n">
         <v>1.65</v>
       </c>
-      <c r="R26" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="T26" t="n">
+      <c r="W26" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X26" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>450</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN26" t="n">
         <v>3</v>
       </c>
-      <c r="U26" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V26" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="W26" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="X26" t="n">
-        <v>27</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>75</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>37</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>37</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF26" t="n">
+      <c r="AO26" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AR26" t="n">
         <v>50</v>
       </c>
-      <c r="AG26" t="n">
-        <v>350</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>24</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>28</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>150</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>150</v>
-      </c>
       <c r="AS26" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="AT26" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="AU26" t="n">
-        <v>7.1</v>
+        <v>9</v>
       </c>
       <c r="AV26" t="n">
+        <v>90</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>65</v>
+      </c>
+      <c r="AZ26" t="n">
         <v>55</v>
       </c>
-      <c r="AW26" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>15.5</v>
-      </c>
       <c r="BA26" t="n">
-        <v>26</v>
+        <v>500</v>
       </c>
       <c r="BB26" t="n">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="BC26" t="n">
-        <v>175</v>
+        <v>51</v>
       </c>
       <c r="BD26" t="n">
         <v>51</v>
@@ -5268,7 +5268,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A188XxeU</t>
+          <t>EkmPPou9</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5278,718 +5278,172 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Radnicki Nis</t>
+          <t>Granada CF</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Mladost</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.78</v>
+        <v>2.05</v>
       </c>
       <c r="H27" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I27" t="n">
-        <v>4.35</v>
+        <v>3.7</v>
       </c>
       <c r="J27" t="n">
-        <v>2.37</v>
+        <v>2.75</v>
       </c>
       <c r="K27" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L27" t="n">
-        <v>4.65</v>
+        <v>4</v>
       </c>
       <c r="M27" t="n">
         <v>1.06</v>
       </c>
       <c r="N27" t="n">
-        <v>7.4</v>
+        <v>10</v>
       </c>
       <c r="O27" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="P27" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="R27" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S27" t="n">
         <v>1.4</v>
       </c>
       <c r="T27" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="U27" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="V27" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="W27" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="X27" t="n">
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="Y27" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU27" t="n">
         <v>8</v>
       </c>
-      <c r="Z27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>25</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>75</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>45</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>32</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>65</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>7.2</v>
-      </c>
       <c r="AV27" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AW27" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AX27" t="n">
-        <v>6.1</v>
+        <v>5.5</v>
       </c>
       <c r="AY27" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AZ27" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="BA27" t="n">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="BB27" t="n">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="BC27" t="n">
-        <v>400</v>
+        <v>151</v>
       </c>
       <c r="BD27" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>MmvjL6KO</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>27/10/2024</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>16:15</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>SLOVENIA - PRVA LIGA</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>O. Ljubljana</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Domzale</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="H28" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="I28" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="K28" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L28" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N28" t="n">
-        <v>8</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P28" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R28" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="T28" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="U28" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W28" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X28" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>150</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>37</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>450</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>200</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>45</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>110</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>80</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>70</v>
-      </c>
-      <c r="BA28" t="n">
-        <v>500</v>
-      </c>
-      <c r="BB28" t="n">
-        <v>500</v>
-      </c>
-      <c r="BC28" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD28" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>tO9rD8e3</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>27/10/2024</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>14:30</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>SPAIN - LALIGA2</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Albacete</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Gijon</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H29" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>3</v>
-      </c>
-      <c r="J29" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K29" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L29" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N29" t="n">
-        <v>8</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P29" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T29" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W29" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X29" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP29" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ29" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR29" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS29" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT29" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU29" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW29" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX29" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AY29" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ29" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA29" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB29" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC29" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD29" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>AHtYNP9L</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>27/10/2024</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>14:30</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>SPAIN - LALIGA2</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Huesca</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Almeria</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H30" t="n">
-        <v>3</v>
-      </c>
-      <c r="I30" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="J30" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K30" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L30" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N30" t="n">
-        <v>8</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P30" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S30" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T30" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V30" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W30" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X30" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR30" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW30" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX30" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AY30" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ30" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA30" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB30" t="n">
-        <v>67</v>
-      </c>
-      <c r="BC30" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD30" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD27"/>
+  <dimension ref="A1:BD23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -759,10 +759,10 @@
         <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L2" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
@@ -789,16 +789,16 @@
         <v>3.5</v>
       </c>
       <c r="U2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V2" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W2" t="n">
         <v>17</v>
       </c>
       <c r="X2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y2" t="n">
         <v>15</v>
@@ -837,7 +837,7 @@
         <v>8.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL2" t="n">
         <v>13</v>
@@ -885,7 +885,7 @@
         <v>15</v>
       </c>
       <c r="BA2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BB2" t="n">
         <v>41</v>
@@ -929,34 +929,34 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="J3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L3" t="n">
         <v>3</v>
       </c>
-      <c r="K3" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3.1</v>
-      </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O3" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P3" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q3" t="n">
         <v>1.62</v>
@@ -965,10 +965,10 @@
         <v>2.3</v>
       </c>
       <c r="S3" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U3" t="n">
         <v>1.5</v>
@@ -989,16 +989,16 @@
         <v>26</v>
       </c>
       <c r="AA3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC3" t="n">
         <v>15</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE3" t="n">
         <v>11</v>
@@ -1010,16 +1010,16 @@
         <v>101</v>
       </c>
       <c r="AH3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL3" t="n">
         <v>19</v>
@@ -1028,7 +1028,7 @@
         <v>23</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO3" t="n">
         <v>13</v>
@@ -1046,7 +1046,7 @@
         <v>101</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU3" t="n">
         <v>7</v>
@@ -1058,7 +1058,7 @@
         <v>351</v>
       </c>
       <c r="AX3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AY3" t="n">
         <v>13</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="H4" t="n">
         <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J4" t="n">
         <v>3</v>
@@ -1126,7 +1126,7 @@
         <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
@@ -1141,10 +1141,10 @@
         <v>3.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="R4" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="S4" t="n">
         <v>1.4</v>
@@ -1162,13 +1162,13 @@
         <v>8</v>
       </c>
       <c r="X4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y4" t="n">
         <v>9.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA4" t="n">
         <v>19</v>
@@ -1207,10 +1207,10 @@
         <v>23</v>
       </c>
       <c r="AM4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO4" t="n">
         <v>13</v>
@@ -1237,7 +1237,7 @@
         <v>51</v>
       </c>
       <c r="AW4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AX4" t="n">
         <v>5</v>
@@ -1246,7 +1246,7 @@
         <v>17</v>
       </c>
       <c r="AZ4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA4" t="n">
         <v>51</v>
@@ -1305,10 +1305,10 @@
         <v>2.25</v>
       </c>
       <c r="K5" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L5" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
         <v>1.04</v>
@@ -1323,10 +1323,10 @@
         <v>4</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R5" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S5" t="n">
         <v>1.33</v>
@@ -1335,10 +1335,10 @@
         <v>3.25</v>
       </c>
       <c r="U5" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="V5" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W5" t="n">
         <v>8</v>
@@ -1407,7 +1407,7 @@
         <v>41</v>
       </c>
       <c r="AS5" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT5" t="n">
         <v>3.25</v>
@@ -1434,10 +1434,10 @@
         <v>81</v>
       </c>
       <c r="BB5" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC5" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD5" t="n">
         <v>151</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>842EOIGL</t>
+          <t>jiAoNQdE</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1466,31 +1466,31 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Betis</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Atl. Madrid</t>
+          <t>Osasuna</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="I6" t="n">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>2.38</v>
       </c>
       <c r="K6" t="n">
         <v>2.1</v>
       </c>
       <c r="L6" t="n">
-        <v>2.88</v>
+        <v>5.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
@@ -1499,10 +1499,10 @@
         <v>9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P6" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="n">
         <v>2.2</v>
@@ -1517,76 +1517,76 @@
         <v>2.63</v>
       </c>
       <c r="U6" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="V6" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="W6" t="n">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="X6" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>17</v>
       </c>
-      <c r="Y6" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z6" t="n">
+      <c r="AK6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL6" t="n">
         <v>41</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AM6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>29</v>
       </c>
-      <c r="AB6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>67</v>
-      </c>
       <c r="AR6" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS6" t="n">
         <v>201</v>
@@ -1595,31 +1595,31 @@
         <v>2.63</v>
       </c>
       <c r="AU6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW6" t="n">
         <v>126</v>
       </c>
       <c r="AX6" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="AY6" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="AZ6" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="BA6" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="BB6" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="BC6" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="BD6" t="n">
         <v>151</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>rsqBW6tK</t>
+          <t>dlPoQ4Jm</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1648,160 +1648,160 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Platense</t>
+          <t>Banfield</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Argentinos Jrs</t>
+          <t>Racing Club</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L7" t="n">
         <v>3.4</v>
       </c>
-      <c r="J7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="L7" t="n">
-        <v>4.5</v>
-      </c>
       <c r="M7" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="P7" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="R7" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="S7" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="T7" t="n">
-        <v>2.08</v>
+        <v>2.25</v>
       </c>
       <c r="U7" t="n">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="V7" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="W7" t="n">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="X7" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="Y7" t="n">
         <v>12</v>
       </c>
       <c r="Z7" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AA7" t="n">
         <v>29</v>
       </c>
       <c r="AB7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC7" t="n">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="AD7" t="n">
         <v>6</v>
       </c>
       <c r="AE7" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AF7" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AG7" t="n">
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="AH7" t="n">
         <v>6.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AJ7" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AK7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM7" t="n">
         <v>41</v>
       </c>
-      <c r="AL7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>51</v>
-      </c>
       <c r="AN7" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="AO7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR7" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AS7" t="n">
-        <v>451</v>
+        <v>301</v>
       </c>
       <c r="AT7" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AU7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AV7" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AW7" t="n">
         <v>126</v>
       </c>
       <c r="AX7" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="AY7" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AZ7" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="BA7" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB7" t="n">
         <v>81</v>
       </c>
-      <c r="BB7" t="n">
-        <v>151</v>
-      </c>
       <c r="BC7" t="n">
-        <v>501</v>
+        <v>251</v>
       </c>
       <c r="BD7" t="n">
         <v>126</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>xKd5R3vn</t>
+          <t>0MRf70gU</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1830,31 +1830,31 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Gent</t>
+          <t>Royale Union SG</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Cercle Brugge KSV</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.9</v>
+        <v>1.42</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="I8" t="n">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>1.91</v>
       </c>
       <c r="K8" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L8" t="n">
-        <v>2.88</v>
+        <v>7</v>
       </c>
       <c r="M8" t="n">
         <v>1.03</v>
@@ -1863,127 +1863,127 @@
         <v>15</v>
       </c>
       <c r="O8" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="P8" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="R8" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="S8" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T8" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U8" t="n">
-        <v>1.53</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>2.38</v>
+        <v>1.75</v>
       </c>
       <c r="W8" t="n">
+        <v>7</v>
+      </c>
+      <c r="X8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA8" t="n">
         <v>12</v>
-      </c>
-      <c r="X8" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>21</v>
       </c>
       <c r="AB8" t="n">
         <v>26</v>
       </c>
       <c r="AC8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO8" t="n">
         <v>7</v>
       </c>
-      <c r="AE8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>15</v>
-      </c>
       <c r="AP8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ8" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="AR8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS8" t="n">
         <v>126</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AV8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>151</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ8" t="n">
         <v>41</v>
       </c>
-      <c r="AW8" t="n">
-        <v>401</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>19</v>
-      </c>
       <c r="BA8" t="n">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="BB8" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BC8" t="n">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="BD8" t="n">
         <v>151</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0MRf70gU</t>
+          <t>dUdg1Qxf</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2007,174 +2007,174 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>BELGIUM - JUPILER PRO LEAGUE</t>
+          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Royale Union SG</t>
+          <t>Eupen</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Cercle Brugge KSV</t>
+          <t>Lokeren-Temse</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.42</v>
+        <v>1.75</v>
       </c>
       <c r="H9" t="n">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="I9" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="J9" t="n">
-        <v>1.91</v>
+        <v>2.38</v>
       </c>
       <c r="K9" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L9" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O9" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="P9" t="n">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.7</v>
+        <v>2.03</v>
       </c>
       <c r="R9" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="S9" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="T9" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U9" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="V9" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W9" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y9" t="n">
         <v>8.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AA9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH9" t="n">
         <v>12</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AI9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY9" t="n">
         <v>26</v>
       </c>
-      <c r="AC9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI9" t="n">
+      <c r="AZ9" t="n">
         <v>34</v>
       </c>
-      <c r="AJ9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK9" t="n">
+      <c r="BA9" t="n">
         <v>81</v>
       </c>
-      <c r="AL9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>151</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>126</v>
-      </c>
       <c r="BB9" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="BC9" t="n">
         <v>251</v>
       </c>
       <c r="BD9" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>dUdg1Qxf</t>
+          <t>WY38mDxe</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,65 +2184,65 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Eupen</t>
+          <t>Tomayapo</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Lokeren-Temse</t>
+          <t>Always Ready</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.75</v>
+        <v>2.6</v>
       </c>
       <c r="H10" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="I10" t="n">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="J10" t="n">
-        <v>2.38</v>
+        <v>3.4</v>
       </c>
       <c r="K10" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="P10" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.03</v>
+        <v>2.15</v>
       </c>
       <c r="R10" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="S10" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T10" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U10" t="n">
         <v>1.83</v>
@@ -2251,31 +2251,31 @@
         <v>1.83</v>
       </c>
       <c r="W10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X10" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Y10" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC10" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA10" t="n">
+      <c r="AD10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE10" t="n">
         <v>15</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>17</v>
       </c>
       <c r="AF10" t="n">
         <v>51</v>
@@ -2284,43 +2284,43 @@
         <v>301</v>
       </c>
       <c r="AH10" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AI10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL10" t="n">
         <v>23</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AM10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO10" t="n">
         <v>15</v>
       </c>
-      <c r="AK10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>9</v>
-      </c>
       <c r="AP10" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ10" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AR10" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS10" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU10" t="n">
         <v>8.5</v>
@@ -2329,34 +2329,34 @@
         <v>51</v>
       </c>
       <c r="AW10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB10" t="n">
         <v>81</v>
       </c>
-      <c r="AX10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>101</v>
-      </c>
       <c r="BC10" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD10" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>WY38mDxe</t>
+          <t>r9RgWXfJ</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2371,174 +2371,174 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Tomayapo</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Always Ready</t>
+          <t>Atl. Nacional</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="H11" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="J11" t="n">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="K11" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L11" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O11" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="P11" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="R11" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="S11" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="T11" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="U11" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="W11" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="X11" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Y11" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Z11" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AA11" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AB11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AD11" t="n">
         <v>6</v>
       </c>
       <c r="AE11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG11" t="n">
         <v>301</v>
       </c>
       <c r="AH11" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AJ11" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AL11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM11" t="n">
         <v>34</v>
       </c>
       <c r="AN11" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AO11" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AP11" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AQ11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR11" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS11" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="AU11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW11" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="AX11" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="AY11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ11" t="n">
         <v>26</v>
       </c>
       <c r="BA11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB11" t="n">
         <v>81</v>
       </c>
       <c r="BC11" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD11" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>r9RgWXfJ</t>
+          <t>AcSDrwZE</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,179 +2548,179 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Barcelona SC</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Atl. Nacional</t>
+          <t>Delfin</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="I12" t="n">
-        <v>2.4</v>
+        <v>7</v>
       </c>
       <c r="J12" t="n">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="K12" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="L12" t="n">
+        <v>7</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N12" t="n">
+        <v>10</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P12" t="n">
         <v>3.25</v>
       </c>
-      <c r="M12" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N12" t="n">
-        <v>7</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="Q12" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S12" t="n">
         <v>1.44</v>
       </c>
-      <c r="P12" t="n">
+      <c r="T12" t="n">
         <v>2.63</v>
       </c>
-      <c r="Q12" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.38</v>
-      </c>
       <c r="U12" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="V12" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="W12" t="n">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="X12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA12" t="n">
         <v>15</v>
       </c>
-      <c r="Y12" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z12" t="n">
+      <c r="AB12" t="n">
         <v>34</v>
       </c>
-      <c r="AA12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>41</v>
-      </c>
       <c r="AC12" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF12" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG12" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH12" t="n">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="AI12" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="AJ12" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AK12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ12" t="n">
         <v>23</v>
       </c>
-      <c r="AL12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>67</v>
-      </c>
       <c r="AR12" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AS12" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="AU12" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV12" t="n">
         <v>67</v>
       </c>
       <c r="AW12" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="AX12" t="n">
-        <v>4.33</v>
+        <v>7.5</v>
       </c>
       <c r="AY12" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AZ12" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="BA12" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BB12" t="n">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="BC12" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BD12" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MXVHsclL</t>
+          <t>8tW7jPiT</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,179 +2730,179 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>EL Nacional</t>
+          <t>Mannheim</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Orense</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>2.35</v>
       </c>
       <c r="H13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J13" t="n">
         <v>3</v>
       </c>
-      <c r="I13" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2.75</v>
-      </c>
       <c r="K13" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L13" t="n">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="M13" t="n">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="O13" t="n">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="P13" t="n">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.3</v>
+        <v>1.73</v>
       </c>
       <c r="R13" t="n">
-        <v>1.6</v>
+        <v>2.08</v>
       </c>
       <c r="S13" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="T13" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U13" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="V13" t="n">
-        <v>1.73</v>
+        <v>2.2</v>
       </c>
       <c r="W13" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="X13" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="Y13" t="n">
         <v>9.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AA13" t="n">
         <v>19</v>
       </c>
       <c r="AB13" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AC13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD13" t="n">
         <v>7</v>
       </c>
-      <c r="AD13" t="n">
-        <v>6</v>
-      </c>
       <c r="AE13" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AF13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG13" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="AH13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>10</v>
       </c>
-      <c r="AI13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>15</v>
-      </c>
       <c r="AK13" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AL13" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AM13" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AN13" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP13" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AQ13" t="n">
         <v>41</v>
       </c>
       <c r="AR13" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS13" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="AU13" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV13" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW13" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AX13" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AY13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ13" t="n">
         <v>21</v>
       </c>
-      <c r="AZ13" t="n">
-        <v>34</v>
-      </c>
       <c r="BA13" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD13" t="n">
         <v>81</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>301</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>8tW7jPiT</t>
+          <t>tK16YTIa</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2917,174 +2917,174 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>GERMANY - 3. LIGA</t>
+          <t>ICELAND - BESTA DEILD KARLA</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Mannheim</t>
+          <t>Vikingur Reykjavik</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>Breidablik</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="H14" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="L14" t="n">
         <v>3.5</v>
       </c>
-      <c r="I14" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.4</v>
-      </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>9.75</v>
       </c>
       <c r="O14" t="n">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="P14" t="n">
-        <v>4</v>
+        <v>4.85</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="R14" t="n">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="S14" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="T14" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="U14" t="n">
-        <v>1.62</v>
+        <v>1.44</v>
       </c>
       <c r="V14" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="W14" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="X14" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y14" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>175</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AO14" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>12</v>
-      </c>
       <c r="AP14" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AQ14" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="AR14" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="AS14" t="n">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="AT14" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="AU14" t="n">
-        <v>7.5</v>
+        <v>6.3</v>
       </c>
       <c r="AV14" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AW14" t="n">
-        <v>81</v>
+        <v>450</v>
       </c>
       <c r="AX14" t="n">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="AY14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ14" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="BA14" t="n">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="BB14" t="n">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="BC14" t="n">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="BD14" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>tK16YTIa</t>
+          <t>OMoZtZZ5</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,179 +3094,179 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ICELAND - BESTA DEILD KARLA</t>
+          <t>NORWAY - ELITESERIEN</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Vikingur Reykjavik</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Breidablik</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.95</v>
+        <v>1.48</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="I15" t="n">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="J15" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="K15" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="L15" t="n">
-        <v>3.45</v>
+        <v>6</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>9.75</v>
+        <v>17</v>
       </c>
       <c r="O15" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="P15" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="R15" t="n">
-        <v>2.57</v>
+        <v>2.3</v>
       </c>
       <c r="S15" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2</v>
+      </c>
+      <c r="W15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X15" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN15" t="n">
         <v>3.6</v>
       </c>
-      <c r="U15" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="V15" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="W15" t="n">
-        <v>12</v>
-      </c>
-      <c r="X15" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>35</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>175</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>22</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>45</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>4.35</v>
-      </c>
       <c r="AO15" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="AP15" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AQ15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AY15" t="n">
         <v>29</v>
       </c>
-      <c r="AR15" t="n">
-        <v>45</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>120</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>37</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>500</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>16</v>
-      </c>
       <c r="AZ15" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="BA15" t="n">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="BB15" t="n">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="BC15" t="n">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="BD15" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>vuPiNori</t>
+          <t>SE0BJiEk</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,179 +3276,179 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>IRELAND - PREMIER DIVISION</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Dundalk</t>
+          <t>Olimpia Asuncion</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>9</v>
+        <v>2.88</v>
       </c>
       <c r="H16" t="n">
-        <v>6.25</v>
+        <v>2.8</v>
       </c>
       <c r="I16" t="n">
-        <v>1.25</v>
+        <v>2.7</v>
       </c>
       <c r="J16" t="n">
-        <v>9.5</v>
+        <v>3.6</v>
       </c>
       <c r="K16" t="n">
-        <v>2.63</v>
+        <v>1.91</v>
       </c>
       <c r="L16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V16" t="n">
         <v>1.67</v>
       </c>
-      <c r="M16" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N16" t="n">
+      <c r="W16" t="n">
+        <v>7</v>
+      </c>
+      <c r="X16" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE16" t="n">
         <v>17</v>
       </c>
-      <c r="O16" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P16" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R16" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T16" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W16" t="n">
-        <v>21</v>
-      </c>
-      <c r="X16" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>126</v>
-      </c>
-      <c r="AA16" t="n">
+      <c r="AF16" t="n">
         <v>67</v>
       </c>
-      <c r="AB16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>81</v>
-      </c>
       <c r="AG16" t="n">
-        <v>501</v>
+        <v>1000</v>
       </c>
       <c r="AH16" t="n">
         <v>7</v>
       </c>
       <c r="AI16" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AJ16" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AK16" t="n">
-        <v>7.5</v>
+        <v>26</v>
       </c>
       <c r="AL16" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="AM16" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AN16" t="n">
-        <v>11</v>
+        <v>4.75</v>
       </c>
       <c r="AO16" t="n">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="AP16" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ16" t="n">
-        <v>251</v>
+        <v>51</v>
       </c>
       <c r="AR16" t="n">
-        <v>251</v>
+        <v>101</v>
       </c>
       <c r="AS16" t="n">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="AT16" t="n">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="AU16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV16" t="n">
         <v>67</v>
       </c>
       <c r="AW16" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AX16" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="AY16" t="n">
-        <v>5.5</v>
+        <v>17</v>
       </c>
       <c r="AZ16" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="BA16" t="n">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="BB16" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="BC16" t="n">
-        <v>126</v>
+        <v>301</v>
       </c>
       <c r="BD16" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>YRV3Z0Sj</t>
+          <t>OdKfOPKr</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,179 +3458,179 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Leones Negros</t>
+          <t>Sport Huancayo</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Celaya</t>
+          <t>FBC Melgar</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.18</v>
+        <v>4.2</v>
       </c>
       <c r="H17" t="n">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="I17" t="n">
-        <v>3.25</v>
+        <v>1.7</v>
       </c>
       <c r="J17" t="n">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="K17" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L17" t="n">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="M17" t="n">
         <v>1.05</v>
       </c>
       <c r="N17" t="n">
+        <v>11</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W17" t="n">
+        <v>11</v>
+      </c>
+      <c r="X17" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>151</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AY17" t="n">
         <v>9</v>
       </c>
-      <c r="O17" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V17" t="n">
-        <v>2</v>
-      </c>
-      <c r="W17" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="X17" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>400</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>45</v>
-      </c>
-      <c r="AL17" t="n">
+      <c r="AZ17" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA17" t="n">
         <v>29</v>
       </c>
-      <c r="AM17" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>45</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>80</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>24</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>90</v>
-      </c>
       <c r="BB17" t="n">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="BC17" t="n">
-        <v>300</v>
+        <v>151</v>
       </c>
       <c r="BD17" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>OMoZtZZ5</t>
+          <t>O2JaVHO7</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3640,74 +3640,74 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NORWAY - ELITESERIEN</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Legia</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>GKS Katowice</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.48</v>
+        <v>1.6</v>
       </c>
       <c r="H18" t="n">
-        <v>4.75</v>
+        <v>4.1</v>
       </c>
       <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L18" t="n">
         <v>5.5</v>
       </c>
-      <c r="J18" t="n">
-        <v>2</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L18" t="n">
-        <v>6</v>
-      </c>
       <c r="M18" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="O18" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="P18" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="R18" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="S18" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="T18" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U18" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V18" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W18" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="X18" t="n">
         <v>8</v>
@@ -3716,19 +3716,19 @@
         <v>8.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA18" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AB18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC18" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AD18" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AE18" t="n">
         <v>17</v>
@@ -3737,19 +3737,19 @@
         <v>51</v>
       </c>
       <c r="AG18" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI18" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK18" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL18" t="n">
         <v>41</v>
@@ -3761,22 +3761,22 @@
         <v>3.6</v>
       </c>
       <c r="AO18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ18" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AR18" t="n">
         <v>41</v>
       </c>
       <c r="AS18" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT18" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="AU18" t="n">
         <v>8</v>
@@ -3788,7 +3788,7 @@
         <v>501</v>
       </c>
       <c r="AX18" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AY18" t="n">
         <v>29</v>
@@ -3806,13 +3806,13 @@
         <v>201</v>
       </c>
       <c r="BD18" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>WMN2M3ke</t>
+          <t>6LuU0bH0</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3822,179 +3822,179 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Sport Boys</t>
+          <t>Estrela</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Cajamarca</t>
+          <t>Vitoria Guimaraes</t>
         </is>
       </c>
       <c r="G19" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="J19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2</v>
+      </c>
+      <c r="L19" t="n">
         <v>2.6</v>
       </c>
-      <c r="H19" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K19" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L19" t="n">
-        <v>3.4</v>
-      </c>
       <c r="M19" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N19" t="n">
+        <v>8</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W19" t="n">
+        <v>10</v>
+      </c>
+      <c r="X19" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ19" t="n">
         <v>9</v>
       </c>
-      <c r="O19" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P19" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W19" t="n">
-        <v>8</v>
-      </c>
-      <c r="X19" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE19" t="n">
+      <c r="AK19" t="n">
         <v>15</v>
       </c>
-      <c r="AF19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>29</v>
-      </c>
       <c r="AL19" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AM19" t="n">
         <v>34</v>
       </c>
       <c r="AN19" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="AO19" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AP19" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AQ19" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AR19" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV19" t="n">
         <v>67</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>51</v>
       </c>
       <c r="AW19" t="n">
         <v>126</v>
       </c>
       <c r="AX19" t="n">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="AY19" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AZ19" t="n">
         <v>26</v>
       </c>
       <c r="BA19" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB19" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC19" t="n">
         <v>201</v>
       </c>
       <c r="BD19" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Kr4croCE</t>
+          <t>YPYTi5lL</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4004,179 +4004,179 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Union Comercio</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Sporting Cristal</t>
+          <t>FC Rapid Bucuresti</t>
         </is>
       </c>
       <c r="G20" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L20" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N20" t="n">
+        <v>11</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W20" t="n">
+        <v>7</v>
+      </c>
+      <c r="X20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z20" t="n">
         <v>15</v>
       </c>
-      <c r="H20" t="n">
+      <c r="AA20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD20" t="n">
         <v>7.5</v>
       </c>
-      <c r="I20" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="J20" t="n">
-        <v>12</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="AE20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN20" t="n">
         <v>3.75</v>
       </c>
-      <c r="L20" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N20" t="n">
-        <v>19</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P20" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="R20" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="T20" t="n">
-        <v>5</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W20" t="n">
-        <v>41</v>
-      </c>
-      <c r="X20" t="n">
+      <c r="AO20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA20" t="n">
         <v>81</v>
       </c>
-      <c r="Y20" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>251</v>
-      </c>
-      <c r="AA20" t="n">
+      <c r="BB20" t="n">
         <v>101</v>
       </c>
-      <c r="AB20" t="n">
-        <v>67</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>301</v>
-      </c>
-      <c r="AR20" t="n">
+      <c r="BC20" t="n">
         <v>201</v>
       </c>
-      <c r="AS20" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>151</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>13</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>23</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>81</v>
-      </c>
       <c r="BD20" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>O2JaVHO7</t>
+          <t>A188XxeU</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4186,179 +4186,179 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Legia</t>
+          <t>Radnicki Nis</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>GKS Katowice</t>
+          <t>Mladost</t>
         </is>
       </c>
       <c r="G21" t="n">
         <v>1.62</v>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="J21" t="n">
         <v>2.2</v>
       </c>
       <c r="K21" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L21" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="M21" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="P21" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R21" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="S21" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="T21" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U21" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="V21" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="W21" t="n">
+        <v>7</v>
+      </c>
+      <c r="X21" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC21" t="n">
         <v>7.5</v>
       </c>
-      <c r="X21" t="n">
+      <c r="AD21" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO21" t="n">
         <v>8</v>
       </c>
-      <c r="Y21" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE21" t="n">
+      <c r="AP21" t="n">
         <v>17</v>
       </c>
-      <c r="AF21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>19</v>
-      </c>
       <c r="AQ21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR21" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="AS21" t="n">
-        <v>126</v>
+        <v>250</v>
       </c>
       <c r="AT21" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="AU21" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AV21" t="n">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="AW21" t="n">
-        <v>501</v>
+        <v>51</v>
       </c>
       <c r="AX21" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AY21" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AZ21" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="BA21" t="n">
-        <v>81</v>
+        <v>200</v>
       </c>
       <c r="BB21" t="n">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="BC21" t="n">
-        <v>201</v>
+        <v>450</v>
       </c>
       <c r="BD21" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>UgROMuvK</t>
+          <t>MmvjL6KO</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4368,179 +4368,179 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>SLOVENIA - PRVA LIGA</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>O. Ljubljana</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Rio Ave</t>
+          <t>Domzale</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.13</v>
+        <v>1.28</v>
       </c>
       <c r="H22" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="L22" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N22" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="W22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X22" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>450</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AU22" t="n">
         <v>9</v>
       </c>
-      <c r="I22" t="n">
-        <v>15</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L22" t="n">
-        <v>13</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N22" t="n">
-        <v>23</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P22" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R22" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="T22" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W22" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X22" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>81</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>251</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>101</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>81</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>10</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>11</v>
-      </c>
       <c r="AV22" t="n">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="AW22" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="AX22" t="n">
-        <v>15</v>
+        <v>10.75</v>
       </c>
       <c r="AY22" t="n">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="AZ22" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="BA22" t="n">
-        <v>401</v>
+        <v>500</v>
       </c>
       <c r="BB22" t="n">
-        <v>301</v>
+        <v>500</v>
       </c>
       <c r="BC22" t="n">
-        <v>451</v>
+        <v>51</v>
       </c>
       <c r="BD22" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>YPYTi5lL</t>
+          <t>EkmPPou9</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4550,53 +4550,53 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Granada CF</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>FC Rapid Bucuresti</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="H23" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I23" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="J23" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="K23" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L23" t="n">
         <v>4</v>
       </c>
       <c r="M23" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O23" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P23" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q23" t="n">
         <v>1.93</v>
@@ -4605,10 +4605,10 @@
         <v>1.93</v>
       </c>
       <c r="S23" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T23" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U23" t="n">
         <v>1.73</v>
@@ -4620,43 +4620,43 @@
         <v>8</v>
       </c>
       <c r="X23" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y23" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA23" t="n">
         <v>17</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>15</v>
       </c>
       <c r="AB23" t="n">
         <v>26</v>
       </c>
       <c r="AC23" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AD23" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF23" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG23" t="n">
         <v>201</v>
       </c>
       <c r="AH23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI23" t="n">
         <v>19</v>
       </c>
       <c r="AJ23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK23" t="n">
         <v>41</v>
@@ -4671,37 +4671,37 @@
         <v>4</v>
       </c>
       <c r="AO23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ23" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR23" t="n">
         <v>51</v>
       </c>
       <c r="AS23" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT23" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU23" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV23" t="n">
         <v>51</v>
       </c>
       <c r="AW23" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AX23" t="n">
         <v>5.5</v>
       </c>
       <c r="AY23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ23" t="n">
         <v>26</v>
@@ -4716,734 +4716,6 @@
         <v>151</v>
       </c>
       <c r="BD23" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>CtPzu3dt</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>27/10/2024</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>SERBIA - SUPER LIGA</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Napredak</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>TSC</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="H24" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="J24" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="K24" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L24" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N24" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P24" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R24" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V24" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W24" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="X24" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>70</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>35</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>35</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>350</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>22</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>120</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>150</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>300</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>28</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>55</v>
-      </c>
-      <c r="BC24" t="n">
-        <v>200</v>
-      </c>
-      <c r="BD24" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>A188XxeU</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>27/10/2024</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>SERBIA - SUPER LIGA</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Radnicki Nis</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Mladost</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="H25" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="I25" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="J25" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="K25" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L25" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N25" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P25" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T25" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="W25" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="X25" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>25</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>75</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>45</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>32</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>65</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>25</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>30</v>
-      </c>
-      <c r="BA25" t="n">
-        <v>150</v>
-      </c>
-      <c r="BB25" t="n">
-        <v>175</v>
-      </c>
-      <c r="BC25" t="n">
-        <v>400</v>
-      </c>
-      <c r="BD25" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>MmvjL6KO</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>27/10/2024</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>16:15</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>SLOVENIA - PRVA LIGA</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>O. Ljubljana</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Domzale</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="H26" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="I26" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="K26" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="L26" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N26" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P26" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R26" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T26" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="U26" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="W26" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X26" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>35</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>450</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>150</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>50</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>90</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>65</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>55</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>500</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>500</v>
-      </c>
-      <c r="BC26" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD26" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>EkmPPou9</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>27/10/2024</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>SPAIN - LALIGA2</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Granada CF</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Levante</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="H27" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I27" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K27" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L27" t="n">
-        <v>4</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N27" t="n">
-        <v>10</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P27" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T27" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V27" t="n">
-        <v>2</v>
-      </c>
-      <c r="W27" t="n">
-        <v>8</v>
-      </c>
-      <c r="X27" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA27" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB27" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC27" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD27" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD23"/>
+  <dimension ref="A1:BD19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -750,7 +750,7 @@
         <v>4.33</v>
       </c>
       <c r="H2" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I2" t="n">
         <v>1.8</v>
@@ -759,22 +759,22 @@
         <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L2" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O2" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q2" t="n">
         <v>1.53</v>
@@ -783,22 +783,22 @@
         <v>2.5</v>
       </c>
       <c r="S2" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T2" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V2" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W2" t="n">
         <v>17</v>
       </c>
       <c r="X2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y2" t="n">
         <v>15</v>
@@ -819,7 +819,7 @@
         <v>7.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF2" t="n">
         <v>34</v>
@@ -852,7 +852,7 @@
         <v>19</v>
       </c>
       <c r="AP2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ2" t="n">
         <v>51</v>
@@ -864,7 +864,7 @@
         <v>126</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU2" t="n">
         <v>7</v>
@@ -873,7 +873,7 @@
         <v>41</v>
       </c>
       <c r="AW2" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AX2" t="n">
         <v>4.33</v>
@@ -885,7 +885,7 @@
         <v>15</v>
       </c>
       <c r="BA2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BB2" t="n">
         <v>41</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>zyC4c6ee</t>
+          <t>fB59P6ff</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,170 +910,170 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>GERMANY - BUNDESLIGA</t>
+          <t>ITALY - SERIE A</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>AS Roma</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.63</v>
+        <v>2.45</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I3" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="J3" t="n">
         <v>3.1</v>
       </c>
       <c r="K3" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="P3" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="R3" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="S3" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="T3" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="U3" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="V3" t="n">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="W3" t="n">
+        <v>8</v>
+      </c>
+      <c r="X3" t="n">
         <v>12</v>
-      </c>
-      <c r="X3" t="n">
-        <v>15</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
       </c>
       <c r="Z3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB3" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AC3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE3" t="n">
         <v>15</v>
       </c>
-      <c r="AD3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>11</v>
-      </c>
       <c r="AF3" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="AH3" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AI3" t="n">
         <v>15</v>
       </c>
       <c r="AJ3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL3" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AM3" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AN3" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AO3" t="n">
         <v>13</v>
       </c>
       <c r="AP3" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AQ3" t="n">
         <v>41</v>
       </c>
       <c r="AR3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS3" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="AU3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>351</v>
+        <v>126</v>
       </c>
       <c r="AX3" t="n">
         <v>4.75</v>
       </c>
       <c r="AY3" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ3" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="BA3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB3" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BC3" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="BD3" t="n">
         <v>151</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>fB59P6ff</t>
+          <t>Uoq4OXmC</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,65 +1092,65 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ITALY - SERIE A</t>
+          <t>NETHERLANDS - EREDIVISIE</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>AS Roma</t>
+          <t>G.A. Eagles</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.38</v>
+        <v>1.7</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="I4" t="n">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="K4" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L4" t="n">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O4" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="P4" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.04</v>
+        <v>1.75</v>
       </c>
       <c r="R4" t="n">
-        <v>1.86</v>
+        <v>2.05</v>
       </c>
       <c r="S4" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="T4" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U4" t="n">
         <v>1.75</v>
@@ -1162,73 +1162,73 @@
         <v>8</v>
       </c>
       <c r="X4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC4" t="n">
         <v>12</v>
       </c>
-      <c r="Y4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>10</v>
-      </c>
       <c r="AD4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
         <v>15</v>
       </c>
       <c r="AF4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG4" t="n">
         <v>201</v>
       </c>
       <c r="AH4" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="AI4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>15</v>
       </c>
-      <c r="AJ4" t="n">
-        <v>11</v>
-      </c>
       <c r="AK4" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AL4" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AM4" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="AO4" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="AP4" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AQ4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR4" t="n">
         <v>41</v>
       </c>
-      <c r="AR4" t="n">
-        <v>67</v>
-      </c>
       <c r="AS4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="AU4" t="n">
         <v>8</v>
@@ -1237,25 +1237,25 @@
         <v>51</v>
       </c>
       <c r="AW4" t="n">
-        <v>151</v>
+        <v>501</v>
       </c>
       <c r="AX4" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AY4" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AZ4" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="BA4" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB4" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BC4" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD4" t="n">
         <v>151</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Uoq4OXmC</t>
+          <t>jiAoNQdE</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,170 +1274,170 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EREDIVISIE</t>
+          <t>SPAIN - LALIGA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>G.A. Eagles</t>
+          <t>Osasuna</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H5" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="J5" t="n">
         <v>2.25</v>
       </c>
       <c r="K5" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="P5" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="R5" t="n">
-        <v>2.05</v>
+        <v>1.73</v>
       </c>
       <c r="S5" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="T5" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="U5" t="n">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="W5" t="n">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="X5" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y5" t="n">
         <v>8.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB5" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AG5" t="n">
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="AH5" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AI5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ5" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AK5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL5" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AM5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="AO5" t="n">
         <v>8.5</v>
       </c>
       <c r="AP5" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AQ5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ5" t="n">
         <v>41</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="BA5" t="n">
         <v>126</v>
       </c>
-      <c r="AT5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>501</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>81</v>
-      </c>
       <c r="BB5" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BC5" t="n">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="BD5" t="n">
         <v>151</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jiAoNQdE</t>
+          <t>dlPoQ4Jm</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,98 +1456,98 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>Banfield</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Osasuna</t>
+          <t>Racing Club</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V6" t="n">
         <v>1.7</v>
       </c>
-      <c r="H6" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N6" t="n">
-        <v>9</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.67</v>
-      </c>
       <c r="W6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD6" t="n">
         <v>6</v>
       </c>
-      <c r="X6" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>7</v>
-      </c>
       <c r="AE6" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AF6" t="n">
         <v>67</v>
@@ -1556,43 +1556,43 @@
         <v>501</v>
       </c>
       <c r="AH6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI6" t="n">
         <v>11</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AJ6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL6" t="n">
         <v>23</v>
       </c>
-      <c r="AJ6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL6" t="n">
+      <c r="AM6" t="n">
         <v>41</v>
       </c>
-      <c r="AM6" t="n">
-        <v>51</v>
-      </c>
       <c r="AN6" t="n">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO6" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AP6" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AQ6" t="n">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="AR6" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AS6" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="AU6" t="n">
         <v>9</v>
@@ -1604,31 +1604,31 @@
         <v>126</v>
       </c>
       <c r="AX6" t="n">
-        <v>6.5</v>
+        <v>4.33</v>
       </c>
       <c r="AY6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ6" t="n">
         <v>29</v>
       </c>
-      <c r="AZ6" t="n">
-        <v>41</v>
-      </c>
       <c r="BA6" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BB6" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="BC6" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="BD6" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>dlPoQ4Jm</t>
+          <t>WY38mDxe</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,110 +1638,110 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Banfield</t>
+          <t>Tomayapo</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Racing Club</t>
+          <t>Always Ready</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="I7" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="J7" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="K7" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="L7" t="n">
         <v>3.4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="P7" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="R7" t="n">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="S7" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="T7" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="U7" t="n">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="V7" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="W7" t="n">
         <v>7.5</v>
       </c>
       <c r="X7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y7" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Z7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB7" t="n">
         <v>34</v>
       </c>
-      <c r="AA7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>41</v>
-      </c>
       <c r="AC7" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD7" t="n">
         <v>6</v>
       </c>
       <c r="AE7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG7" t="n">
-        <v>501</v>
+        <v>301</v>
       </c>
       <c r="AH7" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AI7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ7" t="n">
         <v>11</v>
@@ -1753,46 +1753,46 @@
         <v>23</v>
       </c>
       <c r="AM7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX7" t="n">
         <v>4.75</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>4.33</v>
       </c>
       <c r="AY7" t="n">
         <v>15</v>
       </c>
       <c r="AZ7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA7" t="n">
         <v>51</v>
@@ -1801,16 +1801,16 @@
         <v>81</v>
       </c>
       <c r="BC7" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD7" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0MRf70gU</t>
+          <t>r9RgWXfJ</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,179 +1820,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>BELGIUM - JUPILER PRO LEAGUE</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Royale Union SG</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Cercle Brugge KSV</t>
+          <t>Atl. Nacional</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.42</v>
+        <v>3.4</v>
       </c>
       <c r="H8" t="n">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>6.5</v>
+        <v>2.25</v>
       </c>
       <c r="J8" t="n">
-        <v>1.91</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="L8" t="n">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.22</v>
+        <v>1.44</v>
       </c>
       <c r="P8" t="n">
-        <v>4</v>
+        <v>2.63</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.73</v>
+        <v>2.35</v>
       </c>
       <c r="R8" t="n">
-        <v>2.08</v>
+        <v>1.57</v>
       </c>
       <c r="S8" t="n">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="T8" t="n">
-        <v>3.25</v>
+        <v>2.38</v>
       </c>
       <c r="U8" t="n">
         <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="W8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC8" t="n">
         <v>7</v>
       </c>
-      <c r="X8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>13</v>
-      </c>
       <c r="AD8" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AF8" t="n">
         <v>67</v>
       </c>
       <c r="AG8" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH8" t="n">
-        <v>17</v>
+        <v>6.5</v>
       </c>
       <c r="AI8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM8" t="n">
         <v>34</v>
       </c>
-      <c r="AJ8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>51</v>
-      </c>
       <c r="AN8" t="n">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="AO8" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="AP8" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AQ8" t="n">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="AR8" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AS8" t="n">
-        <v>126</v>
+        <v>301</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU8" t="n">
         <v>9</v>
       </c>
       <c r="AV8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AX8" t="n">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="AY8" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="AZ8" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA8" t="n">
         <v>41</v>
       </c>
-      <c r="BA8" t="n">
-        <v>151</v>
-      </c>
       <c r="BB8" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="BC8" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BD8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>dUdg1Qxf</t>
+          <t>neDJngu0</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,158 +2002,158 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>18:10</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Eupen</t>
+          <t>Dep. Cali</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lokeren-Temse</t>
+          <t>Bucaramanga</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
         <v>3.6</v>
       </c>
-      <c r="I9" t="n">
-        <v>4.5</v>
-      </c>
       <c r="J9" t="n">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U9" t="n">
         <v>2.2</v>
       </c>
-      <c r="L9" t="n">
-        <v>5</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N9" t="n">
-        <v>11</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.83</v>
-      </c>
       <c r="V9" t="n">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="W9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X9" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH9" t="n">
         <v>8</v>
       </c>
-      <c r="Y9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z9" t="n">
+      <c r="AI9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>13</v>
       </c>
-      <c r="AA9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB9" t="n">
+      <c r="AK9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP9" t="n">
         <v>29</v>
       </c>
-      <c r="AC9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL9" t="n">
+      <c r="AQ9" t="n">
         <v>41</v>
       </c>
-      <c r="AM9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="AR9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU9" t="n">
         <v>9</v>
       </c>
-      <c r="AP9" t="n">
+      <c r="AV9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY9" t="n">
         <v>21</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>26</v>
       </c>
       <c r="AZ9" t="n">
         <v>34</v>
@@ -2162,19 +2162,19 @@
         <v>81</v>
       </c>
       <c r="BB9" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC9" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BD9" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>WY38mDxe</t>
+          <t>AcSDrwZE</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,59 +2184,59 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Tomayapo</t>
+          <t>Barcelona SC</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Always Ready</t>
+          <t>Delfin</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H10" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I10" t="n">
+        <v>7</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L10" t="n">
+        <v>7</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N10" t="n">
+        <v>10</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P10" t="n">
         <v>3.25</v>
       </c>
-      <c r="I10" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N10" t="n">
-        <v>9</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3</v>
-      </c>
       <c r="Q10" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="R10" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S10" t="n">
         <v>1.44</v>
@@ -2245,25 +2245,25 @@
         <v>2.63</v>
       </c>
       <c r="U10" t="n">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="W10" t="n">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="X10" t="n">
-        <v>12</v>
+        <v>6.5</v>
       </c>
       <c r="Y10" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z10" t="n">
         <v>10</v>
       </c>
-      <c r="Z10" t="n">
-        <v>26</v>
-      </c>
       <c r="AA10" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AB10" t="n">
         <v>34</v>
@@ -2272,49 +2272,49 @@
         <v>8.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AE10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH10" t="n">
         <v>15</v>
       </c>
-      <c r="AF10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>8</v>
-      </c>
       <c r="AI10" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AJ10" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AK10" t="n">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="AL10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ10" t="n">
         <v>23</v>
       </c>
-      <c r="AM10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>51</v>
-      </c>
       <c r="AR10" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS10" t="n">
         <v>201</v>
@@ -2323,31 +2323,31 @@
         <v>2.63</v>
       </c>
       <c r="AU10" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW10" t="n">
         <v>51</v>
       </c>
       <c r="AX10" t="n">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="AY10" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AZ10" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="BA10" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BB10" t="n">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="BC10" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="BD10" t="n">
         <v>51</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>r9RgWXfJ</t>
+          <t>SE0BJiEk</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,95 +2366,95 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Olimpia Asuncion</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Atl. Nacional</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="G11" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L11" t="n">
         <v>3.5</v>
       </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L11" t="n">
-        <v>3</v>
-      </c>
       <c r="M11" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W11" t="n">
         <v>7</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W11" t="n">
-        <v>8.5</v>
-      </c>
       <c r="X11" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Y11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z11" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AA11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB11" t="n">
         <v>41</v>
       </c>
       <c r="AC11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE11" t="n">
         <v>17</v>
@@ -2463,37 +2463,37 @@
         <v>67</v>
       </c>
       <c r="AG11" t="n">
-        <v>301</v>
+        <v>1250</v>
       </c>
       <c r="AH11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI11" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AJ11" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AK11" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AL11" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AM11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN11" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO11" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AP11" t="n">
         <v>34</v>
       </c>
       <c r="AQ11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR11" t="n">
         <v>101</v>
@@ -2502,7 +2502,7 @@
         <v>301</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU11" t="n">
         <v>9</v>
@@ -2511,34 +2511,34 @@
         <v>67</v>
       </c>
       <c r="AW11" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="AX11" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AY11" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB11" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC11" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BD11" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AcSDrwZE</t>
+          <t>OdKfOPKr</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,179 +2548,179 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Barcelona SC</t>
+          <t>Sport Huancayo</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Delfin</t>
+          <t>FBC Melgar</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="H12" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="I12" t="n">
-        <v>7</v>
+        <v>1.7</v>
       </c>
       <c r="J12" t="n">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="K12" t="n">
         <v>2.2</v>
       </c>
       <c r="L12" t="n">
-        <v>7</v>
+        <v>2.3</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O12" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P12" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="R12" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="S12" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T12" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U12" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="V12" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="W12" t="n">
-        <v>5.5</v>
+        <v>11</v>
       </c>
       <c r="X12" t="n">
-        <v>6.5</v>
+        <v>21</v>
       </c>
       <c r="Y12" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Z12" t="n">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="AA12" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AB12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AD12" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF12" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG12" t="n">
         <v>351</v>
       </c>
       <c r="AH12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL12" t="n">
         <v>15</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AM12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP12" t="n">
         <v>34</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AQ12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>151</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ12" t="n">
         <v>21</v>
       </c>
-      <c r="AK12" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>41</v>
-      </c>
       <c r="BA12" t="n">
+        <v>29</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC12" t="n">
         <v>151</v>
       </c>
-      <c r="BB12" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>351</v>
-      </c>
       <c r="BD12" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>8tW7jPiT</t>
+          <t>O2JaVHO7</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,41 +2730,41 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>GERMANY - 3. LIGA</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Mannheim</t>
+          <t>Legia</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>GKS Katowice</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.35</v>
+        <v>1.6</v>
       </c>
       <c r="H13" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="I13" t="n">
-        <v>2.7</v>
+        <v>5.25</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="K13" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L13" t="n">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="M13" t="n">
         <v>1.04</v>
@@ -2773,127 +2773,127 @@
         <v>13</v>
       </c>
       <c r="O13" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P13" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="R13" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="S13" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T13" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U13" t="n">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="V13" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="W13" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="X13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA13" t="n">
         <v>13</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>19</v>
       </c>
       <c r="AB13" t="n">
         <v>26</v>
       </c>
       <c r="AC13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH13" t="n">
         <v>13</v>
       </c>
-      <c r="AD13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF13" t="n">
+      <c r="AI13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL13" t="n">
         <v>41</v>
       </c>
-      <c r="AG13" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>21</v>
-      </c>
       <c r="AM13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ13" t="n">
         <v>26</v>
       </c>
-      <c r="AN13" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ13" t="n">
+      <c r="AR13" t="n">
         <v>41</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>51</v>
       </c>
       <c r="AS13" t="n">
         <v>126</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU13" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV13" t="n">
         <v>51</v>
       </c>
       <c r="AW13" t="n">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="AX13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY13" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AZ13" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="BA13" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BB13" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BC13" t="n">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="BD13" t="n">
         <v>81</v>
@@ -2902,7 +2902,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>tK16YTIa</t>
+          <t>6LuU0bH0</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,179 +2912,179 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ICELAND - BESTA DEILD KARLA</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Vikingur Reykjavik</t>
+          <t>Estrela</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Breidablik</t>
+          <t>Vitoria Guimaraes</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.95</v>
+        <v>4.75</v>
       </c>
       <c r="H14" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="J14" t="n">
-        <v>2.42</v>
+        <v>5.5</v>
       </c>
       <c r="K14" t="n">
-        <v>2.42</v>
+        <v>2</v>
       </c>
       <c r="L14" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>9.75</v>
+        <v>8</v>
       </c>
       <c r="O14" t="n">
-        <v>1.14</v>
+        <v>1.44</v>
       </c>
       <c r="P14" t="n">
-        <v>4.85</v>
+        <v>2.63</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.45</v>
+        <v>2.4</v>
       </c>
       <c r="R14" t="n">
-        <v>2.55</v>
+        <v>1.53</v>
       </c>
       <c r="S14" t="n">
-        <v>1.25</v>
+        <v>1.53</v>
       </c>
       <c r="T14" t="n">
-        <v>3.55</v>
+        <v>2.38</v>
       </c>
       <c r="U14" t="n">
-        <v>1.44</v>
+        <v>2.2</v>
       </c>
       <c r="V14" t="n">
-        <v>2.6</v>
+        <v>1.62</v>
       </c>
       <c r="W14" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="X14" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.75</v>
+        <v>17</v>
       </c>
       <c r="Z14" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="AA14" t="n">
-        <v>13.5</v>
+        <v>41</v>
       </c>
       <c r="AB14" t="n">
-        <v>17.5</v>
+        <v>51</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.75</v>
+        <v>7</v>
       </c>
       <c r="AD14" t="n">
-        <v>8.25</v>
+        <v>6.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>11.5</v>
+        <v>21</v>
       </c>
       <c r="AF14" t="n">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="AG14" t="n">
-        <v>175</v>
+        <v>501</v>
       </c>
       <c r="AH14" t="n">
-        <v>16.5</v>
+        <v>5.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>23</v>
+        <v>7.5</v>
       </c>
       <c r="AJ14" t="n">
-        <v>11.75</v>
+        <v>9</v>
       </c>
       <c r="AK14" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="AL14" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AM14" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.35</v>
+        <v>6.5</v>
       </c>
       <c r="AO14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>401</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU14" t="n">
         <v>9.5</v>
       </c>
-      <c r="AP14" t="n">
-        <v>14</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>30</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>45</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>120</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>6.3</v>
-      </c>
       <c r="AV14" t="n">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="AW14" t="n">
-        <v>450</v>
+        <v>126</v>
       </c>
       <c r="AX14" t="n">
-        <v>5.7</v>
+        <v>3.6</v>
       </c>
       <c r="AY14" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AZ14" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="BA14" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="BB14" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="BC14" t="n">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="BD14" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>OMoZtZZ5</t>
+          <t>YPYTi5lL</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,95 +3094,95 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NORWAY - ELITESERIEN</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>FC Rapid Bucuresti</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.48</v>
+        <v>1.73</v>
       </c>
       <c r="H15" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L15" t="n">
         <v>4.75</v>
       </c>
-      <c r="I15" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L15" t="n">
-        <v>6</v>
-      </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="P15" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="R15" t="n">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="S15" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="T15" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U15" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="V15" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="W15" t="n">
+        <v>7</v>
+      </c>
+      <c r="X15" t="n">
         <v>8.5</v>
-      </c>
-      <c r="X15" t="n">
-        <v>8</v>
       </c>
       <c r="Y15" t="n">
         <v>8.5</v>
       </c>
       <c r="Z15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC15" t="n">
         <v>11</v>
       </c>
-      <c r="AA15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>17</v>
-      </c>
       <c r="AD15" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE15" t="n">
         <v>17</v>
@@ -3191,46 +3191,46 @@
         <v>51</v>
       </c>
       <c r="AG15" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AH15" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AI15" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AJ15" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AK15" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AL15" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM15" t="n">
         <v>41</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO15" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="AP15" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AQ15" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AR15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS15" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AT15" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="AU15" t="n">
         <v>8</v>
@@ -3239,19 +3239,19 @@
         <v>51</v>
       </c>
       <c r="AW15" t="n">
-        <v>501</v>
+        <v>51</v>
       </c>
       <c r="AX15" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AY15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ15" t="n">
         <v>29</v>
       </c>
-      <c r="AZ15" t="n">
-        <v>34</v>
-      </c>
       <c r="BA15" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB15" t="n">
         <v>101</v>
@@ -3260,13 +3260,13 @@
         <v>201</v>
       </c>
       <c r="BD15" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SE0BJiEk</t>
+          <t>A188XxeU</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,170 +3276,170 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Olimpia Asuncion</t>
+          <t>Radnicki Nis</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>Mladost</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.88</v>
+        <v>1.62</v>
       </c>
       <c r="H16" t="n">
-        <v>2.8</v>
+        <v>3.65</v>
       </c>
       <c r="I16" t="n">
-        <v>2.7</v>
+        <v>5.2</v>
       </c>
       <c r="J16" t="n">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="K16" t="n">
-        <v>1.91</v>
+        <v>2.15</v>
       </c>
       <c r="L16" t="n">
-        <v>3.5</v>
+        <v>5.3</v>
       </c>
       <c r="M16" t="n">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.5</v>
+        <v>1.27</v>
       </c>
       <c r="P16" t="n">
-        <v>2.5</v>
+        <v>3.45</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="R16" t="n">
-        <v>1.48</v>
+        <v>1.93</v>
       </c>
       <c r="S16" t="n">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="T16" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U16" t="n">
-        <v>2.1</v>
+        <v>1.78</v>
       </c>
       <c r="V16" t="n">
-        <v>1.67</v>
+        <v>1.93</v>
       </c>
       <c r="W16" t="n">
         <v>7</v>
       </c>
       <c r="X16" t="n">
-        <v>13</v>
+        <v>7.8</v>
       </c>
       <c r="Y16" t="n">
-        <v>12</v>
+        <v>7.9</v>
       </c>
       <c r="Z16" t="n">
-        <v>29</v>
+        <v>12.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>29</v>
+        <v>12.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="AC16" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>5.5</v>
+        <v>7.1</v>
       </c>
       <c r="AE16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP16" t="n">
         <v>17</v>
       </c>
-      <c r="AF16" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>34</v>
-      </c>
       <c r="AQ16" t="n">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="AR16" t="n">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="AS16" t="n">
-        <v>301</v>
+        <v>250</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="AU16" t="n">
-        <v>9</v>
+        <v>7.4</v>
       </c>
       <c r="AV16" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AW16" t="n">
         <v>51</v>
       </c>
       <c r="AX16" t="n">
-        <v>4.5</v>
+        <v>6.8</v>
       </c>
       <c r="AY16" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="AZ16" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="BA16" t="n">
-        <v>51</v>
+        <v>200</v>
       </c>
       <c r="BB16" t="n">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="BC16" t="n">
-        <v>301</v>
+        <v>450</v>
       </c>
       <c r="BD16" t="n">
         <v>51</v>
@@ -3448,7 +3448,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>OdKfOPKr</t>
+          <t>MmvjL6KO</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,179 +3458,179 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>SLOVENIA - PRVA LIGA</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Sport Huancayo</t>
+          <t>O. Ljubljana</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>FBC Melgar</t>
+          <t>Domzale</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>4.2</v>
+        <v>1.29</v>
       </c>
       <c r="H17" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="I17" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="L17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N17" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q17" t="n">
         <v>1.7</v>
       </c>
-      <c r="J17" t="n">
-        <v>5</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N17" t="n">
-        <v>11</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.03</v>
-      </c>
       <c r="R17" t="n">
-        <v>1.83</v>
+        <v>2.07</v>
       </c>
       <c r="S17" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="T17" t="n">
-        <v>2.75</v>
+        <v>2.92</v>
       </c>
       <c r="U17" t="n">
-        <v>1.91</v>
+        <v>2.15</v>
       </c>
       <c r="V17" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="W17" t="n">
-        <v>11</v>
+        <v>6.4</v>
       </c>
       <c r="X17" t="n">
-        <v>21</v>
+        <v>5.8</v>
       </c>
       <c r="Y17" t="n">
-        <v>13</v>
+        <v>8.75</v>
       </c>
       <c r="Z17" t="n">
-        <v>51</v>
+        <v>7.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>34</v>
+        <v>11.25</v>
       </c>
       <c r="AB17" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="AC17" t="n">
-        <v>11</v>
+        <v>8.25</v>
       </c>
       <c r="AD17" t="n">
-        <v>8</v>
+        <v>9.75</v>
       </c>
       <c r="AE17" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AF17" t="n">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="AG17" t="n">
-        <v>351</v>
+        <v>900</v>
       </c>
       <c r="AH17" t="n">
-        <v>6.5</v>
+        <v>26</v>
       </c>
       <c r="AI17" t="n">
-        <v>7.5</v>
+        <v>80</v>
       </c>
       <c r="AJ17" t="n">
-        <v>8.5</v>
+        <v>32</v>
       </c>
       <c r="AK17" t="n">
-        <v>13</v>
+        <v>350</v>
       </c>
       <c r="AL17" t="n">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="AM17" t="n">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="AN17" t="n">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="AO17" t="n">
-        <v>26</v>
+        <v>5.7</v>
       </c>
       <c r="AP17" t="n">
-        <v>34</v>
+        <v>17.5</v>
       </c>
       <c r="AQ17" t="n">
-        <v>81</v>
+        <v>15.5</v>
       </c>
       <c r="AR17" t="n">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="AS17" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.75</v>
+        <v>2.92</v>
       </c>
       <c r="AU17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV17" t="n">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="AW17" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="AX17" t="n">
-        <v>3.6</v>
+        <v>10.25</v>
       </c>
       <c r="AY17" t="n">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="AZ17" t="n">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="BA17" t="n">
-        <v>29</v>
+        <v>500</v>
       </c>
       <c r="BB17" t="n">
-        <v>51</v>
+        <v>500</v>
       </c>
       <c r="BC17" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="BD17" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>O2JaVHO7</t>
+          <t>EkmPPou9</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3640,170 +3640,170 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Legia</t>
+          <t>Granada CF</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>GKS Katowice</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="H18" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="I18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N18" t="n">
+        <v>11</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V18" t="n">
+        <v>2</v>
+      </c>
+      <c r="W18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X18" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX18" t="n">
         <v>5</v>
       </c>
-      <c r="J18" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L18" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N18" t="n">
-        <v>12</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R18" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T18" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W18" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X18" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE18" t="n">
+      <c r="AY18" t="n">
         <v>17</v>
       </c>
-      <c r="AF18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI18" t="n">
+      <c r="AZ18" t="n">
         <v>26</v>
       </c>
-      <c r="AJ18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>501</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>34</v>
-      </c>
       <c r="BA18" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BB18" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BC18" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD18" t="n">
         <v>81</v>
@@ -3812,7 +3812,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>6LuU0bH0</t>
+          <t>r154fwo3</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3822,901 +3822,173 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Estrela</t>
+          <t>Carabobo</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vitoria Guimaraes</t>
+          <t>Estudiantes Merida</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4.75</v>
+        <v>2.02</v>
       </c>
       <c r="H19" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I19" t="n">
-        <v>1.83</v>
+        <v>3.65</v>
       </c>
       <c r="J19" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L19" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N19" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="W19" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="X19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>40</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>70</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX19" t="n">
         <v>5.5</v>
       </c>
-      <c r="K19" t="n">
-        <v>2</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N19" t="n">
-        <v>8</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W19" t="n">
-        <v>10</v>
-      </c>
-      <c r="X19" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>101</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>151</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>3.6</v>
-      </c>
       <c r="AY19" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AZ19" t="n">
         <v>26</v>
       </c>
       <c r="BA19" t="n">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="BB19" t="n">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="BC19" t="n">
-        <v>201</v>
+        <v>350</v>
       </c>
       <c r="BD19" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>YPYTi5lL</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>27/10/2024</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>ROMANIA - LIGA 1</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>FCSB</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>FC Rapid Bucuresti</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="H20" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L20" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N20" t="n">
-        <v>11</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W20" t="n">
-        <v>7</v>
-      </c>
-      <c r="X20" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>A188XxeU</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>27/10/2024</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>SERBIA - SUPER LIGA</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Radnicki Nis</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Mladost</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="H21" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="I21" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="L21" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N21" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="W21" t="n">
-        <v>7</v>
-      </c>
-      <c r="X21" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>100</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>50</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>27</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>70</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>30</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>32</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>200</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>200</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>450</v>
-      </c>
-      <c r="BD21" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>MmvjL6KO</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>27/10/2024</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>16:15</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>SLOVENIA - PRVA LIGA</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>O. Ljubljana</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Domzale</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="H22" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="I22" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="K22" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="L22" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N22" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P22" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R22" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="W22" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X22" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>35</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>450</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>150</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>50</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>90</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>65</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>55</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>500</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>500</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>EkmPPou9</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>27/10/2024</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>SPAIN - LALIGA2</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Granada CF</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Levante</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="H23" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I23" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J23" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K23" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L23" t="n">
-        <v>4</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N23" t="n">
-        <v>10</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P23" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T23" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V23" t="n">
-        <v>2</v>
-      </c>
-      <c r="W23" t="n">
-        <v>8</v>
-      </c>
-      <c r="X23" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD23" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-10-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD13"/>
+  <dimension ref="A1:BD15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -768,13 +768,13 @@
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="n">
         <v>1.53</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H3" t="n">
         <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
         <v>3.1</v>
@@ -965,31 +965,31 @@
         <v>1.82</v>
       </c>
       <c r="S3" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U3" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V3" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X3" t="n">
         <v>12</v>
       </c>
       <c r="Y3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z3" t="n">
         <v>23</v>
       </c>
       <c r="AA3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB3" t="n">
         <v>29</v>
@@ -1007,7 +1007,7 @@
         <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH3" t="n">
         <v>9</v>
@@ -1046,7 +1046,7 @@
         <v>151</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU3" t="n">
         <v>8</v>
@@ -1058,7 +1058,7 @@
         <v>126</v>
       </c>
       <c r="AX3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AY3" t="n">
         <v>17</v>
@@ -1070,10 +1070,10 @@
         <v>51</v>
       </c>
       <c r="BB3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD3" t="n">
         <v>151</v>
@@ -1129,22 +1129,22 @@
         <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S4" t="n">
         <v>1.44</v>
@@ -1293,28 +1293,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H5" t="n">
         <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K5" t="n">
         <v>1.95</v>
       </c>
       <c r="L5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
         <v>1.44</v>
@@ -1341,10 +1341,10 @@
         <v>1.75</v>
       </c>
       <c r="W5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y5" t="n">
         <v>11</v>
@@ -1383,16 +1383,16 @@
         <v>11</v>
       </c>
       <c r="AK5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM5" t="n">
         <v>41</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO5" t="n">
         <v>17</v>
@@ -1425,7 +1425,7 @@
         <v>4.5</v>
       </c>
       <c r="AY5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ5" t="n">
         <v>29</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>S0cHoi77</t>
+          <t>WhxQ83lD</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,179 +1456,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Guabira</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Independiente</t>
+          <t>Dep. Riestra</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="I6" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="J6" t="n">
         <v>2.1</v>
       </c>
       <c r="K6" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O6" t="n">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="P6" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.57</v>
+        <v>2.05</v>
       </c>
       <c r="R6" t="n">
-        <v>2.35</v>
+        <v>1.75</v>
       </c>
       <c r="S6" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="T6" t="n">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="U6" t="n">
-        <v>1.62</v>
+        <v>2.1</v>
       </c>
       <c r="V6" t="n">
-        <v>2.2</v>
+        <v>1.67</v>
       </c>
       <c r="W6" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="X6" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="Y6" t="n">
         <v>8.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>21</v>
       </c>
-      <c r="AC6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>17</v>
-      </c>
       <c r="AK6" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AL6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="AO6" t="n">
         <v>8</v>
       </c>
       <c r="AP6" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AQ6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ6" t="n">
         <v>41</v>
       </c>
-      <c r="AS6" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>29</v>
-      </c>
       <c r="BA6" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BB6" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BC6" t="n">
+        <v>401</v>
+      </c>
+      <c r="BD6" t="n">
         <v>151</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>neDJngu0</t>
+          <t>S0cHoi77</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>18:10</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Dep. Cali</t>
+          <t>Guabira</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Bucaramanga</t>
+          <t>Independiente</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L7" t="n">
+        <v>5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N7" t="n">
+        <v>15</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V7" t="n">
         <v>2.2</v>
       </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.62</v>
-      </c>
       <c r="W7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="X7" t="n">
         <v>9</v>
       </c>
       <c r="Y7" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Z7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB7" t="n">
         <v>21</v>
       </c>
-      <c r="AA7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB7" t="n">
+      <c r="AC7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF7" t="n">
         <v>41</v>
       </c>
-      <c r="AC7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE7" t="n">
+      <c r="AG7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH7" t="n">
         <v>19</v>
       </c>
-      <c r="AF7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH7" t="n">
+      <c r="AI7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO7" t="n">
         <v>8</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AP7" t="n">
         <v>17</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK7" t="n">
+      <c r="AQ7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR7" t="n">
         <v>41</v>
       </c>
-      <c r="AL7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP7" t="n">
+      <c r="AS7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ7" t="n">
         <v>29</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>34</v>
       </c>
       <c r="BA7" t="n">
         <v>81</v>
       </c>
       <c r="BB7" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BC7" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="BD7" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AcSDrwZE</t>
+          <t>neDJngu0</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,65 +1820,65 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>18:10</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Barcelona SC</t>
+          <t>Dep. Cali</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Delfin</t>
+          <t>Bucaramanga</t>
         </is>
       </c>
       <c r="G8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>7</v>
+      </c>
+      <c r="O8" t="n">
         <v>1.5</v>
       </c>
-      <c r="H8" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I8" t="n">
-        <v>7</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L8" t="n">
-        <v>7</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N8" t="n">
-        <v>10</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.33</v>
-      </c>
       <c r="P8" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.08</v>
+        <v>2.6</v>
       </c>
       <c r="R8" t="n">
-        <v>1.73</v>
+        <v>1.48</v>
       </c>
       <c r="S8" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="T8" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="U8" t="n">
         <v>2.2</v>
@@ -1887,112 +1887,112 @@
         <v>1.62</v>
       </c>
       <c r="W8" t="n">
+        <v>6</v>
+      </c>
+      <c r="X8" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX8" t="n">
         <v>5.5</v>
       </c>
-      <c r="X8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB8" t="n">
+      <c r="AY8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ8" t="n">
         <v>34</v>
       </c>
-      <c r="AC8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF8" t="n">
+      <c r="BA8" t="n">
         <v>81</v>
       </c>
-      <c r="AG8" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>151</v>
-      </c>
       <c r="BB8" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="BC8" t="n">
         <v>351</v>
       </c>
       <c r="BD8" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SE0BJiEk</t>
+          <t>AcSDrwZE</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2007,141 +2007,141 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Olimpia Asuncion</t>
+          <t>Barcelona SC</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>Delfin</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.88</v>
+        <v>1.48</v>
       </c>
       <c r="H9" t="n">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="I9" t="n">
-        <v>2.7</v>
+        <v>7.5</v>
       </c>
       <c r="J9" t="n">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="K9" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="L9" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="M9" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X9" t="n">
         <v>6.5</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W9" t="n">
-        <v>7</v>
-      </c>
-      <c r="X9" t="n">
+      <c r="Y9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA9" t="n">
         <v>13</v>
       </c>
-      <c r="Y9" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>29</v>
-      </c>
       <c r="AB9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC9" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF9" t="n">
         <v>67</v>
       </c>
       <c r="AG9" t="n">
-        <v>1250</v>
+        <v>351</v>
       </c>
       <c r="AH9" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AI9" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="AJ9" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AK9" t="n">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="AL9" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AM9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="AO9" t="n">
-        <v>17</v>
+        <v>7.5</v>
       </c>
       <c r="AP9" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AQ9" t="n">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="AR9" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AS9" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="AU9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV9" t="n">
         <v>67</v>
@@ -2150,22 +2150,22 @@
         <v>51</v>
       </c>
       <c r="AX9" t="n">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="AY9" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AZ9" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="BA9" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BB9" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="BC9" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD9" t="n">
         <v>51</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>OdKfOPKr</t>
+          <t>bT5xl0sp</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,179 +2184,179 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Sport Huancayo</t>
+          <t>Alebrijes Oaxaca</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>FBC Melgar</t>
+          <t>Tepatitlan de Morelos</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>4.33</v>
+        <v>2.65</v>
       </c>
       <c r="H10" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>1.67</v>
+        <v>2.37</v>
       </c>
       <c r="J10" t="n">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="K10" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L10" t="n">
-        <v>2.3</v>
+        <v>2.92</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>10.9</v>
       </c>
       <c r="N10" t="n">
-        <v>11</v>
+        <v>1.04</v>
       </c>
       <c r="O10" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="P10" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="R10" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="S10" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T10" t="n">
-        <v>2.75</v>
+        <v>2.99</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="V10" t="n">
-        <v>1.73</v>
+        <v>2.02</v>
       </c>
       <c r="W10" t="n">
-        <v>11</v>
+        <v>9.75</v>
       </c>
       <c r="X10" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA10" t="n">
         <v>21</v>
       </c>
-      <c r="Y10" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>41</v>
-      </c>
       <c r="AB10" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="AC10" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AD10" t="n">
-        <v>8</v>
+        <v>6.7</v>
       </c>
       <c r="AE10" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AF10" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="AG10" t="n">
-        <v>351</v>
+        <v>400</v>
       </c>
       <c r="AH10" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="AI10" t="n">
-        <v>7.5</v>
+        <v>12.5</v>
       </c>
       <c r="AJ10" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="AK10" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="AL10" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="AM10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN10" t="n">
-        <v>6.5</v>
+        <v>4.65</v>
       </c>
       <c r="AO10" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="AP10" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="AQ10" t="n">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="AR10" t="n">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="AS10" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
       <c r="AU10" t="n">
-        <v>8.5</v>
+        <v>6.8</v>
       </c>
       <c r="AV10" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AW10" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="AX10" t="n">
-        <v>3.6</v>
+        <v>4.35</v>
       </c>
       <c r="AY10" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ10" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="BA10" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="BB10" t="n">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="BC10" t="n">
-        <v>151</v>
+        <v>250</v>
       </c>
       <c r="BD10" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6LuU0bH0</t>
+          <t>SE0BJiEk</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2371,60 +2371,60 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Estrela</t>
+          <t>Olimpia Asuncion</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vitoria Guimaraes</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L11" t="n">
         <v>3.4</v>
       </c>
-      <c r="I11" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="J11" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L11" t="n">
+      <c r="M11" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P11" t="n">
         <v>2.5</v>
       </c>
-      <c r="M11" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N11" t="n">
-        <v>9</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.75</v>
-      </c>
       <c r="Q11" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T11" t="n">
         <v>2.25</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.5</v>
       </c>
       <c r="U11" t="n">
         <v>2.1</v>
@@ -2433,112 +2433,112 @@
         <v>1.67</v>
       </c>
       <c r="W11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X11" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI11" t="n">
         <v>11</v>
       </c>
-      <c r="X11" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA11" t="n">
+      <c r="AJ11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM11" t="n">
         <v>41</v>
       </c>
-      <c r="AB11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AJ11" t="n">
+      <c r="AN11" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU11" t="n">
         <v>9</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>101</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>151</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>401</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>9.5</v>
       </c>
       <c r="AV11" t="n">
         <v>67</v>
       </c>
       <c r="AW11" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="AX11" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="AY11" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="AZ11" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="BA11" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="BB11" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC11" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="BD11" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>EkmPPou9</t>
+          <t>OdKfOPKr</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,47 +2548,47 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Granada CF</t>
+          <t>Sport Huancayo</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>FBC Melgar</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="H12" t="n">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="I12" t="n">
-        <v>3.6</v>
+        <v>1.67</v>
       </c>
       <c r="J12" t="n">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="K12" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O12" t="n">
         <v>1.3</v>
@@ -2609,118 +2609,118 @@
         <v>2.75</v>
       </c>
       <c r="U12" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="W12" t="n">
+        <v>11</v>
+      </c>
+      <c r="X12" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI12" t="n">
         <v>7.5</v>
       </c>
-      <c r="X12" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB12" t="n">
+      <c r="AJ12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM12" t="n">
         <v>29</v>
       </c>
-      <c r="AC12" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL12" t="n">
+      <c r="AN12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AO12" t="n">
         <v>29</v>
       </c>
-      <c r="AM12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>11</v>
-      </c>
       <c r="AP12" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AQ12" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AR12" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="AS12" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="AT12" t="n">
         <v>2.75</v>
       </c>
       <c r="AU12" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV12" t="n">
         <v>51</v>
       </c>
       <c r="AW12" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="AX12" t="n">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="AY12" t="n">
-        <v>19</v>
+        <v>8.5</v>
       </c>
       <c r="AZ12" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA12" t="n">
         <v>29</v>
       </c>
-      <c r="BA12" t="n">
-        <v>67</v>
-      </c>
       <c r="BB12" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BC12" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD12" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>r154fwo3</t>
+          <t>6LuU0bH0</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,172 +2730,536 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Carabobo</t>
+          <t>Estrela</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Estudiantes Merida</t>
+          <t>Vitoria Guimaraes</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.02</v>
+        <v>5</v>
       </c>
       <c r="H13" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="I13" t="n">
-        <v>3.65</v>
+        <v>1.73</v>
       </c>
       <c r="J13" t="n">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="K13" t="n">
         <v>2.05</v>
       </c>
       <c r="L13" t="n">
-        <v>4.1</v>
+        <v>2.4</v>
       </c>
       <c r="M13" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>7.4</v>
+        <v>9</v>
       </c>
       <c r="O13" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="P13" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.02</v>
+        <v>2.25</v>
       </c>
       <c r="R13" t="n">
         <v>1.62</v>
       </c>
       <c r="S13" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="T13" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="U13" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="V13" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="W13" t="n">
-        <v>6.7</v>
+        <v>11</v>
       </c>
       <c r="X13" t="n">
-        <v>9.5</v>
+        <v>23</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="Z13" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="AA13" t="n">
-        <v>17.5</v>
+        <v>41</v>
       </c>
       <c r="AB13" t="n">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="AC13" t="n">
         <v>8</v>
       </c>
       <c r="AD13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>34</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>EkmPPou9</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>27/10/2024</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Granada CF</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N14" t="n">
+        <v>10</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X14" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD14" t="n">
         <v>6</v>
       </c>
-      <c r="AE13" t="n">
+      <c r="AE14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>r154fwo3</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>27/10/2024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>VENEZUELA - LIGA FUTVE</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Carabobo</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Estudiantes Merida</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L15" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N15" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="W15" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="X15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE15" t="n">
         <v>15</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="AF15" t="n">
         <v>75</v>
       </c>
-      <c r="AG13" t="n">
+      <c r="AG15" t="n">
         <v>700</v>
       </c>
-      <c r="AH13" t="n">
+      <c r="AH15" t="n">
         <v>9.5</v>
       </c>
-      <c r="AI13" t="n">
+      <c r="AI15" t="n">
         <v>19.5</v>
       </c>
-      <c r="AJ13" t="n">
+      <c r="AJ15" t="n">
         <v>12.5</v>
       </c>
-      <c r="AK13" t="n">
+      <c r="AK15" t="n">
         <v>55</v>
       </c>
-      <c r="AL13" t="n">
+      <c r="AL15" t="n">
         <v>37</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AM15" t="n">
         <v>45</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AN15" t="n">
         <v>3.85</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AO15" t="n">
         <v>10.25</v>
       </c>
-      <c r="AP13" t="n">
+      <c r="AP15" t="n">
         <v>18.5</v>
       </c>
-      <c r="AQ13" t="n">
+      <c r="AQ15" t="n">
         <v>40</v>
       </c>
-      <c r="AR13" t="n">
+      <c r="AR15" t="n">
         <v>70</v>
       </c>
-      <c r="AS13" t="n">
+      <c r="AS15" t="n">
         <v>250</v>
       </c>
-      <c r="AT13" t="n">
+      <c r="AT15" t="n">
         <v>2.47</v>
       </c>
-      <c r="AU13" t="n">
+      <c r="AU15" t="n">
         <v>6.9</v>
       </c>
-      <c r="AV13" t="n">
+      <c r="AV15" t="n">
         <v>60</v>
       </c>
-      <c r="AW13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX13" t="n">
+      <c r="AW15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX15" t="n">
         <v>5.5</v>
       </c>
-      <c r="AY13" t="n">
+      <c r="AY15" t="n">
         <v>20</v>
       </c>
-      <c r="AZ13" t="n">
+      <c r="AZ15" t="n">
         <v>26</v>
       </c>
-      <c r="BA13" t="n">
+      <c r="BA15" t="n">
         <v>110</v>
       </c>
-      <c r="BB13" t="n">
+      <c r="BB15" t="n">
         <v>150</v>
       </c>
-      <c r="BC13" t="n">
+      <c r="BC15" t="n">
         <v>350</v>
       </c>
-      <c r="BD13" t="n">
+      <c r="BD15" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD10"/>
+  <dimension ref="A1:BD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>dlPoQ4Jm</t>
+          <t>WhxQ83lD</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -738,88 +738,88 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Banfield</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Racing Club</t>
+          <t>Dep. Riestra</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.88</v>
+        <v>1.55</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="I2" t="n">
-        <v>2.63</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="K2" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="L2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N2" t="n">
+        <v>10</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P2" t="n">
         <v>3.4</v>
       </c>
-      <c r="M2" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N2" t="n">
-        <v>8</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.63</v>
-      </c>
       <c r="Q2" t="n">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="R2" t="n">
-        <v>1.53</v>
+        <v>1.75</v>
       </c>
       <c r="S2" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="T2" t="n">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V2" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W2" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="X2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA2" t="n">
         <v>13</v>
       </c>
-      <c r="Y2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z2" t="n">
+      <c r="AB2" t="n">
         <v>29</v>
       </c>
-      <c r="AA2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>41</v>
-      </c>
       <c r="AC2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD2" t="n">
         <v>7</v>
       </c>
-      <c r="AD2" t="n">
-        <v>6</v>
-      </c>
       <c r="AE2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
         <v>67</v>
@@ -828,67 +828,67 @@
         <v>451</v>
       </c>
       <c r="AH2" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AI2" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="AJ2" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AK2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ2" t="n">
         <v>26</v>
       </c>
-      <c r="AL2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ2" t="n">
+      <c r="AR2" t="n">
         <v>51</v>
       </c>
-      <c r="AR2" t="n">
-        <v>81</v>
-      </c>
       <c r="AS2" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="AU2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV2" t="n">
         <v>67</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AY2" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BA2" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BB2" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>WhxQ83lD</t>
+          <t>S0cHoi77</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,179 +910,179 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Guabira</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Dep. Riestra</t>
+          <t>Independiente</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="H3" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I3" t="n">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K3" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N3" t="n">
+        <v>15</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V3" t="n">
         <v>2.2</v>
       </c>
-      <c r="L3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N3" t="n">
-        <v>10</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.67</v>
-      </c>
       <c r="W3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="X3" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="Y3" t="n">
         <v>8.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AA3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE3" t="n">
         <v>13</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AF3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL3" t="n">
         <v>34</v>
       </c>
-      <c r="AC3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI3" t="n">
+      <c r="AM3" t="n">
         <v>34</v>
       </c>
-      <c r="AJ3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>51</v>
-      </c>
       <c r="AN3" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="AO3" t="n">
         <v>8</v>
       </c>
       <c r="AP3" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AQ3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY3" t="n">
         <v>26</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AZ3" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC3" t="n">
         <v>51</v>
       </c>
-      <c r="AS3" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>151</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>401</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>126</v>
-      </c>
       <c r="BD3" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>S0cHoi77</t>
+          <t>neDJngu0</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,179 +1092,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>18:10</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Guabira</t>
+          <t>Dep. Cali</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Independiente</t>
+          <t>Bucaramanga</t>
         </is>
       </c>
       <c r="G4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S4" t="n">
         <v>1.57</v>
       </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N4" t="n">
-        <v>15</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.29</v>
-      </c>
       <c r="T4" t="n">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V4" t="n">
         <v>1.62</v>
       </c>
-      <c r="V4" t="n">
-        <v>2.2</v>
-      </c>
       <c r="W4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="X4" t="n">
         <v>9</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Z4" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AA4" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AB4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX4" t="n">
         <v>21</v>
       </c>
-      <c r="AC4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>26</v>
-      </c>
       <c r="AY4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ4" t="n">
         <v>81</v>
       </c>
       <c r="BA4" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BB4" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="BC4" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD4" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>neDJngu0</t>
+          <t>bT5xl0sp</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>18:10</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Dep. Cali</t>
+          <t>Alebrijes Oaxaca</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Bucaramanga</t>
+          <t>Tepatitlan de Morelos</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.2</v>
+        <v>2.72</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>3.45</v>
       </c>
       <c r="I5" t="n">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="K5" t="n">
-        <v>1.91</v>
+        <v>2.15</v>
       </c>
       <c r="L5" t="n">
-        <v>4.33</v>
+        <v>2.87</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>10.9</v>
       </c>
       <c r="N5" t="n">
-        <v>7</v>
+        <v>1.04</v>
       </c>
       <c r="O5" t="n">
-        <v>1.5</v>
+        <v>1.24</v>
       </c>
       <c r="P5" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.6</v>
+        <v>1.78</v>
       </c>
       <c r="R5" t="n">
-        <v>1.48</v>
+        <v>1.93</v>
       </c>
       <c r="S5" t="n">
-        <v>1.57</v>
+        <v>1.35</v>
       </c>
       <c r="T5" t="n">
-        <v>2.25</v>
+        <v>3.04</v>
       </c>
       <c r="U5" t="n">
-        <v>2.2</v>
+        <v>1.62</v>
       </c>
       <c r="V5" t="n">
-        <v>1.62</v>
+        <v>2.02</v>
       </c>
       <c r="W5" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="X5" t="n">
-        <v>9</v>
+        <v>14.5</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
       </c>
       <c r="Z5" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="AA5" t="n">
         <v>21</v>
       </c>
       <c r="AB5" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="AC5" t="n">
-        <v>6.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="AE5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>18</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>60</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AY5" t="n">
         <v>19</v>
       </c>
-      <c r="AF5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM5" t="n">
+      <c r="AZ5" t="n">
+        <v>45</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>75</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC5" t="n">
         <v>51</v>
       </c>
-      <c r="AN5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>126</v>
-      </c>
       <c r="BD5" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AcSDrwZE</t>
+          <t>ADrxy34l</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,179 +1456,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Barcelona SC</t>
+          <t>U. de Deportes</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Delfin</t>
+          <t>Cienciano</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="H6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>17</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="L6" t="n">
+        <v>11</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N6" t="n">
+        <v>12</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V6" t="n">
         <v>1.5</v>
       </c>
-      <c r="H6" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I6" t="n">
-        <v>7</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L6" t="n">
+      <c r="W6" t="n">
         <v>6.5</v>
       </c>
-      <c r="M6" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W6" t="n">
-        <v>6</v>
-      </c>
       <c r="X6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z6" t="n">
         <v>6.5</v>
       </c>
-      <c r="Y6" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>10</v>
-      </c>
       <c r="AA6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB6" t="n">
         <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AD6" t="n">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="AE6" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AF6" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AG6" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AH6" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AI6" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AJ6" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AK6" t="n">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="AL6" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AM6" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="AO6" t="n">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="AP6" t="n">
         <v>21</v>
       </c>
       <c r="AQ6" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AR6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS6" t="n">
         <v>151</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="AU6" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AV6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW6" t="n">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="AX6" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AY6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ6" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="BA6" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="BB6" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="BC6" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD6" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>bT5xl0sp</t>
+          <t>r154fwo3</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,718 +1638,172 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
+          <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Alebrijes Oaxaca</t>
+          <t>Carabobo</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tepatitlan de Morelos</t>
+          <t>Estudiantes Merida</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.65</v>
+        <v>2.07</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>2.95</v>
       </c>
       <c r="I7" t="n">
-        <v>2.37</v>
+        <v>3.7</v>
       </c>
       <c r="J7" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="K7" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>2.92</v>
+        <v>4.05</v>
       </c>
       <c r="M7" t="n">
-        <v>10.9</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>1.04</v>
+        <v>8.77</v>
       </c>
       <c r="O7" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="P7" t="n">
-        <v>3.25</v>
+        <v>2.67</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.78</v>
+        <v>2.05</v>
       </c>
       <c r="R7" t="n">
-        <v>1.93</v>
+        <v>1.6</v>
       </c>
       <c r="S7" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="T7" t="n">
-        <v>2.99</v>
+        <v>2.47</v>
       </c>
       <c r="U7" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="V7" t="n">
-        <v>2.02</v>
+        <v>1.82</v>
       </c>
       <c r="W7" t="n">
-        <v>9.75</v>
+        <v>6.3</v>
       </c>
       <c r="X7" t="n">
-        <v>14.5</v>
+        <v>9.25</v>
       </c>
       <c r="Y7" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH7" t="n">
         <v>10</v>
       </c>
-      <c r="Z7" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA7" t="n">
+      <c r="AI7" t="n">
         <v>21</v>
       </c>
-      <c r="AB7" t="n">
-        <v>28</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>400</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AJ7" t="n">
-        <v>9.25</v>
+        <v>12</v>
       </c>
       <c r="AK7" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="AL7" t="n">
-        <v>18.5</v>
+        <v>35</v>
       </c>
       <c r="AM7" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.65</v>
+        <v>3.9</v>
       </c>
       <c r="AO7" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AP7" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AQ7" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AR7" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AS7" t="n">
         <v>250</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.85</v>
+        <v>2.45</v>
       </c>
       <c r="AU7" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AV7" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.35</v>
+        <v>5.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AY7" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="AZ7" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="BA7" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="BB7" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>
       </c>
       <c r="BD7" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>SE0BJiEk</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>27/10/2024</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>17:30</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Olimpia Asuncion</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Cerro Porteno</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>3</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X8" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>6LuU0bH0</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>27/10/2024</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>17:30</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Estrela</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Vitoria Guimaraes</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>5</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="J9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N9" t="n">
-        <v>9</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W9" t="n">
-        <v>11</v>
-      </c>
-      <c r="X9" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>101</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>151</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>r154fwo3</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>27/10/2024</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Carabobo</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Estudiantes Merida</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2</v>
-      </c>
-      <c r="L10" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N10" t="n">
-        <v>9.17</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="W10" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="X10" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>70</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>35</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>40</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>45</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>80</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>20</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>24</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>100</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>120</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>300</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD10" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD7"/>
+  <dimension ref="A1:BD9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H2" t="n">
         <v>3.7</v>
@@ -756,7 +756,7 @@
         <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K2" t="n">
         <v>2.2</v>
@@ -765,34 +765,34 @@
         <v>6.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P2" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R2" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S2" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T2" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U2" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W2" t="n">
         <v>6</v>
@@ -807,10 +807,10 @@
         <v>11</v>
       </c>
       <c r="AA2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC2" t="n">
         <v>8.5</v>
@@ -825,7 +825,7 @@
         <v>67</v>
       </c>
       <c r="AG2" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AH2" t="n">
         <v>15</v>
@@ -861,13 +861,13 @@
         <v>51</v>
       </c>
       <c r="AS2" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV2" t="n">
         <v>67</v>
@@ -882,16 +882,16 @@
         <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA2" t="n">
         <v>151</v>
       </c>
       <c r="BB2" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="BC2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD2" t="n">
         <v>151</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H3" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J3" t="n">
         <v>2.2</v>
@@ -959,16 +959,16 @@
         <v>4.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R3" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S3" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U3" t="n">
         <v>1.62</v>
@@ -998,7 +998,7 @@
         <v>15</v>
       </c>
       <c r="AD3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE3" t="n">
         <v>13</v>
@@ -1028,10 +1028,10 @@
         <v>34</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP3" t="n">
         <v>17</v>
@@ -1046,7 +1046,7 @@
         <v>101</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU3" t="n">
         <v>7.5</v>
@@ -1055,7 +1055,7 @@
         <v>41</v>
       </c>
       <c r="AW3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX3" t="n">
         <v>23</v>
@@ -1064,7 +1064,7 @@
         <v>26</v>
       </c>
       <c r="AZ3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA3" t="n">
         <v>81</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>neDJngu0</t>
+          <t>f7k39faE</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,107 +1092,107 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>18:10</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Dep. Cali</t>
+          <t>Wilstermann</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Bucaramanga</t>
+          <t>Nacional Potosi</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
         <v>3.6</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="K4" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="L4" t="n">
         <v>4.33</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
+        <v>9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W4" t="n">
+        <v>7</v>
+      </c>
+      <c r="X4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD4" t="n">
         <v>6.5</v>
       </c>
-      <c r="O4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W4" t="n">
-        <v>6</v>
-      </c>
-      <c r="X4" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y4" t="n">
+      <c r="AE4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH4" t="n">
         <v>10</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>8</v>
       </c>
       <c r="AI4" t="n">
         <v>17</v>
@@ -1204,37 +1204,37 @@
         <v>41</v>
       </c>
       <c r="AL4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN4" t="n">
         <v>4</v>
       </c>
       <c r="AO4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AP4" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AQ4" t="n">
         <v>41</v>
       </c>
       <c r="AR4" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS4" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="AU4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV4" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AW4" t="n">
         <v>5.5</v>
@@ -1243,28 +1243,28 @@
         <v>21</v>
       </c>
       <c r="AY4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ4" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA4" t="n">
         <v>81</v>
       </c>
-      <c r="BA4" t="n">
-        <v>126</v>
-      </c>
       <c r="BB4" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="BC4" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD4" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>bT5xl0sp</t>
+          <t>rN6SpX9C</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:20</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Alebrijes Oaxaca</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tepatitlan de Morelos</t>
+          <t>America De Cali</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.72</v>
+        <v>2.3</v>
       </c>
       <c r="H5" t="n">
-        <v>3.45</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="J5" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K5" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="L5" t="n">
-        <v>2.87</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>10.9</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>1.04</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="P5" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.78</v>
+        <v>2.5</v>
       </c>
       <c r="R5" t="n">
-        <v>1.93</v>
+        <v>1.5</v>
       </c>
       <c r="S5" t="n">
-        <v>1.35</v>
+        <v>1.57</v>
       </c>
       <c r="T5" t="n">
-        <v>3.04</v>
+        <v>2.25</v>
       </c>
       <c r="U5" t="n">
-        <v>1.62</v>
+        <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>2.02</v>
+        <v>1.67</v>
       </c>
       <c r="W5" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="X5" t="n">
-        <v>14.5</v>
+        <v>9.5</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
       </c>
       <c r="Z5" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="AA5" t="n">
         <v>21</v>
       </c>
       <c r="AB5" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>11.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>13</v>
       </c>
-      <c r="AF5" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>350</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>9.25</v>
-      </c>
       <c r="AK5" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AL5" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="AM5" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX5" t="n">
         <v>21</v>
       </c>
-      <c r="AQ5" t="n">
-        <v>60</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>90</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>11.75</v>
-      </c>
       <c r="AY5" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AZ5" t="n">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="BA5" t="n">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="BB5" t="n">
-        <v>250</v>
+        <v>301</v>
       </c>
       <c r="BC5" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD5" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ADrxy34l</t>
+          <t>bT5xl0sp</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,179 +1456,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>U. de Deportes</t>
+          <t>Alebrijes Oaxaca</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Cienciano</t>
+          <t>Tepatitlan de Morelos</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.18</v>
+        <v>2.77</v>
       </c>
       <c r="H6" t="n">
-        <v>6.5</v>
+        <v>3.45</v>
       </c>
       <c r="I6" t="n">
-        <v>17</v>
+        <v>2.27</v>
       </c>
       <c r="J6" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="U6" t="n">
         <v>1.62</v>
       </c>
-      <c r="K6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="L6" t="n">
-        <v>11</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="V6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W6" t="n">
+        <v>10</v>
+      </c>
+      <c r="X6" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI6" t="n">
         <v>12</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>51</v>
-      </c>
       <c r="AJ6" t="n">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="AK6" t="n">
-        <v>201</v>
+        <v>23</v>
       </c>
       <c r="AL6" t="n">
-        <v>101</v>
+        <v>17.5</v>
       </c>
       <c r="AM6" t="n">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="AN6" t="n">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="AO6" t="n">
-        <v>5.5</v>
+        <v>14.5</v>
       </c>
       <c r="AP6" t="n">
         <v>21</v>
       </c>
       <c r="AQ6" t="n">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="AR6" t="n">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="AS6" t="n">
-        <v>151</v>
+        <v>250</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.4</v>
+        <v>2.85</v>
       </c>
       <c r="AU6" t="n">
-        <v>12</v>
+        <v>6.8</v>
       </c>
       <c r="AV6" t="n">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="AW6" t="n">
-        <v>12</v>
+        <v>4.25</v>
       </c>
       <c r="AX6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>45</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>75</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>200</v>
+      </c>
+      <c r="BC6" t="n">
         <v>51</v>
       </c>
-      <c r="AY6" t="n">
+      <c r="BD6" t="n">
         <v>51</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>351</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>351</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>501</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>r154fwo3</t>
+          <t>ADrxy34l</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,172 +1638,536 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>PERU - LIGA 1</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>U. de Deportes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Cienciano</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="H7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="L7" t="n">
+        <v>13</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N7" t="n">
+        <v>12</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>251</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>126</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>351</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>351</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>OCbLu56E</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>27/10/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>USA - MLS</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Orlando City</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Charlotte</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N8" t="n">
+        <v>15</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W8" t="n">
+        <v>9</v>
+      </c>
+      <c r="X8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>451</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>vTbDhHFF</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>27/10/2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Carabobo</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Estudiantes Merida</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>La Guaira</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Monagas</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3</v>
+      </c>
+      <c r="K9" t="n">
         <v>2.07</v>
       </c>
-      <c r="H7" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2</v>
-      </c>
-      <c r="L7" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N7" t="n">
-        <v>8.77</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="W7" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="X7" t="n">
+      <c r="L9" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N9" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="W9" t="n">
+        <v>8</v>
+      </c>
+      <c r="X9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y9" t="n">
         <v>9.25</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Z9" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH9" t="n">
         <v>8.75</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AI9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>24</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP9" t="n">
         <v>19.5</v>
       </c>
-      <c r="AA7" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>70</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI7" t="n">
+      <c r="AQ9" t="n">
+        <v>55</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>80</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY9" t="n">
         <v>21</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>35</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>40</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>45</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>80</v>
-      </c>
-      <c r="AS7" t="n">
+      <c r="AZ9" t="n">
+        <v>65</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>90</v>
+      </c>
+      <c r="BB9" t="n">
         <v>250</v>
       </c>
-      <c r="AT7" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>20</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>24</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>100</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>120</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>300</v>
-      </c>
-      <c r="BC7" t="n">
+      <c r="BC9" t="n">
         <v>51</v>
       </c>
-      <c r="BD7" t="n">
+      <c r="BD9" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD9"/>
+  <dimension ref="A1:BD13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,40 +747,40 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="H2" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="J2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P2" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="R2" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -801,7 +801,7 @@
         <v>6.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z2" t="n">
         <v>11</v>
@@ -813,7 +813,7 @@
         <v>34</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
         <v>7</v>
@@ -828,16 +828,16 @@
         <v>501</v>
       </c>
       <c r="AH2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ2" t="n">
         <v>21</v>
       </c>
       <c r="AK2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL2" t="n">
         <v>51</v>
@@ -849,13 +849,13 @@
         <v>3.4</v>
       </c>
       <c r="AO2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR2" t="n">
         <v>51</v>
@@ -873,7 +873,7 @@
         <v>67</v>
       </c>
       <c r="AW2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AX2" t="n">
         <v>34</v>
@@ -882,7 +882,7 @@
         <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BA2" t="n">
         <v>151</v>
@@ -891,7 +891,7 @@
         <v>401</v>
       </c>
       <c r="BC2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD2" t="n">
         <v>151</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>S0cHoi77</t>
+          <t>h2wM9qZ6</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,110 +910,110 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>21:15</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Guabira</t>
+          <t>Atl. Tucuman</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Independiente</t>
+          <t>Lanus</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="H3" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="K3" t="n">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="L3" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.18</v>
+        <v>1.36</v>
       </c>
       <c r="P3" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R3" t="n">
         <v>1.62</v>
       </c>
-      <c r="R3" t="n">
-        <v>2.25</v>
-      </c>
       <c r="S3" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="T3" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.62</v>
+        <v>2.05</v>
       </c>
       <c r="V3" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="W3" t="n">
+        <v>6</v>
+      </c>
+      <c r="X3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y3" t="n">
         <v>9</v>
-      </c>
-      <c r="X3" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>8.5</v>
       </c>
       <c r="Z3" t="n">
         <v>13</v>
       </c>
       <c r="AA3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>451</v>
+      </c>
+      <c r="AH3" t="n">
         <v>12</v>
       </c>
-      <c r="AB3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>17</v>
-      </c>
       <c r="AI3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ3" t="n">
         <v>17</v>
@@ -1022,67 +1022,67 @@
         <v>51</v>
       </c>
       <c r="AL3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ3" t="n">
         <v>34</v>
       </c>
-      <c r="AM3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>23</v>
-      </c>
       <c r="AR3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS3" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="AU3" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AV3" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AW3" t="n">
         <v>6.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AY3" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BA3" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BB3" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD3" t="n">
         <v>151</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>f7k39faE</t>
+          <t>pdQ7XnRD</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,41 +1092,41 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>21:15</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Wilstermann</t>
+          <t>Talleres Cordoba</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Nacional Potosi</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="K4" t="n">
         <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
@@ -1135,16 +1135,16 @@
         <v>9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="R4" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="S4" t="n">
         <v>1.44</v>
@@ -1153,118 +1153,118 @@
         <v>2.63</v>
       </c>
       <c r="U4" t="n">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="V4" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="W4" t="n">
+        <v>6</v>
+      </c>
+      <c r="X4" t="n">
         <v>7</v>
       </c>
-      <c r="X4" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Y4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO4" t="n">
         <v>9</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>11</v>
       </c>
       <c r="AP4" t="n">
         <v>23</v>
       </c>
       <c r="AQ4" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AR4" t="n">
         <v>51</v>
       </c>
       <c r="AS4" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT4" t="n">
         <v>2.63</v>
       </c>
       <c r="AU4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW4" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AY4" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AZ4" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BA4" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BB4" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="BC4" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD4" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>rN6SpX9C</t>
+          <t>f7k39faE</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,110 +1274,110 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>20:20</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Wilstermann</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>America De Cali</t>
+          <t>Nacional Potosi</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J5" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="K5" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
+        <v>10</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W5" t="n">
         <v>7</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W5" t="n">
-        <v>6</v>
       </c>
       <c r="X5" t="n">
         <v>9.5</v>
       </c>
       <c r="Y5" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH5" t="n">
         <v>10</v>
       </c>
-      <c r="Z5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE5" t="n">
+      <c r="AI5" t="n">
         <v>17</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>15</v>
       </c>
       <c r="AJ5" t="n">
         <v>13</v>
@@ -1386,7 +1386,7 @@
         <v>41</v>
       </c>
       <c r="AL5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM5" t="n">
         <v>41</v>
@@ -1395,58 +1395,58 @@
         <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AP5" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AQ5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR5" t="n">
         <v>51</v>
       </c>
-      <c r="AR5" t="n">
-        <v>81</v>
-      </c>
       <c r="AS5" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="AU5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX5" t="n">
         <v>21</v>
       </c>
       <c r="AY5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ5" t="n">
         <v>67</v>
       </c>
       <c r="BA5" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB5" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="BC5" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD5" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>bT5xl0sp</t>
+          <t>rN6SpX9C</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,179 +1456,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:20</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Alebrijes Oaxaca</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tepatitlan de Morelos</t>
+          <t>America De Cali</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.77</v>
+        <v>2.3</v>
       </c>
       <c r="H6" t="n">
-        <v>3.45</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>2.27</v>
+        <v>3.4</v>
       </c>
       <c r="J6" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="K6" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="L6" t="n">
-        <v>2.82</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>10.9</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>1.04</v>
+        <v>7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="P6" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.78</v>
+        <v>2.5</v>
       </c>
       <c r="R6" t="n">
-        <v>1.93</v>
+        <v>1.5</v>
       </c>
       <c r="S6" t="n">
-        <v>1.35</v>
+        <v>1.57</v>
       </c>
       <c r="T6" t="n">
-        <v>3.04</v>
+        <v>2.25</v>
       </c>
       <c r="U6" t="n">
-        <v>1.62</v>
+        <v>2.1</v>
       </c>
       <c r="V6" t="n">
-        <v>2.05</v>
+        <v>1.67</v>
       </c>
       <c r="W6" t="n">
+        <v>6</v>
+      </c>
+      <c r="X6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y6" t="n">
         <v>10</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Z6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI6" t="n">
         <v>15</v>
       </c>
-      <c r="Y6" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>22</v>
-      </c>
-      <c r="AB6" t="n">
+      <c r="AJ6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP6" t="n">
         <v>29</v>
       </c>
-      <c r="AC6" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>350</v>
-      </c>
-      <c r="AH6" t="n">
+      <c r="AQ6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU6" t="n">
         <v>9</v>
       </c>
-      <c r="AI6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>25</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AP6" t="n">
+      <c r="AV6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX6" t="n">
         <v>21</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>65</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>90</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AY6" t="n">
-        <v>18.5</v>
+        <v>34</v>
       </c>
       <c r="AZ6" t="n">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="BA6" t="n">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="BB6" t="n">
-        <v>200</v>
+        <v>301</v>
       </c>
       <c r="BC6" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD6" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ADrxy34l</t>
+          <t>n9Qd3NMF</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,59 +1638,59 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>U. de Deportes</t>
+          <t>Necaxa</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Cienciano</t>
+          <t>Toluca</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N7" t="n">
+        <v>15</v>
+      </c>
+      <c r="O7" t="n">
         <v>1.18</v>
       </c>
-      <c r="H7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="I7" t="n">
-        <v>15</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="P7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q7" t="n">
         <v>1.62</v>
       </c>
-      <c r="K7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="L7" t="n">
-        <v>13</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N7" t="n">
-        <v>12</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.67</v>
-      </c>
       <c r="R7" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S7" t="n">
         <v>1.3</v>
@@ -1699,109 +1699,109 @@
         <v>3.4</v>
       </c>
       <c r="U7" t="n">
-        <v>2.63</v>
+        <v>1.53</v>
       </c>
       <c r="V7" t="n">
-        <v>1.44</v>
+        <v>2.38</v>
       </c>
       <c r="W7" t="n">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="X7" t="n">
-        <v>5.5</v>
+        <v>17</v>
       </c>
       <c r="Y7" t="n">
         <v>11</v>
       </c>
       <c r="Z7" t="n">
-        <v>6.5</v>
+        <v>29</v>
       </c>
       <c r="AA7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI7" t="n">
         <v>13</v>
       </c>
-      <c r="AB7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>126</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>67</v>
-      </c>
       <c r="AJ7" t="n">
-        <v>41</v>
+        <v>9.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>251</v>
+        <v>21</v>
       </c>
       <c r="AL7" t="n">
-        <v>126</v>
+        <v>17</v>
       </c>
       <c r="AM7" t="n">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="AN7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AO7" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AP7" t="n">
         <v>21</v>
       </c>
       <c r="AQ7" t="n">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="AR7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS7" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AT7" t="n">
         <v>3.4</v>
       </c>
       <c r="AU7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX7" t="n">
         <v>12</v>
       </c>
-      <c r="AV7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>67</v>
-      </c>
       <c r="AY7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA7" t="n">
         <v>51</v>
       </c>
-      <c r="AZ7" t="n">
-        <v>351</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>351</v>
-      </c>
       <c r="BB7" t="n">
-        <v>501</v>
+        <v>101</v>
       </c>
       <c r="BC7" t="n">
-        <v>126</v>
+        <v>401</v>
       </c>
       <c r="BD7" t="n">
         <v>151</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>OCbLu56E</t>
+          <t>KMO411iS</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,41 +1820,41 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>21:06</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>USA - MLS</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Orlando City</t>
+          <t>Juarez</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>Atl. San Luis</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="H8" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>4.5</v>
+        <v>2.63</v>
       </c>
       <c r="J8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K8" t="n">
         <v>2.3</v>
       </c>
-      <c r="K8" t="n">
-        <v>2.38</v>
-      </c>
       <c r="L8" t="n">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M8" t="n">
         <v>1.03</v>
@@ -1863,46 +1863,46 @@
         <v>15</v>
       </c>
       <c r="O8" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P8" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R8" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S8" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T8" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U8" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V8" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="X8" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Z8" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AA8" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AB8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC8" t="n">
         <v>13</v>
@@ -1911,79 +1911,79 @@
         <v>7</v>
       </c>
       <c r="AE8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF8" t="n">
         <v>41</v>
       </c>
       <c r="AG8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI8" t="n">
         <v>15</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AJ8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM8" t="n">
         <v>23</v>
       </c>
-      <c r="AJ8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK8" t="n">
+      <c r="AN8" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR8" t="n">
         <v>51</v>
       </c>
-      <c r="AL8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>41</v>
-      </c>
       <c r="AS8" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV8" t="n">
         <v>41</v>
       </c>
       <c r="AW8" t="n">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY8" t="n">
         <v>21</v>
       </c>
-      <c r="AY8" t="n">
-        <v>26</v>
-      </c>
       <c r="AZ8" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BA8" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC8" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="BD8" t="n">
         <v>151</v>
@@ -1992,182 +1992,910 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>v75yduFk</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>27/10/2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>23:05</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>MEXICO - LIGA MX</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Club America</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ADrxy34l</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>27/10/2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>PERU - LIGA 1</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>U. de Deportes</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Cienciano</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="H10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I10" t="n">
+        <v>13</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L10" t="n">
+        <v>12</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N10" t="n">
+        <v>17</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>201</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>351</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>351</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>OCbLu56E</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>27/10/2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>USA - MLS</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Orlando City</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Charlotte</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N11" t="n">
+        <v>15</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W11" t="n">
+        <v>9</v>
+      </c>
+      <c r="X11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>451</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>E5gL2MF6</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>27/10/2024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>22:45</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>USA - MLS</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Los Angeles FC</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Vancouver Whitecaps</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N12" t="n">
+        <v>17</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W12" t="n">
+        <v>9</v>
+      </c>
+      <c r="X12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>451</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>vTbDhHFF</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>27/10/2024</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>20:30</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>La Guaira</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Monagas</t>
         </is>
       </c>
-      <c r="G9" t="n">
+      <c r="G13" t="n">
         <v>2.47</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H13" t="n">
         <v>3.1</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I13" t="n">
         <v>2.77</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J13" t="n">
         <v>3</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K13" t="n">
         <v>2.07</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L13" t="n">
         <v>3.3</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M13" t="n">
         <v>1.01</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N13" t="n">
         <v>7.8</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O13" t="n">
         <v>1.31</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P13" t="n">
         <v>2.87</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q13" t="n">
         <v>1.91</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R13" t="n">
         <v>1.7</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S13" t="n">
         <v>1.45</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T13" t="n">
         <v>2.37</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U13" t="n">
         <v>1.7</v>
       </c>
-      <c r="V9" t="n">
+      <c r="V13" t="n">
         <v>1.93</v>
       </c>
-      <c r="W9" t="n">
+      <c r="W13" t="n">
         <v>8</v>
       </c>
-      <c r="X9" t="n">
+      <c r="X13" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Y13" t="n">
         <v>9.25</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="Z13" t="n">
         <v>27</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AA13" t="n">
         <v>21</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AB13" t="n">
         <v>30</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AC13" t="n">
         <v>9</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AD13" t="n">
         <v>6</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AE13" t="n">
         <v>13</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AF13" t="n">
         <v>60</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AG13" t="n">
         <v>500</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AH13" t="n">
         <v>8.75</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AI13" t="n">
         <v>14.5</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AJ13" t="n">
         <v>10</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="AK13" t="n">
         <v>35</v>
       </c>
-      <c r="AL9" t="n">
+      <c r="AL13" t="n">
         <v>24</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AM13" t="n">
         <v>32</v>
       </c>
-      <c r="AN9" t="n">
+      <c r="AN13" t="n">
         <v>4.4</v>
       </c>
-      <c r="AO9" t="n">
+      <c r="AO13" t="n">
         <v>13</v>
       </c>
-      <c r="AP9" t="n">
+      <c r="AP13" t="n">
         <v>19.5</v>
       </c>
-      <c r="AQ9" t="n">
+      <c r="AQ13" t="n">
         <v>55</v>
       </c>
-      <c r="AR9" t="n">
+      <c r="AR13" t="n">
         <v>80</v>
       </c>
-      <c r="AS9" t="n">
+      <c r="AS13" t="n">
         <v>250</v>
       </c>
-      <c r="AT9" t="n">
+      <c r="AT13" t="n">
         <v>2.55</v>
       </c>
-      <c r="AU9" t="n">
+      <c r="AU13" t="n">
         <v>6.6</v>
       </c>
-      <c r="AV9" t="n">
+      <c r="AV13" t="n">
         <v>55</v>
       </c>
-      <c r="AW9" t="n">
+      <c r="AW13" t="n">
         <v>4.7</v>
       </c>
-      <c r="AX9" t="n">
+      <c r="AX13" t="n">
         <v>15</v>
       </c>
-      <c r="AY9" t="n">
+      <c r="AY13" t="n">
         <v>21</v>
       </c>
-      <c r="AZ9" t="n">
+      <c r="AZ13" t="n">
         <v>65</v>
       </c>
-      <c r="BA9" t="n">
+      <c r="BA13" t="n">
         <v>90</v>
       </c>
-      <c r="BB9" t="n">
+      <c r="BB13" t="n">
         <v>250</v>
       </c>
-      <c r="BC9" t="n">
+      <c r="BC13" t="n">
         <v>51</v>
       </c>
-      <c r="BD9" t="n">
+      <c r="BD13" t="n">
         <v>51</v>
       </c>
     </row>
